--- a/forms/contact/suspected_case-create.xlsx
+++ b/forms/contact/suspected_case-create.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tija Mbararieny\Research Work\HIDGA Digital Health\Medic CHT Toolkit and Forms\Covid-19 TB Community Testing\config-covid-community-testing\forms\contact\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tija Mbararieny\Research Work\HIDGA Digital Health\CHT Toolkit and Forms\Communty Testing Bodaboda_CHV Test Server_Server 3\community-testing-config-test\forms\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9601" uniqueCount="2626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9600" uniqueCount="2626">
   <si>
     <t>type</t>
   </si>
@@ -12688,10 +12688,10 @@
   <dimension ref="A1:N949"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C80" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C71" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C101" sqref="C101"/>
+      <selection pane="bottomRight" activeCell="A85" sqref="A85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -14721,9 +14721,7 @@
       <c r="C85" s="32" t="s">
         <v>486</v>
       </c>
-      <c r="D85" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="D85" s="3"/>
       <c r="E85" s="3"/>
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
@@ -52504,7 +52502,7 @@
       </c>
       <c r="C2" s="27">
         <f ca="1">NOW()</f>
-        <v>44761.410554166665</v>
+        <v>44839.70024583333</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>216</v>

--- a/forms/contact/suspected_case-create.xlsx
+++ b/forms/contact/suspected_case-create.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tija Mbararieny\Research Work\HIDGA Digital Health\CHT Toolkit and Forms\Communty Testing Bodaboda_CHV Test Server_Server 3\Forms Jane Nov 14 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1BE75C-89B6-47D4-9A49-7C880E8919C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A1BDD3-A8B4-4683-A6AA-7B5D6F1B5418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,17 +20,14 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">survey!$A$1:$N$55</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -41,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3261" uniqueCount="1038">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3262" uniqueCount="1038">
   <si>
     <t>type</t>
   </si>
@@ -8109,7 +8106,7 @@
   <dimension ref="A1:N953"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C83" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="C99" sqref="C99"/>
@@ -10607,7 +10604,9 @@
       <c r="B105" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="C105" s="5"/>
+      <c r="C105" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="D105" s="17"/>
       <c r="E105" s="17"/>
       <c r="F105" s="5" t="s">
@@ -11574,15 +11573,15 @@
     <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <conditionalFormatting sqref="A38:J38 A39:F42 I39:J42 A43:J48 K37:K48 D29:N29 E32:E33 A30:N30 L34:N48 F56:K62 A1:N13 A105:N953 A76:N77 E103:E104 A101:D104 J31:N33 F31:H33 A31:D33 A56:D64 C80:C81 C93 A19:H19 J19:N19 A20:N25 L55:N68 A55:K55 F101:N104 F100:H100 J100:N100 A52:N54 A18:N18 A27:N28 A68:D75 F68:N75 A82:E82 A85:D85 A90:E91 B83:D84 B86:E87 A94:D99 F90:N99 F78:N87 A88:N89">
+  <conditionalFormatting sqref="A38:J38 A39:F42 I39:J42 A43:J48 K37:K48 D29:N29 E32:E33 A30:N30 L34:N48 F56:K62 A1:N13 A76:N77 E103:E104 A101:D104 J31:N33 F31:H33 A31:D33 A56:D64 C80:C81 C93 A19:H19 J19:N19 A20:N25 L55:N68 A55:K55 F101:N104 F100:H100 J100:N100 A52:N54 A18:N18 A27:N28 A68:D75 F68:N75 A82:E82 A85:D85 A90:E91 B83:D84 B86:E87 A94:D99 F90:N99 F78:N87 A88:N89 A105:N953">
     <cfRule type="containsText" dxfId="437" priority="311" operator="containsText" text="calculate"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A38:H38 A39:F42 F34:H37 C23:C24 I34:J48 A43:H48 K37:K48 L34:N48 A1:N13 A22:N22 A23:B25 A28:C28 A32:H33 A56:D59 A62:D64 A60:B61 D60:D61 F56:H62 D23:N25 A105:N953 A76:N77 E103:E104 A101:D104 J31:N33 A31:D31 F31:H31 C60 C80 A20:N20 A55:H55 A17:H17 J17:N17 F101:N104 F100:H100 J100:N100 J19:N19 A19:H19 A52:N54 A18:N18 D27:N28 A27:B28 F71:N75 A69:D75 A65:H68 F69:H70 I55:N70 A82:E82 A85:D85 A90:E91 B83:D84 A94:D99 B86:E86 B87:D87 F78:N86 F90:N99 F87 A88:F89">
+  <conditionalFormatting sqref="A38:H38 A39:F42 F34:H37 C23:C24 I34:J48 A43:H48 K37:K48 L34:N48 A1:N13 A22:N22 A23:B25 A28:C28 A32:H33 A56:D59 A62:D64 A60:B61 D60:D61 F56:H62 D23:N25 A76:N77 E103:E104 A101:D104 J31:N33 A31:D31 F31:H31 C60 C80 A20:N20 A55:H55 A17:H17 J17:N17 F101:N104 F100:H100 J100:N100 J19:N19 A19:H19 A52:N54 A18:N18 D27:N28 A27:B28 F71:N75 A69:D75 A65:H68 F69:H70 I55:N70 A82:E82 A85:D85 A90:E91 B83:D84 A94:D99 B86:E86 B87:D87 F78:N86 F90:N99 F87 A88:F89 A105:N953">
     <cfRule type="expression" dxfId="436" priority="312">
       <formula>AND($A1="begin group", NOT($B1 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A38:J38 A39:F42 I39:J42 A43:J48 K37:K48 L34:N48 D29:N29 E32:E33 A30:N30 F56:J62 A1:N13 A105:N953 A76:N77 E103:E104 A101:D104 J31:N33 F31:H33 A31:D33 A56:D64 C80:C81 C93 A19:H19 J19:N19 A20:N25 K55:N68 A55:J55 F101:N104 F100:H100 J100:N100 A52:N54 A18:N18 A27:N28 A68:D75 F68:N75 A82:E82 A85:D85 A90:E91 B83:D84 B86:E87 A94:D99 F90:N99 F78:N87 A88:N89">
+  <conditionalFormatting sqref="A38:J38 A39:F42 I39:J42 A43:J48 K37:K48 L34:N48 D29:N29 E32:E33 A30:N30 F56:J62 A1:N13 A76:N77 E103:E104 A101:D104 J31:N33 F31:H33 A31:D33 A56:D64 C80:C81 C93 A19:H19 J19:N19 A20:N25 K55:N68 A55:J55 F101:N104 F100:H100 J100:N100 A52:N54 A18:N18 A27:N28 A68:D75 F68:N75 A82:E82 A85:D85 A90:E91 B83:D84 B86:E87 A94:D99 F90:N99 F78:N87 A88:N89 A105:N953">
     <cfRule type="cellIs" dxfId="435" priority="314" operator="equal">
       <formula>"note"</formula>
     </cfRule>
@@ -11592,7 +11591,7 @@
       <formula>AND($I1 = "", $A1 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C13 C22:C24 C31:C48 C80 C20 C52:C60 C17:C18 C62:C77 C94:C953 C82:C92">
+  <conditionalFormatting sqref="C1:C13 C22:C24 C31:C48 C80 C20 C52:C60 C17:C18 C62:C77 C82:C92 C94:C953">
     <cfRule type="expression" dxfId="433" priority="316">
       <formula>AND(AND(NOT($A1 = "end group"), NOT($A1 = "end repeat"), NOT($A1 = "")), $C1 = "")</formula>
     </cfRule>
@@ -11666,7 +11665,7 @@
       <formula>AND(NOT($G1 = ""), $H1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A38:H38 A39:F42 F34:H37 C23:C24 I34:J48 A43:H48 K37:K48 L34:N48 A1:N13 A22:N22 A23:B25 A28:C28 A32:H33 A56:D59 A62:D64 A60:B61 D60:D61 F56:H62 D23:N25 A105:N953 A76:N77 E103:E104 A101:D104 J31:N33 A31:D31 F31:H31 C60 C80 A20:N20 A55:H55 A17:H17 J17:N17 F101:N104 F100:H100 J100:N100 J19:N19 A19:H19 A52:N54 A18:N18 D27:N28 A27:B28 F71:N75 A69:D75 A65:H68 F69:H70 I55:N70 A82:E82 A85:D85 A90:E91 B83:D84 A94:D99 B86:E86 B87:D87 F78:N86 F90:N99 F87 A88:F89">
+  <conditionalFormatting sqref="A38:H38 A39:F42 F34:H37 C23:C24 I34:J48 A43:H48 K37:K48 L34:N48 A1:N13 A22:N22 A23:B25 A28:C28 A32:H33 A56:D59 A62:D64 A60:B61 D60:D61 F56:H62 D23:N25 A76:N77 E103:E104 A101:D104 J31:N33 A31:D31 F31:H31 C60 C80 A20:N20 A55:H55 A17:H17 J17:N17 F101:N104 F100:H100 J100:N100 J19:N19 A19:H19 A52:N54 A18:N18 D27:N28 A27:B28 F71:N75 A69:D75 A65:H68 F69:H70 I55:N70 A82:E82 A85:D85 A90:E91 B83:D84 A94:D99 B86:E86 B87:D87 F78:N86 F90:N99 F87 A88:F89 A105:N953">
     <cfRule type="expression" dxfId="417" priority="333">
       <formula>AND($A1="begin repeat", NOT($B1 = ""))</formula>
     </cfRule>
@@ -13620,7 +13619,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="D90:D110 D2:D89" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="D2:D110" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"yes,no"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -27465,7 +27464,7 @@
       </c>
       <c r="C2" s="24">
         <f ca="1">NOW()</f>
-        <v>44878.952774884259</v>
+        <v>44879.027347106479</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>215</v>

--- a/forms/contact/suspected_case-create.xlsx
+++ b/forms/contact/suspected_case-create.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tija Mbararieny\Research Work\HIDGA Digital Health\CHT Toolkit and Forms\Devolved Community Testing\Communty Testing Bodaboda_CHV Test Server_Server 3\community-testing-config-test\forms\contact\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478F6B36-E08C-451D-9CD6-43BD7CA90C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DBEA44E-96CF-480B-A638-6CCA155C6360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,14 +20,17 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">survey!$A$1:$N$55</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3280" uniqueCount="1039">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3296" uniqueCount="1043">
   <si>
     <t>type</t>
   </si>
@@ -3155,6 +3158,18 @@
   </si>
   <si>
     <t>Bofu</t>
+  </si>
+  <si>
+    <t>Port Reitz</t>
+  </si>
+  <si>
+    <t>Vikwatani CGTRH</t>
+  </si>
+  <si>
+    <t>Mlaleo Health Centre (Magogoni)</t>
+  </si>
+  <si>
+    <t>Mlaleo Health Centre (Mjambere)</t>
   </si>
 </sst>
 </file>
@@ -3365,7 +3380,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -3476,7 +3491,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -12767,11 +12781,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Y965"/>
+  <dimension ref="A1:Y967"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C118" sqref="C118"/>
+      <pane ySplit="1" topLeftCell="A746" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B768" sqref="B768"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -14005,7 +14019,7 @@
       <c r="B40" s="21" t="s">
         <v>1030</v>
       </c>
-      <c r="C40" s="52" t="s">
+      <c r="C40" s="12" t="s">
         <v>1031</v>
       </c>
       <c r="D40" s="20"/>
@@ -14165,7 +14179,7 @@
       <c r="B45" s="21" t="s">
         <v>1024</v>
       </c>
-      <c r="C45" s="52" t="s">
+      <c r="C45" s="12" t="s">
         <v>1023</v>
       </c>
       <c r="D45" s="42"/>
@@ -23499,7 +23513,7 @@
         <v>913</v>
       </c>
       <c r="F684" s="49" t="s">
-        <v>646</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="685" spans="1:6" x14ac:dyDescent="0.25">
@@ -23513,7 +23527,7 @@
         <v>914</v>
       </c>
       <c r="F685" s="49" t="s">
-        <v>646</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="686" spans="1:6" x14ac:dyDescent="0.25">
@@ -23527,7 +23541,7 @@
         <v>915</v>
       </c>
       <c r="F686" s="49" t="s">
-        <v>646</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="687" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -23573,143 +23587,143 @@
       <c r="C691" s="50"/>
       <c r="F691" s="50"/>
     </row>
-    <row r="692" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B692" s="50"/>
-      <c r="C692" s="50"/>
-      <c r="F692" s="50"/>
-    </row>
-    <row r="693" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A693" t="s">
-        <v>308</v>
-      </c>
-      <c r="B693" s="49" t="s">
-        <v>918</v>
-      </c>
-      <c r="C693" s="49" t="s">
-        <v>918</v>
-      </c>
-      <c r="F693" s="49" t="s">
-        <v>648</v>
-      </c>
+    <row r="692" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A692" t="s">
+        <v>308</v>
+      </c>
+      <c r="B692" s="49" t="s">
+        <v>917</v>
+      </c>
+      <c r="C692" s="49" t="s">
+        <v>917</v>
+      </c>
+      <c r="F692" s="49" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="693" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B693" s="50"/>
+      <c r="C693" s="50"/>
+      <c r="F693" s="50"/>
     </row>
     <row r="694" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
         <v>308</v>
       </c>
       <c r="B694" s="49" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C694" s="49" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="F694" s="49" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="695" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B695" s="50"/>
-      <c r="C695" s="50"/>
-      <c r="F695" s="50"/>
-    </row>
-    <row r="696" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A696" t="s">
-        <v>308</v>
-      </c>
-      <c r="B696" s="49" t="s">
+    <row r="695" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A695" t="s">
+        <v>308</v>
+      </c>
+      <c r="B695" s="49" t="s">
+        <v>919</v>
+      </c>
+      <c r="C695" s="49" t="s">
+        <v>919</v>
+      </c>
+      <c r="F695" s="49" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="696" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B696" s="50"/>
+      <c r="C696" s="50"/>
+      <c r="F696" s="50"/>
+    </row>
+    <row r="697" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A697" t="s">
+        <v>308</v>
+      </c>
+      <c r="B697" s="49" t="s">
         <v>920</v>
       </c>
-      <c r="C696" s="49" t="s">
+      <c r="C697" s="49" t="s">
         <v>920</v>
       </c>
-      <c r="F696" s="49" t="s">
+      <c r="F697" s="49" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="697" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B697" s="50"/>
-      <c r="C697" s="50"/>
-      <c r="F697" s="50"/>
-    </row>
-    <row r="698" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A698" t="s">
-        <v>308</v>
-      </c>
-      <c r="B698" s="49" t="s">
-        <v>921</v>
-      </c>
-      <c r="C698" s="49" t="s">
-        <v>921</v>
-      </c>
-      <c r="F698" s="49" t="s">
-        <v>650</v>
-      </c>
+    <row r="698" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B698" s="50"/>
+      <c r="C698" s="50"/>
+      <c r="F698" s="50"/>
     </row>
     <row r="699" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
         <v>308</v>
       </c>
       <c r="B699" s="49" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C699" s="49" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F699" s="49" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="700" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B700" s="50"/>
-      <c r="C700" s="50"/>
-      <c r="F700" s="50"/>
+    <row r="700" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A700" t="s">
+        <v>308</v>
+      </c>
+      <c r="B700" s="49" t="s">
+        <v>922</v>
+      </c>
+      <c r="C700" s="49" t="s">
+        <v>922</v>
+      </c>
+      <c r="F700" s="49" t="s">
+        <v>650</v>
+      </c>
     </row>
     <row r="701" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B701" s="50"/>
       <c r="C701" s="50"/>
       <c r="F701" s="50"/>
     </row>
-    <row r="702" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A702" t="s">
-        <v>308</v>
-      </c>
-      <c r="B702" s="49" t="s">
+    <row r="702" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B702" s="50"/>
+      <c r="C702" s="50"/>
+      <c r="F702" s="50"/>
+    </row>
+    <row r="703" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A703" t="s">
+        <v>308</v>
+      </c>
+      <c r="B703" s="49" t="s">
         <v>923</v>
       </c>
-      <c r="C702" s="49" t="s">
+      <c r="C703" s="49" t="s">
         <v>923</v>
       </c>
-      <c r="F702" s="49" t="s">
+      <c r="F703" s="49" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="703" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B703" s="50"/>
-      <c r="C703" s="50"/>
-      <c r="F703" s="50"/>
-    </row>
-    <row r="704" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A704" t="s">
-        <v>308</v>
-      </c>
-      <c r="B704" s="49" t="s">
-        <v>924</v>
-      </c>
-      <c r="C704" s="49" t="s">
-        <v>924</v>
-      </c>
-      <c r="F704" s="49" t="s">
-        <v>652</v>
-      </c>
+    <row r="704" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B704" s="50"/>
+      <c r="C704" s="50"/>
+      <c r="F704" s="50"/>
     </row>
     <row r="705" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
         <v>308</v>
       </c>
       <c r="B705" s="49" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="C705" s="49" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="F705" s="49" t="s">
         <v>652</v>
@@ -23720,43 +23734,43 @@
         <v>308</v>
       </c>
       <c r="B706" s="49" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="C706" s="49" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="F706" s="49" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="707" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B707" s="50"/>
-      <c r="C707" s="50"/>
-      <c r="F707" s="50"/>
-    </row>
-    <row r="708" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A708" t="s">
-        <v>308</v>
-      </c>
-      <c r="B708" s="49" t="s">
-        <v>927</v>
-      </c>
-      <c r="C708" s="49" t="s">
-        <v>927</v>
-      </c>
-      <c r="F708" s="49" t="s">
-        <v>653</v>
-      </c>
+    <row r="707" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A707" t="s">
+        <v>308</v>
+      </c>
+      <c r="B707" s="49" t="s">
+        <v>926</v>
+      </c>
+      <c r="C707" s="49" t="s">
+        <v>926</v>
+      </c>
+      <c r="F707" s="49" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="708" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B708" s="50"/>
+      <c r="C708" s="50"/>
+      <c r="F708" s="50"/>
     </row>
     <row r="709" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
         <v>308</v>
       </c>
       <c r="B709" s="49" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="C709" s="49" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="F709" s="49" t="s">
         <v>653</v>
@@ -23767,10 +23781,10 @@
         <v>308</v>
       </c>
       <c r="B710" s="49" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C710" s="49" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="F710" s="49" t="s">
         <v>653</v>
@@ -23781,19 +23795,28 @@
         <v>308</v>
       </c>
       <c r="B711" s="49" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C711" s="49" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="F711" s="49" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="712" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B712" s="50"/>
-      <c r="C712" s="50"/>
-      <c r="F712" s="50"/>
+    <row r="712" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A712" t="s">
+        <v>308</v>
+      </c>
+      <c r="B712" s="49" t="s">
+        <v>930</v>
+      </c>
+      <c r="C712" s="49" t="s">
+        <v>930</v>
+      </c>
+      <c r="F712" s="49" t="s">
+        <v>653</v>
+      </c>
     </row>
     <row r="713" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B713" s="50"/>
@@ -23805,38 +23828,29 @@
         <v>308</v>
       </c>
       <c r="B714" s="49" t="s">
-        <v>931</v>
+        <v>1040</v>
       </c>
       <c r="C714" s="49" t="s">
-        <v>931</v>
+        <v>1040</v>
       </c>
       <c r="F714" s="49" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="715" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A715" t="s">
-        <v>308</v>
-      </c>
-      <c r="B715" s="49" t="s">
-        <v>932</v>
-      </c>
-      <c r="C715" s="49" t="s">
-        <v>932</v>
-      </c>
-      <c r="F715" s="49" t="s">
-        <v>654</v>
-      </c>
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="715" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B715" s="50"/>
+      <c r="C715" s="50"/>
+      <c r="F715" s="50"/>
     </row>
     <row r="716" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
         <v>308</v>
       </c>
       <c r="B716" s="49" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="C716" s="49" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="F716" s="49" t="s">
         <v>654</v>
@@ -23847,32 +23861,41 @@
         <v>308</v>
       </c>
       <c r="B717" s="49" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="C717" s="49" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="F717" s="49" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="718" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B718" s="50"/>
-      <c r="C718" s="50"/>
-      <c r="F718" s="50"/>
+    <row r="718" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A718" t="s">
+        <v>308</v>
+      </c>
+      <c r="B718" s="49" t="s">
+        <v>933</v>
+      </c>
+      <c r="C718" s="49" t="s">
+        <v>933</v>
+      </c>
+      <c r="F718" s="49" t="s">
+        <v>654</v>
+      </c>
     </row>
     <row r="719" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
         <v>308</v>
       </c>
       <c r="B719" s="49" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C719" s="49" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F719" s="49" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="720" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -23885,123 +23908,114 @@
         <v>308</v>
       </c>
       <c r="B721" s="49" t="s">
+        <v>935</v>
+      </c>
+      <c r="C721" s="49" t="s">
+        <v>935</v>
+      </c>
+      <c r="F721" s="49" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="722" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B722" s="50"/>
+      <c r="C722" s="50"/>
+      <c r="F722" s="50"/>
+    </row>
+    <row r="723" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A723" t="s">
+        <v>308</v>
+      </c>
+      <c r="B723" s="49" t="s">
         <v>936</v>
       </c>
-      <c r="C721" s="49" t="s">
+      <c r="C723" s="49" t="s">
         <v>936</v>
       </c>
-      <c r="F721" s="49" t="s">
+      <c r="F723" s="49" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="722" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A722" t="s">
-        <v>308</v>
-      </c>
-      <c r="B722" s="49" t="s">
+    <row r="724" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A724" t="s">
+        <v>308</v>
+      </c>
+      <c r="B724" s="49" t="s">
         <v>937</v>
       </c>
-      <c r="C722" s="49" t="s">
+      <c r="C724" s="49" t="s">
         <v>937</v>
       </c>
-      <c r="F722" s="49" t="s">
+      <c r="F724" s="49" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="723" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B723" s="50"/>
-      <c r="C723" s="50"/>
-      <c r="F723" s="50"/>
-    </row>
-    <row r="724" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B724" s="50"/>
-      <c r="C724" s="50"/>
-      <c r="F724" s="50"/>
-    </row>
-    <row r="725" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A725" t="s">
-        <v>308</v>
-      </c>
-      <c r="B725" s="49" t="s">
-        <v>938</v>
-      </c>
-      <c r="C725" s="49" t="s">
-        <v>938</v>
-      </c>
-      <c r="F725" s="49" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="726" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A726" t="s">
-        <v>308</v>
-      </c>
-      <c r="B726" s="49" t="s">
-        <v>939</v>
-      </c>
-      <c r="C726" s="49" t="s">
-        <v>939</v>
-      </c>
-      <c r="F726" s="49" t="s">
-        <v>657</v>
-      </c>
+    <row r="725" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B725" s="50"/>
+      <c r="C725" s="50"/>
+      <c r="F725" s="50"/>
+    </row>
+    <row r="726" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B726" s="50"/>
+      <c r="C726" s="50"/>
+      <c r="F726" s="50"/>
     </row>
     <row r="727" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
         <v>308</v>
       </c>
       <c r="B727" s="49" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="C727" s="49" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="F727" s="49" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="728" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B728" s="50"/>
-      <c r="C728" s="50"/>
-      <c r="F728" s="50"/>
+    <row r="728" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A728" t="s">
+        <v>308</v>
+      </c>
+      <c r="B728" s="49" t="s">
+        <v>939</v>
+      </c>
+      <c r="C728" s="49" t="s">
+        <v>939</v>
+      </c>
+      <c r="F728" s="49" t="s">
+        <v>657</v>
+      </c>
     </row>
     <row r="729" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
         <v>308</v>
       </c>
       <c r="B729" s="49" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="C729" s="49" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F729" s="49" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="730" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A730" t="s">
-        <v>308</v>
-      </c>
-      <c r="B730" s="49" t="s">
-        <v>942</v>
-      </c>
-      <c r="C730" s="49" t="s">
-        <v>942</v>
-      </c>
-      <c r="F730" s="49" t="s">
-        <v>658</v>
-      </c>
+        <v>657</v>
+      </c>
+    </row>
+    <row r="730" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B730" s="50"/>
+      <c r="C730" s="50"/>
+      <c r="F730" s="50"/>
     </row>
     <row r="731" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
         <v>308</v>
       </c>
       <c r="B731" s="49" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="C731" s="49" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="F731" s="49" t="s">
         <v>658</v>
@@ -24012,57 +24026,57 @@
         <v>308</v>
       </c>
       <c r="B732" s="49" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="C732" s="49" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="F732" s="49" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="733" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B733" s="50"/>
-      <c r="C733" s="50"/>
-      <c r="F733" s="50"/>
+    <row r="733" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A733" t="s">
+        <v>308</v>
+      </c>
+      <c r="B733" s="49" t="s">
+        <v>943</v>
+      </c>
+      <c r="C733" s="49" t="s">
+        <v>943</v>
+      </c>
+      <c r="F733" s="49" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="734" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
         <v>308</v>
       </c>
       <c r="B734" s="49" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C734" s="49" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="F734" s="49" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="735" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A735" t="s">
-        <v>308</v>
-      </c>
-      <c r="B735" s="49" t="s">
-        <v>946</v>
-      </c>
-      <c r="C735" s="49" t="s">
-        <v>946</v>
-      </c>
-      <c r="F735" s="49" t="s">
-        <v>659</v>
-      </c>
+        <v>658</v>
+      </c>
+    </row>
+    <row r="735" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B735" s="50"/>
+      <c r="C735" s="50"/>
+      <c r="F735" s="50"/>
     </row>
     <row r="736" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
         <v>308</v>
       </c>
       <c r="B736" s="49" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="C736" s="49" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="F736" s="49" t="s">
         <v>659</v>
@@ -24073,10 +24087,10 @@
         <v>308</v>
       </c>
       <c r="B737" s="49" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="C737" s="49" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="F737" s="49" t="s">
         <v>659</v>
@@ -24087,104 +24101,104 @@
         <v>308</v>
       </c>
       <c r="B738" s="49" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="C738" s="49" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="F738" s="49" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="739" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B739" s="50"/>
-      <c r="C739" s="50"/>
-      <c r="F739" s="50"/>
+    <row r="739" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A739" t="s">
+        <v>308</v>
+      </c>
+      <c r="B739" s="49" t="s">
+        <v>948</v>
+      </c>
+      <c r="C739" s="49" t="s">
+        <v>948</v>
+      </c>
+      <c r="F739" s="49" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="740" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
         <v>308</v>
       </c>
       <c r="B740" s="49" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C740" s="49" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="F740" s="49" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="741" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A741" t="s">
-        <v>308</v>
-      </c>
-      <c r="B741" s="49" t="s">
-        <v>951</v>
-      </c>
-      <c r="C741" s="49" t="s">
-        <v>951</v>
-      </c>
-      <c r="F741" s="49" t="s">
-        <v>660</v>
-      </c>
+        <v>659</v>
+      </c>
+    </row>
+    <row r="741" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B741" s="50"/>
+      <c r="C741" s="50"/>
+      <c r="F741" s="50"/>
     </row>
     <row r="742" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
         <v>308</v>
       </c>
       <c r="B742" s="49" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="C742" s="49" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="F742" s="49" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="743" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B743" s="50"/>
-      <c r="C743" s="50"/>
-      <c r="F743" s="50"/>
+    <row r="743" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A743" t="s">
+        <v>308</v>
+      </c>
+      <c r="B743" s="49" t="s">
+        <v>951</v>
+      </c>
+      <c r="C743" s="49" t="s">
+        <v>951</v>
+      </c>
+      <c r="F743" s="49" t="s">
+        <v>660</v>
+      </c>
     </row>
     <row r="744" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
         <v>308</v>
       </c>
       <c r="B744" s="49" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C744" s="49" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="F744" s="49" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="745" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A745" t="s">
-        <v>308</v>
-      </c>
-      <c r="B745" s="49" t="s">
-        <v>954</v>
-      </c>
-      <c r="C745" s="49" t="s">
-        <v>954</v>
-      </c>
-      <c r="F745" s="49" t="s">
-        <v>661</v>
-      </c>
+        <v>660</v>
+      </c>
+    </row>
+    <row r="745" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B745" s="50"/>
+      <c r="C745" s="50"/>
+      <c r="F745" s="50"/>
     </row>
     <row r="746" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
         <v>308</v>
       </c>
       <c r="B746" s="49" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="C746" s="49" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="F746" s="49" t="s">
         <v>661</v>
@@ -24195,89 +24209,107 @@
         <v>308</v>
       </c>
       <c r="B747" s="49" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="C747" s="49" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="F747" s="49" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="748" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B748" s="50"/>
-      <c r="C748" s="50"/>
-      <c r="F748" s="50"/>
-    </row>
-    <row r="749" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B749" s="50"/>
-      <c r="C749" s="50"/>
-      <c r="F749" s="50"/>
+    <row r="748" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A748" t="s">
+        <v>308</v>
+      </c>
+      <c r="B748" s="49" t="s">
+        <v>955</v>
+      </c>
+      <c r="C748" s="49" t="s">
+        <v>955</v>
+      </c>
+      <c r="F748" s="49" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="749" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A749" t="s">
+        <v>308</v>
+      </c>
+      <c r="B749" s="49" t="s">
+        <v>956</v>
+      </c>
+      <c r="C749" s="49" t="s">
+        <v>956</v>
+      </c>
+      <c r="F749" s="49" t="s">
+        <v>661</v>
+      </c>
     </row>
     <row r="750" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A750" t="s">
-        <v>308</v>
-      </c>
-      <c r="B750" s="49" t="s">
-        <v>957</v>
-      </c>
-      <c r="C750" s="49" t="s">
-        <v>957</v>
-      </c>
-      <c r="F750" s="49" t="s">
-        <v>662</v>
-      </c>
+      <c r="B750" s="49"/>
+      <c r="C750" s="49"/>
+      <c r="F750" s="49"/>
     </row>
     <row r="751" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
         <v>308</v>
       </c>
       <c r="B751" s="49" t="s">
-        <v>958</v>
+        <v>1041</v>
       </c>
       <c r="C751" s="49" t="s">
-        <v>958</v>
+        <v>1041</v>
       </c>
       <c r="F751" s="49" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="752" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A752" t="s">
+        <v>308</v>
+      </c>
+      <c r="B752" s="49" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C752" s="49" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F752" s="49" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="753" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B753" s="50"/>
+      <c r="C753" s="50"/>
+      <c r="F753" s="49"/>
+    </row>
+    <row r="754" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A754" t="s">
+        <v>308</v>
+      </c>
+      <c r="B754" s="49" t="s">
+        <v>957</v>
+      </c>
+      <c r="C754" s="49" t="s">
+        <v>957</v>
+      </c>
+      <c r="F754" s="49" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="752" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B752" s="50"/>
-      <c r="C752" s="50"/>
-      <c r="F752" s="50"/>
-    </row>
-    <row r="753" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A753" t="s">
-        <v>308</v>
-      </c>
-      <c r="B753" s="49" t="s">
-        <v>959</v>
-      </c>
-      <c r="C753" s="49" t="s">
-        <v>959</v>
-      </c>
-      <c r="F753" s="49" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="754" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B754" s="50"/>
-      <c r="C754" s="50"/>
-      <c r="F754" s="50"/>
     </row>
     <row r="755" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
         <v>308</v>
       </c>
       <c r="B755" s="49" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="C755" s="49" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="F755" s="49" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="756" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -24290,119 +24322,119 @@
         <v>308</v>
       </c>
       <c r="B757" s="49" t="s">
+        <v>959</v>
+      </c>
+      <c r="C757" s="49" t="s">
+        <v>959</v>
+      </c>
+      <c r="F757" s="49" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="758" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B758" s="50"/>
+      <c r="C758" s="50"/>
+      <c r="F758" s="50"/>
+    </row>
+    <row r="759" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A759" t="s">
+        <v>308</v>
+      </c>
+      <c r="B759" s="49" t="s">
+        <v>960</v>
+      </c>
+      <c r="C759" s="49" t="s">
+        <v>960</v>
+      </c>
+      <c r="F759" s="49" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="760" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B760" s="50"/>
+      <c r="C760" s="50"/>
+      <c r="F760" s="50"/>
+    </row>
+    <row r="761" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A761" t="s">
+        <v>308</v>
+      </c>
+      <c r="B761" s="49" t="s">
         <v>961</v>
       </c>
-      <c r="C757" s="49" t="s">
+      <c r="C761" s="49" t="s">
         <v>961</v>
       </c>
-      <c r="F757" s="49" t="s">
+      <c r="F761" s="49" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="758" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A758" t="s">
-        <v>308</v>
-      </c>
-      <c r="B758" s="49" t="s">
+    <row r="762" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A762" t="s">
+        <v>308</v>
+      </c>
+      <c r="B762" s="49" t="s">
         <v>962</v>
       </c>
-      <c r="C758" s="49" t="s">
+      <c r="C762" s="49" t="s">
         <v>962</v>
       </c>
-      <c r="F758" s="49" t="s">
+      <c r="F762" s="49" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="759" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B759" s="50"/>
-      <c r="C759" s="50"/>
-      <c r="F759" s="50"/>
-    </row>
-    <row r="760" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A760" t="s">
-        <v>308</v>
-      </c>
-      <c r="B760" s="49" t="s">
-        <v>963</v>
-      </c>
-      <c r="C760" s="49" t="s">
-        <v>963</v>
-      </c>
-      <c r="F760" s="49" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="761" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B761" s="49"/>
-      <c r="C761" s="49"/>
-      <c r="F761" s="49"/>
-    </row>
-    <row r="762" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B762" s="49"/>
-      <c r="C762" s="49"/>
-      <c r="F762" s="49"/>
-    </row>
-    <row r="763" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B763" s="49"/>
-      <c r="C763" s="49"/>
-      <c r="F763" s="49"/>
+    <row r="763" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B763" s="50"/>
+      <c r="C763" s="50"/>
+      <c r="F763" s="50"/>
     </row>
     <row r="764" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
         <v>308</v>
       </c>
       <c r="B764" s="49" t="s">
-        <v>427</v>
+        <v>963</v>
       </c>
       <c r="C764" s="49" t="s">
-        <v>427</v>
+        <v>963</v>
       </c>
       <c r="F764" s="49" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="765" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B765" s="50"/>
-      <c r="C765" s="50"/>
-      <c r="F765" s="50"/>
+        <v>666</v>
+      </c>
+    </row>
+    <row r="765" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B765" s="49"/>
+      <c r="C765" s="49"/>
+      <c r="F765" s="49"/>
     </row>
     <row r="766" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
         <v>308</v>
       </c>
       <c r="B766" s="49" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="C766" s="49" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="F766" s="49" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="767" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A767" t="s">
-        <v>308</v>
-      </c>
-      <c r="B767" s="49" t="s">
-        <v>964</v>
-      </c>
-      <c r="C767" s="49" t="s">
-        <v>964</v>
-      </c>
-      <c r="F767" s="49" t="s">
-        <v>668</v>
-      </c>
+        <v>667</v>
+      </c>
+    </row>
+    <row r="767" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B767" s="50"/>
+      <c r="C767" s="50"/>
+      <c r="F767" s="50"/>
     </row>
     <row r="768" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A768" t="s">
         <v>308</v>
       </c>
       <c r="B768" s="49" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C768" s="49" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="F768" s="49" t="s">
         <v>668</v>
@@ -24413,10 +24445,10 @@
         <v>308</v>
       </c>
       <c r="B769" s="49" t="s">
-        <v>424</v>
+        <v>964</v>
       </c>
       <c r="C769" s="49" t="s">
-        <v>424</v>
+        <v>964</v>
       </c>
       <c r="F769" s="49" t="s">
         <v>668</v>
@@ -24427,10 +24459,10 @@
         <v>308</v>
       </c>
       <c r="B770" s="49" t="s">
-        <v>470</v>
+        <v>416</v>
       </c>
       <c r="C770" s="49" t="s">
-        <v>470</v>
+        <v>416</v>
       </c>
       <c r="F770" s="49" t="s">
         <v>668</v>
@@ -24441,10 +24473,10 @@
         <v>308</v>
       </c>
       <c r="B771" s="49" t="s">
-        <v>965</v>
+        <v>424</v>
       </c>
       <c r="C771" s="49" t="s">
-        <v>965</v>
+        <v>424</v>
       </c>
       <c r="F771" s="49" t="s">
         <v>668</v>
@@ -24455,38 +24487,47 @@
         <v>308</v>
       </c>
       <c r="B772" s="49" t="s">
-        <v>966</v>
+        <v>470</v>
       </c>
       <c r="C772" s="49" t="s">
-        <v>966</v>
+        <v>470</v>
       </c>
       <c r="F772" s="49" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="773" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B773" s="50"/>
-      <c r="C773" s="50"/>
-      <c r="F773" s="50"/>
-    </row>
-    <row r="774" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B774" s="50"/>
-      <c r="C774" s="50"/>
-      <c r="F774" s="50"/>
-    </row>
-    <row r="775" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A775" t="s">
-        <v>308</v>
-      </c>
-      <c r="B775" s="49" t="s">
-        <v>463</v>
-      </c>
-      <c r="C775" s="49" t="s">
-        <v>463</v>
-      </c>
-      <c r="F775" s="49" t="s">
-        <v>669</v>
-      </c>
+    <row r="773" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A773" t="s">
+        <v>308</v>
+      </c>
+      <c r="B773" s="49" t="s">
+        <v>965</v>
+      </c>
+      <c r="C773" s="49" t="s">
+        <v>965</v>
+      </c>
+      <c r="F773" s="49" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="774" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A774" t="s">
+        <v>308</v>
+      </c>
+      <c r="B774" s="49" t="s">
+        <v>966</v>
+      </c>
+      <c r="C774" s="49" t="s">
+        <v>966</v>
+      </c>
+      <c r="F774" s="49" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="775" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B775" s="50"/>
+      <c r="C775" s="50"/>
+      <c r="F775" s="50"/>
     </row>
     <row r="776" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B776" s="50"/>
@@ -24498,60 +24539,60 @@
         <v>308</v>
       </c>
       <c r="B777" s="49" t="s">
-        <v>445</v>
+        <v>463</v>
       </c>
       <c r="C777" s="49" t="s">
-        <v>445</v>
+        <v>463</v>
       </c>
       <c r="F777" s="49" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="778" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A778" t="s">
-        <v>308</v>
-      </c>
-      <c r="B778" s="49" t="s">
-        <v>442</v>
-      </c>
-      <c r="C778" s="49" t="s">
-        <v>442</v>
-      </c>
-      <c r="F778" s="49" t="s">
-        <v>670</v>
-      </c>
+        <v>669</v>
+      </c>
+    </row>
+    <row r="778" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B778" s="50"/>
+      <c r="C778" s="50"/>
+      <c r="F778" s="50"/>
     </row>
     <row r="779" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A779" t="s">
         <v>308</v>
       </c>
       <c r="B779" s="49" t="s">
-        <v>414</v>
+        <v>445</v>
       </c>
       <c r="C779" s="49" t="s">
-        <v>414</v>
+        <v>445</v>
       </c>
       <c r="F779" s="49" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="780" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B780" s="50"/>
-      <c r="C780" s="50"/>
-      <c r="F780" s="50"/>
+    <row r="780" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A780" t="s">
+        <v>308</v>
+      </c>
+      <c r="B780" s="49" t="s">
+        <v>442</v>
+      </c>
+      <c r="C780" s="49" t="s">
+        <v>442</v>
+      </c>
+      <c r="F780" s="49" t="s">
+        <v>670</v>
+      </c>
     </row>
     <row r="781" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A781" t="s">
         <v>308</v>
       </c>
       <c r="B781" s="49" t="s">
-        <v>469</v>
+        <v>414</v>
       </c>
       <c r="C781" s="49" t="s">
-        <v>469</v>
+        <v>414</v>
       </c>
       <c r="F781" s="49" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="782" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -24559,86 +24600,77 @@
       <c r="C782" s="50"/>
       <c r="F782" s="50"/>
     </row>
-    <row r="783" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B783" s="50"/>
-      <c r="C783" s="50"/>
-      <c r="F783" s="50"/>
-    </row>
-    <row r="784" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A784" t="s">
-        <v>308</v>
-      </c>
-      <c r="B784" s="49" t="s">
+    <row r="783" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A783" t="s">
+        <v>308</v>
+      </c>
+      <c r="B783" s="49" t="s">
+        <v>469</v>
+      </c>
+      <c r="C783" s="49" t="s">
+        <v>469</v>
+      </c>
+      <c r="F783" s="49" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="784" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B784" s="50"/>
+      <c r="C784" s="50"/>
+      <c r="F784" s="50"/>
+    </row>
+    <row r="785" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B785" s="50"/>
+      <c r="C785" s="50"/>
+      <c r="F785" s="50"/>
+    </row>
+    <row r="786" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A786" t="s">
+        <v>308</v>
+      </c>
+      <c r="B786" s="49" t="s">
         <v>435</v>
       </c>
-      <c r="C784" s="49" t="s">
+      <c r="C786" s="49" t="s">
         <v>435</v>
       </c>
-      <c r="F784" s="49" t="s">
+      <c r="F786" s="49" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="785" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A785" t="s">
-        <v>308</v>
-      </c>
-      <c r="B785" s="49" t="s">
+    <row r="787" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A787" t="s">
+        <v>308</v>
+      </c>
+      <c r="B787" s="49" t="s">
         <v>967</v>
       </c>
-      <c r="C785" s="49" t="s">
+      <c r="C787" s="49" t="s">
         <v>967</v>
       </c>
-      <c r="F785" s="49" t="s">
+      <c r="F787" s="49" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="786" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B786" s="50"/>
-      <c r="C786" s="50"/>
-      <c r="F786" s="50"/>
-    </row>
-    <row r="787" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B787" s="50"/>
-      <c r="C787" s="50"/>
-      <c r="F787" s="50"/>
-    </row>
-    <row r="788" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A788" t="s">
-        <v>308</v>
-      </c>
-      <c r="B788" s="49" t="s">
-        <v>454</v>
-      </c>
-      <c r="C788" s="49" t="s">
-        <v>454</v>
-      </c>
-      <c r="F788" s="49" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="789" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A789" t="s">
-        <v>308</v>
-      </c>
-      <c r="B789" s="49" t="s">
-        <v>443</v>
-      </c>
-      <c r="C789" s="49" t="s">
-        <v>443</v>
-      </c>
-      <c r="F789" s="49" t="s">
-        <v>673</v>
-      </c>
+    <row r="788" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B788" s="50"/>
+      <c r="C788" s="50"/>
+      <c r="F788" s="50"/>
+    </row>
+    <row r="789" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B789" s="50"/>
+      <c r="C789" s="50"/>
+      <c r="F789" s="50"/>
     </row>
     <row r="790" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A790" t="s">
         <v>308</v>
       </c>
       <c r="B790" s="49" t="s">
-        <v>968</v>
+        <v>454</v>
       </c>
       <c r="C790" s="49" t="s">
-        <v>968</v>
+        <v>454</v>
       </c>
       <c r="F790" s="49" t="s">
         <v>673</v>
@@ -24649,10 +24681,10 @@
         <v>308</v>
       </c>
       <c r="B791" s="49" t="s">
-        <v>969</v>
+        <v>443</v>
       </c>
       <c r="C791" s="49" t="s">
-        <v>969</v>
+        <v>443</v>
       </c>
       <c r="F791" s="49" t="s">
         <v>673</v>
@@ -24663,10 +24695,10 @@
         <v>308</v>
       </c>
       <c r="B792" s="49" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="C792" s="49" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="F792" s="49" t="s">
         <v>673</v>
@@ -24677,10 +24709,10 @@
         <v>308</v>
       </c>
       <c r="B793" s="49" t="s">
-        <v>402</v>
+        <v>969</v>
       </c>
       <c r="C793" s="49" t="s">
-        <v>402</v>
+        <v>969</v>
       </c>
       <c r="F793" s="49" t="s">
         <v>673</v>
@@ -24691,117 +24723,126 @@
         <v>308</v>
       </c>
       <c r="B794" s="49" t="s">
-        <v>409</v>
+        <v>970</v>
       </c>
       <c r="C794" s="49" t="s">
-        <v>409</v>
+        <v>970</v>
       </c>
       <c r="F794" s="49" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="795" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B795" s="50"/>
-      <c r="C795" s="50"/>
-      <c r="F795" s="50"/>
+    <row r="795" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A795" t="s">
+        <v>308</v>
+      </c>
+      <c r="B795" s="49" t="s">
+        <v>402</v>
+      </c>
+      <c r="C795" s="49" t="s">
+        <v>402</v>
+      </c>
+      <c r="F795" s="49" t="s">
+        <v>673</v>
+      </c>
     </row>
     <row r="796" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A796" t="s">
         <v>308</v>
       </c>
       <c r="B796" s="49" t="s">
-        <v>971</v>
+        <v>409</v>
       </c>
       <c r="C796" s="49" t="s">
-        <v>971</v>
+        <v>409</v>
       </c>
       <c r="F796" s="49" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="797" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A797" t="s">
-        <v>308</v>
-      </c>
-      <c r="B797" s="49" t="s">
-        <v>972</v>
-      </c>
-      <c r="C797" s="49" t="s">
-        <v>972</v>
-      </c>
-      <c r="F797" s="49" t="s">
-        <v>674</v>
-      </c>
+        <v>673</v>
+      </c>
+    </row>
+    <row r="797" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B797" s="50"/>
+      <c r="C797" s="50"/>
+      <c r="F797" s="50"/>
     </row>
     <row r="798" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A798" t="s">
         <v>308</v>
       </c>
       <c r="B798" s="49" t="s">
-        <v>400</v>
+        <v>971</v>
       </c>
       <c r="C798" s="49" t="s">
-        <v>400</v>
+        <v>971</v>
       </c>
       <c r="F798" s="49" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="799" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B799" s="50"/>
-      <c r="C799" s="50"/>
-      <c r="F799" s="50"/>
-    </row>
-    <row r="800" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B800" s="50"/>
-      <c r="C800" s="50"/>
-      <c r="F800" s="50"/>
-    </row>
-    <row r="801" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A801" t="s">
-        <v>308</v>
-      </c>
-      <c r="B801" s="49" t="s">
+    <row r="799" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A799" t="s">
+        <v>308</v>
+      </c>
+      <c r="B799" s="49" t="s">
+        <v>972</v>
+      </c>
+      <c r="C799" s="49" t="s">
+        <v>972</v>
+      </c>
+      <c r="F799" s="49" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="800" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A800" t="s">
+        <v>308</v>
+      </c>
+      <c r="B800" s="49" t="s">
+        <v>400</v>
+      </c>
+      <c r="C800" s="49" t="s">
+        <v>400</v>
+      </c>
+      <c r="F800" s="49" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="801" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B801" s="50"/>
+      <c r="C801" s="50"/>
+      <c r="F801" s="50"/>
+    </row>
+    <row r="802" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B802" s="50"/>
+      <c r="C802" s="50"/>
+      <c r="F802" s="50"/>
+    </row>
+    <row r="803" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A803" t="s">
+        <v>308</v>
+      </c>
+      <c r="B803" s="49" t="s">
         <v>451</v>
       </c>
-      <c r="C801" s="49" t="s">
+      <c r="C803" s="49" t="s">
         <v>451</v>
       </c>
-      <c r="F801" s="49" t="s">
+      <c r="F803" s="49" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="802" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A802" t="s">
-        <v>308</v>
-      </c>
-      <c r="B802" s="49" t="s">
-        <v>973</v>
-      </c>
-      <c r="C802" s="49" t="s">
-        <v>973</v>
-      </c>
-      <c r="F802" s="49" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="803" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B803" s="50"/>
-      <c r="C803" s="50"/>
-      <c r="F803" s="50"/>
     </row>
     <row r="804" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A804" t="s">
         <v>308</v>
       </c>
       <c r="B804" s="49" t="s">
-        <v>413</v>
+        <v>973</v>
       </c>
       <c r="C804" s="49" t="s">
-        <v>413</v>
+        <v>973</v>
       </c>
       <c r="F804" s="49" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="805" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -24814,13 +24855,13 @@
         <v>308</v>
       </c>
       <c r="B806" s="49" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="C806" s="49" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="F806" s="49" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="807" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -24828,24 +24869,24 @@
       <c r="C807" s="50"/>
       <c r="F807" s="50"/>
     </row>
-    <row r="808" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B808" s="50"/>
-      <c r="C808" s="50"/>
-      <c r="F808" s="50"/>
-    </row>
-    <row r="809" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A809" t="s">
-        <v>308</v>
-      </c>
-      <c r="B809" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="C809" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="F809" s="49" t="s">
-        <v>678</v>
-      </c>
+    <row r="808" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A808" t="s">
+        <v>308</v>
+      </c>
+      <c r="B808" s="49" t="s">
+        <v>421</v>
+      </c>
+      <c r="C808" s="49" t="s">
+        <v>421</v>
+      </c>
+      <c r="F808" s="49" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="809" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B809" s="50"/>
+      <c r="C809" s="50"/>
+      <c r="F809" s="50"/>
     </row>
     <row r="810" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B810" s="50"/>
@@ -24857,13 +24898,13 @@
         <v>308</v>
       </c>
       <c r="B811" s="49" t="s">
-        <v>399</v>
+        <v>417</v>
       </c>
       <c r="C811" s="49" t="s">
-        <v>399</v>
+        <v>417</v>
       </c>
       <c r="F811" s="49" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="812" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -24871,24 +24912,24 @@
       <c r="C812" s="50"/>
       <c r="F812" s="50"/>
     </row>
-    <row r="813" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B813" s="50"/>
-      <c r="C813" s="50"/>
-      <c r="F813" s="50"/>
-    </row>
-    <row r="814" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A814" t="s">
-        <v>308</v>
-      </c>
-      <c r="B814" s="49" t="s">
-        <v>420</v>
-      </c>
-      <c r="C814" s="49" t="s">
-        <v>420</v>
-      </c>
-      <c r="F814" s="49" t="s">
-        <v>680</v>
-      </c>
+    <row r="813" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A813" t="s">
+        <v>308</v>
+      </c>
+      <c r="B813" s="49" t="s">
+        <v>399</v>
+      </c>
+      <c r="C813" s="49" t="s">
+        <v>399</v>
+      </c>
+      <c r="F813" s="49" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="814" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B814" s="50"/>
+      <c r="C814" s="50"/>
+      <c r="F814" s="50"/>
     </row>
     <row r="815" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B815" s="50"/>
@@ -24900,13 +24941,13 @@
         <v>308</v>
       </c>
       <c r="B816" s="49" t="s">
-        <v>974</v>
+        <v>420</v>
       </c>
       <c r="C816" s="49" t="s">
-        <v>974</v>
+        <v>420</v>
       </c>
       <c r="F816" s="49" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="817" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -24919,13 +24960,13 @@
         <v>308</v>
       </c>
       <c r="B818" s="49" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="C818" s="49" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="F818" s="49" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="819" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -24933,24 +24974,24 @@
       <c r="C819" s="50"/>
       <c r="F819" s="50"/>
     </row>
-    <row r="820" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B820" s="50"/>
-      <c r="C820" s="50"/>
-      <c r="F820" s="50"/>
-    </row>
-    <row r="821" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A821" t="s">
-        <v>308</v>
-      </c>
-      <c r="B821" s="49" t="s">
-        <v>428</v>
-      </c>
-      <c r="C821" s="49" t="s">
-        <v>428</v>
-      </c>
-      <c r="F821" s="49" t="s">
-        <v>683</v>
-      </c>
+    <row r="820" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A820" t="s">
+        <v>308</v>
+      </c>
+      <c r="B820" s="49" t="s">
+        <v>975</v>
+      </c>
+      <c r="C820" s="49" t="s">
+        <v>975</v>
+      </c>
+      <c r="F820" s="49" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="821" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B821" s="50"/>
+      <c r="C821" s="50"/>
+      <c r="F821" s="50"/>
     </row>
     <row r="822" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B822" s="50"/>
@@ -24962,38 +25003,29 @@
         <v>308</v>
       </c>
       <c r="B823" s="49" t="s">
-        <v>460</v>
+        <v>428</v>
       </c>
       <c r="C823" s="49" t="s">
-        <v>460</v>
+        <v>428</v>
       </c>
       <c r="F823" s="49" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="824" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A824" t="s">
-        <v>308</v>
-      </c>
-      <c r="B824" s="49" t="s">
-        <v>472</v>
-      </c>
-      <c r="C824" s="49" t="s">
-        <v>472</v>
-      </c>
-      <c r="F824" s="49" t="s">
-        <v>684</v>
-      </c>
+        <v>683</v>
+      </c>
+    </row>
+    <row r="824" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B824" s="50"/>
+      <c r="C824" s="50"/>
+      <c r="F824" s="50"/>
     </row>
     <row r="825" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A825" t="s">
         <v>308</v>
       </c>
       <c r="B825" s="49" t="s">
-        <v>446</v>
+        <v>460</v>
       </c>
       <c r="C825" s="49" t="s">
-        <v>446</v>
+        <v>460</v>
       </c>
       <c r="F825" s="49" t="s">
         <v>684</v>
@@ -25004,70 +25036,79 @@
         <v>308</v>
       </c>
       <c r="B826" s="49" t="s">
-        <v>976</v>
+        <v>472</v>
       </c>
       <c r="C826" s="49" t="s">
-        <v>976</v>
+        <v>472</v>
       </c>
       <c r="F826" s="49" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="827" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B827" s="50"/>
-      <c r="C827" s="50"/>
-      <c r="F827" s="50"/>
-    </row>
-    <row r="828" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B828" s="50"/>
-      <c r="C828" s="50"/>
-      <c r="F828" s="50"/>
-    </row>
-    <row r="829" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A829" t="s">
-        <v>308</v>
-      </c>
-      <c r="B829" s="49" t="s">
+    <row r="827" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A827" t="s">
+        <v>308</v>
+      </c>
+      <c r="B827" s="49" t="s">
+        <v>446</v>
+      </c>
+      <c r="C827" s="49" t="s">
+        <v>446</v>
+      </c>
+      <c r="F827" s="49" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="828" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A828" t="s">
+        <v>308</v>
+      </c>
+      <c r="B828" s="49" t="s">
+        <v>976</v>
+      </c>
+      <c r="C828" s="49" t="s">
+        <v>976</v>
+      </c>
+      <c r="F828" s="49" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="829" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B829" s="50"/>
+      <c r="C829" s="50"/>
+      <c r="F829" s="50"/>
+    </row>
+    <row r="830" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B830" s="50"/>
+      <c r="C830" s="50"/>
+      <c r="F830" s="50"/>
+    </row>
+    <row r="831" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A831" t="s">
+        <v>308</v>
+      </c>
+      <c r="B831" s="49" t="s">
         <v>476</v>
       </c>
-      <c r="C829" s="49" t="s">
+      <c r="C831" s="49" t="s">
         <v>476</v>
       </c>
-      <c r="F829" s="49" t="s">
+      <c r="F831" s="49" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="830" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A830" t="s">
-        <v>308</v>
-      </c>
-      <c r="B830" s="49" t="s">
-        <v>977</v>
-      </c>
-      <c r="C830" s="49" t="s">
-        <v>977</v>
-      </c>
-      <c r="F830" s="49" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="831" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B831" s="50"/>
-      <c r="C831" s="50"/>
-      <c r="F831" s="50"/>
     </row>
     <row r="832" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A832" t="s">
         <v>308</v>
       </c>
       <c r="B832" s="49" t="s">
-        <v>457</v>
+        <v>977</v>
       </c>
       <c r="C832" s="49" t="s">
-        <v>457</v>
+        <v>977</v>
       </c>
       <c r="F832" s="49" t="s">
-        <v>685</v>
+        <v>578</v>
       </c>
     </row>
     <row r="833" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -25080,13 +25121,13 @@
         <v>308</v>
       </c>
       <c r="B834" s="49" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="C834" s="49" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="F834" s="49" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="835" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -25094,24 +25135,24 @@
       <c r="C835" s="50"/>
       <c r="F835" s="50"/>
     </row>
-    <row r="836" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B836" s="50"/>
-      <c r="C836" s="50"/>
-      <c r="F836" s="50"/>
-    </row>
-    <row r="837" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A837" t="s">
-        <v>308</v>
-      </c>
-      <c r="B837" s="49" t="s">
-        <v>978</v>
-      </c>
-      <c r="C837" s="49" t="s">
-        <v>978</v>
-      </c>
-      <c r="F837" s="49" t="s">
-        <v>687</v>
-      </c>
+    <row r="836" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A836" t="s">
+        <v>308</v>
+      </c>
+      <c r="B836" s="49" t="s">
+        <v>452</v>
+      </c>
+      <c r="C836" s="49" t="s">
+        <v>452</v>
+      </c>
+      <c r="F836" s="49" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="837" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B837" s="50"/>
+      <c r="C837" s="50"/>
+      <c r="F837" s="50"/>
     </row>
     <row r="838" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B838" s="50"/>
@@ -25123,85 +25164,76 @@
         <v>308</v>
       </c>
       <c r="B839" s="49" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="C839" s="49" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F839" s="49" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="840" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A840" t="s">
-        <v>308</v>
-      </c>
-      <c r="B840" s="49" t="s">
-        <v>404</v>
-      </c>
-      <c r="C840" s="49" t="s">
-        <v>404</v>
-      </c>
-      <c r="F840" s="49" t="s">
-        <v>688</v>
-      </c>
+        <v>687</v>
+      </c>
+    </row>
+    <row r="840" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B840" s="50"/>
+      <c r="C840" s="50"/>
+      <c r="F840" s="50"/>
     </row>
     <row r="841" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A841" t="s">
         <v>308</v>
       </c>
       <c r="B841" s="49" t="s">
-        <v>430</v>
+        <v>979</v>
       </c>
       <c r="C841" s="49" t="s">
-        <v>430</v>
+        <v>979</v>
       </c>
       <c r="F841" s="49" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="842" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B842" s="50"/>
-      <c r="C842" s="50"/>
-      <c r="F842" s="50"/>
+    <row r="842" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A842" t="s">
+        <v>308</v>
+      </c>
+      <c r="B842" s="49" t="s">
+        <v>404</v>
+      </c>
+      <c r="C842" s="49" t="s">
+        <v>404</v>
+      </c>
+      <c r="F842" s="49" t="s">
+        <v>688</v>
+      </c>
     </row>
     <row r="843" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A843" t="s">
         <v>308</v>
       </c>
       <c r="B843" s="49" t="s">
-        <v>980</v>
+        <v>430</v>
       </c>
       <c r="C843" s="49" t="s">
-        <v>980</v>
+        <v>430</v>
       </c>
       <c r="F843" s="49" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="844" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A844" t="s">
-        <v>308</v>
-      </c>
-      <c r="B844" s="49" t="s">
-        <v>415</v>
-      </c>
-      <c r="C844" s="49" t="s">
-        <v>415</v>
-      </c>
-      <c r="F844" s="49" t="s">
-        <v>689</v>
-      </c>
+        <v>688</v>
+      </c>
+    </row>
+    <row r="844" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B844" s="50"/>
+      <c r="C844" s="50"/>
+      <c r="F844" s="50"/>
     </row>
     <row r="845" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A845" t="s">
         <v>308</v>
       </c>
       <c r="B845" s="49" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C845" s="49" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="F845" s="49" t="s">
         <v>689</v>
@@ -25212,10 +25244,10 @@
         <v>308</v>
       </c>
       <c r="B846" s="49" t="s">
-        <v>477</v>
+        <v>415</v>
       </c>
       <c r="C846" s="49" t="s">
-        <v>477</v>
+        <v>415</v>
       </c>
       <c r="F846" s="49" t="s">
         <v>689</v>
@@ -25226,10 +25258,10 @@
         <v>308</v>
       </c>
       <c r="B847" s="49" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="C847" s="49" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="F847" s="49" t="s">
         <v>689</v>
@@ -25240,10 +25272,10 @@
         <v>308</v>
       </c>
       <c r="B848" s="49" t="s">
-        <v>461</v>
+        <v>477</v>
       </c>
       <c r="C848" s="49" t="s">
-        <v>461</v>
+        <v>477</v>
       </c>
       <c r="F848" s="49" t="s">
         <v>689</v>
@@ -25254,10 +25286,10 @@
         <v>308</v>
       </c>
       <c r="B849" s="49" t="s">
-        <v>426</v>
+        <v>982</v>
       </c>
       <c r="C849" s="49" t="s">
-        <v>426</v>
+        <v>982</v>
       </c>
       <c r="F849" s="49" t="s">
         <v>689</v>
@@ -25268,10 +25300,10 @@
         <v>308</v>
       </c>
       <c r="B850" s="49" t="s">
-        <v>983</v>
+        <v>461</v>
       </c>
       <c r="C850" s="49" t="s">
-        <v>983</v>
+        <v>461</v>
       </c>
       <c r="F850" s="49" t="s">
         <v>689</v>
@@ -25282,10 +25314,10 @@
         <v>308</v>
       </c>
       <c r="B851" s="49" t="s">
-        <v>407</v>
+        <v>426</v>
       </c>
       <c r="C851" s="49" t="s">
-        <v>407</v>
+        <v>426</v>
       </c>
       <c r="F851" s="49" t="s">
         <v>689</v>
@@ -25296,10 +25328,10 @@
         <v>308</v>
       </c>
       <c r="B852" s="49" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C852" s="49" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="F852" s="49" t="s">
         <v>689</v>
@@ -25310,10 +25342,10 @@
         <v>308</v>
       </c>
       <c r="B853" s="49" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C853" s="49" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F853" s="49" t="s">
         <v>689</v>
@@ -25324,10 +25356,10 @@
         <v>308</v>
       </c>
       <c r="B854" s="49" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="C854" s="49" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="F854" s="49" t="s">
         <v>689</v>
@@ -25338,10 +25370,10 @@
         <v>308</v>
       </c>
       <c r="B855" s="49" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C855" s="49" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F855" s="49" t="s">
         <v>689</v>
@@ -25352,10 +25384,10 @@
         <v>308</v>
       </c>
       <c r="B856" s="49" t="s">
-        <v>432</v>
+        <v>985</v>
       </c>
       <c r="C856" s="49" t="s">
-        <v>432</v>
+        <v>985</v>
       </c>
       <c r="F856" s="49" t="s">
         <v>689</v>
@@ -25366,62 +25398,62 @@
         <v>308</v>
       </c>
       <c r="B857" s="49" t="s">
-        <v>467</v>
+        <v>408</v>
       </c>
       <c r="C857" s="49" t="s">
-        <v>467</v>
+        <v>408</v>
       </c>
       <c r="F857" s="49" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="858" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B858" s="50"/>
-      <c r="C858" s="50"/>
-      <c r="F858" s="50"/>
-    </row>
-    <row r="859" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B859" s="50"/>
-      <c r="C859" s="50"/>
-      <c r="F859" s="50"/>
-    </row>
-    <row r="860" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A860" t="s">
-        <v>308</v>
-      </c>
-      <c r="B860" s="49" t="s">
-        <v>986</v>
-      </c>
-      <c r="C860" s="49" t="s">
-        <v>986</v>
-      </c>
-      <c r="F860" s="49" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="861" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A861" t="s">
-        <v>308</v>
-      </c>
-      <c r="B861" s="49" t="s">
-        <v>437</v>
-      </c>
-      <c r="C861" s="49" t="s">
-        <v>437</v>
-      </c>
-      <c r="F861" s="49" t="s">
-        <v>690</v>
-      </c>
+    <row r="858" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A858" t="s">
+        <v>308</v>
+      </c>
+      <c r="B858" s="49" t="s">
+        <v>432</v>
+      </c>
+      <c r="C858" s="49" t="s">
+        <v>432</v>
+      </c>
+      <c r="F858" s="49" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="859" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A859" t="s">
+        <v>308</v>
+      </c>
+      <c r="B859" s="49" t="s">
+        <v>467</v>
+      </c>
+      <c r="C859" s="49" t="s">
+        <v>467</v>
+      </c>
+      <c r="F859" s="49" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="860" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B860" s="50"/>
+      <c r="C860" s="50"/>
+      <c r="F860" s="50"/>
+    </row>
+    <row r="861" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B861" s="50"/>
+      <c r="C861" s="50"/>
+      <c r="F861" s="50"/>
     </row>
     <row r="862" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A862" t="s">
         <v>308</v>
       </c>
       <c r="B862" s="49" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="C862" s="49" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="F862" s="49" t="s">
         <v>690</v>
@@ -25432,10 +25464,10 @@
         <v>308</v>
       </c>
       <c r="B863" s="49" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="C863" s="49" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="F863" s="49" t="s">
         <v>690</v>
@@ -25446,10 +25478,10 @@
         <v>308</v>
       </c>
       <c r="B864" s="49" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C864" s="49" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="F864" s="49" t="s">
         <v>690</v>
@@ -25460,10 +25492,10 @@
         <v>308</v>
       </c>
       <c r="B865" s="49" t="s">
-        <v>989</v>
+        <v>441</v>
       </c>
       <c r="C865" s="49" t="s">
-        <v>989</v>
+        <v>441</v>
       </c>
       <c r="F865" s="49" t="s">
         <v>690</v>
@@ -25474,57 +25506,57 @@
         <v>308</v>
       </c>
       <c r="B866" s="49" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="C866" s="49" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="F866" s="49" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="867" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B867" s="50"/>
-      <c r="C867" s="50"/>
-      <c r="F867" s="50"/>
+    <row r="867" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A867" t="s">
+        <v>308</v>
+      </c>
+      <c r="B867" s="49" t="s">
+        <v>989</v>
+      </c>
+      <c r="C867" s="49" t="s">
+        <v>989</v>
+      </c>
+      <c r="F867" s="49" t="s">
+        <v>690</v>
+      </c>
     </row>
     <row r="868" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A868" t="s">
         <v>308</v>
       </c>
       <c r="B868" s="49" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="C868" s="49" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="F868" s="49" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="869" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A869" t="s">
-        <v>308</v>
-      </c>
-      <c r="B869" s="49" t="s">
-        <v>440</v>
-      </c>
-      <c r="C869" s="49" t="s">
-        <v>440</v>
-      </c>
-      <c r="F869" s="49" t="s">
-        <v>691</v>
-      </c>
+        <v>690</v>
+      </c>
+    </row>
+    <row r="869" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B869" s="50"/>
+      <c r="C869" s="50"/>
+      <c r="F869" s="50"/>
     </row>
     <row r="870" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A870" t="s">
         <v>308</v>
       </c>
       <c r="B870" s="49" t="s">
-        <v>423</v>
+        <v>991</v>
       </c>
       <c r="C870" s="49" t="s">
-        <v>423</v>
+        <v>991</v>
       </c>
       <c r="F870" s="49" t="s">
         <v>691</v>
@@ -25535,10 +25567,10 @@
         <v>308</v>
       </c>
       <c r="B871" s="49" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="C871" s="49" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="F871" s="49" t="s">
         <v>691</v>
@@ -25549,10 +25581,10 @@
         <v>308</v>
       </c>
       <c r="B872" s="49" t="s">
-        <v>992</v>
+        <v>423</v>
       </c>
       <c r="C872" s="49" t="s">
-        <v>992</v>
+        <v>423</v>
       </c>
       <c r="F872" s="49" t="s">
         <v>691</v>
@@ -25563,10 +25595,10 @@
         <v>308</v>
       </c>
       <c r="B873" s="49" t="s">
-        <v>405</v>
+        <v>450</v>
       </c>
       <c r="C873" s="49" t="s">
-        <v>405</v>
+        <v>450</v>
       </c>
       <c r="F873" s="49" t="s">
         <v>691</v>
@@ -25577,10 +25609,10 @@
         <v>308</v>
       </c>
       <c r="B874" s="49" t="s">
-        <v>403</v>
+        <v>992</v>
       </c>
       <c r="C874" s="49" t="s">
-        <v>403</v>
+        <v>992</v>
       </c>
       <c r="F874" s="49" t="s">
         <v>691</v>
@@ -25591,10 +25623,10 @@
         <v>308</v>
       </c>
       <c r="B875" s="49" t="s">
-        <v>425</v>
+        <v>405</v>
       </c>
       <c r="C875" s="49" t="s">
-        <v>425</v>
+        <v>405</v>
       </c>
       <c r="F875" s="49" t="s">
         <v>691</v>
@@ -25605,104 +25637,113 @@
         <v>308</v>
       </c>
       <c r="B876" s="49" t="s">
-        <v>993</v>
+        <v>403</v>
       </c>
       <c r="C876" s="49" t="s">
-        <v>993</v>
+        <v>403</v>
       </c>
       <c r="F876" s="49" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="877" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B877" s="50"/>
-      <c r="C877" s="50"/>
-      <c r="F877" s="50"/>
+    <row r="877" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A877" t="s">
+        <v>308</v>
+      </c>
+      <c r="B877" s="49" t="s">
+        <v>425</v>
+      </c>
+      <c r="C877" s="49" t="s">
+        <v>425</v>
+      </c>
+      <c r="F877" s="49" t="s">
+        <v>691</v>
+      </c>
     </row>
     <row r="878" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A878" t="s">
         <v>308</v>
       </c>
       <c r="B878" s="49" t="s">
+        <v>993</v>
+      </c>
+      <c r="C878" s="49" t="s">
+        <v>993</v>
+      </c>
+      <c r="F878" s="49" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="879" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B879" s="50"/>
+      <c r="C879" s="50"/>
+      <c r="F879" s="50"/>
+    </row>
+    <row r="880" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A880" t="s">
+        <v>308</v>
+      </c>
+      <c r="B880" s="49" t="s">
         <v>458</v>
       </c>
-      <c r="C878" s="49" t="s">
+      <c r="C880" s="49" t="s">
         <v>458</v>
       </c>
-      <c r="F878" s="49" t="s">
+      <c r="F880" s="49" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="879" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A879" t="s">
-        <v>308</v>
-      </c>
-      <c r="B879" s="49" t="s">
-        <v>455</v>
-      </c>
-      <c r="C879" s="49" t="s">
-        <v>455</v>
-      </c>
-      <c r="F879" s="49" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="880" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B880" s="50"/>
-      <c r="C880" s="50"/>
-      <c r="F880" s="50"/>
     </row>
     <row r="881" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A881" t="s">
         <v>308</v>
       </c>
       <c r="B881" s="49" t="s">
+        <v>455</v>
+      </c>
+      <c r="C881" s="49" t="s">
+        <v>455</v>
+      </c>
+      <c r="F881" s="49" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="882" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B882" s="50"/>
+      <c r="C882" s="50"/>
+      <c r="F882" s="50"/>
+    </row>
+    <row r="883" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A883" t="s">
+        <v>308</v>
+      </c>
+      <c r="B883" s="49" t="s">
         <v>994</v>
       </c>
-      <c r="C881" s="49" t="s">
+      <c r="C883" s="49" t="s">
         <v>994</v>
       </c>
-      <c r="F881" s="49" t="s">
+      <c r="F883" s="49" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="882" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A882" t="s">
-        <v>308</v>
-      </c>
-      <c r="B882" s="49" t="s">
+    <row r="884" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A884" t="s">
+        <v>308</v>
+      </c>
+      <c r="B884" s="49" t="s">
         <v>995</v>
       </c>
-      <c r="C882" s="49" t="s">
+      <c r="C884" s="49" t="s">
         <v>995</v>
       </c>
-      <c r="F882" s="49" t="s">
+      <c r="F884" s="49" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="883" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B883" s="50"/>
-      <c r="C883" s="50"/>
-      <c r="F883" s="50"/>
-    </row>
-    <row r="884" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B884" s="50"/>
-      <c r="C884" s="50"/>
-      <c r="F884" s="50"/>
-    </row>
-    <row r="885" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A885" t="s">
-        <v>308</v>
-      </c>
-      <c r="B885" s="49" t="s">
-        <v>439</v>
-      </c>
-      <c r="C885" s="49" t="s">
-        <v>439</v>
-      </c>
-      <c r="F885" s="49" t="s">
-        <v>694</v>
-      </c>
+    <row r="885" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B885" s="50"/>
+      <c r="C885" s="50"/>
+      <c r="F885" s="50"/>
     </row>
     <row r="886" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B886" s="50"/>
@@ -25714,93 +25755,93 @@
         <v>308</v>
       </c>
       <c r="B887" s="49" t="s">
+        <v>439</v>
+      </c>
+      <c r="C887" s="49" t="s">
+        <v>439</v>
+      </c>
+      <c r="F887" s="49" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="888" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B888" s="50"/>
+      <c r="C888" s="50"/>
+      <c r="F888" s="50"/>
+    </row>
+    <row r="889" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A889" t="s">
+        <v>308</v>
+      </c>
+      <c r="B889" s="49" t="s">
         <v>466</v>
       </c>
-      <c r="C887" s="49" t="s">
+      <c r="C889" s="49" t="s">
         <v>466</v>
       </c>
-      <c r="F887" s="49" t="s">
+      <c r="F889" s="49" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="888" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A888" t="s">
-        <v>308</v>
-      </c>
-      <c r="B888" s="49" t="s">
-        <v>996</v>
-      </c>
-      <c r="C888" s="49" t="s">
-        <v>996</v>
-      </c>
-      <c r="F888" s="49" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="889" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B889" s="50"/>
-      <c r="C889" s="50"/>
-      <c r="F889" s="50"/>
     </row>
     <row r="890" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A890" t="s">
         <v>308</v>
       </c>
       <c r="B890" s="49" t="s">
-        <v>465</v>
+        <v>996</v>
       </c>
       <c r="C890" s="49" t="s">
-        <v>465</v>
+        <v>996</v>
       </c>
       <c r="F890" s="49" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="891" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A891" t="s">
-        <v>308</v>
-      </c>
-      <c r="B891" s="49" t="s">
-        <v>436</v>
-      </c>
-      <c r="C891" s="49" t="s">
-        <v>436</v>
-      </c>
-      <c r="F891" s="49" t="s">
-        <v>696</v>
-      </c>
+        <v>695</v>
+      </c>
+    </row>
+    <row r="891" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B891" s="50"/>
+      <c r="C891" s="50"/>
+      <c r="F891" s="50"/>
     </row>
     <row r="892" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A892" t="s">
         <v>308</v>
       </c>
       <c r="B892" s="49" t="s">
-        <v>444</v>
+        <v>465</v>
       </c>
       <c r="C892" s="49" t="s">
-        <v>444</v>
+        <v>465</v>
       </c>
       <c r="F892" s="49" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="893" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B893" s="50"/>
-      <c r="C893" s="50"/>
-      <c r="F893" s="50"/>
+    <row r="893" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A893" t="s">
+        <v>308</v>
+      </c>
+      <c r="B893" s="49" t="s">
+        <v>436</v>
+      </c>
+      <c r="C893" s="49" t="s">
+        <v>436</v>
+      </c>
+      <c r="F893" s="49" t="s">
+        <v>696</v>
+      </c>
     </row>
     <row r="894" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A894" t="s">
         <v>308</v>
       </c>
       <c r="B894" s="49" t="s">
-        <v>997</v>
+        <v>444</v>
       </c>
       <c r="C894" s="49" t="s">
-        <v>997</v>
+        <v>444</v>
       </c>
       <c r="F894" s="49" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="895" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -25808,48 +25849,39 @@
       <c r="C895" s="50"/>
       <c r="F895" s="50"/>
     </row>
-    <row r="896" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B896" s="50"/>
-      <c r="C896" s="50"/>
-      <c r="F896" s="50"/>
-    </row>
-    <row r="897" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A897" t="s">
-        <v>308</v>
-      </c>
-      <c r="B897" s="49" t="s">
-        <v>431</v>
-      </c>
-      <c r="C897" s="49" t="s">
-        <v>431</v>
-      </c>
-      <c r="F897" s="49" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="898" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A898" t="s">
-        <v>308</v>
-      </c>
-      <c r="B898" s="49" t="s">
-        <v>422</v>
-      </c>
-      <c r="C898" s="49" t="s">
-        <v>422</v>
-      </c>
-      <c r="F898" s="49" t="s">
-        <v>698</v>
-      </c>
+    <row r="896" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A896" t="s">
+        <v>308</v>
+      </c>
+      <c r="B896" s="49" t="s">
+        <v>997</v>
+      </c>
+      <c r="C896" s="49" t="s">
+        <v>997</v>
+      </c>
+      <c r="F896" s="49" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="897" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B897" s="50"/>
+      <c r="C897" s="50"/>
+      <c r="F897" s="50"/>
+    </row>
+    <row r="898" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B898" s="50"/>
+      <c r="C898" s="50"/>
+      <c r="F898" s="50"/>
     </row>
     <row r="899" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A899" t="s">
         <v>308</v>
       </c>
       <c r="B899" s="49" t="s">
-        <v>459</v>
+        <v>431</v>
       </c>
       <c r="C899" s="49" t="s">
-        <v>459</v>
+        <v>431</v>
       </c>
       <c r="F899" s="49" t="s">
         <v>698</v>
@@ -25860,32 +25892,41 @@
         <v>308</v>
       </c>
       <c r="B900" s="49" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="C900" s="49" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="F900" s="49" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="901" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B901" s="50"/>
-      <c r="C901" s="50"/>
-      <c r="F901" s="50"/>
+    <row r="901" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A901" t="s">
+        <v>308</v>
+      </c>
+      <c r="B901" s="49" t="s">
+        <v>459</v>
+      </c>
+      <c r="C901" s="49" t="s">
+        <v>459</v>
+      </c>
+      <c r="F901" s="49" t="s">
+        <v>698</v>
+      </c>
     </row>
     <row r="902" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A902" t="s">
         <v>308</v>
       </c>
       <c r="B902" s="49" t="s">
-        <v>462</v>
+        <v>429</v>
       </c>
       <c r="C902" s="49" t="s">
-        <v>462</v>
+        <v>429</v>
       </c>
       <c r="F902" s="49" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="903" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -25893,188 +25934,188 @@
       <c r="C903" s="50"/>
       <c r="F903" s="50"/>
     </row>
-    <row r="904" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B904" s="50"/>
-      <c r="C904" s="50"/>
-      <c r="F904" s="50"/>
-    </row>
-    <row r="905" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A905" t="s">
-        <v>308</v>
-      </c>
-      <c r="B905" s="49" t="s">
+    <row r="904" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A904" t="s">
+        <v>308</v>
+      </c>
+      <c r="B904" s="49" t="s">
+        <v>462</v>
+      </c>
+      <c r="C904" s="49" t="s">
+        <v>462</v>
+      </c>
+      <c r="F904" s="49" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="905" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B905" s="50"/>
+      <c r="C905" s="50"/>
+      <c r="F905" s="50"/>
+    </row>
+    <row r="906" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B906" s="50"/>
+      <c r="C906" s="50"/>
+      <c r="F906" s="50"/>
+    </row>
+    <row r="907" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A907" t="s">
+        <v>308</v>
+      </c>
+      <c r="B907" s="49" t="s">
         <v>483</v>
       </c>
-      <c r="C905" s="49" t="s">
+      <c r="C907" s="49" t="s">
         <v>483</v>
       </c>
-      <c r="F905" s="49" t="s">
+      <c r="F907" s="49" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="906" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A906" t="s">
-        <v>308</v>
-      </c>
-      <c r="B906" s="49" t="s">
-        <v>464</v>
-      </c>
-      <c r="C906" s="49" t="s">
-        <v>464</v>
-      </c>
-      <c r="F906" s="49" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="907" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B907" s="50"/>
-      <c r="C907" s="50"/>
-      <c r="F907" s="50"/>
     </row>
     <row r="908" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A908" t="s">
         <v>308</v>
       </c>
       <c r="B908" s="49" t="s">
-        <v>411</v>
+        <v>464</v>
       </c>
       <c r="C908" s="49" t="s">
-        <v>411</v>
+        <v>464</v>
       </c>
       <c r="F908" s="49" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="909" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A909" t="s">
-        <v>308</v>
-      </c>
-      <c r="B909" s="49" t="s">
-        <v>434</v>
-      </c>
-      <c r="C909" s="49" t="s">
-        <v>434</v>
-      </c>
-      <c r="F909" s="49" t="s">
-        <v>701</v>
-      </c>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="909" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B909" s="50"/>
+      <c r="C909" s="50"/>
+      <c r="F909" s="50"/>
     </row>
     <row r="910" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A910" t="s">
         <v>308</v>
       </c>
       <c r="B910" s="49" t="s">
-        <v>433</v>
+        <v>411</v>
       </c>
       <c r="C910" s="49" t="s">
-        <v>433</v>
+        <v>411</v>
       </c>
       <c r="F910" s="49" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="911" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B911" s="50"/>
-      <c r="C911" s="50"/>
-      <c r="F911" s="50"/>
+    <row r="911" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A911" t="s">
+        <v>308</v>
+      </c>
+      <c r="B911" s="49" t="s">
+        <v>434</v>
+      </c>
+      <c r="C911" s="49" t="s">
+        <v>434</v>
+      </c>
+      <c r="F911" s="49" t="s">
+        <v>701</v>
+      </c>
     </row>
     <row r="912" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A912" t="s">
         <v>308</v>
       </c>
       <c r="B912" s="49" t="s">
-        <v>998</v>
+        <v>433</v>
       </c>
       <c r="C912" s="49" t="s">
-        <v>998</v>
+        <v>433</v>
       </c>
       <c r="F912" s="49" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="913" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A913" t="s">
-        <v>308</v>
-      </c>
-      <c r="B913" s="49" t="s">
-        <v>999</v>
-      </c>
-      <c r="C913" s="49" t="s">
-        <v>999</v>
-      </c>
-      <c r="F913" s="49" t="s">
-        <v>583</v>
-      </c>
+        <v>701</v>
+      </c>
+    </row>
+    <row r="913" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B913" s="50"/>
+      <c r="C913" s="50"/>
+      <c r="F913" s="50"/>
     </row>
     <row r="914" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A914" t="s">
         <v>308</v>
       </c>
       <c r="B914" s="49" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="C914" s="49" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="F914" s="49" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="915" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B915" s="50"/>
-      <c r="C915" s="50"/>
-      <c r="F915" s="50"/>
-    </row>
-    <row r="916" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B916" s="50"/>
-      <c r="C916" s="50"/>
-      <c r="F916" s="50"/>
-    </row>
-    <row r="917" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A917" t="s">
-        <v>308</v>
-      </c>
-      <c r="B917" s="49" t="s">
+    <row r="915" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A915" t="s">
+        <v>308</v>
+      </c>
+      <c r="B915" s="49" t="s">
+        <v>999</v>
+      </c>
+      <c r="C915" s="49" t="s">
+        <v>999</v>
+      </c>
+      <c r="F915" s="49" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="916" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A916" t="s">
+        <v>308</v>
+      </c>
+      <c r="B916" s="49" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C916" s="49" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F916" s="49" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="917" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B917" s="50"/>
+      <c r="C917" s="50"/>
+      <c r="F917" s="50"/>
+    </row>
+    <row r="918" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B918" s="50"/>
+      <c r="C918" s="50"/>
+      <c r="F918" s="50"/>
+    </row>
+    <row r="919" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A919" t="s">
+        <v>308</v>
+      </c>
+      <c r="B919" s="49" t="s">
         <v>479</v>
       </c>
-      <c r="C917" s="49" t="s">
+      <c r="C919" s="49" t="s">
         <v>479</v>
       </c>
-      <c r="F917" s="49" t="s">
+      <c r="F919" s="49" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="918" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A918" t="s">
-        <v>308</v>
-      </c>
-      <c r="B918" s="49" t="s">
-        <v>453</v>
-      </c>
-      <c r="C918" s="49" t="s">
-        <v>453</v>
-      </c>
-      <c r="F918" s="49" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="919" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B919" s="50"/>
-      <c r="C919" s="50"/>
-      <c r="F919" s="50"/>
     </row>
     <row r="920" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A920" t="s">
         <v>308</v>
       </c>
       <c r="B920" s="49" t="s">
-        <v>412</v>
+        <v>453</v>
       </c>
       <c r="C920" s="49" t="s">
-        <v>412</v>
+        <v>453</v>
       </c>
       <c r="F920" s="49" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="921" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -26087,13 +26128,13 @@
         <v>308</v>
       </c>
       <c r="B922" s="49" t="s">
-        <v>478</v>
+        <v>412</v>
       </c>
       <c r="C922" s="49" t="s">
-        <v>478</v>
+        <v>412</v>
       </c>
       <c r="F922" s="49" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="923" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -26106,137 +26147,128 @@
         <v>308</v>
       </c>
       <c r="B924" s="49" t="s">
-        <v>1001</v>
+        <v>478</v>
       </c>
       <c r="C924" s="49" t="s">
-        <v>1001</v>
+        <v>478</v>
       </c>
       <c r="F924" s="49" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="925" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A925" t="s">
-        <v>308</v>
-      </c>
-      <c r="B925" s="49" t="s">
-        <v>471</v>
-      </c>
-      <c r="C925" s="49" t="s">
-        <v>471</v>
-      </c>
-      <c r="F925" s="49" t="s">
-        <v>705</v>
-      </c>
+        <v>704</v>
+      </c>
+    </row>
+    <row r="925" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B925" s="50"/>
+      <c r="C925" s="50"/>
+      <c r="F925" s="50"/>
     </row>
     <row r="926" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A926" t="s">
         <v>308</v>
       </c>
       <c r="B926" s="49" t="s">
-        <v>482</v>
+        <v>1001</v>
       </c>
       <c r="C926" s="49" t="s">
-        <v>482</v>
+        <v>1001</v>
       </c>
       <c r="F926" s="49" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="927" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B927" s="50"/>
-      <c r="C927" s="50"/>
-      <c r="F927" s="50"/>
-    </row>
-    <row r="928" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B928" s="50"/>
-      <c r="C928" s="50"/>
-      <c r="F928" s="50"/>
-    </row>
-    <row r="929" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A929" t="s">
-        <v>308</v>
-      </c>
-      <c r="B929" s="49" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C929" s="49" t="s">
-        <v>1002</v>
-      </c>
-      <c r="F929" s="49" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="930" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A930" t="s">
-        <v>308</v>
-      </c>
-      <c r="B930" s="49" t="s">
-        <v>449</v>
-      </c>
-      <c r="C930" s="49" t="s">
-        <v>449</v>
-      </c>
-      <c r="F930" s="49" t="s">
-        <v>706</v>
-      </c>
+    <row r="927" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A927" t="s">
+        <v>308</v>
+      </c>
+      <c r="B927" s="49" t="s">
+        <v>471</v>
+      </c>
+      <c r="C927" s="49" t="s">
+        <v>471</v>
+      </c>
+      <c r="F927" s="49" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="928" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A928" t="s">
+        <v>308</v>
+      </c>
+      <c r="B928" s="49" t="s">
+        <v>482</v>
+      </c>
+      <c r="C928" s="49" t="s">
+        <v>482</v>
+      </c>
+      <c r="F928" s="49" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="929" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B929" s="50"/>
+      <c r="C929" s="50"/>
+      <c r="F929" s="50"/>
+    </row>
+    <row r="930" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B930" s="50"/>
+      <c r="C930" s="50"/>
+      <c r="F930" s="50"/>
     </row>
     <row r="931" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A931" t="s">
         <v>308</v>
       </c>
       <c r="B931" s="49" t="s">
-        <v>475</v>
+        <v>1002</v>
       </c>
       <c r="C931" s="49" t="s">
-        <v>475</v>
+        <v>1002</v>
       </c>
       <c r="F931" s="49" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="932" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B932" s="50"/>
-      <c r="C932" s="50"/>
-      <c r="F932" s="50"/>
+    <row r="932" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A932" t="s">
+        <v>308</v>
+      </c>
+      <c r="B932" s="49" t="s">
+        <v>449</v>
+      </c>
+      <c r="C932" s="49" t="s">
+        <v>449</v>
+      </c>
+      <c r="F932" s="49" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="933" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A933" t="s">
         <v>308</v>
       </c>
       <c r="B933" s="49" t="s">
-        <v>410</v>
+        <v>475</v>
       </c>
       <c r="C933" s="49" t="s">
-        <v>410</v>
+        <v>475</v>
       </c>
       <c r="F933" s="49" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="934" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A934" t="s">
-        <v>308</v>
-      </c>
-      <c r="B934" s="49" t="s">
-        <v>419</v>
-      </c>
-      <c r="C934" s="49" t="s">
-        <v>419</v>
-      </c>
-      <c r="F934" s="49" t="s">
-        <v>707</v>
-      </c>
+        <v>706</v>
+      </c>
+    </row>
+    <row r="934" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B934" s="50"/>
+      <c r="C934" s="50"/>
+      <c r="F934" s="50"/>
     </row>
     <row r="935" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A935" t="s">
         <v>308</v>
       </c>
       <c r="B935" s="49" t="s">
-        <v>1003</v>
+        <v>410</v>
       </c>
       <c r="C935" s="49" t="s">
-        <v>1003</v>
+        <v>410</v>
       </c>
       <c r="F935" s="49" t="s">
         <v>707</v>
@@ -26247,10 +26279,10 @@
         <v>308</v>
       </c>
       <c r="B936" s="49" t="s">
-        <v>480</v>
+        <v>419</v>
       </c>
       <c r="C936" s="49" t="s">
-        <v>480</v>
+        <v>419</v>
       </c>
       <c r="F936" s="49" t="s">
         <v>707</v>
@@ -26261,10 +26293,10 @@
         <v>308</v>
       </c>
       <c r="B937" s="49" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C937" s="49" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="F937" s="49" t="s">
         <v>707</v>
@@ -26275,10 +26307,10 @@
         <v>308</v>
       </c>
       <c r="B938" s="49" t="s">
-        <v>401</v>
+        <v>480</v>
       </c>
       <c r="C938" s="49" t="s">
-        <v>401</v>
+        <v>480</v>
       </c>
       <c r="F938" s="49" t="s">
         <v>707</v>
@@ -26289,10 +26321,10 @@
         <v>308</v>
       </c>
       <c r="B939" s="49" t="s">
-        <v>473</v>
+        <v>1004</v>
       </c>
       <c r="C939" s="49" t="s">
-        <v>473</v>
+        <v>1004</v>
       </c>
       <c r="F939" s="49" t="s">
         <v>707</v>
@@ -26303,10 +26335,10 @@
         <v>308</v>
       </c>
       <c r="B940" s="49" t="s">
-        <v>1005</v>
+        <v>401</v>
       </c>
       <c r="C940" s="49" t="s">
-        <v>1005</v>
+        <v>401</v>
       </c>
       <c r="F940" s="49" t="s">
         <v>707</v>
@@ -26317,10 +26349,10 @@
         <v>308</v>
       </c>
       <c r="B941" s="49" t="s">
-        <v>1006</v>
+        <v>473</v>
       </c>
       <c r="C941" s="49" t="s">
-        <v>1006</v>
+        <v>473</v>
       </c>
       <c r="F941" s="49" t="s">
         <v>707</v>
@@ -26331,10 +26363,10 @@
         <v>308</v>
       </c>
       <c r="B942" s="49" t="s">
-        <v>447</v>
+        <v>1005</v>
       </c>
       <c r="C942" s="49" t="s">
-        <v>447</v>
+        <v>1005</v>
       </c>
       <c r="F942" s="49" t="s">
         <v>707</v>
@@ -26345,65 +26377,74 @@
         <v>308</v>
       </c>
       <c r="B943" s="49" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C943" s="49" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="F943" s="49" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="944" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B944" s="50"/>
-      <c r="C944" s="50"/>
-      <c r="F944" s="50"/>
+    <row r="944" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A944" t="s">
+        <v>308</v>
+      </c>
+      <c r="B944" s="49" t="s">
+        <v>447</v>
+      </c>
+      <c r="C944" s="49" t="s">
+        <v>447</v>
+      </c>
+      <c r="F944" s="49" t="s">
+        <v>707</v>
+      </c>
     </row>
     <row r="945" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A945" t="s">
         <v>308</v>
       </c>
       <c r="B945" s="49" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C945" s="49" t="s">
+        <v>1007</v>
+      </c>
+      <c r="F945" s="49" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="946" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B946" s="50"/>
+      <c r="C946" s="50"/>
+      <c r="F946" s="50"/>
+    </row>
+    <row r="947" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A947" t="s">
+        <v>308</v>
+      </c>
+      <c r="B947" s="49" t="s">
         <v>474</v>
       </c>
-      <c r="C945" s="49" t="s">
+      <c r="C947" s="49" t="s">
         <v>474</v>
       </c>
-      <c r="F945" s="49" t="s">
+      <c r="F947" s="49" t="s">
         <v>708</v>
       </c>
-    </row>
-    <row r="946" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A946" t="s">
-        <v>308</v>
-      </c>
-      <c r="B946" s="49" t="s">
-        <v>481</v>
-      </c>
-      <c r="C946" s="49" t="s">
-        <v>481</v>
-      </c>
-      <c r="F946" s="49" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="947" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B947" s="50"/>
-      <c r="C947" s="50"/>
-      <c r="F947" s="50"/>
     </row>
     <row r="948" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A948" t="s">
         <v>308</v>
       </c>
       <c r="B948" s="49" t="s">
-        <v>1008</v>
+        <v>481</v>
       </c>
       <c r="C948" s="49" t="s">
-        <v>1008</v>
+        <v>481</v>
       </c>
       <c r="F948" s="49" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="949" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -26416,13 +26457,13 @@
         <v>308</v>
       </c>
       <c r="B950" s="49" t="s">
-        <v>456</v>
+        <v>1008</v>
       </c>
       <c r="C950" s="49" t="s">
-        <v>456</v>
+        <v>1008</v>
       </c>
       <c r="F950" s="49" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="951" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -26435,13 +26476,13 @@
         <v>308</v>
       </c>
       <c r="B952" s="49" t="s">
-        <v>1009</v>
+        <v>456</v>
       </c>
       <c r="C952" s="49" t="s">
-        <v>1009</v>
+        <v>456</v>
       </c>
       <c r="F952" s="49" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="953" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -26449,24 +26490,24 @@
       <c r="C953" s="50"/>
       <c r="F953" s="50"/>
     </row>
-    <row r="954" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B954" s="50"/>
-      <c r="C954" s="50"/>
-      <c r="F954" s="50"/>
-    </row>
-    <row r="955" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A955" t="s">
-        <v>308</v>
-      </c>
-      <c r="B955" s="49" t="s">
-        <v>438</v>
-      </c>
-      <c r="C955" s="49" t="s">
-        <v>438</v>
-      </c>
-      <c r="F955" s="49" t="s">
-        <v>712</v>
-      </c>
+    <row r="954" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A954" t="s">
+        <v>308</v>
+      </c>
+      <c r="B954" s="49" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C954" s="49" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F954" s="49" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="955" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B955" s="50"/>
+      <c r="C955" s="50"/>
+      <c r="F955" s="50"/>
     </row>
     <row r="956" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B956" s="50"/>
@@ -26478,71 +26519,62 @@
         <v>308</v>
       </c>
       <c r="B957" s="49" t="s">
+        <v>438</v>
+      </c>
+      <c r="C957" s="49" t="s">
+        <v>438</v>
+      </c>
+      <c r="F957" s="49" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="958" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B958" s="50"/>
+      <c r="C958" s="50"/>
+      <c r="F958" s="50"/>
+    </row>
+    <row r="959" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A959" t="s">
+        <v>308</v>
+      </c>
+      <c r="B959" s="49" t="s">
         <v>1010</v>
       </c>
-      <c r="C957" s="49" t="s">
+      <c r="C959" s="49" t="s">
         <v>1010</v>
       </c>
-      <c r="F957" s="49" t="s">
+      <c r="F959" s="49" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="958" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A958" t="s">
-        <v>308</v>
-      </c>
-      <c r="B958" s="49" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C958" s="49" t="s">
-        <v>1011</v>
-      </c>
-      <c r="F958" s="49" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="959" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B959" s="50"/>
-      <c r="C959" s="50"/>
-      <c r="F959" s="50"/>
     </row>
     <row r="960" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A960" t="s">
         <v>308</v>
       </c>
       <c r="B960" s="49" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C960" s="49" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="F960" s="49" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="961" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A961" t="s">
-        <v>308</v>
-      </c>
-      <c r="B961" s="49" t="s">
-        <v>448</v>
-      </c>
-      <c r="C961" s="49" t="s">
-        <v>448</v>
-      </c>
-      <c r="F961" s="49" t="s">
-        <v>714</v>
-      </c>
+        <v>713</v>
+      </c>
+    </row>
+    <row r="961" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B961" s="50"/>
+      <c r="C961" s="50"/>
+      <c r="F961" s="50"/>
     </row>
     <row r="962" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A962" t="s">
         <v>308</v>
       </c>
       <c r="B962" s="49" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C962" s="49" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="F962" s="49" t="s">
         <v>714</v>
@@ -26553,31 +26585,59 @@
         <v>308</v>
       </c>
       <c r="B963" s="49" t="s">
-        <v>1014</v>
+        <v>448</v>
       </c>
       <c r="C963" s="49" t="s">
-        <v>1014</v>
+        <v>448</v>
       </c>
       <c r="F963" s="49" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="964" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B964" s="50"/>
-      <c r="C964" s="50"/>
-      <c r="F964" s="50"/>
+    <row r="964" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A964" t="s">
+        <v>308</v>
+      </c>
+      <c r="B964" s="49" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C964" s="49" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F964" s="49" t="s">
+        <v>714</v>
+      </c>
     </row>
     <row r="965" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A965" t="s">
         <v>308</v>
       </c>
       <c r="B965" s="49" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C965" s="49" t="s">
+        <v>1014</v>
+      </c>
+      <c r="F965" s="49" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="966" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B966" s="50"/>
+      <c r="C966" s="50"/>
+      <c r="F966" s="50"/>
+    </row>
+    <row r="967" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A967" t="s">
+        <v>308</v>
+      </c>
+      <c r="B967" s="49" t="s">
         <v>468</v>
       </c>
-      <c r="C965" s="49" t="s">
+      <c r="C967" s="49" t="s">
         <v>468</v>
       </c>
-      <c r="F965" s="49" t="s">
+      <c r="F967" s="49" t="s">
         <v>715</v>
       </c>
     </row>
@@ -26687,7 +26747,7 @@
       </c>
       <c r="C2" s="24">
         <f ca="1">NOW()</f>
-        <v>44880.980465162036</v>
+        <v>44883.658832986112</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>215</v>

--- a/forms/contact/suspected_case-create.xlsx
+++ b/forms/contact/suspected_case-create.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DBEA44E-96CF-480B-A638-6CCA155C6360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D301FED-9270-4EC7-BEC6-4D0FFB7B2919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3296" uniqueCount="1043">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3312" uniqueCount="1045">
   <si>
     <t>type</t>
   </si>
@@ -3170,6 +3170,12 @@
   </si>
   <si>
     <t>Mlaleo Health Centre (Mjambere)</t>
+  </si>
+  <si>
+    <t>Port Reitz Sub County Hospital (Airport)</t>
+  </si>
+  <si>
+    <t>Mbusyani Dispensary</t>
   </si>
 </sst>
 </file>
@@ -12781,11 +12787,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Y967"/>
+  <dimension ref="A1:Y970"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A746" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B768" sqref="B768"/>
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -19432,58 +19438,58 @@
         <v>590</v>
       </c>
     </row>
-    <row r="345" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B345" s="50"/>
-      <c r="C345" s="50"/>
-      <c r="F345" s="50"/>
-    </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A346" t="s">
-        <v>308</v>
-      </c>
-      <c r="B346" s="49" t="s">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>308</v>
+      </c>
+      <c r="B345" s="49" t="s">
+        <v>735</v>
+      </c>
+      <c r="C345" s="49" t="s">
+        <v>735</v>
+      </c>
+      <c r="F345" s="49" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B346" s="50"/>
+      <c r="C346" s="50"/>
+      <c r="F346" s="50"/>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>308</v>
+      </c>
+      <c r="B347" s="49" t="s">
         <v>738</v>
       </c>
-      <c r="C346" s="49" t="s">
+      <c r="C347" s="49" t="s">
         <v>738</v>
       </c>
-      <c r="F346" s="49" t="s">
+      <c r="F347" s="49" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="347" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B347" s="50"/>
-      <c r="C347" s="50"/>
-      <c r="F347" s="50"/>
     </row>
     <row r="348" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B348" s="50"/>
       <c r="C348" s="50"/>
       <c r="F348" s="50"/>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A349" t="s">
-        <v>308</v>
-      </c>
-      <c r="B349" s="49" t="s">
-        <v>343</v>
-      </c>
-      <c r="C349" s="49" t="s">
-        <v>343</v>
-      </c>
-      <c r="F349" s="49" t="s">
-        <v>592</v>
-      </c>
+    <row r="349" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B349" s="50"/>
+      <c r="C349" s="50"/>
+      <c r="F349" s="50"/>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>308</v>
       </c>
       <c r="B350" s="49" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="C350" s="49" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="F350" s="49" t="s">
         <v>592</v>
@@ -19494,10 +19500,10 @@
         <v>308</v>
       </c>
       <c r="B351" s="49" t="s">
-        <v>739</v>
+        <v>331</v>
       </c>
       <c r="C351" s="49" t="s">
-        <v>739</v>
+        <v>331</v>
       </c>
       <c r="F351" s="49" t="s">
         <v>592</v>
@@ -19508,43 +19514,43 @@
         <v>308</v>
       </c>
       <c r="B352" s="49" t="s">
-        <v>315</v>
+        <v>739</v>
       </c>
       <c r="C352" s="49" t="s">
-        <v>315</v>
+        <v>739</v>
       </c>
       <c r="F352" s="49" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="353" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B353" s="50"/>
-      <c r="C353" s="50"/>
-      <c r="F353" s="50"/>
-    </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A354" t="s">
-        <v>308</v>
-      </c>
-      <c r="B354" s="49" t="s">
-        <v>740</v>
-      </c>
-      <c r="C354" s="49" t="s">
-        <v>740</v>
-      </c>
-      <c r="F354" s="49" t="s">
-        <v>593</v>
-      </c>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>308</v>
+      </c>
+      <c r="B353" s="49" t="s">
+        <v>315</v>
+      </c>
+      <c r="C353" s="49" t="s">
+        <v>315</v>
+      </c>
+      <c r="F353" s="49" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B354" s="50"/>
+      <c r="C354" s="50"/>
+      <c r="F354" s="50"/>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>308</v>
       </c>
       <c r="B355" s="49" t="s">
-        <v>328</v>
+        <v>740</v>
       </c>
       <c r="C355" s="49" t="s">
-        <v>328</v>
+        <v>740</v>
       </c>
       <c r="F355" s="49" t="s">
         <v>593</v>
@@ -19555,10 +19561,10 @@
         <v>308</v>
       </c>
       <c r="B356" s="49" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C356" s="49" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="F356" s="49" t="s">
         <v>593</v>
@@ -19569,10 +19575,10 @@
         <v>308</v>
       </c>
       <c r="B357" s="49" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="C357" s="49" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="F357" s="49" t="s">
         <v>593</v>
@@ -19583,43 +19589,43 @@
         <v>308</v>
       </c>
       <c r="B358" s="49" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="C358" s="49" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="F358" s="49" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="359" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B359" s="50"/>
-      <c r="C359" s="50"/>
-      <c r="F359" s="50"/>
-    </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A360" t="s">
-        <v>308</v>
-      </c>
-      <c r="B360" s="49" t="s">
-        <v>741</v>
-      </c>
-      <c r="C360" s="49" t="s">
-        <v>741</v>
-      </c>
-      <c r="F360" s="49" t="s">
-        <v>594</v>
-      </c>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>308</v>
+      </c>
+      <c r="B359" s="49" t="s">
+        <v>319</v>
+      </c>
+      <c r="C359" s="49" t="s">
+        <v>319</v>
+      </c>
+      <c r="F359" s="49" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B360" s="50"/>
+      <c r="C360" s="50"/>
+      <c r="F360" s="50"/>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>308</v>
       </c>
       <c r="B361" s="49" t="s">
-        <v>326</v>
+        <v>741</v>
       </c>
       <c r="C361" s="49" t="s">
-        <v>326</v>
+        <v>741</v>
       </c>
       <c r="F361" s="49" t="s">
         <v>594</v>
@@ -19630,10 +19636,10 @@
         <v>308</v>
       </c>
       <c r="B362" s="49" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="C362" s="49" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="F362" s="49" t="s">
         <v>594</v>
@@ -19644,10 +19650,10 @@
         <v>308</v>
       </c>
       <c r="B363" s="49" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="C363" s="49" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="F363" s="49" t="s">
         <v>594</v>
@@ -19658,162 +19664,162 @@
         <v>308</v>
       </c>
       <c r="B364" s="49" t="s">
-        <v>346</v>
+        <v>309</v>
       </c>
       <c r="C364" s="49" t="s">
-        <v>346</v>
+        <v>309</v>
       </c>
       <c r="F364" s="49" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="365" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B365" s="50"/>
-      <c r="C365" s="50"/>
-      <c r="F365" s="50"/>
-    </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A366" t="s">
-        <v>308</v>
-      </c>
-      <c r="B366" s="49" t="s">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>308</v>
+      </c>
+      <c r="B365" s="49" t="s">
+        <v>346</v>
+      </c>
+      <c r="C365" s="49" t="s">
+        <v>346</v>
+      </c>
+      <c r="F365" s="49" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B366" s="50"/>
+      <c r="C366" s="50"/>
+      <c r="F366" s="50"/>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>308</v>
+      </c>
+      <c r="B367" s="49" t="s">
         <v>320</v>
       </c>
-      <c r="C366" s="49" t="s">
+      <c r="C367" s="49" t="s">
         <v>320</v>
       </c>
-      <c r="F366" s="49" t="s">
+      <c r="F367" s="49" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="367" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B367" s="50"/>
-      <c r="C367" s="50"/>
-      <c r="F367" s="50"/>
-    </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A368" t="s">
-        <v>308</v>
-      </c>
-      <c r="B368" s="49" t="s">
-        <v>742</v>
-      </c>
-      <c r="C368" s="49" t="s">
-        <v>742</v>
-      </c>
-      <c r="F368" s="49" t="s">
-        <v>596</v>
-      </c>
+    <row r="368" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B368" s="50"/>
+      <c r="C368" s="50"/>
+      <c r="F368" s="50"/>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>308</v>
       </c>
       <c r="B369" s="49" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C369" s="49" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="F369" s="49" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="370" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B370" s="50"/>
-      <c r="C370" s="50"/>
-      <c r="F370" s="50"/>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>308</v>
+      </c>
+      <c r="B370" s="49" t="s">
+        <v>743</v>
+      </c>
+      <c r="C370" s="49" t="s">
+        <v>743</v>
+      </c>
+      <c r="F370" s="49" t="s">
+        <v>596</v>
+      </c>
     </row>
     <row r="371" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B371" s="50"/>
       <c r="C371" s="50"/>
       <c r="F371" s="50"/>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A372" t="s">
-        <v>308</v>
-      </c>
-      <c r="B372" s="49" t="s">
+    <row r="372" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B372" s="50"/>
+      <c r="C372" s="50"/>
+      <c r="F372" s="50"/>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>308</v>
+      </c>
+      <c r="B373" s="49" t="s">
         <v>333</v>
       </c>
-      <c r="C372" s="49" t="s">
+      <c r="C373" s="49" t="s">
         <v>333</v>
       </c>
-      <c r="F372" s="49" t="s">
+      <c r="F373" s="49" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="373" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B373" s="50"/>
-      <c r="C373" s="50"/>
-      <c r="F373" s="50"/>
-    </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A374" t="s">
-        <v>308</v>
-      </c>
-      <c r="B374" s="49" t="s">
+    <row r="374" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B374" s="50"/>
+      <c r="C374" s="50"/>
+      <c r="F374" s="50"/>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>308</v>
+      </c>
+      <c r="B375" s="49" t="s">
         <v>342</v>
       </c>
-      <c r="C374" s="49" t="s">
+      <c r="C375" s="49" t="s">
         <v>342</v>
       </c>
-      <c r="F374" s="49" t="s">
+      <c r="F375" s="49" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="375" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B375" s="50"/>
-      <c r="C375" s="50"/>
-      <c r="F375" s="50"/>
-    </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A376" t="s">
-        <v>308</v>
-      </c>
-      <c r="B376" s="49" t="s">
+    <row r="376" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B376" s="50"/>
+      <c r="C376" s="50"/>
+      <c r="F376" s="50"/>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>308</v>
+      </c>
+      <c r="B377" s="49" t="s">
         <v>312</v>
       </c>
-      <c r="C376" s="49" t="s">
+      <c r="C377" s="49" t="s">
         <v>312</v>
       </c>
-      <c r="F376" s="49" t="s">
+      <c r="F377" s="49" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="377" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B377" s="50"/>
-      <c r="C377" s="50"/>
-      <c r="F377" s="50"/>
     </row>
     <row r="378" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B378" s="50"/>
       <c r="C378" s="50"/>
       <c r="F378" s="50"/>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A379" t="s">
-        <v>308</v>
-      </c>
-      <c r="B379" s="49" t="s">
-        <v>354</v>
-      </c>
-      <c r="C379" s="49" t="s">
-        <v>354</v>
-      </c>
-      <c r="F379" s="49" t="s">
-        <v>600</v>
-      </c>
+    <row r="379" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B379" s="50"/>
+      <c r="C379" s="50"/>
+      <c r="F379" s="50"/>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>308</v>
       </c>
       <c r="B380" s="49" t="s">
-        <v>314</v>
+        <v>354</v>
       </c>
       <c r="C380" s="49" t="s">
-        <v>314</v>
+        <v>354</v>
       </c>
       <c r="F380" s="49" t="s">
         <v>600</v>
@@ -19824,10 +19830,10 @@
         <v>308</v>
       </c>
       <c r="B381" s="49" t="s">
-        <v>353</v>
+        <v>314</v>
       </c>
       <c r="C381" s="49" t="s">
-        <v>353</v>
+        <v>314</v>
       </c>
       <c r="F381" s="49" t="s">
         <v>600</v>
@@ -19838,10 +19844,10 @@
         <v>308</v>
       </c>
       <c r="B382" s="49" t="s">
-        <v>332</v>
+        <v>353</v>
       </c>
       <c r="C382" s="49" t="s">
-        <v>332</v>
+        <v>353</v>
       </c>
       <c r="F382" s="49" t="s">
         <v>600</v>
@@ -19852,10 +19858,10 @@
         <v>308</v>
       </c>
       <c r="B383" s="49" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C383" s="49" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="F383" s="49" t="s">
         <v>600</v>
@@ -19866,10 +19872,10 @@
         <v>308</v>
       </c>
       <c r="B384" s="49" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C384" s="49" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="F384" s="49" t="s">
         <v>600</v>
@@ -19880,10 +19886,10 @@
         <v>308</v>
       </c>
       <c r="B385" s="49" t="s">
-        <v>316</v>
+        <v>341</v>
       </c>
       <c r="C385" s="49" t="s">
-        <v>316</v>
+        <v>341</v>
       </c>
       <c r="F385" s="49" t="s">
         <v>600</v>
@@ -19894,43 +19900,43 @@
         <v>308</v>
       </c>
       <c r="B386" s="49" t="s">
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="C386" s="49" t="s">
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="F386" s="49" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="387" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B387" s="50"/>
-      <c r="C387" s="50"/>
-      <c r="F387" s="50"/>
-    </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A388" t="s">
-        <v>308</v>
-      </c>
-      <c r="B388" s="49" t="s">
-        <v>313</v>
-      </c>
-      <c r="C388" s="49" t="s">
-        <v>313</v>
-      </c>
-      <c r="F388" s="49" t="s">
-        <v>601</v>
-      </c>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>308</v>
+      </c>
+      <c r="B387" s="49" t="s">
+        <v>344</v>
+      </c>
+      <c r="C387" s="49" t="s">
+        <v>344</v>
+      </c>
+      <c r="F387" s="49" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B388" s="50"/>
+      <c r="C388" s="50"/>
+      <c r="F388" s="50"/>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>308</v>
       </c>
       <c r="B389" s="49" t="s">
-        <v>744</v>
+        <v>313</v>
       </c>
       <c r="C389" s="49" t="s">
-        <v>744</v>
+        <v>313</v>
       </c>
       <c r="F389" s="49" t="s">
         <v>601</v>
@@ -19941,10 +19947,10 @@
         <v>308</v>
       </c>
       <c r="B390" s="49" t="s">
-        <v>348</v>
+        <v>744</v>
       </c>
       <c r="C390" s="49" t="s">
-        <v>348</v>
+        <v>744</v>
       </c>
       <c r="F390" s="49" t="s">
         <v>601</v>
@@ -19955,10 +19961,10 @@
         <v>308</v>
       </c>
       <c r="B391" s="49" t="s">
-        <v>745</v>
+        <v>348</v>
       </c>
       <c r="C391" s="49" t="s">
-        <v>745</v>
+        <v>348</v>
       </c>
       <c r="F391" s="49" t="s">
         <v>601</v>
@@ -19969,10 +19975,10 @@
         <v>308</v>
       </c>
       <c r="B392" s="49" t="s">
-        <v>330</v>
+        <v>745</v>
       </c>
       <c r="C392" s="49" t="s">
-        <v>330</v>
+        <v>745</v>
       </c>
       <c r="F392" s="49" t="s">
         <v>601</v>
@@ -19983,10 +19989,10 @@
         <v>308</v>
       </c>
       <c r="B393" s="49" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="C393" s="49" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="F393" s="49" t="s">
         <v>601</v>
@@ -19997,43 +20003,43 @@
         <v>308</v>
       </c>
       <c r="B394" s="49" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="C394" s="49" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="F394" s="49" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="395" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B395" s="50"/>
-      <c r="C395" s="50"/>
-      <c r="F395" s="50"/>
-    </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A396" t="s">
-        <v>308</v>
-      </c>
-      <c r="B396" s="49" t="s">
-        <v>350</v>
-      </c>
-      <c r="C396" s="49" t="s">
-        <v>350</v>
-      </c>
-      <c r="F396" s="49" t="s">
-        <v>602</v>
-      </c>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>308</v>
+      </c>
+      <c r="B395" s="49" t="s">
+        <v>347</v>
+      </c>
+      <c r="C395" s="49" t="s">
+        <v>347</v>
+      </c>
+      <c r="F395" s="49" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B396" s="50"/>
+      <c r="C396" s="50"/>
+      <c r="F396" s="50"/>
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>308</v>
       </c>
       <c r="B397" s="49" t="s">
-        <v>324</v>
+        <v>350</v>
       </c>
       <c r="C397" s="49" t="s">
-        <v>324</v>
+        <v>350</v>
       </c>
       <c r="F397" s="49" t="s">
         <v>602</v>
@@ -20044,10 +20050,10 @@
         <v>308</v>
       </c>
       <c r="B398" s="49" t="s">
-        <v>746</v>
+        <v>324</v>
       </c>
       <c r="C398" s="49" t="s">
-        <v>746</v>
+        <v>324</v>
       </c>
       <c r="F398" s="49" t="s">
         <v>602</v>
@@ -20058,10 +20064,10 @@
         <v>308</v>
       </c>
       <c r="B399" s="49" t="s">
-        <v>327</v>
+        <v>746</v>
       </c>
       <c r="C399" s="49" t="s">
-        <v>327</v>
+        <v>746</v>
       </c>
       <c r="F399" s="49" t="s">
         <v>602</v>
@@ -20072,10 +20078,10 @@
         <v>308</v>
       </c>
       <c r="B400" s="49" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C400" s="49" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F400" s="49" t="s">
         <v>602</v>
@@ -20086,10 +20092,10 @@
         <v>308</v>
       </c>
       <c r="B401" s="49" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="C401" s="49" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="F401" s="49" t="s">
         <v>602</v>
@@ -20100,10 +20106,10 @@
         <v>308</v>
       </c>
       <c r="B402" s="49" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="C402" s="49" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="F402" s="49" t="s">
         <v>602</v>
@@ -20114,43 +20120,43 @@
         <v>308</v>
       </c>
       <c r="B403" s="49" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C403" s="49" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F403" s="49" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="404" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B404" s="50"/>
-      <c r="C404" s="50"/>
-      <c r="F404" s="50"/>
-    </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A405" t="s">
-        <v>308</v>
-      </c>
-      <c r="B405" s="49" t="s">
-        <v>323</v>
-      </c>
-      <c r="C405" s="49" t="s">
-        <v>323</v>
-      </c>
-      <c r="F405" s="49" t="s">
-        <v>603</v>
-      </c>
+    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>308</v>
+      </c>
+      <c r="B404" s="49" t="s">
+        <v>340</v>
+      </c>
+      <c r="C404" s="49" t="s">
+        <v>340</v>
+      </c>
+      <c r="F404" s="49" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B405" s="50"/>
+      <c r="C405" s="50"/>
+      <c r="F405" s="50"/>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>308</v>
       </c>
       <c r="B406" s="49" t="s">
-        <v>352</v>
+        <v>323</v>
       </c>
       <c r="C406" s="49" t="s">
-        <v>352</v>
+        <v>323</v>
       </c>
       <c r="F406" s="49" t="s">
         <v>603</v>
@@ -20161,10 +20167,10 @@
         <v>308</v>
       </c>
       <c r="B407" s="49" t="s">
-        <v>317</v>
+        <v>352</v>
       </c>
       <c r="C407" s="49" t="s">
-        <v>317</v>
+        <v>352</v>
       </c>
       <c r="F407" s="49" t="s">
         <v>603</v>
@@ -20175,10 +20181,10 @@
         <v>308</v>
       </c>
       <c r="B408" s="49" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="C408" s="49" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="F408" s="49" t="s">
         <v>603</v>
@@ -20189,10 +20195,10 @@
         <v>308</v>
       </c>
       <c r="B409" s="49" t="s">
-        <v>311</v>
+        <v>349</v>
       </c>
       <c r="C409" s="49" t="s">
-        <v>311</v>
+        <v>349</v>
       </c>
       <c r="F409" s="49" t="s">
         <v>603</v>
@@ -20203,10 +20209,10 @@
         <v>308</v>
       </c>
       <c r="B410" s="49" t="s">
-        <v>747</v>
+        <v>311</v>
       </c>
       <c r="C410" s="49" t="s">
-        <v>747</v>
+        <v>311</v>
       </c>
       <c r="F410" s="49" t="s">
         <v>603</v>
@@ -20217,10 +20223,10 @@
         <v>308</v>
       </c>
       <c r="B411" s="49" t="s">
-        <v>335</v>
+        <v>747</v>
       </c>
       <c r="C411" s="49" t="s">
-        <v>335</v>
+        <v>747</v>
       </c>
       <c r="F411" s="49" t="s">
         <v>603</v>
@@ -20231,10 +20237,10 @@
         <v>308</v>
       </c>
       <c r="B412" s="49" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C412" s="49" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F412" s="49" t="s">
         <v>603</v>
@@ -20245,10 +20251,10 @@
         <v>308</v>
       </c>
       <c r="B413" s="49" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C413" s="49" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F413" s="49" t="s">
         <v>603</v>
@@ -20259,10 +20265,10 @@
         <v>308</v>
       </c>
       <c r="B414" s="49" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C414" s="49" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F414" s="49" t="s">
         <v>603</v>
@@ -20273,10 +20279,10 @@
         <v>308</v>
       </c>
       <c r="B415" s="49" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="C415" s="49" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="F415" s="49" t="s">
         <v>603</v>
@@ -20287,48 +20293,48 @@
         <v>308</v>
       </c>
       <c r="B416" s="49" t="s">
-        <v>345</v>
+        <v>321</v>
       </c>
       <c r="C416" s="49" t="s">
-        <v>345</v>
+        <v>321</v>
       </c>
       <c r="F416" s="49" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="417" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B417" s="50"/>
-      <c r="C417" s="50"/>
-      <c r="F417" s="50"/>
+    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
+        <v>308</v>
+      </c>
+      <c r="B417" s="49" t="s">
+        <v>345</v>
+      </c>
+      <c r="C417" s="49" t="s">
+        <v>345</v>
+      </c>
+      <c r="F417" s="49" t="s">
+        <v>603</v>
+      </c>
     </row>
     <row r="418" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B418" s="50"/>
       <c r="C418" s="50"/>
       <c r="F418" s="50"/>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A419" t="s">
-        <v>308</v>
-      </c>
-      <c r="B419" s="49" t="s">
-        <v>748</v>
-      </c>
-      <c r="C419" s="49" t="s">
-        <v>748</v>
-      </c>
-      <c r="F419" s="49" t="s">
-        <v>604</v>
-      </c>
+    <row r="419" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B419" s="50"/>
+      <c r="C419" s="50"/>
+      <c r="F419" s="50"/>
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>308</v>
       </c>
       <c r="B420" s="49" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C420" s="49" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="F420" s="49" t="s">
         <v>604</v>
@@ -20339,10 +20345,10 @@
         <v>308</v>
       </c>
       <c r="B421" s="49" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C421" s="49" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="F421" s="49" t="s">
         <v>604</v>
@@ -20353,10 +20359,10 @@
         <v>308</v>
       </c>
       <c r="B422" s="49" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C422" s="49" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F422" s="49" t="s">
         <v>604</v>
@@ -20367,10 +20373,10 @@
         <v>308</v>
       </c>
       <c r="B423" s="49" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C423" s="49" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="F423" s="49" t="s">
         <v>604</v>
@@ -20381,76 +20387,76 @@
         <v>308</v>
       </c>
       <c r="B424" s="49" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C424" s="49" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="F424" s="49" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="425" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B425" s="50"/>
-      <c r="C425" s="50"/>
-      <c r="F425" s="50"/>
-    </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A426" t="s">
-        <v>308</v>
-      </c>
-      <c r="B426" s="49" t="s">
-        <v>754</v>
-      </c>
-      <c r="C426" s="49" t="s">
-        <v>754</v>
-      </c>
-      <c r="F426" s="49" t="s">
-        <v>605</v>
-      </c>
+    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>308</v>
+      </c>
+      <c r="B425" s="49" t="s">
+        <v>753</v>
+      </c>
+      <c r="C425" s="49" t="s">
+        <v>753</v>
+      </c>
+      <c r="F425" s="49" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B426" s="50"/>
+      <c r="C426" s="50"/>
+      <c r="F426" s="50"/>
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>308</v>
       </c>
       <c r="B427" s="49" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C427" s="49" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="F427" s="49" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="428" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B428" s="50"/>
-      <c r="C428" s="50"/>
-      <c r="F428" s="50"/>
-    </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A429" t="s">
-        <v>308</v>
-      </c>
-      <c r="B429" s="49" t="s">
-        <v>756</v>
-      </c>
-      <c r="C429" s="49" t="s">
-        <v>756</v>
-      </c>
-      <c r="F429" s="49" t="s">
-        <v>606</v>
-      </c>
+    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>308</v>
+      </c>
+      <c r="B428" s="49" t="s">
+        <v>755</v>
+      </c>
+      <c r="C428" s="49" t="s">
+        <v>755</v>
+      </c>
+      <c r="F428" s="49" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B429" s="50"/>
+      <c r="C429" s="50"/>
+      <c r="F429" s="50"/>
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>308</v>
       </c>
       <c r="B430" s="49" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C430" s="49" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F430" s="49" t="s">
         <v>606</v>
@@ -20461,10 +20467,10 @@
         <v>308</v>
       </c>
       <c r="B431" s="49" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C431" s="49" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F431" s="49" t="s">
         <v>606</v>
@@ -20475,10 +20481,10 @@
         <v>308</v>
       </c>
       <c r="B432" s="49" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C432" s="49" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="F432" s="49" t="s">
         <v>606</v>
@@ -20489,10 +20495,10 @@
         <v>308</v>
       </c>
       <c r="B433" s="49" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C433" s="49" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="F433" s="49" t="s">
         <v>606</v>
@@ -20503,10 +20509,10 @@
         <v>308</v>
       </c>
       <c r="B434" s="49" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C434" s="49" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="F434" s="49" t="s">
         <v>606</v>
@@ -20517,43 +20523,43 @@
         <v>308</v>
       </c>
       <c r="B435" s="49" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C435" s="49" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="F435" s="49" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="436" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B436" s="50"/>
-      <c r="C436" s="50"/>
-      <c r="F436" s="50"/>
-    </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A437" t="s">
-        <v>308</v>
-      </c>
-      <c r="B437" s="49" t="s">
-        <v>763</v>
-      </c>
-      <c r="C437" s="49" t="s">
-        <v>763</v>
-      </c>
-      <c r="F437" s="49" t="s">
-        <v>607</v>
-      </c>
+    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>308</v>
+      </c>
+      <c r="B436" s="49" t="s">
+        <v>762</v>
+      </c>
+      <c r="C436" s="49" t="s">
+        <v>762</v>
+      </c>
+      <c r="F436" s="49" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B437" s="50"/>
+      <c r="C437" s="50"/>
+      <c r="F437" s="50"/>
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>308</v>
       </c>
       <c r="B438" s="49" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C438" s="49" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="F438" s="49" t="s">
         <v>607</v>
@@ -20564,10 +20570,10 @@
         <v>308</v>
       </c>
       <c r="B439" s="49" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C439" s="49" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="F439" s="49" t="s">
         <v>607</v>
@@ -20578,10 +20584,10 @@
         <v>308</v>
       </c>
       <c r="B440" s="49" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C440" s="49" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="F440" s="49" t="s">
         <v>607</v>
@@ -20592,10 +20598,10 @@
         <v>308</v>
       </c>
       <c r="B441" s="49" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C441" s="49" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="F441" s="49" t="s">
         <v>607</v>
@@ -20606,10 +20612,10 @@
         <v>308</v>
       </c>
       <c r="B442" s="49" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C442" s="49" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="F442" s="49" t="s">
         <v>607</v>
@@ -20620,10 +20626,10 @@
         <v>308</v>
       </c>
       <c r="B443" s="49" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C443" s="49" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F443" s="49" t="s">
         <v>607</v>
@@ -20634,53 +20640,53 @@
         <v>308</v>
       </c>
       <c r="B444" s="49" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C444" s="49" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F444" s="49" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B445" s="49"/>
-      <c r="C445" s="49"/>
-      <c r="F445" s="49"/>
+      <c r="A445" t="s">
+        <v>308</v>
+      </c>
+      <c r="B445" s="49" t="s">
+        <v>770</v>
+      </c>
+      <c r="C445" s="49" t="s">
+        <v>770</v>
+      </c>
+      <c r="F445" s="49" t="s">
+        <v>607</v>
+      </c>
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B446" s="49"/>
       <c r="C446" s="49"/>
       <c r="F446" s="49"/>
     </row>
-    <row r="447" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B447" s="50"/>
-      <c r="C447" s="50"/>
-      <c r="F447" s="50"/>
-    </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A448" t="s">
-        <v>308</v>
-      </c>
-      <c r="B448" s="49" t="s">
-        <v>771</v>
-      </c>
-      <c r="C448" s="49" t="s">
-        <v>771</v>
-      </c>
-      <c r="F448" s="49" t="s">
-        <v>608</v>
-      </c>
+    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B447" s="49"/>
+      <c r="C447" s="49"/>
+      <c r="F447" s="49"/>
+    </row>
+    <row r="448" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B448" s="50"/>
+      <c r="C448" s="50"/>
+      <c r="F448" s="50"/>
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>308</v>
       </c>
       <c r="B449" s="49" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C449" s="49" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F449" s="49" t="s">
         <v>608</v>
@@ -20691,10 +20697,10 @@
         <v>308</v>
       </c>
       <c r="B450" s="49" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C450" s="49" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F450" s="49" t="s">
         <v>608</v>
@@ -20705,10 +20711,10 @@
         <v>308</v>
       </c>
       <c r="B451" s="49" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C451" s="49" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="F451" s="49" t="s">
         <v>608</v>
@@ -20719,10 +20725,10 @@
         <v>308</v>
       </c>
       <c r="B452" s="49" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C452" s="49" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F452" s="49" t="s">
         <v>608</v>
@@ -20733,27 +20739,27 @@
         <v>308</v>
       </c>
       <c r="B453" s="49" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C453" s="49" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="F453" s="49" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A455" t="s">
-        <v>308</v>
-      </c>
-      <c r="B455" s="49" t="s">
-        <v>777</v>
-      </c>
-      <c r="C455" s="49" t="s">
-        <v>777</v>
-      </c>
-      <c r="F455" s="49" t="s">
-        <v>556</v>
+    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A454" t="s">
+        <v>308</v>
+      </c>
+      <c r="B454" s="49" t="s">
+        <v>776</v>
+      </c>
+      <c r="C454" s="49" t="s">
+        <v>776</v>
+      </c>
+      <c r="F454" s="49" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.25">
@@ -20761,43 +20767,43 @@
         <v>308</v>
       </c>
       <c r="B456" s="49" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C456" s="49" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F456" s="49" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="457" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B457" s="50"/>
-      <c r="C457" s="50"/>
-      <c r="F457" s="50"/>
-    </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A458" t="s">
-        <v>308</v>
-      </c>
-      <c r="B458" s="49" t="s">
-        <v>779</v>
-      </c>
-      <c r="C458" s="49" t="s">
-        <v>779</v>
-      </c>
-      <c r="F458" s="49" t="s">
-        <v>609</v>
-      </c>
+    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A457" t="s">
+        <v>308</v>
+      </c>
+      <c r="B457" s="49" t="s">
+        <v>778</v>
+      </c>
+      <c r="C457" s="49" t="s">
+        <v>778</v>
+      </c>
+      <c r="F457" s="49" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="458" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B458" s="50"/>
+      <c r="C458" s="50"/>
+      <c r="F458" s="50"/>
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>308</v>
       </c>
       <c r="B459" s="49" t="s">
-        <v>361</v>
+        <v>779</v>
       </c>
       <c r="C459" s="49" t="s">
-        <v>361</v>
+        <v>779</v>
       </c>
       <c r="F459" s="49" t="s">
         <v>609</v>
@@ -20808,114 +20814,114 @@
         <v>308</v>
       </c>
       <c r="B460" s="49" t="s">
-        <v>780</v>
+        <v>361</v>
       </c>
       <c r="C460" s="49" t="s">
-        <v>780</v>
+        <v>361</v>
       </c>
       <c r="F460" s="49" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="461" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B461" s="50"/>
-      <c r="C461" s="50"/>
-      <c r="F461" s="50"/>
-    </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A462" t="s">
-        <v>308</v>
-      </c>
-      <c r="B462" s="49" t="s">
-        <v>393</v>
-      </c>
-      <c r="C462" s="49" t="s">
-        <v>393</v>
-      </c>
-      <c r="F462" s="49" t="s">
-        <v>610</v>
-      </c>
+    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A461" t="s">
+        <v>308</v>
+      </c>
+      <c r="B461" s="49" t="s">
+        <v>780</v>
+      </c>
+      <c r="C461" s="49" t="s">
+        <v>780</v>
+      </c>
+      <c r="F461" s="49" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="462" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B462" s="50"/>
+      <c r="C462" s="50"/>
+      <c r="F462" s="50"/>
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>308</v>
       </c>
       <c r="B463" s="49" t="s">
-        <v>359</v>
+        <v>393</v>
       </c>
       <c r="C463" s="49" t="s">
-        <v>359</v>
+        <v>393</v>
       </c>
       <c r="F463" s="49" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="464" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B464" s="50"/>
-      <c r="C464" s="50"/>
-      <c r="F464" s="50"/>
-    </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A465" t="s">
-        <v>308</v>
-      </c>
-      <c r="B465" s="49" t="s">
-        <v>364</v>
-      </c>
-      <c r="C465" s="49" t="s">
-        <v>364</v>
-      </c>
-      <c r="F465" s="49" t="s">
-        <v>611</v>
-      </c>
+    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A464" t="s">
+        <v>308</v>
+      </c>
+      <c r="B464" s="49" t="s">
+        <v>359</v>
+      </c>
+      <c r="C464" s="49" t="s">
+        <v>359</v>
+      </c>
+      <c r="F464" s="49" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="465" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B465" s="50"/>
+      <c r="C465" s="50"/>
+      <c r="F465" s="50"/>
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>308</v>
       </c>
       <c r="B466" s="49" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C466" s="49" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="F466" s="49" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="467" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B467" s="50"/>
-      <c r="C467" s="50"/>
-      <c r="F467" s="50"/>
+    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A467" t="s">
+        <v>308</v>
+      </c>
+      <c r="B467" s="49" t="s">
+        <v>369</v>
+      </c>
+      <c r="C467" s="49" t="s">
+        <v>369</v>
+      </c>
+      <c r="F467" s="49" t="s">
+        <v>611</v>
+      </c>
     </row>
     <row r="468" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B468" s="50"/>
       <c r="C468" s="50"/>
       <c r="F468" s="50"/>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A469" t="s">
-        <v>308</v>
-      </c>
-      <c r="B469" s="49" t="s">
-        <v>781</v>
-      </c>
-      <c r="C469" s="49" t="s">
-        <v>781</v>
-      </c>
-      <c r="F469" s="49" t="s">
-        <v>557</v>
-      </c>
+    <row r="469" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B469" s="50"/>
+      <c r="C469" s="50"/>
+      <c r="F469" s="50"/>
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>308</v>
       </c>
       <c r="B470" s="49" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C470" s="49" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F470" s="49" t="s">
         <v>557</v>
@@ -20926,10 +20932,10 @@
         <v>308</v>
       </c>
       <c r="B471" s="49" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C471" s="49" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="F471" s="49" t="s">
         <v>557</v>
@@ -20940,10 +20946,10 @@
         <v>308</v>
       </c>
       <c r="B472" s="49" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C472" s="49" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="F472" s="49" t="s">
         <v>557</v>
@@ -20954,10 +20960,10 @@
         <v>308</v>
       </c>
       <c r="B473" s="49" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C473" s="49" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F473" s="49" t="s">
         <v>557</v>
@@ -20968,10 +20974,10 @@
         <v>308</v>
       </c>
       <c r="B474" s="49" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C474" s="49" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="F474" s="49" t="s">
         <v>557</v>
@@ -20982,10 +20988,10 @@
         <v>308</v>
       </c>
       <c r="B475" s="49" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C475" s="49" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F475" s="49" t="s">
         <v>557</v>
@@ -20996,10 +21002,10 @@
         <v>308</v>
       </c>
       <c r="B476" s="49" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C476" s="49" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="F476" s="49" t="s">
         <v>557</v>
@@ -21010,43 +21016,43 @@
         <v>308</v>
       </c>
       <c r="B477" s="49" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C477" s="49" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="F477" s="49" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="478" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B478" s="50"/>
-      <c r="C478" s="50"/>
-      <c r="F478" s="50"/>
-    </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A479" t="s">
-        <v>308</v>
-      </c>
-      <c r="B479" s="49" t="s">
-        <v>790</v>
-      </c>
-      <c r="C479" s="49" t="s">
-        <v>790</v>
-      </c>
-      <c r="F479" s="49" t="s">
-        <v>612</v>
-      </c>
+    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A478" t="s">
+        <v>308</v>
+      </c>
+      <c r="B478" s="49" t="s">
+        <v>789</v>
+      </c>
+      <c r="C478" s="49" t="s">
+        <v>789</v>
+      </c>
+      <c r="F478" s="49" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="479" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B479" s="50"/>
+      <c r="C479" s="50"/>
+      <c r="F479" s="50"/>
     </row>
     <row r="480" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>308</v>
       </c>
       <c r="B480" s="49" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C480" s="49" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="F480" s="49" t="s">
         <v>612</v>
@@ -21057,10 +21063,10 @@
         <v>308</v>
       </c>
       <c r="B481" s="49" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C481" s="49" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="F481" s="49" t="s">
         <v>612</v>
@@ -21071,10 +21077,10 @@
         <v>308</v>
       </c>
       <c r="B482" s="49" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C482" s="49" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="F482" s="49" t="s">
         <v>612</v>
@@ -21085,67 +21091,67 @@
         <v>308</v>
       </c>
       <c r="B483" s="49" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C483" s="49" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="F483" s="49" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="484" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B484" s="50"/>
-      <c r="C484" s="50"/>
-      <c r="F484" s="50"/>
+    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A484" t="s">
+        <v>308</v>
+      </c>
+      <c r="B484" s="49" t="s">
+        <v>794</v>
+      </c>
+      <c r="C484" s="49" t="s">
+        <v>794</v>
+      </c>
+      <c r="F484" s="49" t="s">
+        <v>612</v>
+      </c>
     </row>
     <row r="485" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B485" s="50"/>
       <c r="C485" s="50"/>
       <c r="F485" s="50"/>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A486" t="s">
-        <v>308</v>
-      </c>
-      <c r="B486" s="49" t="s">
+    <row r="486" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B486" s="50"/>
+      <c r="C486" s="50"/>
+      <c r="F486" s="50"/>
+    </row>
+    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A487" t="s">
+        <v>308</v>
+      </c>
+      <c r="B487" s="49" t="s">
         <v>795</v>
       </c>
-      <c r="C486" s="49" t="s">
+      <c r="C487" s="49" t="s">
         <v>795</v>
       </c>
-      <c r="F486" s="49" t="s">
+      <c r="F487" s="49" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="487" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B487" s="50"/>
-      <c r="C487" s="50"/>
-      <c r="F487" s="50"/>
-    </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A488" t="s">
-        <v>308</v>
-      </c>
-      <c r="B488" s="49" t="s">
-        <v>796</v>
-      </c>
-      <c r="C488" s="49" t="s">
-        <v>796</v>
-      </c>
-      <c r="F488" s="49" t="s">
-        <v>614</v>
-      </c>
+    <row r="488" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B488" s="50"/>
+      <c r="C488" s="50"/>
+      <c r="F488" s="50"/>
     </row>
     <row r="489" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>308</v>
       </c>
       <c r="B489" s="49" t="s">
-        <v>395</v>
+        <v>796</v>
       </c>
       <c r="C489" s="49" t="s">
-        <v>395</v>
+        <v>796</v>
       </c>
       <c r="F489" s="49" t="s">
         <v>614</v>
@@ -21156,76 +21162,76 @@
         <v>308</v>
       </c>
       <c r="B490" s="49" t="s">
-        <v>373</v>
+        <v>395</v>
       </c>
       <c r="C490" s="49" t="s">
-        <v>373</v>
+        <v>395</v>
       </c>
       <c r="F490" s="49" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="491" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B491" s="50"/>
-      <c r="C491" s="50"/>
-      <c r="F491" s="50"/>
-    </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A492" t="s">
-        <v>308</v>
-      </c>
-      <c r="B492" s="49" t="s">
-        <v>371</v>
-      </c>
-      <c r="C492" s="49" t="s">
-        <v>371</v>
-      </c>
-      <c r="F492" s="49" t="s">
-        <v>615</v>
-      </c>
+    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A491" t="s">
+        <v>308</v>
+      </c>
+      <c r="B491" s="49" t="s">
+        <v>373</v>
+      </c>
+      <c r="C491" s="49" t="s">
+        <v>373</v>
+      </c>
+      <c r="F491" s="49" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="492" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B492" s="50"/>
+      <c r="C492" s="50"/>
+      <c r="F492" s="50"/>
     </row>
     <row r="493" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>308</v>
       </c>
       <c r="B493" s="49" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="C493" s="49" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="F493" s="49" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="494" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B494" s="50"/>
-      <c r="C494" s="50"/>
-      <c r="F494" s="50"/>
-    </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A495" t="s">
-        <v>308</v>
-      </c>
-      <c r="B495" s="49" t="s">
-        <v>386</v>
-      </c>
-      <c r="C495" s="49" t="s">
-        <v>386</v>
-      </c>
-      <c r="F495" s="49" t="s">
-        <v>616</v>
-      </c>
+    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A494" t="s">
+        <v>308</v>
+      </c>
+      <c r="B494" s="49" t="s">
+        <v>377</v>
+      </c>
+      <c r="C494" s="49" t="s">
+        <v>377</v>
+      </c>
+      <c r="F494" s="49" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="495" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B495" s="50"/>
+      <c r="C495" s="50"/>
+      <c r="F495" s="50"/>
     </row>
     <row r="496" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>308</v>
       </c>
       <c r="B496" s="49" t="s">
-        <v>370</v>
+        <v>386</v>
       </c>
       <c r="C496" s="49" t="s">
-        <v>370</v>
+        <v>386</v>
       </c>
       <c r="F496" s="49" t="s">
         <v>616</v>
@@ -21236,10 +21242,10 @@
         <v>308</v>
       </c>
       <c r="B497" s="49" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="C497" s="49" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="F497" s="49" t="s">
         <v>616</v>
@@ -21250,10 +21256,10 @@
         <v>308</v>
       </c>
       <c r="B498" s="49" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="C498" s="49" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="F498" s="49" t="s">
         <v>616</v>
@@ -21264,48 +21270,57 @@
         <v>308</v>
       </c>
       <c r="B499" s="49" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="C499" s="49" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="F499" s="49" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="500" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B500" s="50"/>
-      <c r="C500" s="50"/>
-      <c r="F500" s="50"/>
-    </row>
-    <row r="501" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B501" s="50"/>
-      <c r="C501" s="50"/>
-      <c r="F501" s="50"/>
-    </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A502" t="s">
-        <v>308</v>
-      </c>
-      <c r="B502" s="49" t="s">
-        <v>797</v>
-      </c>
-      <c r="C502" s="49" t="s">
-        <v>797</v>
-      </c>
-      <c r="F502" s="49" t="s">
-        <v>617</v>
-      </c>
+    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A500" t="s">
+        <v>308</v>
+      </c>
+      <c r="B500" s="49" t="s">
+        <v>380</v>
+      </c>
+      <c r="C500" s="49" t="s">
+        <v>380</v>
+      </c>
+      <c r="F500" s="49" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A501" t="s">
+        <v>308</v>
+      </c>
+      <c r="B501" s="49" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C501" s="49" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F501" s="49" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="502" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B502" s="50"/>
+      <c r="C502" s="50"/>
+      <c r="F502" s="50"/>
     </row>
     <row r="503" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>308</v>
       </c>
       <c r="B503" s="49" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C503" s="49" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F503" s="49" t="s">
         <v>617</v>
@@ -21316,43 +21331,43 @@
         <v>308</v>
       </c>
       <c r="B504" s="49" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C504" s="49" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F504" s="49" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="505" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B505" s="50"/>
-      <c r="C505" s="50"/>
-      <c r="F505" s="50"/>
-    </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A506" t="s">
-        <v>308</v>
-      </c>
-      <c r="B506" s="49" t="s">
-        <v>800</v>
-      </c>
-      <c r="C506" s="49" t="s">
-        <v>800</v>
-      </c>
-      <c r="F506" s="49" t="s">
-        <v>618</v>
-      </c>
+    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A505" t="s">
+        <v>308</v>
+      </c>
+      <c r="B505" s="49" t="s">
+        <v>799</v>
+      </c>
+      <c r="C505" s="49" t="s">
+        <v>799</v>
+      </c>
+      <c r="F505" s="49" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="506" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B506" s="50"/>
+      <c r="C506" s="50"/>
+      <c r="F506" s="50"/>
     </row>
     <row r="507" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>308</v>
       </c>
       <c r="B507" s="49" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C507" s="49" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F507" s="49" t="s">
         <v>618</v>
@@ -21363,104 +21378,104 @@
         <v>308</v>
       </c>
       <c r="B508" s="49" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C508" s="49" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F508" s="49" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="509" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B509" s="50"/>
-      <c r="C509" s="50"/>
-      <c r="F509" s="50"/>
+    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A509" t="s">
+        <v>308</v>
+      </c>
+      <c r="B509" s="49" t="s">
+        <v>802</v>
+      </c>
+      <c r="C509" s="49" t="s">
+        <v>802</v>
+      </c>
+      <c r="F509" s="49" t="s">
+        <v>618</v>
+      </c>
     </row>
     <row r="510" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>308</v>
       </c>
       <c r="B510" s="49" t="s">
-        <v>803</v>
+        <v>809</v>
       </c>
       <c r="C510" s="49" t="s">
-        <v>803</v>
+        <v>809</v>
       </c>
       <c r="F510" s="49" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A511" t="s">
-        <v>308</v>
-      </c>
-      <c r="B511" s="49" t="s">
-        <v>804</v>
-      </c>
-      <c r="C511" s="49" t="s">
-        <v>804</v>
-      </c>
-      <c r="F511" s="49" t="s">
-        <v>619</v>
-      </c>
+        <v>618</v>
+      </c>
+    </row>
+    <row r="511" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B511" s="50"/>
+      <c r="C511" s="50"/>
+      <c r="F511" s="50"/>
     </row>
     <row r="512" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>308</v>
       </c>
       <c r="B512" s="49" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="C512" s="49" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="F512" s="49" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="513" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B513" s="50"/>
-      <c r="C513" s="50"/>
-      <c r="F513" s="50"/>
+    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A513" t="s">
+        <v>308</v>
+      </c>
+      <c r="B513" s="49" t="s">
+        <v>804</v>
+      </c>
+      <c r="C513" s="49" t="s">
+        <v>804</v>
+      </c>
+      <c r="F513" s="49" t="s">
+        <v>619</v>
+      </c>
     </row>
     <row r="514" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>308</v>
       </c>
       <c r="B514" s="49" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C514" s="49" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="F514" s="49" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A515" t="s">
-        <v>308</v>
-      </c>
-      <c r="B515" s="49" t="s">
-        <v>807</v>
-      </c>
-      <c r="C515" s="49" t="s">
-        <v>807</v>
-      </c>
-      <c r="F515" s="49" t="s">
-        <v>620</v>
-      </c>
+        <v>619</v>
+      </c>
+    </row>
+    <row r="515" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B515" s="50"/>
+      <c r="C515" s="50"/>
+      <c r="F515" s="50"/>
     </row>
     <row r="516" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>308</v>
       </c>
       <c r="B516" s="49" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C516" s="49" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="F516" s="49" t="s">
         <v>620</v>
@@ -21471,62 +21486,62 @@
         <v>308</v>
       </c>
       <c r="B517" s="49" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="C517" s="49" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="F517" s="49" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="518" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B518" s="50"/>
-      <c r="C518" s="50"/>
-      <c r="F518" s="50"/>
-    </row>
-    <row r="519" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B519" s="50"/>
-      <c r="C519" s="50"/>
-      <c r="F519" s="50"/>
-    </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A520" t="s">
-        <v>308</v>
-      </c>
-      <c r="B520" s="49" t="s">
-        <v>387</v>
-      </c>
-      <c r="C520" s="49" t="s">
-        <v>387</v>
-      </c>
-      <c r="F520" s="49" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A521" t="s">
-        <v>308</v>
-      </c>
-      <c r="B521" s="49" t="s">
-        <v>810</v>
-      </c>
-      <c r="C521" s="49" t="s">
-        <v>810</v>
-      </c>
-      <c r="F521" s="49" t="s">
-        <v>621</v>
-      </c>
+    <row r="518" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A518" t="s">
+        <v>308</v>
+      </c>
+      <c r="B518" s="49" t="s">
+        <v>808</v>
+      </c>
+      <c r="C518" s="49" t="s">
+        <v>808</v>
+      </c>
+      <c r="F518" s="49" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="519" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A519" t="s">
+        <v>308</v>
+      </c>
+      <c r="B519" s="49" t="s">
+        <v>809</v>
+      </c>
+      <c r="C519" s="49" t="s">
+        <v>809</v>
+      </c>
+      <c r="F519" s="49" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="520" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B520" s="50"/>
+      <c r="C520" s="50"/>
+      <c r="F520" s="50"/>
+    </row>
+    <row r="521" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B521" s="50"/>
+      <c r="C521" s="50"/>
+      <c r="F521" s="50"/>
     </row>
     <row r="522" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>308</v>
       </c>
       <c r="B522" s="49" t="s">
-        <v>811</v>
+        <v>387</v>
       </c>
       <c r="C522" s="49" t="s">
-        <v>811</v>
+        <v>387</v>
       </c>
       <c r="F522" s="49" t="s">
         <v>621</v>
@@ -21537,57 +21552,57 @@
         <v>308</v>
       </c>
       <c r="B523" s="49" t="s">
-        <v>358</v>
+        <v>810</v>
       </c>
       <c r="C523" s="49" t="s">
-        <v>358</v>
+        <v>810</v>
       </c>
       <c r="F523" s="49" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="524" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B524" s="50"/>
-      <c r="C524" s="50"/>
-      <c r="F524" s="50"/>
+    <row r="524" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A524" t="s">
+        <v>308</v>
+      </c>
+      <c r="B524" s="49" t="s">
+        <v>811</v>
+      </c>
+      <c r="C524" s="49" t="s">
+        <v>811</v>
+      </c>
+      <c r="F524" s="49" t="s">
+        <v>621</v>
+      </c>
     </row>
     <row r="525" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>308</v>
       </c>
       <c r="B525" s="49" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="C525" s="49" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="F525" s="49" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A526" t="s">
-        <v>308</v>
-      </c>
-      <c r="B526" s="49" t="s">
-        <v>368</v>
-      </c>
-      <c r="C526" s="49" t="s">
-        <v>368</v>
-      </c>
-      <c r="F526" s="49" t="s">
-        <v>622</v>
-      </c>
+        <v>621</v>
+      </c>
+    </row>
+    <row r="526" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B526" s="50"/>
+      <c r="C526" s="50"/>
+      <c r="F526" s="50"/>
     </row>
     <row r="527" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>308</v>
       </c>
       <c r="B527" s="49" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C527" s="49" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F527" s="49" t="s">
         <v>622</v>
@@ -21598,10 +21613,10 @@
         <v>308</v>
       </c>
       <c r="B528" s="49" t="s">
-        <v>391</v>
+        <v>368</v>
       </c>
       <c r="C528" s="49" t="s">
-        <v>391</v>
+        <v>368</v>
       </c>
       <c r="F528" s="49" t="s">
         <v>622</v>
@@ -21612,90 +21627,90 @@
         <v>308</v>
       </c>
       <c r="B529" s="49" t="s">
-        <v>812</v>
+        <v>356</v>
       </c>
       <c r="C529" s="49" t="s">
-        <v>812</v>
+        <v>356</v>
       </c>
       <c r="F529" s="49" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="530" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B530" s="50"/>
-      <c r="C530" s="50"/>
-      <c r="F530" s="50"/>
+    <row r="530" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A530" t="s">
+        <v>308</v>
+      </c>
+      <c r="B530" s="49" t="s">
+        <v>391</v>
+      </c>
+      <c r="C530" s="49" t="s">
+        <v>391</v>
+      </c>
+      <c r="F530" s="49" t="s">
+        <v>622</v>
+      </c>
     </row>
     <row r="531" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>308</v>
       </c>
       <c r="B531" s="49" t="s">
+        <v>812</v>
+      </c>
+      <c r="C531" s="49" t="s">
+        <v>812</v>
+      </c>
+      <c r="F531" s="49" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="532" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B532" s="50"/>
+      <c r="C532" s="50"/>
+      <c r="F532" s="50"/>
+    </row>
+    <row r="533" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A533" t="s">
+        <v>308</v>
+      </c>
+      <c r="B533" s="49" t="s">
         <v>388</v>
       </c>
-      <c r="C531" s="49" t="s">
+      <c r="C533" s="49" t="s">
         <v>388</v>
       </c>
-      <c r="F531" s="49" t="s">
+      <c r="F533" s="49" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="532" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A532" t="s">
-        <v>308</v>
-      </c>
-      <c r="B532" s="49" t="s">
-        <v>813</v>
-      </c>
-      <c r="C532" s="49" t="s">
-        <v>813</v>
-      </c>
-      <c r="F532" s="49" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="533" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B533" s="50"/>
-      <c r="C533" s="50"/>
-      <c r="F533" s="50"/>
     </row>
     <row r="534" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>308</v>
       </c>
       <c r="B534" s="49" t="s">
-        <v>389</v>
+        <v>813</v>
       </c>
       <c r="C534" s="49" t="s">
-        <v>389</v>
+        <v>813</v>
       </c>
       <c r="F534" s="49" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="535" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A535" t="s">
-        <v>308</v>
-      </c>
-      <c r="B535" s="49" t="s">
-        <v>357</v>
-      </c>
-      <c r="C535" s="49" t="s">
-        <v>357</v>
-      </c>
-      <c r="F535" s="49" t="s">
-        <v>624</v>
-      </c>
+        <v>623</v>
+      </c>
+    </row>
+    <row r="535" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B535" s="50"/>
+      <c r="C535" s="50"/>
+      <c r="F535" s="50"/>
     </row>
     <row r="536" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>308</v>
       </c>
       <c r="B536" s="49" t="s">
-        <v>363</v>
+        <v>389</v>
       </c>
       <c r="C536" s="49" t="s">
-        <v>363</v>
+        <v>389</v>
       </c>
       <c r="F536" s="49" t="s">
         <v>624</v>
@@ -21706,10 +21721,10 @@
         <v>308</v>
       </c>
       <c r="B537" s="49" t="s">
-        <v>814</v>
+        <v>357</v>
       </c>
       <c r="C537" s="49" t="s">
-        <v>814</v>
+        <v>357</v>
       </c>
       <c r="F537" s="49" t="s">
         <v>624</v>
@@ -21720,10 +21735,10 @@
         <v>308</v>
       </c>
       <c r="B538" s="49" t="s">
-        <v>392</v>
+        <v>363</v>
       </c>
       <c r="C538" s="49" t="s">
-        <v>392</v>
+        <v>363</v>
       </c>
       <c r="F538" s="49" t="s">
         <v>624</v>
@@ -21734,10 +21749,10 @@
         <v>308</v>
       </c>
       <c r="B539" s="49" t="s">
-        <v>396</v>
+        <v>814</v>
       </c>
       <c r="C539" s="49" t="s">
-        <v>396</v>
+        <v>814</v>
       </c>
       <c r="F539" s="49" t="s">
         <v>624</v>
@@ -21748,62 +21763,62 @@
         <v>308</v>
       </c>
       <c r="B540" s="49" t="s">
-        <v>362</v>
+        <v>392</v>
       </c>
       <c r="C540" s="49" t="s">
-        <v>362</v>
+        <v>392</v>
       </c>
       <c r="F540" s="49" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="541" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B541" s="50"/>
-      <c r="C541" s="50"/>
-      <c r="F541" s="50"/>
-    </row>
-    <row r="542" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B542" s="50"/>
-      <c r="C542" s="50"/>
-      <c r="F542" s="50"/>
-    </row>
-    <row r="543" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A543" t="s">
-        <v>308</v>
-      </c>
-      <c r="B543" s="49" t="s">
-        <v>815</v>
-      </c>
-      <c r="C543" s="49" t="s">
-        <v>815</v>
-      </c>
-      <c r="F543" s="49" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="544" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A544" t="s">
-        <v>308</v>
-      </c>
-      <c r="B544" s="49" t="s">
-        <v>816</v>
-      </c>
-      <c r="C544" s="49" t="s">
-        <v>816</v>
-      </c>
-      <c r="F544" s="49" t="s">
-        <v>625</v>
-      </c>
+    <row r="541" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A541" t="s">
+        <v>308</v>
+      </c>
+      <c r="B541" s="49" t="s">
+        <v>396</v>
+      </c>
+      <c r="C541" s="49" t="s">
+        <v>396</v>
+      </c>
+      <c r="F541" s="49" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="542" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A542" t="s">
+        <v>308</v>
+      </c>
+      <c r="B542" s="49" t="s">
+        <v>362</v>
+      </c>
+      <c r="C542" s="49" t="s">
+        <v>362</v>
+      </c>
+      <c r="F542" s="49" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="543" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B543" s="50"/>
+      <c r="C543" s="50"/>
+      <c r="F543" s="50"/>
+    </row>
+    <row r="544" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B544" s="50"/>
+      <c r="C544" s="50"/>
+      <c r="F544" s="50"/>
     </row>
     <row r="545" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>308</v>
       </c>
       <c r="B545" s="49" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C545" s="49" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="F545" s="49" t="s">
         <v>625</v>
@@ -21814,10 +21829,10 @@
         <v>308</v>
       </c>
       <c r="B546" s="49" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C546" s="49" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="F546" s="49" t="s">
         <v>625</v>
@@ -21828,10 +21843,10 @@
         <v>308</v>
       </c>
       <c r="B547" s="49" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="C547" s="49" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="F547" s="49" t="s">
         <v>625</v>
@@ -21842,10 +21857,10 @@
         <v>308</v>
       </c>
       <c r="B548" s="49" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C548" s="49" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="F548" s="49" t="s">
         <v>625</v>
@@ -21856,10 +21871,10 @@
         <v>308</v>
       </c>
       <c r="B549" s="49" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="C549" s="49" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="F549" s="49" t="s">
         <v>625</v>
@@ -21870,57 +21885,57 @@
         <v>308</v>
       </c>
       <c r="B550" s="49" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="C550" s="49" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="F550" s="49" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="551" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B551" s="50"/>
-      <c r="C551" s="50"/>
-      <c r="F551" s="50"/>
+    <row r="551" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A551" t="s">
+        <v>308</v>
+      </c>
+      <c r="B551" s="49" t="s">
+        <v>821</v>
+      </c>
+      <c r="C551" s="49" t="s">
+        <v>821</v>
+      </c>
+      <c r="F551" s="49" t="s">
+        <v>625</v>
+      </c>
     </row>
     <row r="552" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>308</v>
       </c>
       <c r="B552" s="49" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C552" s="49" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="F552" s="49" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="553" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A553" t="s">
-        <v>308</v>
-      </c>
-      <c r="B553" s="49" t="s">
-        <v>824</v>
-      </c>
-      <c r="C553" s="49" t="s">
-        <v>824</v>
-      </c>
-      <c r="F553" s="49" t="s">
-        <v>626</v>
-      </c>
+        <v>625</v>
+      </c>
+    </row>
+    <row r="553" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B553" s="50"/>
+      <c r="C553" s="50"/>
+      <c r="F553" s="50"/>
     </row>
     <row r="554" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>308</v>
       </c>
       <c r="B554" s="49" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="C554" s="49" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F554" s="49" t="s">
         <v>626</v>
@@ -21931,10 +21946,10 @@
         <v>308</v>
       </c>
       <c r="B555" s="49" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="C555" s="49" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="F555" s="49" t="s">
         <v>626</v>
@@ -21945,10 +21960,10 @@
         <v>308</v>
       </c>
       <c r="B556" s="49" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="C556" s="49" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="F556" s="49" t="s">
         <v>626</v>
@@ -21959,10 +21974,10 @@
         <v>308</v>
       </c>
       <c r="B557" s="49" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="C557" s="49" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="F557" s="49" t="s">
         <v>626</v>
@@ -21973,10 +21988,10 @@
         <v>308</v>
       </c>
       <c r="B558" s="49" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="C558" s="49" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="F558" s="49" t="s">
         <v>626</v>
@@ -21987,10 +22002,10 @@
         <v>308</v>
       </c>
       <c r="B559" s="49" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="C559" s="49" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="F559" s="49" t="s">
         <v>626</v>
@@ -22001,10 +22016,10 @@
         <v>308</v>
       </c>
       <c r="B560" s="49" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="C560" s="49" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="F560" s="49" t="s">
         <v>626</v>
@@ -22015,57 +22030,57 @@
         <v>308</v>
       </c>
       <c r="B561" s="49" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="C561" s="49" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="F561" s="49" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="562" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B562" s="50"/>
-      <c r="C562" s="50"/>
-      <c r="F562" s="50"/>
+    <row r="562" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A562" t="s">
+        <v>308</v>
+      </c>
+      <c r="B562" s="49" t="s">
+        <v>831</v>
+      </c>
+      <c r="C562" s="49" t="s">
+        <v>831</v>
+      </c>
+      <c r="F562" s="49" t="s">
+        <v>626</v>
+      </c>
     </row>
     <row r="563" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>308</v>
       </c>
       <c r="B563" s="49" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C563" s="49" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="F563" s="49" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="564" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A564" t="s">
-        <v>308</v>
-      </c>
-      <c r="B564" s="49" t="s">
-        <v>834</v>
-      </c>
-      <c r="C564" s="49" t="s">
-        <v>834</v>
-      </c>
-      <c r="F564" s="49" t="s">
-        <v>627</v>
-      </c>
+        <v>626</v>
+      </c>
+    </row>
+    <row r="564" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B564" s="50"/>
+      <c r="C564" s="50"/>
+      <c r="F564" s="50"/>
     </row>
     <row r="565" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>308</v>
       </c>
       <c r="B565" s="49" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="C565" s="49" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F565" s="49" t="s">
         <v>627</v>
@@ -22076,10 +22091,10 @@
         <v>308</v>
       </c>
       <c r="B566" s="49" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C566" s="49" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="F566" s="49" t="s">
         <v>627</v>
@@ -22090,10 +22105,10 @@
         <v>308</v>
       </c>
       <c r="B567" s="49" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="C567" s="49" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="F567" s="49" t="s">
         <v>627</v>
@@ -22104,10 +22119,10 @@
         <v>308</v>
       </c>
       <c r="B568" s="49" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="C568" s="49" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="F568" s="49" t="s">
         <v>627</v>
@@ -22118,10 +22133,10 @@
         <v>308</v>
       </c>
       <c r="B569" s="49" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="C569" s="49" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="F569" s="49" t="s">
         <v>627</v>
@@ -22132,10 +22147,10 @@
         <v>308</v>
       </c>
       <c r="B570" s="49" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C570" s="49" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="F570" s="49" t="s">
         <v>627</v>
@@ -22146,10 +22161,10 @@
         <v>308</v>
       </c>
       <c r="B571" s="49" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="C571" s="49" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="F571" s="49" t="s">
         <v>627</v>
@@ -22160,10 +22175,10 @@
         <v>308</v>
       </c>
       <c r="B572" s="49" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="C572" s="49" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="F572" s="49" t="s">
         <v>627</v>
@@ -22174,57 +22189,57 @@
         <v>308</v>
       </c>
       <c r="B573" s="49" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="C573" s="49" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F573" s="49" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="574" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B574" s="50"/>
-      <c r="C574" s="50"/>
-      <c r="F574" s="50"/>
+    <row r="574" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A574" t="s">
+        <v>308</v>
+      </c>
+      <c r="B574" s="49" t="s">
+        <v>842</v>
+      </c>
+      <c r="C574" s="49" t="s">
+        <v>842</v>
+      </c>
+      <c r="F574" s="49" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="575" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>308</v>
       </c>
       <c r="B575" s="49" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C575" s="49" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="F575" s="49" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="576" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A576" t="s">
-        <v>308</v>
-      </c>
-      <c r="B576" s="49" t="s">
-        <v>845</v>
-      </c>
-      <c r="C576" s="49" t="s">
-        <v>845</v>
-      </c>
-      <c r="F576" s="49" t="s">
-        <v>628</v>
-      </c>
+        <v>627</v>
+      </c>
+    </row>
+    <row r="576" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B576" s="50"/>
+      <c r="C576" s="50"/>
+      <c r="F576" s="50"/>
     </row>
     <row r="577" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>308</v>
       </c>
       <c r="B577" s="49" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C577" s="49" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="F577" s="49" t="s">
         <v>628</v>
@@ -22235,57 +22250,57 @@
         <v>308</v>
       </c>
       <c r="B578" s="49" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="C578" s="49" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="F578" s="49" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="579" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B579" s="50"/>
-      <c r="C579" s="50"/>
-      <c r="F579" s="50"/>
+    <row r="579" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A579" t="s">
+        <v>308</v>
+      </c>
+      <c r="B579" s="49" t="s">
+        <v>846</v>
+      </c>
+      <c r="C579" s="49" t="s">
+        <v>846</v>
+      </c>
+      <c r="F579" s="49" t="s">
+        <v>628</v>
+      </c>
     </row>
     <row r="580" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>308</v>
       </c>
       <c r="B580" s="49" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C580" s="49" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="F580" s="49" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="581" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A581" t="s">
-        <v>308</v>
-      </c>
-      <c r="B581" s="49" t="s">
-        <v>849</v>
-      </c>
-      <c r="C581" s="49" t="s">
-        <v>849</v>
-      </c>
-      <c r="F581" s="49" t="s">
-        <v>629</v>
-      </c>
+        <v>628</v>
+      </c>
+    </row>
+    <row r="581" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B581" s="50"/>
+      <c r="C581" s="50"/>
+      <c r="F581" s="50"/>
     </row>
     <row r="582" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>308</v>
       </c>
       <c r="B582" s="49" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="C582" s="49" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="F582" s="49" t="s">
         <v>629</v>
@@ -22296,95 +22311,95 @@
         <v>308</v>
       </c>
       <c r="B583" s="49" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="C583" s="49" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="F583" s="49" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="584" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B584" s="50"/>
-      <c r="C584" s="50"/>
-      <c r="F584" s="50"/>
-    </row>
-    <row r="585" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B585" s="50"/>
-      <c r="C585" s="50"/>
-      <c r="F585" s="50"/>
-    </row>
-    <row r="586" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A586" t="s">
-        <v>308</v>
-      </c>
-      <c r="B586" s="49" t="s">
+    <row r="584" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A584" t="s">
+        <v>308</v>
+      </c>
+      <c r="B584" s="49" t="s">
+        <v>850</v>
+      </c>
+      <c r="C584" s="49" t="s">
+        <v>850</v>
+      </c>
+      <c r="F584" s="49" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="585" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A585" t="s">
+        <v>308</v>
+      </c>
+      <c r="B585" s="49" t="s">
+        <v>851</v>
+      </c>
+      <c r="C585" s="49" t="s">
+        <v>851</v>
+      </c>
+      <c r="F585" s="49" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="586" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B586" s="50"/>
+      <c r="C586" s="50"/>
+      <c r="F586" s="50"/>
+    </row>
+    <row r="587" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B587" s="50"/>
+      <c r="C587" s="50"/>
+      <c r="F587" s="50"/>
+    </row>
+    <row r="588" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A588" t="s">
+        <v>308</v>
+      </c>
+      <c r="B588" s="49" t="s">
         <v>374</v>
       </c>
-      <c r="C586" s="49" t="s">
+      <c r="C588" s="49" t="s">
         <v>374</v>
       </c>
-      <c r="F586" s="49" t="s">
+      <c r="F588" s="49" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="587" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A587" t="s">
-        <v>308</v>
-      </c>
-      <c r="B587" s="49" t="s">
-        <v>384</v>
-      </c>
-      <c r="C587" s="49" t="s">
-        <v>384</v>
-      </c>
-      <c r="F587" s="49" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="588" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B588" s="50"/>
-      <c r="C588" s="50"/>
-      <c r="F588" s="50"/>
     </row>
     <row r="589" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>308</v>
       </c>
       <c r="B589" s="49" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="C589" s="49" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="F589" s="49" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="590" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A590" t="s">
-        <v>308</v>
-      </c>
-      <c r="B590" s="49" t="s">
-        <v>381</v>
-      </c>
-      <c r="C590" s="49" t="s">
-        <v>381</v>
-      </c>
-      <c r="F590" s="49" t="s">
-        <v>631</v>
-      </c>
+        <v>630</v>
+      </c>
+    </row>
+    <row r="590" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B590" s="50"/>
+      <c r="C590" s="50"/>
+      <c r="F590" s="50"/>
     </row>
     <row r="591" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>308</v>
       </c>
       <c r="B591" s="49" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="C591" s="49" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="F591" s="49" t="s">
         <v>631</v>
@@ -22395,57 +22410,57 @@
         <v>308</v>
       </c>
       <c r="B592" s="49" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="C592" s="49" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="F592" s="49" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="593" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B593" s="50"/>
-      <c r="C593" s="50"/>
-      <c r="F593" s="50"/>
+    <row r="593" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A593" t="s">
+        <v>308</v>
+      </c>
+      <c r="B593" s="49" t="s">
+        <v>383</v>
+      </c>
+      <c r="C593" s="49" t="s">
+        <v>383</v>
+      </c>
+      <c r="F593" s="49" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="594" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>308</v>
       </c>
       <c r="B594" s="49" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C594" s="49" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F594" s="49" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="595" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A595" t="s">
-        <v>308</v>
-      </c>
-      <c r="B595" s="49" t="s">
-        <v>385</v>
-      </c>
-      <c r="C595" s="49" t="s">
-        <v>385</v>
-      </c>
-      <c r="F595" s="49" t="s">
-        <v>632</v>
-      </c>
+        <v>631</v>
+      </c>
+    </row>
+    <row r="595" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B595" s="50"/>
+      <c r="C595" s="50"/>
+      <c r="F595" s="50"/>
     </row>
     <row r="596" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>308</v>
       </c>
       <c r="B596" s="49" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C596" s="49" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F596" s="49" t="s">
         <v>632</v>
@@ -22456,10 +22471,10 @@
         <v>308</v>
       </c>
       <c r="B597" s="49" t="s">
-        <v>367</v>
+        <v>385</v>
       </c>
       <c r="C597" s="49" t="s">
-        <v>367</v>
+        <v>385</v>
       </c>
       <c r="F597" s="49" t="s">
         <v>632</v>
@@ -22470,10 +22485,10 @@
         <v>308</v>
       </c>
       <c r="B598" s="49" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C598" s="49" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="F598" s="49" t="s">
         <v>632</v>
@@ -22484,10 +22499,10 @@
         <v>308</v>
       </c>
       <c r="B599" s="49" t="s">
-        <v>394</v>
+        <v>367</v>
       </c>
       <c r="C599" s="49" t="s">
-        <v>394</v>
+        <v>367</v>
       </c>
       <c r="F599" s="49" t="s">
         <v>632</v>
@@ -22498,57 +22513,57 @@
         <v>308</v>
       </c>
       <c r="B600" s="49" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="C600" s="49" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="F600" s="49" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="601" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B601" s="50"/>
-      <c r="C601" s="50"/>
-      <c r="F601" s="50"/>
+    <row r="601" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A601" t="s">
+        <v>308</v>
+      </c>
+      <c r="B601" s="49" t="s">
+        <v>394</v>
+      </c>
+      <c r="C601" s="49" t="s">
+        <v>394</v>
+      </c>
+      <c r="F601" s="49" t="s">
+        <v>632</v>
+      </c>
     </row>
     <row r="602" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>308</v>
       </c>
       <c r="B602" s="49" t="s">
-        <v>398</v>
+        <v>372</v>
       </c>
       <c r="C602" s="49" t="s">
-        <v>398</v>
+        <v>372</v>
       </c>
       <c r="F602" s="49" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="603" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A603" t="s">
-        <v>308</v>
-      </c>
-      <c r="B603" s="49" t="s">
-        <v>852</v>
-      </c>
-      <c r="C603" s="49" t="s">
-        <v>852</v>
-      </c>
-      <c r="F603" s="49" t="s">
-        <v>633</v>
-      </c>
+        <v>632</v>
+      </c>
+    </row>
+    <row r="603" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B603" s="50"/>
+      <c r="C603" s="50"/>
+      <c r="F603" s="50"/>
     </row>
     <row r="604" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>308</v>
       </c>
       <c r="B604" s="49" t="s">
-        <v>365</v>
+        <v>398</v>
       </c>
       <c r="C604" s="49" t="s">
-        <v>365</v>
+        <v>398</v>
       </c>
       <c r="F604" s="49" t="s">
         <v>633</v>
@@ -22559,95 +22574,95 @@
         <v>308</v>
       </c>
       <c r="B605" s="49" t="s">
-        <v>397</v>
+        <v>852</v>
       </c>
       <c r="C605" s="49" t="s">
-        <v>397</v>
+        <v>852</v>
       </c>
       <c r="F605" s="49" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="606" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B606" s="50"/>
-      <c r="C606" s="50"/>
-      <c r="F606" s="50"/>
+    <row r="606" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A606" t="s">
+        <v>308</v>
+      </c>
+      <c r="B606" s="49" t="s">
+        <v>365</v>
+      </c>
+      <c r="C606" s="49" t="s">
+        <v>365</v>
+      </c>
+      <c r="F606" s="49" t="s">
+        <v>633</v>
+      </c>
     </row>
     <row r="607" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>308</v>
       </c>
       <c r="B607" s="49" t="s">
+        <v>397</v>
+      </c>
+      <c r="C607" s="49" t="s">
+        <v>397</v>
+      </c>
+      <c r="F607" s="49" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="608" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B608" s="50"/>
+      <c r="C608" s="50"/>
+      <c r="F608" s="50"/>
+    </row>
+    <row r="609" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A609" t="s">
+        <v>308</v>
+      </c>
+      <c r="B609" s="49" t="s">
         <v>366</v>
       </c>
-      <c r="C607" s="49" t="s">
+      <c r="C609" s="49" t="s">
         <v>366</v>
       </c>
-      <c r="F607" s="49" t="s">
+      <c r="F609" s="49" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="608" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A608" t="s">
-        <v>308</v>
-      </c>
-      <c r="B608" s="49" t="s">
+    <row r="610" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A610" t="s">
+        <v>308</v>
+      </c>
+      <c r="B610" s="49" t="s">
         <v>853</v>
       </c>
-      <c r="C608" s="49" t="s">
+      <c r="C610" s="49" t="s">
         <v>853</v>
       </c>
-      <c r="F608" s="49" t="s">
+      <c r="F610" s="49" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="609" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B609" s="50"/>
-      <c r="C609" s="50"/>
-      <c r="F609" s="50"/>
-    </row>
-    <row r="610" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B610" s="50"/>
-      <c r="C610" s="50"/>
-      <c r="F610" s="50"/>
-    </row>
-    <row r="611" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A611" t="s">
-        <v>308</v>
-      </c>
-      <c r="B611" s="49" t="s">
-        <v>854</v>
-      </c>
-      <c r="C611" s="49" t="s">
-        <v>854</v>
-      </c>
-      <c r="F611" s="49" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="612" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A612" t="s">
-        <v>308</v>
-      </c>
-      <c r="B612" s="49" t="s">
-        <v>855</v>
-      </c>
-      <c r="C612" s="49" t="s">
-        <v>855</v>
-      </c>
-      <c r="F612" s="49" t="s">
-        <v>635</v>
-      </c>
+    <row r="611" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B611" s="50"/>
+      <c r="C611" s="50"/>
+      <c r="F611" s="50"/>
+    </row>
+    <row r="612" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B612" s="50"/>
+      <c r="C612" s="50"/>
+      <c r="F612" s="50"/>
     </row>
     <row r="613" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>308</v>
       </c>
       <c r="B613" s="49" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="C613" s="49" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="F613" s="49" t="s">
         <v>635</v>
@@ -22658,10 +22673,10 @@
         <v>308</v>
       </c>
       <c r="B614" s="49" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="C614" s="49" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="F614" s="49" t="s">
         <v>635</v>
@@ -22672,57 +22687,57 @@
         <v>308</v>
       </c>
       <c r="B615" s="49" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="C615" s="49" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="F615" s="49" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="616" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B616" s="50"/>
-      <c r="C616" s="50"/>
-      <c r="F616" s="50"/>
+    <row r="616" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A616" t="s">
+        <v>308</v>
+      </c>
+      <c r="B616" s="49" t="s">
+        <v>857</v>
+      </c>
+      <c r="C616" s="49" t="s">
+        <v>857</v>
+      </c>
+      <c r="F616" s="49" t="s">
+        <v>635</v>
+      </c>
     </row>
     <row r="617" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>308</v>
       </c>
       <c r="B617" s="49" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C617" s="49" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="F617" s="49" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="618" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A618" t="s">
-        <v>308</v>
-      </c>
-      <c r="B618" s="49" t="s">
-        <v>860</v>
-      </c>
-      <c r="C618" s="49" t="s">
-        <v>860</v>
-      </c>
-      <c r="F618" s="49" t="s">
-        <v>636</v>
-      </c>
+        <v>635</v>
+      </c>
+    </row>
+    <row r="618" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B618" s="50"/>
+      <c r="C618" s="50"/>
+      <c r="F618" s="50"/>
     </row>
     <row r="619" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>308</v>
       </c>
       <c r="B619" s="49" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="C619" s="49" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="F619" s="49" t="s">
         <v>636</v>
@@ -22733,10 +22748,10 @@
         <v>308</v>
       </c>
       <c r="B620" s="49" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="C620" s="49" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="F620" s="49" t="s">
         <v>636</v>
@@ -22747,151 +22762,151 @@
         <v>308</v>
       </c>
       <c r="B621" s="49" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="C621" s="49" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F621" s="49" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="622" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B622" s="50"/>
-      <c r="C622" s="50"/>
-      <c r="F622" s="50"/>
+    <row r="622" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A622" t="s">
+        <v>308</v>
+      </c>
+      <c r="B622" s="49" t="s">
+        <v>862</v>
+      </c>
+      <c r="C622" s="49" t="s">
+        <v>862</v>
+      </c>
+      <c r="F622" s="49" t="s">
+        <v>636</v>
+      </c>
     </row>
     <row r="623" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>308</v>
       </c>
       <c r="B623" s="49" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C623" s="49" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="F623" s="49" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="624" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A624" t="s">
-        <v>308</v>
-      </c>
-      <c r="B624" s="49" t="s">
-        <v>865</v>
-      </c>
-      <c r="C624" s="49" t="s">
-        <v>865</v>
-      </c>
-      <c r="F624" s="49" t="s">
-        <v>637</v>
-      </c>
+        <v>636</v>
+      </c>
+    </row>
+    <row r="624" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B624" s="50"/>
+      <c r="C624" s="50"/>
+      <c r="F624" s="50"/>
     </row>
     <row r="625" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>308</v>
       </c>
       <c r="B625" s="49" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="C625" s="49" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="F625" s="49" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="626" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B626" s="50"/>
-      <c r="C626" s="50"/>
-      <c r="F626" s="50"/>
+    <row r="626" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A626" t="s">
+        <v>308</v>
+      </c>
+      <c r="B626" s="49" t="s">
+        <v>865</v>
+      </c>
+      <c r="C626" s="49" t="s">
+        <v>865</v>
+      </c>
+      <c r="F626" s="49" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="627" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>308</v>
       </c>
       <c r="B627" s="49" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C627" s="49" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="F627" s="49" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="628" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A628" t="s">
-        <v>308</v>
-      </c>
-      <c r="B628" s="49" t="s">
-        <v>868</v>
-      </c>
-      <c r="C628" s="49" t="s">
-        <v>868</v>
-      </c>
-      <c r="F628" s="49" t="s">
-        <v>638</v>
-      </c>
+        <v>637</v>
+      </c>
+    </row>
+    <row r="628" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B628" s="50"/>
+      <c r="C628" s="50"/>
+      <c r="F628" s="50"/>
     </row>
     <row r="629" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>308</v>
       </c>
       <c r="B629" s="49" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="C629" s="49" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="F629" s="49" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="630" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B630" s="50"/>
-      <c r="C630" s="50"/>
-      <c r="F630" s="50"/>
+    <row r="630" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A630" t="s">
+        <v>308</v>
+      </c>
+      <c r="B630" s="49" t="s">
+        <v>868</v>
+      </c>
+      <c r="C630" s="49" t="s">
+        <v>868</v>
+      </c>
+      <c r="F630" s="49" t="s">
+        <v>638</v>
+      </c>
     </row>
     <row r="631" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>308</v>
       </c>
       <c r="B631" s="49" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C631" s="49" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F631" s="49" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="632" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A632" t="s">
-        <v>308</v>
-      </c>
-      <c r="B632" s="49" t="s">
-        <v>871</v>
-      </c>
-      <c r="C632" s="49" t="s">
-        <v>871</v>
-      </c>
-      <c r="F632" s="49" t="s">
-        <v>639</v>
-      </c>
+        <v>638</v>
+      </c>
+    </row>
+    <row r="632" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B632" s="50"/>
+      <c r="C632" s="50"/>
+      <c r="F632" s="50"/>
     </row>
     <row r="633" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>308</v>
       </c>
       <c r="B633" s="49" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="C633" s="49" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F633" s="49" t="s">
         <v>639</v>
@@ -22902,57 +22917,57 @@
         <v>308</v>
       </c>
       <c r="B634" s="49" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="C634" s="49" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F634" s="49" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="635" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B635" s="50"/>
-      <c r="C635" s="50"/>
-      <c r="F635" s="50"/>
+    <row r="635" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A635" t="s">
+        <v>308</v>
+      </c>
+      <c r="B635" s="49" t="s">
+        <v>872</v>
+      </c>
+      <c r="C635" s="49" t="s">
+        <v>872</v>
+      </c>
+      <c r="F635" s="49" t="s">
+        <v>639</v>
+      </c>
     </row>
     <row r="636" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>308</v>
       </c>
       <c r="B636" s="49" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C636" s="49" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="F636" s="49" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="637" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A637" t="s">
-        <v>308</v>
-      </c>
-      <c r="B637" s="49" t="s">
-        <v>875</v>
-      </c>
-      <c r="C637" s="49" t="s">
-        <v>875</v>
-      </c>
-      <c r="F637" s="49" t="s">
-        <v>640</v>
-      </c>
+        <v>639</v>
+      </c>
+    </row>
+    <row r="637" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B637" s="50"/>
+      <c r="C637" s="50"/>
+      <c r="F637" s="50"/>
     </row>
     <row r="638" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>308</v>
       </c>
       <c r="B638" s="49" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="C638" s="49" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="F638" s="49" t="s">
         <v>640</v>
@@ -22963,10 +22978,10 @@
         <v>308</v>
       </c>
       <c r="B639" s="49" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="C639" s="49" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="F639" s="49" t="s">
         <v>640</v>
@@ -22977,62 +22992,62 @@
         <v>308</v>
       </c>
       <c r="B640" s="49" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="C640" s="49" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="F640" s="49" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="641" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B641" s="50"/>
-      <c r="C641" s="50"/>
-      <c r="F641" s="50"/>
-    </row>
-    <row r="642" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B642" s="50"/>
-      <c r="C642" s="50"/>
-      <c r="F642" s="50"/>
-    </row>
-    <row r="643" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A643" t="s">
-        <v>308</v>
-      </c>
-      <c r="B643" s="49" t="s">
-        <v>879</v>
-      </c>
-      <c r="C643" s="49" t="s">
-        <v>879</v>
-      </c>
-      <c r="F643" s="49" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="644" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A644" t="s">
-        <v>308</v>
-      </c>
-      <c r="B644" s="49" t="s">
-        <v>880</v>
-      </c>
-      <c r="C644" s="49" t="s">
-        <v>880</v>
-      </c>
-      <c r="F644" s="49" t="s">
-        <v>641</v>
-      </c>
+    <row r="641" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A641" t="s">
+        <v>308</v>
+      </c>
+      <c r="B641" s="49" t="s">
+        <v>877</v>
+      </c>
+      <c r="C641" s="49" t="s">
+        <v>877</v>
+      </c>
+      <c r="F641" s="49" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="642" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A642" t="s">
+        <v>308</v>
+      </c>
+      <c r="B642" s="49" t="s">
+        <v>878</v>
+      </c>
+      <c r="C642" s="49" t="s">
+        <v>878</v>
+      </c>
+      <c r="F642" s="49" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="643" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B643" s="50"/>
+      <c r="C643" s="50"/>
+      <c r="F643" s="50"/>
+    </row>
+    <row r="644" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B644" s="50"/>
+      <c r="C644" s="50"/>
+      <c r="F644" s="50"/>
     </row>
     <row r="645" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>308</v>
       </c>
       <c r="B645" s="49" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="C645" s="49" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="F645" s="49" t="s">
         <v>641</v>
@@ -23043,10 +23058,10 @@
         <v>308</v>
       </c>
       <c r="B646" s="49" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="C646" s="49" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F646" s="49" t="s">
         <v>641</v>
@@ -23057,10 +23072,10 @@
         <v>308</v>
       </c>
       <c r="B647" s="49" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="C647" s="49" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="F647" s="49" t="s">
         <v>641</v>
@@ -23071,10 +23086,10 @@
         <v>308</v>
       </c>
       <c r="B648" s="49" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="C648" s="49" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="F648" s="49" t="s">
         <v>641</v>
@@ -23085,57 +23100,57 @@
         <v>308</v>
       </c>
       <c r="B649" s="49" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="C649" s="49" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="F649" s="49" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="650" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B650" s="50"/>
-      <c r="C650" s="50"/>
-      <c r="F650" s="50"/>
+    <row r="650" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A650" t="s">
+        <v>308</v>
+      </c>
+      <c r="B650" s="49" t="s">
+        <v>884</v>
+      </c>
+      <c r="C650" s="49" t="s">
+        <v>884</v>
+      </c>
+      <c r="F650" s="49" t="s">
+        <v>641</v>
+      </c>
     </row>
     <row r="651" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
         <v>308</v>
       </c>
       <c r="B651" s="49" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C651" s="49" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="F651" s="49" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="652" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A652" t="s">
-        <v>308</v>
-      </c>
-      <c r="B652" s="49" t="s">
-        <v>887</v>
-      </c>
-      <c r="C652" s="49" t="s">
-        <v>887</v>
-      </c>
-      <c r="F652" s="49" t="s">
-        <v>642</v>
-      </c>
+        <v>641</v>
+      </c>
+    </row>
+    <row r="652" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B652" s="50"/>
+      <c r="C652" s="50"/>
+      <c r="F652" s="50"/>
     </row>
     <row r="653" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
         <v>308</v>
       </c>
       <c r="B653" s="49" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="C653" s="49" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="F653" s="49" t="s">
         <v>642</v>
@@ -23146,10 +23161,10 @@
         <v>308</v>
       </c>
       <c r="B654" s="49" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C654" s="49" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="F654" s="49" t="s">
         <v>642</v>
@@ -23160,10 +23175,10 @@
         <v>308</v>
       </c>
       <c r="B655" s="49" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="C655" s="49" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="F655" s="49" t="s">
         <v>642</v>
@@ -23174,57 +23189,57 @@
         <v>308</v>
       </c>
       <c r="B656" s="49" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C656" s="49" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="F656" s="49" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="657" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B657" s="50"/>
-      <c r="C657" s="50"/>
-      <c r="F657" s="50"/>
+    <row r="657" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A657" t="s">
+        <v>308</v>
+      </c>
+      <c r="B657" s="49" t="s">
+        <v>890</v>
+      </c>
+      <c r="C657" s="49" t="s">
+        <v>890</v>
+      </c>
+      <c r="F657" s="49" t="s">
+        <v>642</v>
+      </c>
     </row>
     <row r="658" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
         <v>308</v>
       </c>
       <c r="B658" s="49" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="C658" s="49" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="F658" s="49" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="659" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A659" t="s">
-        <v>308</v>
-      </c>
-      <c r="B659" s="49" t="s">
-        <v>893</v>
-      </c>
-      <c r="C659" s="49" t="s">
-        <v>893</v>
-      </c>
-      <c r="F659" s="49" t="s">
-        <v>643</v>
-      </c>
+        <v>642</v>
+      </c>
+    </row>
+    <row r="659" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B659" s="50"/>
+      <c r="C659" s="50"/>
+      <c r="F659" s="50"/>
     </row>
     <row r="660" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
         <v>308</v>
       </c>
       <c r="B660" s="49" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="C660" s="49" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="F660" s="49" t="s">
         <v>643</v>
@@ -23235,10 +23250,10 @@
         <v>308</v>
       </c>
       <c r="B661" s="49" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="C661" s="49" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="F661" s="49" t="s">
         <v>643</v>
@@ -23249,10 +23264,10 @@
         <v>308</v>
       </c>
       <c r="B662" s="49" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="C662" s="49" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="F662" s="49" t="s">
         <v>643</v>
@@ -23263,10 +23278,10 @@
         <v>308</v>
       </c>
       <c r="B663" s="49" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="C663" s="49" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="F663" s="49" t="s">
         <v>643</v>
@@ -23277,10 +23292,10 @@
         <v>308</v>
       </c>
       <c r="B664" s="49" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C664" s="49" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="F664" s="49" t="s">
         <v>643</v>
@@ -23291,10 +23306,10 @@
         <v>308</v>
       </c>
       <c r="B665" s="49" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="C665" s="49" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="F665" s="49" t="s">
         <v>643</v>
@@ -23305,57 +23320,57 @@
         <v>308</v>
       </c>
       <c r="B666" s="49" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="C666" s="49" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="F666" s="49" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="667" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B667" s="50"/>
-      <c r="C667" s="50"/>
-      <c r="F667" s="50"/>
+    <row r="667" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A667" t="s">
+        <v>308</v>
+      </c>
+      <c r="B667" s="49" t="s">
+        <v>899</v>
+      </c>
+      <c r="C667" s="49" t="s">
+        <v>899</v>
+      </c>
+      <c r="F667" s="49" t="s">
+        <v>643</v>
+      </c>
     </row>
     <row r="668" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
         <v>308</v>
       </c>
       <c r="B668" s="49" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C668" s="49" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F668" s="49" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="669" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A669" t="s">
-        <v>308</v>
-      </c>
-      <c r="B669" s="49" t="s">
-        <v>902</v>
-      </c>
-      <c r="C669" s="49" t="s">
-        <v>902</v>
-      </c>
-      <c r="F669" s="49" t="s">
-        <v>644</v>
-      </c>
+        <v>643</v>
+      </c>
+    </row>
+    <row r="669" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B669" s="50"/>
+      <c r="C669" s="50"/>
+      <c r="F669" s="50"/>
     </row>
     <row r="670" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
         <v>308</v>
       </c>
       <c r="B670" s="49" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="C670" s="49" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="F670" s="49" t="s">
         <v>644</v>
@@ -23366,10 +23381,10 @@
         <v>308</v>
       </c>
       <c r="B671" s="49" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="C671" s="49" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="F671" s="49" t="s">
         <v>644</v>
@@ -23380,57 +23395,57 @@
         <v>308</v>
       </c>
       <c r="B672" s="49" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="C672" s="49" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="F672" s="49" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="673" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B673" s="50"/>
-      <c r="C673" s="50"/>
-      <c r="F673" s="50"/>
+    <row r="673" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A673" t="s">
+        <v>308</v>
+      </c>
+      <c r="B673" s="49" t="s">
+        <v>904</v>
+      </c>
+      <c r="C673" s="49" t="s">
+        <v>904</v>
+      </c>
+      <c r="F673" s="49" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="674" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
         <v>308</v>
       </c>
       <c r="B674" s="49" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C674" s="49" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F674" s="49" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="675" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A675" t="s">
-        <v>308</v>
-      </c>
-      <c r="B675" s="49" t="s">
-        <v>907</v>
-      </c>
-      <c r="C675" s="49" t="s">
-        <v>907</v>
-      </c>
-      <c r="F675" s="49" t="s">
-        <v>645</v>
-      </c>
+        <v>644</v>
+      </c>
+    </row>
+    <row r="675" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B675" s="50"/>
+      <c r="C675" s="50"/>
+      <c r="F675" s="50"/>
     </row>
     <row r="676" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
         <v>308</v>
       </c>
       <c r="B676" s="49" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="C676" s="49" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="F676" s="49" t="s">
         <v>645</v>
@@ -23441,10 +23456,10 @@
         <v>308</v>
       </c>
       <c r="B677" s="49" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="C677" s="49" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="F677" s="49" t="s">
         <v>645</v>
@@ -23455,65 +23470,65 @@
         <v>308</v>
       </c>
       <c r="B678" s="49" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="C678" s="49" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="F678" s="49" t="s">
         <v>645</v>
       </c>
     </row>
     <row r="679" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B679" s="49"/>
-      <c r="C679" s="49"/>
-      <c r="F679" s="49"/>
+      <c r="A679" t="s">
+        <v>308</v>
+      </c>
+      <c r="B679" s="49" t="s">
+        <v>909</v>
+      </c>
+      <c r="C679" s="49" t="s">
+        <v>909</v>
+      </c>
+      <c r="F679" s="49" t="s">
+        <v>645</v>
+      </c>
     </row>
     <row r="680" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B680" s="49"/>
-      <c r="C680" s="49"/>
-      <c r="F680" s="49"/>
+      <c r="A680" t="s">
+        <v>308</v>
+      </c>
+      <c r="B680" s="49" t="s">
+        <v>910</v>
+      </c>
+      <c r="C680" s="49" t="s">
+        <v>910</v>
+      </c>
+      <c r="F680" s="49" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="681" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B681" s="49"/>
+      <c r="C681" s="49"/>
+      <c r="F681" s="49"/>
     </row>
     <row r="682" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A682" t="s">
-        <v>308</v>
-      </c>
-      <c r="B682" s="49" t="s">
-        <v>911</v>
-      </c>
-      <c r="C682" s="49" t="s">
-        <v>911</v>
-      </c>
-      <c r="F682" s="49" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="683" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A683" t="s">
-        <v>308</v>
-      </c>
-      <c r="B683" s="49" t="s">
-        <v>912</v>
-      </c>
-      <c r="C683" s="49" t="s">
-        <v>912</v>
-      </c>
-      <c r="F683" s="49" t="s">
-        <v>646</v>
-      </c>
+      <c r="B682" s="49"/>
+      <c r="C682" s="49"/>
+      <c r="F682" s="49"/>
     </row>
     <row r="684" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
         <v>308</v>
       </c>
       <c r="B684" s="49" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="C684" s="49" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="F684" s="49" t="s">
-        <v>1039</v>
+        <v>646</v>
       </c>
     </row>
     <row r="685" spans="1:6" x14ac:dyDescent="0.25">
@@ -23521,13 +23536,13 @@
         <v>308</v>
       </c>
       <c r="B685" s="49" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="C685" s="49" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="F685" s="49" t="s">
-        <v>1039</v>
+        <v>646</v>
       </c>
     </row>
     <row r="686" spans="1:6" x14ac:dyDescent="0.25">
@@ -23535,103 +23550,112 @@
         <v>308</v>
       </c>
       <c r="B686" s="49" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="C686" s="49" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="F686" s="49" t="s">
         <v>1039</v>
       </c>
     </row>
-    <row r="687" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B687" s="50"/>
-      <c r="C687" s="50"/>
-      <c r="F687" s="50"/>
+    <row r="687" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A687" t="s">
+        <v>308</v>
+      </c>
+      <c r="B687" s="49" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C687" s="49" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F687" s="49" t="s">
+        <v>646</v>
+      </c>
     </row>
     <row r="688" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
         <v>308</v>
       </c>
       <c r="B688" s="49" t="s">
+        <v>914</v>
+      </c>
+      <c r="C688" s="49" t="s">
+        <v>914</v>
+      </c>
+      <c r="F688" s="49" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="689" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A689" t="s">
+        <v>308</v>
+      </c>
+      <c r="B689" s="49" t="s">
+        <v>915</v>
+      </c>
+      <c r="C689" s="49" t="s">
+        <v>915</v>
+      </c>
+      <c r="F689" s="49" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="690" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B690" s="50"/>
+      <c r="C690" s="50"/>
+      <c r="F690" s="50"/>
+    </row>
+    <row r="691" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A691" t="s">
+        <v>308</v>
+      </c>
+      <c r="B691" s="49" t="s">
         <v>916</v>
       </c>
-      <c r="C688" s="49" t="s">
+      <c r="C691" s="49" t="s">
         <v>916</v>
       </c>
-      <c r="F688" s="49" t="s">
+      <c r="F691" s="49" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="689" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B689" s="50"/>
-      <c r="C689" s="50"/>
-      <c r="F689" s="50"/>
-    </row>
-    <row r="690" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A690" t="s">
-        <v>308</v>
-      </c>
-      <c r="B690" s="49" t="s">
+    <row r="692" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B692" s="50"/>
+      <c r="C692" s="50"/>
+      <c r="F692" s="50"/>
+    </row>
+    <row r="693" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A693" t="s">
+        <v>308</v>
+      </c>
+      <c r="B693" s="49" t="s">
         <v>917</v>
       </c>
-      <c r="C690" s="49" t="s">
+      <c r="C693" s="49" t="s">
         <v>917</v>
       </c>
-      <c r="F690" s="49" t="s">
+      <c r="F693" s="49" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="691" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B691" s="50"/>
-      <c r="C691" s="50"/>
-      <c r="F691" s="50"/>
-    </row>
-    <row r="692" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A692" t="s">
-        <v>308</v>
-      </c>
-      <c r="B692" s="49" t="s">
-        <v>917</v>
-      </c>
-      <c r="C692" s="49" t="s">
-        <v>917</v>
-      </c>
-      <c r="F692" s="49" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="693" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B693" s="50"/>
-      <c r="C693" s="50"/>
-      <c r="F693" s="50"/>
-    </row>
-    <row r="694" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A694" t="s">
-        <v>308</v>
-      </c>
-      <c r="B694" s="49" t="s">
-        <v>918</v>
-      </c>
-      <c r="C694" s="49" t="s">
-        <v>918</v>
-      </c>
-      <c r="F694" s="49" t="s">
-        <v>648</v>
-      </c>
+    <row r="694" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B694" s="50"/>
+      <c r="C694" s="50"/>
+      <c r="F694" s="50"/>
     </row>
     <row r="695" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
         <v>308</v>
       </c>
       <c r="B695" s="49" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="C695" s="49" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="F695" s="49" t="s">
-        <v>648</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="696" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -23644,46 +23668,46 @@
         <v>308</v>
       </c>
       <c r="B697" s="49" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="C697" s="49" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="F697" s="49" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="698" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B698" s="50"/>
-      <c r="C698" s="50"/>
-      <c r="F698" s="50"/>
-    </row>
-    <row r="699" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A699" t="s">
-        <v>308</v>
-      </c>
-      <c r="B699" s="49" t="s">
-        <v>921</v>
-      </c>
-      <c r="C699" s="49" t="s">
-        <v>921</v>
-      </c>
-      <c r="F699" s="49" t="s">
-        <v>650</v>
-      </c>
+        <v>648</v>
+      </c>
+    </row>
+    <row r="698" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A698" t="s">
+        <v>308</v>
+      </c>
+      <c r="B698" s="49" t="s">
+        <v>919</v>
+      </c>
+      <c r="C698" s="49" t="s">
+        <v>919</v>
+      </c>
+      <c r="F698" s="49" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="699" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B699" s="50"/>
+      <c r="C699" s="50"/>
+      <c r="F699" s="50"/>
     </row>
     <row r="700" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
         <v>308</v>
       </c>
       <c r="B700" s="49" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="C700" s="49" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F700" s="49" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="701" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -23691,23 +23715,32 @@
       <c r="C701" s="50"/>
       <c r="F701" s="50"/>
     </row>
-    <row r="702" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B702" s="50"/>
-      <c r="C702" s="50"/>
-      <c r="F702" s="50"/>
+    <row r="702" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A702" t="s">
+        <v>308</v>
+      </c>
+      <c r="B702" s="49" t="s">
+        <v>921</v>
+      </c>
+      <c r="C702" s="49" t="s">
+        <v>921</v>
+      </c>
+      <c r="F702" s="49" t="s">
+        <v>650</v>
+      </c>
     </row>
     <row r="703" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
         <v>308</v>
       </c>
       <c r="B703" s="49" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C703" s="49" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F703" s="49" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="704" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -23715,65 +23748,56 @@
       <c r="C704" s="50"/>
       <c r="F704" s="50"/>
     </row>
-    <row r="705" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A705" t="s">
-        <v>308</v>
-      </c>
-      <c r="B705" s="49" t="s">
-        <v>924</v>
-      </c>
-      <c r="C705" s="49" t="s">
-        <v>924</v>
-      </c>
-      <c r="F705" s="49" t="s">
-        <v>652</v>
-      </c>
+    <row r="705" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B705" s="50"/>
+      <c r="C705" s="50"/>
+      <c r="F705" s="50"/>
     </row>
     <row r="706" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
         <v>308</v>
       </c>
       <c r="B706" s="49" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="C706" s="49" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="F706" s="49" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="707" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B707" s="50"/>
+      <c r="C707" s="50"/>
+      <c r="F707" s="50"/>
+    </row>
+    <row r="708" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A708" t="s">
+        <v>308</v>
+      </c>
+      <c r="B708" s="49" t="s">
+        <v>924</v>
+      </c>
+      <c r="C708" s="49" t="s">
+        <v>924</v>
+      </c>
+      <c r="F708" s="49" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="707" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A707" t="s">
-        <v>308</v>
-      </c>
-      <c r="B707" s="49" t="s">
-        <v>926</v>
-      </c>
-      <c r="C707" s="49" t="s">
-        <v>926</v>
-      </c>
-      <c r="F707" s="49" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="708" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B708" s="50"/>
-      <c r="C708" s="50"/>
-      <c r="F708" s="50"/>
     </row>
     <row r="709" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
         <v>308</v>
       </c>
       <c r="B709" s="49" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="C709" s="49" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="F709" s="49" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="710" spans="1:6" x14ac:dyDescent="0.25">
@@ -23781,173 +23805,173 @@
         <v>308</v>
       </c>
       <c r="B710" s="49" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="C710" s="49" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="F710" s="49" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="711" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A711" t="s">
-        <v>308</v>
-      </c>
-      <c r="B711" s="49" t="s">
-        <v>929</v>
-      </c>
-      <c r="C711" s="49" t="s">
-        <v>929</v>
-      </c>
-      <c r="F711" s="49" t="s">
-        <v>653</v>
-      </c>
+        <v>652</v>
+      </c>
+    </row>
+    <row r="711" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B711" s="50"/>
+      <c r="C711" s="50"/>
+      <c r="F711" s="50"/>
     </row>
     <row r="712" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
         <v>308</v>
       </c>
       <c r="B712" s="49" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="C712" s="49" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="F712" s="49" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="713" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B713" s="50"/>
-      <c r="C713" s="50"/>
-      <c r="F713" s="50"/>
+    <row r="713" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A713" t="s">
+        <v>308</v>
+      </c>
+      <c r="B713" s="49" t="s">
+        <v>928</v>
+      </c>
+      <c r="C713" s="49" t="s">
+        <v>928</v>
+      </c>
+      <c r="F713" s="49" t="s">
+        <v>653</v>
+      </c>
     </row>
     <row r="714" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
         <v>308</v>
       </c>
       <c r="B714" s="49" t="s">
-        <v>1040</v>
+        <v>929</v>
       </c>
       <c r="C714" s="49" t="s">
-        <v>1040</v>
+        <v>929</v>
       </c>
       <c r="F714" s="49" t="s">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="715" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B715" s="50"/>
-      <c r="C715" s="50"/>
-      <c r="F715" s="50"/>
-    </row>
-    <row r="716" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A716" t="s">
-        <v>308</v>
-      </c>
-      <c r="B716" s="49" t="s">
-        <v>931</v>
-      </c>
-      <c r="C716" s="49" t="s">
-        <v>931</v>
-      </c>
-      <c r="F716" s="49" t="s">
-        <v>654</v>
-      </c>
+        <v>653</v>
+      </c>
+    </row>
+    <row r="715" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A715" t="s">
+        <v>308</v>
+      </c>
+      <c r="B715" s="49" t="s">
+        <v>930</v>
+      </c>
+      <c r="C715" s="49" t="s">
+        <v>930</v>
+      </c>
+      <c r="F715" s="49" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="716" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B716" s="50"/>
+      <c r="C716" s="50"/>
+      <c r="F716" s="50"/>
     </row>
     <row r="717" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
         <v>308</v>
       </c>
       <c r="B717" s="49" t="s">
-        <v>932</v>
+        <v>1040</v>
       </c>
       <c r="C717" s="49" t="s">
-        <v>932</v>
+        <v>1040</v>
       </c>
       <c r="F717" s="49" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="718" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A718" t="s">
-        <v>308</v>
-      </c>
-      <c r="B718" s="49" t="s">
-        <v>933</v>
-      </c>
-      <c r="C718" s="49" t="s">
-        <v>933</v>
-      </c>
-      <c r="F718" s="49" t="s">
-        <v>654</v>
-      </c>
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="718" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B718" s="50"/>
+      <c r="C718" s="50"/>
+      <c r="F718" s="50"/>
     </row>
     <row r="719" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
         <v>308</v>
       </c>
       <c r="B719" s="49" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="C719" s="49" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="F719" s="49" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="720" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B720" s="50"/>
-      <c r="C720" s="50"/>
-      <c r="F720" s="50"/>
+    <row r="720" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A720" t="s">
+        <v>308</v>
+      </c>
+      <c r="B720" s="49" t="s">
+        <v>932</v>
+      </c>
+      <c r="C720" s="49" t="s">
+        <v>932</v>
+      </c>
+      <c r="F720" s="49" t="s">
+        <v>654</v>
+      </c>
     </row>
     <row r="721" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
         <v>308</v>
       </c>
       <c r="B721" s="49" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="C721" s="49" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="F721" s="49" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="722" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B722" s="50"/>
-      <c r="C722" s="50"/>
-      <c r="F722" s="50"/>
-    </row>
-    <row r="723" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A723" t="s">
-        <v>308</v>
-      </c>
-      <c r="B723" s="49" t="s">
-        <v>936</v>
-      </c>
-      <c r="C723" s="49" t="s">
-        <v>936</v>
-      </c>
-      <c r="F723" s="49" t="s">
-        <v>656</v>
-      </c>
+        <v>654</v>
+      </c>
+    </row>
+    <row r="722" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A722" t="s">
+        <v>308</v>
+      </c>
+      <c r="B722" s="49" t="s">
+        <v>934</v>
+      </c>
+      <c r="C722" s="49" t="s">
+        <v>934</v>
+      </c>
+      <c r="F722" s="49" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="723" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B723" s="50"/>
+      <c r="C723" s="50"/>
+      <c r="F723" s="50"/>
     </row>
     <row r="724" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
         <v>308</v>
       </c>
       <c r="B724" s="49" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="C724" s="49" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="F724" s="49" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="725" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -23955,70 +23979,70 @@
       <c r="C725" s="50"/>
       <c r="F725" s="50"/>
     </row>
-    <row r="726" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B726" s="50"/>
-      <c r="C726" s="50"/>
-      <c r="F726" s="50"/>
+    <row r="726" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A726" t="s">
+        <v>308</v>
+      </c>
+      <c r="B726" s="49" t="s">
+        <v>936</v>
+      </c>
+      <c r="C726" s="49" t="s">
+        <v>936</v>
+      </c>
+      <c r="F726" s="49" t="s">
+        <v>656</v>
+      </c>
     </row>
     <row r="727" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
         <v>308</v>
       </c>
       <c r="B727" s="49" t="s">
+        <v>937</v>
+      </c>
+      <c r="C727" s="49" t="s">
+        <v>937</v>
+      </c>
+      <c r="F727" s="49" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="728" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B728" s="50"/>
+      <c r="C728" s="50"/>
+      <c r="F728" s="50"/>
+    </row>
+    <row r="729" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B729" s="50"/>
+      <c r="C729" s="50"/>
+      <c r="F729" s="50"/>
+    </row>
+    <row r="730" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A730" t="s">
+        <v>308</v>
+      </c>
+      <c r="B730" s="49" t="s">
         <v>938</v>
       </c>
-      <c r="C727" s="49" t="s">
+      <c r="C730" s="49" t="s">
         <v>938</v>
       </c>
-      <c r="F727" s="49" t="s">
+      <c r="F730" s="49" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="728" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A728" t="s">
-        <v>308</v>
-      </c>
-      <c r="B728" s="49" t="s">
-        <v>939</v>
-      </c>
-      <c r="C728" s="49" t="s">
-        <v>939</v>
-      </c>
-      <c r="F728" s="49" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="729" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A729" t="s">
-        <v>308</v>
-      </c>
-      <c r="B729" s="49" t="s">
-        <v>940</v>
-      </c>
-      <c r="C729" s="49" t="s">
-        <v>940</v>
-      </c>
-      <c r="F729" s="49" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="730" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B730" s="50"/>
-      <c r="C730" s="50"/>
-      <c r="F730" s="50"/>
     </row>
     <row r="731" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
         <v>308</v>
       </c>
       <c r="B731" s="49" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="C731" s="49" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="F731" s="49" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="732" spans="1:6" x14ac:dyDescent="0.25">
@@ -24026,60 +24050,60 @@
         <v>308</v>
       </c>
       <c r="B732" s="49" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="C732" s="49" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="F732" s="49" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="733" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A733" t="s">
-        <v>308</v>
-      </c>
-      <c r="B733" s="49" t="s">
-        <v>943</v>
-      </c>
-      <c r="C733" s="49" t="s">
-        <v>943</v>
-      </c>
-      <c r="F733" s="49" t="s">
-        <v>658</v>
-      </c>
+        <v>657</v>
+      </c>
+    </row>
+    <row r="733" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B733" s="50"/>
+      <c r="C733" s="50"/>
+      <c r="F733" s="50"/>
     </row>
     <row r="734" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
         <v>308</v>
       </c>
       <c r="B734" s="49" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="C734" s="49" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="F734" s="49" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="735" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B735" s="50"/>
-      <c r="C735" s="50"/>
-      <c r="F735" s="50"/>
+    <row r="735" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A735" t="s">
+        <v>308</v>
+      </c>
+      <c r="B735" s="49" t="s">
+        <v>942</v>
+      </c>
+      <c r="C735" s="49" t="s">
+        <v>942</v>
+      </c>
+      <c r="F735" s="49" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="736" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
         <v>308</v>
       </c>
       <c r="B736" s="49" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="C736" s="49" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="F736" s="49" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="737" spans="1:6" x14ac:dyDescent="0.25">
@@ -24087,38 +24111,29 @@
         <v>308</v>
       </c>
       <c r="B737" s="49" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="C737" s="49" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="F737" s="49" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="738" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A738" t="s">
-        <v>308</v>
-      </c>
-      <c r="B738" s="49" t="s">
-        <v>947</v>
-      </c>
-      <c r="C738" s="49" t="s">
-        <v>947</v>
-      </c>
-      <c r="F738" s="49" t="s">
-        <v>659</v>
-      </c>
+        <v>658</v>
+      </c>
+    </row>
+    <row r="738" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B738" s="50"/>
+      <c r="C738" s="50"/>
+      <c r="F738" s="50"/>
     </row>
     <row r="739" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
         <v>308</v>
       </c>
       <c r="B739" s="49" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="C739" s="49" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="F739" s="49" t="s">
         <v>659</v>
@@ -24129,32 +24144,41 @@
         <v>308</v>
       </c>
       <c r="B740" s="49" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="C740" s="49" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="F740" s="49" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="741" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B741" s="50"/>
-      <c r="C741" s="50"/>
-      <c r="F741" s="50"/>
+    <row r="741" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A741" t="s">
+        <v>308</v>
+      </c>
+      <c r="B741" s="49" t="s">
+        <v>947</v>
+      </c>
+      <c r="C741" s="49" t="s">
+        <v>947</v>
+      </c>
+      <c r="F741" s="49" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="742" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
         <v>308</v>
       </c>
       <c r="B742" s="49" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="C742" s="49" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="F742" s="49" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="743" spans="1:6" x14ac:dyDescent="0.25">
@@ -24162,46 +24186,46 @@
         <v>308</v>
       </c>
       <c r="B743" s="49" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="C743" s="49" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="F743" s="49" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="744" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B744" s="50"/>
+      <c r="C744" s="50"/>
+      <c r="F744" s="50"/>
+    </row>
+    <row r="745" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A745" t="s">
+        <v>308</v>
+      </c>
+      <c r="B745" s="49" t="s">
+        <v>950</v>
+      </c>
+      <c r="C745" s="49" t="s">
+        <v>950</v>
+      </c>
+      <c r="F745" s="49" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="744" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A744" t="s">
-        <v>308</v>
-      </c>
-      <c r="B744" s="49" t="s">
-        <v>952</v>
-      </c>
-      <c r="C744" s="49" t="s">
-        <v>952</v>
-      </c>
-      <c r="F744" s="49" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="745" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B745" s="50"/>
-      <c r="C745" s="50"/>
-      <c r="F745" s="50"/>
     </row>
     <row r="746" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
         <v>308</v>
       </c>
       <c r="B746" s="49" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="C746" s="49" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="F746" s="49" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="747" spans="1:6" x14ac:dyDescent="0.25">
@@ -24209,60 +24233,60 @@
         <v>308</v>
       </c>
       <c r="B747" s="49" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="C747" s="49" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="F747" s="49" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="748" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A748" t="s">
-        <v>308</v>
-      </c>
-      <c r="B748" s="49" t="s">
-        <v>955</v>
-      </c>
-      <c r="C748" s="49" t="s">
-        <v>955</v>
-      </c>
-      <c r="F748" s="49" t="s">
-        <v>661</v>
-      </c>
+        <v>660</v>
+      </c>
+    </row>
+    <row r="748" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B748" s="50"/>
+      <c r="C748" s="50"/>
+      <c r="F748" s="50"/>
     </row>
     <row r="749" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
         <v>308</v>
       </c>
       <c r="B749" s="49" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="C749" s="49" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="F749" s="49" t="s">
         <v>661</v>
       </c>
     </row>
     <row r="750" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B750" s="49"/>
-      <c r="C750" s="49"/>
-      <c r="F750" s="49"/>
+      <c r="A750" t="s">
+        <v>308</v>
+      </c>
+      <c r="B750" s="49" t="s">
+        <v>954</v>
+      </c>
+      <c r="C750" s="49" t="s">
+        <v>954</v>
+      </c>
+      <c r="F750" s="49" t="s">
+        <v>661</v>
+      </c>
     </row>
     <row r="751" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
         <v>308</v>
       </c>
       <c r="B751" s="49" t="s">
-        <v>1041</v>
+        <v>955</v>
       </c>
       <c r="C751" s="49" t="s">
-        <v>1041</v>
+        <v>955</v>
       </c>
       <c r="F751" s="49" t="s">
-        <v>1033</v>
+        <v>661</v>
       </c>
     </row>
     <row r="752" spans="1:6" x14ac:dyDescent="0.25">
@@ -24270,18 +24294,18 @@
         <v>308</v>
       </c>
       <c r="B752" s="49" t="s">
-        <v>1042</v>
+        <v>956</v>
       </c>
       <c r="C752" s="49" t="s">
-        <v>1042</v>
+        <v>956</v>
       </c>
       <c r="F752" s="49" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="753" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B753" s="50"/>
-      <c r="C753" s="50"/>
+        <v>661</v>
+      </c>
+    </row>
+    <row r="753" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B753" s="49"/>
+      <c r="C753" s="49"/>
       <c r="F753" s="49"/>
     </row>
     <row r="754" spans="1:6" x14ac:dyDescent="0.25">
@@ -24289,13 +24313,13 @@
         <v>308</v>
       </c>
       <c r="B754" s="49" t="s">
-        <v>957</v>
+        <v>1041</v>
       </c>
       <c r="C754" s="49" t="s">
-        <v>957</v>
+        <v>1041</v>
       </c>
       <c r="F754" s="49" t="s">
-        <v>662</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="755" spans="1:6" x14ac:dyDescent="0.25">
@@ -24303,84 +24327,84 @@
         <v>308</v>
       </c>
       <c r="B755" s="49" t="s">
-        <v>958</v>
+        <v>1042</v>
       </c>
       <c r="C755" s="49" t="s">
-        <v>958</v>
+        <v>1042</v>
       </c>
       <c r="F755" s="49" t="s">
-        <v>662</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="756" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B756" s="50"/>
       <c r="C756" s="50"/>
-      <c r="F756" s="50"/>
+      <c r="F756" s="49"/>
     </row>
     <row r="757" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
         <v>308</v>
       </c>
       <c r="B757" s="49" t="s">
+        <v>957</v>
+      </c>
+      <c r="C757" s="49" t="s">
+        <v>957</v>
+      </c>
+      <c r="F757" s="49" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="758" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A758" t="s">
+        <v>308</v>
+      </c>
+      <c r="B758" s="49" t="s">
+        <v>958</v>
+      </c>
+      <c r="C758" s="49" t="s">
+        <v>958</v>
+      </c>
+      <c r="F758" s="49" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="759" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B759" s="50"/>
+      <c r="C759" s="50"/>
+      <c r="F759" s="50"/>
+    </row>
+    <row r="760" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A760" t="s">
+        <v>308</v>
+      </c>
+      <c r="B760" s="49" t="s">
         <v>959</v>
       </c>
-      <c r="C757" s="49" t="s">
+      <c r="C760" s="49" t="s">
         <v>959</v>
       </c>
-      <c r="F757" s="49" t="s">
+      <c r="F760" s="49" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="758" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B758" s="50"/>
-      <c r="C758" s="50"/>
-      <c r="F758" s="50"/>
-    </row>
-    <row r="759" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A759" t="s">
-        <v>308</v>
-      </c>
-      <c r="B759" s="49" t="s">
-        <v>960</v>
-      </c>
-      <c r="C759" s="49" t="s">
-        <v>960</v>
-      </c>
-      <c r="F759" s="49" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="760" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B760" s="50"/>
-      <c r="C760" s="50"/>
-      <c r="F760" s="50"/>
-    </row>
-    <row r="761" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A761" t="s">
-        <v>308</v>
-      </c>
-      <c r="B761" s="49" t="s">
-        <v>961</v>
-      </c>
-      <c r="C761" s="49" t="s">
-        <v>961</v>
-      </c>
-      <c r="F761" s="49" t="s">
-        <v>665</v>
-      </c>
+    <row r="761" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B761" s="50"/>
+      <c r="C761" s="50"/>
+      <c r="F761" s="50"/>
     </row>
     <row r="762" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
         <v>308</v>
       </c>
       <c r="B762" s="49" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="C762" s="49" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="F762" s="49" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="763" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -24393,90 +24417,81 @@
         <v>308</v>
       </c>
       <c r="B764" s="49" t="s">
+        <v>961</v>
+      </c>
+      <c r="C764" s="49" t="s">
+        <v>961</v>
+      </c>
+      <c r="F764" s="49" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="765" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A765" t="s">
+        <v>308</v>
+      </c>
+      <c r="B765" s="49" t="s">
+        <v>962</v>
+      </c>
+      <c r="C765" s="49" t="s">
+        <v>962</v>
+      </c>
+      <c r="F765" s="49" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="766" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B766" s="50"/>
+      <c r="C766" s="50"/>
+      <c r="F766" s="50"/>
+    </row>
+    <row r="767" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A767" t="s">
+        <v>308</v>
+      </c>
+      <c r="B767" s="49" t="s">
         <v>963</v>
       </c>
-      <c r="C764" s="49" t="s">
+      <c r="C767" s="49" t="s">
         <v>963</v>
       </c>
-      <c r="F764" s="49" t="s">
+      <c r="F767" s="49" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="765" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B765" s="49"/>
-      <c r="C765" s="49"/>
-      <c r="F765" s="49"/>
-    </row>
-    <row r="766" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A766" t="s">
-        <v>308</v>
-      </c>
-      <c r="B766" s="49" t="s">
-        <v>427</v>
-      </c>
-      <c r="C766" s="49" t="s">
-        <v>427</v>
-      </c>
-      <c r="F766" s="49" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="767" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B767" s="50"/>
-      <c r="C767" s="50"/>
-      <c r="F767" s="50"/>
-    </row>
     <row r="768" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A768" t="s">
-        <v>308</v>
-      </c>
-      <c r="B768" s="49" t="s">
-        <v>418</v>
-      </c>
-      <c r="C768" s="49" t="s">
-        <v>418</v>
-      </c>
-      <c r="F768" s="49" t="s">
-        <v>668</v>
-      </c>
+      <c r="B768" s="49"/>
+      <c r="C768" s="49"/>
+      <c r="F768" s="49"/>
     </row>
     <row r="769" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
         <v>308</v>
       </c>
       <c r="B769" s="49" t="s">
-        <v>964</v>
+        <v>427</v>
       </c>
       <c r="C769" s="49" t="s">
-        <v>964</v>
+        <v>427</v>
       </c>
       <c r="F769" s="49" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="770" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A770" t="s">
-        <v>308</v>
-      </c>
-      <c r="B770" s="49" t="s">
-        <v>416</v>
-      </c>
-      <c r="C770" s="49" t="s">
-        <v>416</v>
-      </c>
-      <c r="F770" s="49" t="s">
-        <v>668</v>
-      </c>
+        <v>667</v>
+      </c>
+    </row>
+    <row r="770" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B770" s="50"/>
+      <c r="C770" s="50"/>
+      <c r="F770" s="50"/>
     </row>
     <row r="771" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
         <v>308</v>
       </c>
       <c r="B771" s="49" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="C771" s="49" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="F771" s="49" t="s">
         <v>668</v>
@@ -24487,10 +24502,10 @@
         <v>308</v>
       </c>
       <c r="B772" s="49" t="s">
-        <v>470</v>
+        <v>964</v>
       </c>
       <c r="C772" s="49" t="s">
-        <v>470</v>
+        <v>964</v>
       </c>
       <c r="F772" s="49" t="s">
         <v>668</v>
@@ -24501,10 +24516,10 @@
         <v>308</v>
       </c>
       <c r="B773" s="49" t="s">
-        <v>965</v>
+        <v>416</v>
       </c>
       <c r="C773" s="49" t="s">
-        <v>965</v>
+        <v>416</v>
       </c>
       <c r="F773" s="49" t="s">
         <v>668</v>
@@ -24515,37 +24530,55 @@
         <v>308</v>
       </c>
       <c r="B774" s="49" t="s">
-        <v>966</v>
+        <v>424</v>
       </c>
       <c r="C774" s="49" t="s">
-        <v>966</v>
+        <v>424</v>
       </c>
       <c r="F774" s="49" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="775" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B775" s="50"/>
-      <c r="C775" s="50"/>
-      <c r="F775" s="50"/>
-    </row>
-    <row r="776" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B776" s="50"/>
-      <c r="C776" s="50"/>
-      <c r="F776" s="50"/>
+    <row r="775" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A775" t="s">
+        <v>308</v>
+      </c>
+      <c r="B775" s="49" t="s">
+        <v>470</v>
+      </c>
+      <c r="C775" s="49" t="s">
+        <v>470</v>
+      </c>
+      <c r="F775" s="49" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="776" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A776" t="s">
+        <v>308</v>
+      </c>
+      <c r="B776" s="49" t="s">
+        <v>965</v>
+      </c>
+      <c r="C776" s="49" t="s">
+        <v>965</v>
+      </c>
+      <c r="F776" s="49" t="s">
+        <v>668</v>
+      </c>
     </row>
     <row r="777" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A777" t="s">
         <v>308</v>
       </c>
       <c r="B777" s="49" t="s">
-        <v>463</v>
+        <v>966</v>
       </c>
       <c r="C777" s="49" t="s">
-        <v>463</v>
+        <v>966</v>
       </c>
       <c r="F777" s="49" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="778" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -24553,71 +24586,71 @@
       <c r="C778" s="50"/>
       <c r="F778" s="50"/>
     </row>
-    <row r="779" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A779" t="s">
-        <v>308</v>
-      </c>
-      <c r="B779" s="49" t="s">
-        <v>445</v>
-      </c>
-      <c r="C779" s="49" t="s">
-        <v>445</v>
-      </c>
-      <c r="F779" s="49" t="s">
-        <v>670</v>
-      </c>
+    <row r="779" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B779" s="50"/>
+      <c r="C779" s="50"/>
+      <c r="F779" s="50"/>
     </row>
     <row r="780" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A780" t="s">
         <v>308</v>
       </c>
       <c r="B780" s="49" t="s">
-        <v>442</v>
+        <v>463</v>
       </c>
       <c r="C780" s="49" t="s">
-        <v>442</v>
+        <v>463</v>
       </c>
       <c r="F780" s="49" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="781" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B781" s="50"/>
+      <c r="C781" s="50"/>
+      <c r="F781" s="50"/>
+    </row>
+    <row r="782" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A782" t="s">
+        <v>308</v>
+      </c>
+      <c r="B782" s="49" t="s">
+        <v>445</v>
+      </c>
+      <c r="C782" s="49" t="s">
+        <v>445</v>
+      </c>
+      <c r="F782" s="49" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="781" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A781" t="s">
-        <v>308</v>
-      </c>
-      <c r="B781" s="49" t="s">
-        <v>414</v>
-      </c>
-      <c r="C781" s="49" t="s">
-        <v>414</v>
-      </c>
-      <c r="F781" s="49" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="782" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B782" s="50"/>
-      <c r="C782" s="50"/>
-      <c r="F782" s="50"/>
     </row>
     <row r="783" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A783" t="s">
         <v>308</v>
       </c>
       <c r="B783" s="49" t="s">
-        <v>469</v>
+        <v>442</v>
       </c>
       <c r="C783" s="49" t="s">
-        <v>469</v>
+        <v>442</v>
       </c>
       <c r="F783" s="49" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="784" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B784" s="50"/>
-      <c r="C784" s="50"/>
-      <c r="F784" s="50"/>
+        <v>670</v>
+      </c>
+    </row>
+    <row r="784" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A784" t="s">
+        <v>308</v>
+      </c>
+      <c r="B784" s="49" t="s">
+        <v>414</v>
+      </c>
+      <c r="C784" s="49" t="s">
+        <v>414</v>
+      </c>
+      <c r="F784" s="49" t="s">
+        <v>670</v>
+      </c>
     </row>
     <row r="785" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B785" s="50"/>
@@ -24629,90 +24662,72 @@
         <v>308</v>
       </c>
       <c r="B786" s="49" t="s">
-        <v>435</v>
+        <v>469</v>
       </c>
       <c r="C786" s="49" t="s">
-        <v>435</v>
+        <v>469</v>
       </c>
       <c r="F786" s="49" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="787" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A787" t="s">
-        <v>308</v>
-      </c>
-      <c r="B787" s="49" t="s">
-        <v>967</v>
-      </c>
-      <c r="C787" s="49" t="s">
-        <v>967</v>
-      </c>
-      <c r="F787" s="49" t="s">
-        <v>672</v>
-      </c>
+        <v>671</v>
+      </c>
+    </row>
+    <row r="787" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B787" s="50"/>
+      <c r="C787" s="50"/>
+      <c r="F787" s="50"/>
     </row>
     <row r="788" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B788" s="50"/>
       <c r="C788" s="50"/>
       <c r="F788" s="50"/>
     </row>
-    <row r="789" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B789" s="50"/>
-      <c r="C789" s="50"/>
-      <c r="F789" s="50"/>
+    <row r="789" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A789" t="s">
+        <v>308</v>
+      </c>
+      <c r="B789" s="49" t="s">
+        <v>435</v>
+      </c>
+      <c r="C789" s="49" t="s">
+        <v>435</v>
+      </c>
+      <c r="F789" s="49" t="s">
+        <v>672</v>
+      </c>
     </row>
     <row r="790" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A790" t="s">
         <v>308</v>
       </c>
       <c r="B790" s="49" t="s">
-        <v>454</v>
+        <v>967</v>
       </c>
       <c r="C790" s="49" t="s">
-        <v>454</v>
+        <v>967</v>
       </c>
       <c r="F790" s="49" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="791" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A791" t="s">
-        <v>308</v>
-      </c>
-      <c r="B791" s="49" t="s">
-        <v>443</v>
-      </c>
-      <c r="C791" s="49" t="s">
-        <v>443</v>
-      </c>
-      <c r="F791" s="49" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="792" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A792" t="s">
-        <v>308</v>
-      </c>
-      <c r="B792" s="49" t="s">
-        <v>968</v>
-      </c>
-      <c r="C792" s="49" t="s">
-        <v>968</v>
-      </c>
-      <c r="F792" s="49" t="s">
-        <v>673</v>
-      </c>
+        <v>672</v>
+      </c>
+    </row>
+    <row r="791" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B791" s="50"/>
+      <c r="C791" s="50"/>
+      <c r="F791" s="50"/>
+    </row>
+    <row r="792" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B792" s="50"/>
+      <c r="C792" s="50"/>
+      <c r="F792" s="50"/>
     </row>
     <row r="793" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A793" t="s">
         <v>308</v>
       </c>
       <c r="B793" s="49" t="s">
-        <v>969</v>
+        <v>454</v>
       </c>
       <c r="C793" s="49" t="s">
-        <v>969</v>
+        <v>454</v>
       </c>
       <c r="F793" s="49" t="s">
         <v>673</v>
@@ -24723,10 +24738,10 @@
         <v>308</v>
       </c>
       <c r="B794" s="49" t="s">
-        <v>970</v>
+        <v>443</v>
       </c>
       <c r="C794" s="49" t="s">
-        <v>970</v>
+        <v>443</v>
       </c>
       <c r="F794" s="49" t="s">
         <v>673</v>
@@ -24737,10 +24752,10 @@
         <v>308</v>
       </c>
       <c r="B795" s="49" t="s">
-        <v>402</v>
+        <v>968</v>
       </c>
       <c r="C795" s="49" t="s">
-        <v>402</v>
+        <v>968</v>
       </c>
       <c r="F795" s="49" t="s">
         <v>673</v>
@@ -24751,32 +24766,41 @@
         <v>308</v>
       </c>
       <c r="B796" s="49" t="s">
-        <v>409</v>
+        <v>969</v>
       </c>
       <c r="C796" s="49" t="s">
-        <v>409</v>
+        <v>969</v>
       </c>
       <c r="F796" s="49" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="797" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B797" s="50"/>
-      <c r="C797" s="50"/>
-      <c r="F797" s="50"/>
+    <row r="797" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A797" t="s">
+        <v>308</v>
+      </c>
+      <c r="B797" s="49" t="s">
+        <v>970</v>
+      </c>
+      <c r="C797" s="49" t="s">
+        <v>970</v>
+      </c>
+      <c r="F797" s="49" t="s">
+        <v>673</v>
+      </c>
     </row>
     <row r="798" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A798" t="s">
         <v>308</v>
       </c>
       <c r="B798" s="49" t="s">
-        <v>971</v>
+        <v>402</v>
       </c>
       <c r="C798" s="49" t="s">
-        <v>971</v>
+        <v>402</v>
       </c>
       <c r="F798" s="49" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="799" spans="1:6" x14ac:dyDescent="0.25">
@@ -24784,66 +24808,66 @@
         <v>308</v>
       </c>
       <c r="B799" s="49" t="s">
+        <v>409</v>
+      </c>
+      <c r="C799" s="49" t="s">
+        <v>409</v>
+      </c>
+      <c r="F799" s="49" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="800" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B800" s="50"/>
+      <c r="C800" s="50"/>
+      <c r="F800" s="50"/>
+    </row>
+    <row r="801" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A801" t="s">
+        <v>308</v>
+      </c>
+      <c r="B801" s="49" t="s">
+        <v>971</v>
+      </c>
+      <c r="C801" s="49" t="s">
+        <v>971</v>
+      </c>
+      <c r="F801" s="49" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="802" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A802" t="s">
+        <v>308</v>
+      </c>
+      <c r="B802" s="49" t="s">
         <v>972</v>
       </c>
-      <c r="C799" s="49" t="s">
+      <c r="C802" s="49" t="s">
         <v>972</v>
       </c>
-      <c r="F799" s="49" t="s">
+      <c r="F802" s="49" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="800" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A800" t="s">
-        <v>308</v>
-      </c>
-      <c r="B800" s="49" t="s">
-        <v>400</v>
-      </c>
-      <c r="C800" s="49" t="s">
-        <v>400</v>
-      </c>
-      <c r="F800" s="49" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="801" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B801" s="50"/>
-      <c r="C801" s="50"/>
-      <c r="F801" s="50"/>
-    </row>
-    <row r="802" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B802" s="50"/>
-      <c r="C802" s="50"/>
-      <c r="F802" s="50"/>
     </row>
     <row r="803" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A803" t="s">
         <v>308</v>
       </c>
       <c r="B803" s="49" t="s">
-        <v>451</v>
+        <v>400</v>
       </c>
       <c r="C803" s="49" t="s">
-        <v>451</v>
+        <v>400</v>
       </c>
       <c r="F803" s="49" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="804" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A804" t="s">
-        <v>308</v>
-      </c>
-      <c r="B804" s="49" t="s">
-        <v>973</v>
-      </c>
-      <c r="C804" s="49" t="s">
-        <v>973</v>
-      </c>
-      <c r="F804" s="49" t="s">
-        <v>675</v>
-      </c>
+        <v>674</v>
+      </c>
+    </row>
+    <row r="804" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B804" s="50"/>
+      <c r="C804" s="50"/>
+      <c r="F804" s="50"/>
     </row>
     <row r="805" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B805" s="50"/>
@@ -24855,38 +24879,47 @@
         <v>308</v>
       </c>
       <c r="B806" s="49" t="s">
+        <v>451</v>
+      </c>
+      <c r="C806" s="49" t="s">
+        <v>451</v>
+      </c>
+      <c r="F806" s="49" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="807" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A807" t="s">
+        <v>308</v>
+      </c>
+      <c r="B807" s="49" t="s">
+        <v>973</v>
+      </c>
+      <c r="C807" s="49" t="s">
+        <v>973</v>
+      </c>
+      <c r="F807" s="49" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="808" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B808" s="50"/>
+      <c r="C808" s="50"/>
+      <c r="F808" s="50"/>
+    </row>
+    <row r="809" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A809" t="s">
+        <v>308</v>
+      </c>
+      <c r="B809" s="49" t="s">
         <v>413</v>
       </c>
-      <c r="C806" s="49" t="s">
+      <c r="C809" s="49" t="s">
         <v>413</v>
       </c>
-      <c r="F806" s="49" t="s">
+      <c r="F809" s="49" t="s">
         <v>676</v>
       </c>
-    </row>
-    <row r="807" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B807" s="50"/>
-      <c r="C807" s="50"/>
-      <c r="F807" s="50"/>
-    </row>
-    <row r="808" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A808" t="s">
-        <v>308</v>
-      </c>
-      <c r="B808" s="49" t="s">
-        <v>421</v>
-      </c>
-      <c r="C808" s="49" t="s">
-        <v>421</v>
-      </c>
-      <c r="F808" s="49" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="809" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B809" s="50"/>
-      <c r="C809" s="50"/>
-      <c r="F809" s="50"/>
     </row>
     <row r="810" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B810" s="50"/>
@@ -24898,13 +24931,13 @@
         <v>308</v>
       </c>
       <c r="B811" s="49" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="C811" s="49" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="F811" s="49" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="812" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -24912,24 +24945,24 @@
       <c r="C812" s="50"/>
       <c r="F812" s="50"/>
     </row>
-    <row r="813" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A813" t="s">
-        <v>308</v>
-      </c>
-      <c r="B813" s="49" t="s">
-        <v>399</v>
-      </c>
-      <c r="C813" s="49" t="s">
-        <v>399</v>
-      </c>
-      <c r="F813" s="49" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="814" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B814" s="50"/>
-      <c r="C814" s="50"/>
-      <c r="F814" s="50"/>
+    <row r="813" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B813" s="50"/>
+      <c r="C813" s="50"/>
+      <c r="F813" s="50"/>
+    </row>
+    <row r="814" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A814" t="s">
+        <v>308</v>
+      </c>
+      <c r="B814" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="C814" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="F814" s="49" t="s">
+        <v>678</v>
+      </c>
     </row>
     <row r="815" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B815" s="50"/>
@@ -24941,13 +24974,13 @@
         <v>308</v>
       </c>
       <c r="B816" s="49" t="s">
-        <v>420</v>
+        <v>399</v>
       </c>
       <c r="C816" s="49" t="s">
-        <v>420</v>
+        <v>399</v>
       </c>
       <c r="F816" s="49" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="817" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -24955,43 +24988,43 @@
       <c r="C817" s="50"/>
       <c r="F817" s="50"/>
     </row>
-    <row r="818" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A818" t="s">
-        <v>308</v>
-      </c>
-      <c r="B818" s="49" t="s">
+    <row r="818" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B818" s="50"/>
+      <c r="C818" s="50"/>
+      <c r="F818" s="50"/>
+    </row>
+    <row r="819" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A819" t="s">
+        <v>308</v>
+      </c>
+      <c r="B819" s="49" t="s">
+        <v>420</v>
+      </c>
+      <c r="C819" s="49" t="s">
+        <v>420</v>
+      </c>
+      <c r="F819" s="49" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="820" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B820" s="50"/>
+      <c r="C820" s="50"/>
+      <c r="F820" s="50"/>
+    </row>
+    <row r="821" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A821" t="s">
+        <v>308</v>
+      </c>
+      <c r="B821" s="49" t="s">
         <v>974</v>
       </c>
-      <c r="C818" s="49" t="s">
+      <c r="C821" s="49" t="s">
         <v>974</v>
       </c>
-      <c r="F818" s="49" t="s">
+      <c r="F821" s="49" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="819" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B819" s="50"/>
-      <c r="C819" s="50"/>
-      <c r="F819" s="50"/>
-    </row>
-    <row r="820" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A820" t="s">
-        <v>308</v>
-      </c>
-      <c r="B820" s="49" t="s">
-        <v>975</v>
-      </c>
-      <c r="C820" s="49" t="s">
-        <v>975</v>
-      </c>
-      <c r="F820" s="49" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="821" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B821" s="50"/>
-      <c r="C821" s="50"/>
-      <c r="F821" s="50"/>
     </row>
     <row r="822" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B822" s="50"/>
@@ -25003,13 +25036,13 @@
         <v>308</v>
       </c>
       <c r="B823" s="49" t="s">
-        <v>428</v>
+        <v>975</v>
       </c>
       <c r="C823" s="49" t="s">
-        <v>428</v>
+        <v>975</v>
       </c>
       <c r="F823" s="49" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="824" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -25017,99 +25050,90 @@
       <c r="C824" s="50"/>
       <c r="F824" s="50"/>
     </row>
-    <row r="825" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A825" t="s">
-        <v>308</v>
-      </c>
-      <c r="B825" s="49" t="s">
-        <v>460</v>
-      </c>
-      <c r="C825" s="49" t="s">
-        <v>460</v>
-      </c>
-      <c r="F825" s="49" t="s">
-        <v>684</v>
-      </c>
+    <row r="825" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B825" s="50"/>
+      <c r="C825" s="50"/>
+      <c r="F825" s="50"/>
     </row>
     <row r="826" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A826" t="s">
         <v>308</v>
       </c>
       <c r="B826" s="49" t="s">
-        <v>472</v>
+        <v>428</v>
       </c>
       <c r="C826" s="49" t="s">
-        <v>472</v>
+        <v>428</v>
       </c>
       <c r="F826" s="49" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="827" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A827" t="s">
-        <v>308</v>
-      </c>
-      <c r="B827" s="49" t="s">
-        <v>446</v>
-      </c>
-      <c r="C827" s="49" t="s">
-        <v>446</v>
-      </c>
-      <c r="F827" s="49" t="s">
-        <v>684</v>
-      </c>
+        <v>683</v>
+      </c>
+    </row>
+    <row r="827" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B827" s="50"/>
+      <c r="C827" s="50"/>
+      <c r="F827" s="50"/>
     </row>
     <row r="828" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A828" t="s">
         <v>308</v>
       </c>
       <c r="B828" s="49" t="s">
-        <v>976</v>
+        <v>460</v>
       </c>
       <c r="C828" s="49" t="s">
-        <v>976</v>
+        <v>460</v>
       </c>
       <c r="F828" s="49" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="829" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B829" s="50"/>
-      <c r="C829" s="50"/>
-      <c r="F829" s="50"/>
-    </row>
-    <row r="830" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B830" s="50"/>
-      <c r="C830" s="50"/>
-      <c r="F830" s="50"/>
+    <row r="829" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A829" t="s">
+        <v>308</v>
+      </c>
+      <c r="B829" s="49" t="s">
+        <v>472</v>
+      </c>
+      <c r="C829" s="49" t="s">
+        <v>472</v>
+      </c>
+      <c r="F829" s="49" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="830" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A830" t="s">
+        <v>308</v>
+      </c>
+      <c r="B830" s="49" t="s">
+        <v>446</v>
+      </c>
+      <c r="C830" s="49" t="s">
+        <v>446</v>
+      </c>
+      <c r="F830" s="49" t="s">
+        <v>684</v>
+      </c>
     </row>
     <row r="831" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A831" t="s">
         <v>308</v>
       </c>
       <c r="B831" s="49" t="s">
-        <v>476</v>
+        <v>976</v>
       </c>
       <c r="C831" s="49" t="s">
-        <v>476</v>
+        <v>976</v>
       </c>
       <c r="F831" s="49" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="832" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A832" t="s">
-        <v>308</v>
-      </c>
-      <c r="B832" s="49" t="s">
-        <v>977</v>
-      </c>
-      <c r="C832" s="49" t="s">
-        <v>977</v>
-      </c>
-      <c r="F832" s="49" t="s">
-        <v>578</v>
-      </c>
+        <v>684</v>
+      </c>
+    </row>
+    <row r="832" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B832" s="50"/>
+      <c r="C832" s="50"/>
+      <c r="F832" s="50"/>
     </row>
     <row r="833" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B833" s="50"/>
@@ -25121,38 +25145,47 @@
         <v>308</v>
       </c>
       <c r="B834" s="49" t="s">
+        <v>476</v>
+      </c>
+      <c r="C834" s="49" t="s">
+        <v>476</v>
+      </c>
+      <c r="F834" s="49" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="835" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A835" t="s">
+        <v>308</v>
+      </c>
+      <c r="B835" s="49" t="s">
+        <v>977</v>
+      </c>
+      <c r="C835" s="49" t="s">
+        <v>977</v>
+      </c>
+      <c r="F835" s="49" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="836" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B836" s="50"/>
+      <c r="C836" s="50"/>
+      <c r="F836" s="50"/>
+    </row>
+    <row r="837" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A837" t="s">
+        <v>308</v>
+      </c>
+      <c r="B837" s="49" t="s">
         <v>457</v>
       </c>
-      <c r="C834" s="49" t="s">
+      <c r="C837" s="49" t="s">
         <v>457</v>
       </c>
-      <c r="F834" s="49" t="s">
+      <c r="F837" s="49" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="835" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B835" s="50"/>
-      <c r="C835" s="50"/>
-      <c r="F835" s="50"/>
-    </row>
-    <row r="836" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A836" t="s">
-        <v>308</v>
-      </c>
-      <c r="B836" s="49" t="s">
-        <v>452</v>
-      </c>
-      <c r="C836" s="49" t="s">
-        <v>452</v>
-      </c>
-      <c r="F836" s="49" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="837" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B837" s="50"/>
-      <c r="C837" s="50"/>
-      <c r="F837" s="50"/>
     </row>
     <row r="838" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B838" s="50"/>
@@ -25164,13 +25197,13 @@
         <v>308</v>
       </c>
       <c r="B839" s="49" t="s">
-        <v>978</v>
+        <v>452</v>
       </c>
       <c r="C839" s="49" t="s">
-        <v>978</v>
+        <v>452</v>
       </c>
       <c r="F839" s="49" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="840" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -25178,65 +25211,56 @@
       <c r="C840" s="50"/>
       <c r="F840" s="50"/>
     </row>
-    <row r="841" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A841" t="s">
-        <v>308</v>
-      </c>
-      <c r="B841" s="49" t="s">
-        <v>979</v>
-      </c>
-      <c r="C841" s="49" t="s">
-        <v>979</v>
-      </c>
-      <c r="F841" s="49" t="s">
-        <v>688</v>
-      </c>
+    <row r="841" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B841" s="50"/>
+      <c r="C841" s="50"/>
+      <c r="F841" s="50"/>
     </row>
     <row r="842" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A842" t="s">
         <v>308</v>
       </c>
       <c r="B842" s="49" t="s">
-        <v>404</v>
+        <v>978</v>
       </c>
       <c r="C842" s="49" t="s">
-        <v>404</v>
+        <v>978</v>
       </c>
       <c r="F842" s="49" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="843" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B843" s="50"/>
+      <c r="C843" s="50"/>
+      <c r="F843" s="50"/>
+    </row>
+    <row r="844" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A844" t="s">
+        <v>308</v>
+      </c>
+      <c r="B844" s="49" t="s">
+        <v>979</v>
+      </c>
+      <c r="C844" s="49" t="s">
+        <v>979</v>
+      </c>
+      <c r="F844" s="49" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="843" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A843" t="s">
-        <v>308</v>
-      </c>
-      <c r="B843" s="49" t="s">
-        <v>430</v>
-      </c>
-      <c r="C843" s="49" t="s">
-        <v>430</v>
-      </c>
-      <c r="F843" s="49" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="844" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B844" s="50"/>
-      <c r="C844" s="50"/>
-      <c r="F844" s="50"/>
     </row>
     <row r="845" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A845" t="s">
         <v>308</v>
       </c>
       <c r="B845" s="49" t="s">
-        <v>980</v>
+        <v>404</v>
       </c>
       <c r="C845" s="49" t="s">
-        <v>980</v>
+        <v>404</v>
       </c>
       <c r="F845" s="49" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="846" spans="1:6" x14ac:dyDescent="0.25">
@@ -25244,38 +25268,29 @@
         <v>308</v>
       </c>
       <c r="B846" s="49" t="s">
-        <v>415</v>
+        <v>430</v>
       </c>
       <c r="C846" s="49" t="s">
-        <v>415</v>
+        <v>430</v>
       </c>
       <c r="F846" s="49" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="847" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A847" t="s">
-        <v>308</v>
-      </c>
-      <c r="B847" s="49" t="s">
-        <v>981</v>
-      </c>
-      <c r="C847" s="49" t="s">
-        <v>981</v>
-      </c>
-      <c r="F847" s="49" t="s">
-        <v>689</v>
-      </c>
+        <v>688</v>
+      </c>
+    </row>
+    <row r="847" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B847" s="50"/>
+      <c r="C847" s="50"/>
+      <c r="F847" s="50"/>
     </row>
     <row r="848" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A848" t="s">
         <v>308</v>
       </c>
       <c r="B848" s="49" t="s">
-        <v>477</v>
+        <v>980</v>
       </c>
       <c r="C848" s="49" t="s">
-        <v>477</v>
+        <v>980</v>
       </c>
       <c r="F848" s="49" t="s">
         <v>689</v>
@@ -25286,10 +25301,10 @@
         <v>308</v>
       </c>
       <c r="B849" s="49" t="s">
-        <v>982</v>
+        <v>415</v>
       </c>
       <c r="C849" s="49" t="s">
-        <v>982</v>
+        <v>415</v>
       </c>
       <c r="F849" s="49" t="s">
         <v>689</v>
@@ -25300,10 +25315,10 @@
         <v>308</v>
       </c>
       <c r="B850" s="49" t="s">
-        <v>461</v>
+        <v>981</v>
       </c>
       <c r="C850" s="49" t="s">
-        <v>461</v>
+        <v>981</v>
       </c>
       <c r="F850" s="49" t="s">
         <v>689</v>
@@ -25314,10 +25329,10 @@
         <v>308</v>
       </c>
       <c r="B851" s="49" t="s">
-        <v>426</v>
+        <v>477</v>
       </c>
       <c r="C851" s="49" t="s">
-        <v>426</v>
+        <v>477</v>
       </c>
       <c r="F851" s="49" t="s">
         <v>689</v>
@@ -25328,10 +25343,10 @@
         <v>308</v>
       </c>
       <c r="B852" s="49" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="C852" s="49" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="F852" s="49" t="s">
         <v>689</v>
@@ -25342,10 +25357,10 @@
         <v>308</v>
       </c>
       <c r="B853" s="49" t="s">
-        <v>407</v>
+        <v>461</v>
       </c>
       <c r="C853" s="49" t="s">
-        <v>407</v>
+        <v>461</v>
       </c>
       <c r="F853" s="49" t="s">
         <v>689</v>
@@ -25356,10 +25371,10 @@
         <v>308</v>
       </c>
       <c r="B854" s="49" t="s">
-        <v>984</v>
+        <v>426</v>
       </c>
       <c r="C854" s="49" t="s">
-        <v>984</v>
+        <v>426</v>
       </c>
       <c r="F854" s="49" t="s">
         <v>689</v>
@@ -25370,10 +25385,10 @@
         <v>308</v>
       </c>
       <c r="B855" s="49" t="s">
-        <v>406</v>
+        <v>983</v>
       </c>
       <c r="C855" s="49" t="s">
-        <v>406</v>
+        <v>983</v>
       </c>
       <c r="F855" s="49" t="s">
         <v>689</v>
@@ -25384,10 +25399,10 @@
         <v>308</v>
       </c>
       <c r="B856" s="49" t="s">
-        <v>985</v>
+        <v>407</v>
       </c>
       <c r="C856" s="49" t="s">
-        <v>985</v>
+        <v>407</v>
       </c>
       <c r="F856" s="49" t="s">
         <v>689</v>
@@ -25398,10 +25413,10 @@
         <v>308</v>
       </c>
       <c r="B857" s="49" t="s">
-        <v>408</v>
+        <v>984</v>
       </c>
       <c r="C857" s="49" t="s">
-        <v>408</v>
+        <v>984</v>
       </c>
       <c r="F857" s="49" t="s">
         <v>689</v>
@@ -25412,10 +25427,10 @@
         <v>308</v>
       </c>
       <c r="B858" s="49" t="s">
-        <v>432</v>
+        <v>406</v>
       </c>
       <c r="C858" s="49" t="s">
-        <v>432</v>
+        <v>406</v>
       </c>
       <c r="F858" s="49" t="s">
         <v>689</v>
@@ -25426,76 +25441,76 @@
         <v>308</v>
       </c>
       <c r="B859" s="49" t="s">
-        <v>467</v>
+        <v>985</v>
       </c>
       <c r="C859" s="49" t="s">
-        <v>467</v>
+        <v>985</v>
       </c>
       <c r="F859" s="49" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="860" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B860" s="50"/>
-      <c r="C860" s="50"/>
-      <c r="F860" s="50"/>
-    </row>
-    <row r="861" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B861" s="50"/>
-      <c r="C861" s="50"/>
-      <c r="F861" s="50"/>
+    <row r="860" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A860" t="s">
+        <v>308</v>
+      </c>
+      <c r="B860" s="49" t="s">
+        <v>408</v>
+      </c>
+      <c r="C860" s="49" t="s">
+        <v>408</v>
+      </c>
+      <c r="F860" s="49" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="861" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A861" t="s">
+        <v>308</v>
+      </c>
+      <c r="B861" s="49" t="s">
+        <v>432</v>
+      </c>
+      <c r="C861" s="49" t="s">
+        <v>432</v>
+      </c>
+      <c r="F861" s="49" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="862" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A862" t="s">
         <v>308</v>
       </c>
       <c r="B862" s="49" t="s">
-        <v>986</v>
+        <v>467</v>
       </c>
       <c r="C862" s="49" t="s">
-        <v>986</v>
+        <v>467</v>
       </c>
       <c r="F862" s="49" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="863" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A863" t="s">
-        <v>308</v>
-      </c>
-      <c r="B863" s="49" t="s">
-        <v>437</v>
-      </c>
-      <c r="C863" s="49" t="s">
-        <v>437</v>
-      </c>
-      <c r="F863" s="49" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="864" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A864" t="s">
-        <v>308</v>
-      </c>
-      <c r="B864" s="49" t="s">
-        <v>987</v>
-      </c>
-      <c r="C864" s="49" t="s">
-        <v>987</v>
-      </c>
-      <c r="F864" s="49" t="s">
-        <v>690</v>
-      </c>
+        <v>689</v>
+      </c>
+    </row>
+    <row r="863" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B863" s="50"/>
+      <c r="C863" s="50"/>
+      <c r="F863" s="50"/>
+    </row>
+    <row r="864" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B864" s="50"/>
+      <c r="C864" s="50"/>
+      <c r="F864" s="50"/>
     </row>
     <row r="865" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A865" t="s">
         <v>308</v>
       </c>
       <c r="B865" s="49" t="s">
-        <v>441</v>
+        <v>986</v>
       </c>
       <c r="C865" s="49" t="s">
-        <v>441</v>
+        <v>986</v>
       </c>
       <c r="F865" s="49" t="s">
         <v>690</v>
@@ -25506,10 +25521,10 @@
         <v>308</v>
       </c>
       <c r="B866" s="49" t="s">
-        <v>988</v>
+        <v>437</v>
       </c>
       <c r="C866" s="49" t="s">
-        <v>988</v>
+        <v>437</v>
       </c>
       <c r="F866" s="49" t="s">
         <v>690</v>
@@ -25520,10 +25535,10 @@
         <v>308</v>
       </c>
       <c r="B867" s="49" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C867" s="49" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="F867" s="49" t="s">
         <v>690</v>
@@ -25534,32 +25549,41 @@
         <v>308</v>
       </c>
       <c r="B868" s="49" t="s">
-        <v>990</v>
+        <v>441</v>
       </c>
       <c r="C868" s="49" t="s">
-        <v>990</v>
+        <v>441</v>
       </c>
       <c r="F868" s="49" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="869" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B869" s="50"/>
-      <c r="C869" s="50"/>
-      <c r="F869" s="50"/>
+    <row r="869" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A869" t="s">
+        <v>308</v>
+      </c>
+      <c r="B869" s="49" t="s">
+        <v>988</v>
+      </c>
+      <c r="C869" s="49" t="s">
+        <v>988</v>
+      </c>
+      <c r="F869" s="49" t="s">
+        <v>690</v>
+      </c>
     </row>
     <row r="870" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A870" t="s">
         <v>308</v>
       </c>
       <c r="B870" s="49" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="C870" s="49" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="F870" s="49" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="871" spans="1:6" x14ac:dyDescent="0.25">
@@ -25567,38 +25591,29 @@
         <v>308</v>
       </c>
       <c r="B871" s="49" t="s">
-        <v>440</v>
+        <v>990</v>
       </c>
       <c r="C871" s="49" t="s">
-        <v>440</v>
+        <v>990</v>
       </c>
       <c r="F871" s="49" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="872" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A872" t="s">
-        <v>308</v>
-      </c>
-      <c r="B872" s="49" t="s">
-        <v>423</v>
-      </c>
-      <c r="C872" s="49" t="s">
-        <v>423</v>
-      </c>
-      <c r="F872" s="49" t="s">
-        <v>691</v>
-      </c>
+        <v>690</v>
+      </c>
+    </row>
+    <row r="872" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B872" s="50"/>
+      <c r="C872" s="50"/>
+      <c r="F872" s="50"/>
     </row>
     <row r="873" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A873" t="s">
         <v>308</v>
       </c>
       <c r="B873" s="49" t="s">
-        <v>450</v>
+        <v>991</v>
       </c>
       <c r="C873" s="49" t="s">
-        <v>450</v>
+        <v>991</v>
       </c>
       <c r="F873" s="49" t="s">
         <v>691</v>
@@ -25609,10 +25624,10 @@
         <v>308</v>
       </c>
       <c r="B874" s="49" t="s">
-        <v>992</v>
+        <v>440</v>
       </c>
       <c r="C874" s="49" t="s">
-        <v>992</v>
+        <v>440</v>
       </c>
       <c r="F874" s="49" t="s">
         <v>691</v>
@@ -25623,10 +25638,10 @@
         <v>308</v>
       </c>
       <c r="B875" s="49" t="s">
-        <v>405</v>
+        <v>423</v>
       </c>
       <c r="C875" s="49" t="s">
-        <v>405</v>
+        <v>423</v>
       </c>
       <c r="F875" s="49" t="s">
         <v>691</v>
@@ -25637,10 +25652,10 @@
         <v>308</v>
       </c>
       <c r="B876" s="49" t="s">
-        <v>403</v>
+        <v>450</v>
       </c>
       <c r="C876" s="49" t="s">
-        <v>403</v>
+        <v>450</v>
       </c>
       <c r="F876" s="49" t="s">
         <v>691</v>
@@ -25651,10 +25666,10 @@
         <v>308</v>
       </c>
       <c r="B877" s="49" t="s">
-        <v>425</v>
+        <v>992</v>
       </c>
       <c r="C877" s="49" t="s">
-        <v>425</v>
+        <v>992</v>
       </c>
       <c r="F877" s="49" t="s">
         <v>691</v>
@@ -25665,32 +25680,41 @@
         <v>308</v>
       </c>
       <c r="B878" s="49" t="s">
-        <v>993</v>
+        <v>405</v>
       </c>
       <c r="C878" s="49" t="s">
-        <v>993</v>
+        <v>405</v>
       </c>
       <c r="F878" s="49" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="879" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B879" s="50"/>
-      <c r="C879" s="50"/>
-      <c r="F879" s="50"/>
+    <row r="879" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A879" t="s">
+        <v>308</v>
+      </c>
+      <c r="B879" s="49" t="s">
+        <v>403</v>
+      </c>
+      <c r="C879" s="49" t="s">
+        <v>403</v>
+      </c>
+      <c r="F879" s="49" t="s">
+        <v>691</v>
+      </c>
     </row>
     <row r="880" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A880" t="s">
         <v>308</v>
       </c>
       <c r="B880" s="49" t="s">
-        <v>458</v>
+        <v>425</v>
       </c>
       <c r="C880" s="49" t="s">
-        <v>458</v>
+        <v>425</v>
       </c>
       <c r="F880" s="49" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="881" spans="1:6" x14ac:dyDescent="0.25">
@@ -25698,13 +25722,13 @@
         <v>308</v>
       </c>
       <c r="B881" s="49" t="s">
-        <v>455</v>
+        <v>993</v>
       </c>
       <c r="C881" s="49" t="s">
-        <v>455</v>
+        <v>993</v>
       </c>
       <c r="F881" s="49" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="882" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -25717,13 +25741,13 @@
         <v>308</v>
       </c>
       <c r="B883" s="49" t="s">
-        <v>994</v>
+        <v>458</v>
       </c>
       <c r="C883" s="49" t="s">
-        <v>994</v>
+        <v>458</v>
       </c>
       <c r="F883" s="49" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="884" spans="1:6" x14ac:dyDescent="0.25">
@@ -25731,13 +25755,13 @@
         <v>308</v>
       </c>
       <c r="B884" s="49" t="s">
-        <v>995</v>
+        <v>455</v>
       </c>
       <c r="C884" s="49" t="s">
-        <v>995</v>
+        <v>455</v>
       </c>
       <c r="F884" s="49" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="885" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -25745,23 +25769,32 @@
       <c r="C885" s="50"/>
       <c r="F885" s="50"/>
     </row>
-    <row r="886" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B886" s="50"/>
-      <c r="C886" s="50"/>
-      <c r="F886" s="50"/>
+    <row r="886" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A886" t="s">
+        <v>308</v>
+      </c>
+      <c r="B886" s="49" t="s">
+        <v>994</v>
+      </c>
+      <c r="C886" s="49" t="s">
+        <v>994</v>
+      </c>
+      <c r="F886" s="49" t="s">
+        <v>693</v>
+      </c>
     </row>
     <row r="887" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A887" t="s">
         <v>308</v>
       </c>
       <c r="B887" s="49" t="s">
-        <v>439</v>
+        <v>995</v>
       </c>
       <c r="C887" s="49" t="s">
-        <v>439</v>
+        <v>995</v>
       </c>
       <c r="F887" s="49" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="888" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -25769,32 +25802,23 @@
       <c r="C888" s="50"/>
       <c r="F888" s="50"/>
     </row>
-    <row r="889" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A889" t="s">
-        <v>308</v>
-      </c>
-      <c r="B889" s="49" t="s">
-        <v>466</v>
-      </c>
-      <c r="C889" s="49" t="s">
-        <v>466</v>
-      </c>
-      <c r="F889" s="49" t="s">
-        <v>695</v>
-      </c>
+    <row r="889" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B889" s="50"/>
+      <c r="C889" s="50"/>
+      <c r="F889" s="50"/>
     </row>
     <row r="890" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A890" t="s">
         <v>308</v>
       </c>
       <c r="B890" s="49" t="s">
-        <v>996</v>
+        <v>439</v>
       </c>
       <c r="C890" s="49" t="s">
-        <v>996</v>
+        <v>439</v>
       </c>
       <c r="F890" s="49" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="891" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -25807,13 +25831,13 @@
         <v>308</v>
       </c>
       <c r="B892" s="49" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C892" s="49" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="F892" s="49" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="893" spans="1:6" x14ac:dyDescent="0.25">
@@ -25821,52 +25845,61 @@
         <v>308</v>
       </c>
       <c r="B893" s="49" t="s">
-        <v>436</v>
+        <v>996</v>
       </c>
       <c r="C893" s="49" t="s">
-        <v>436</v>
+        <v>996</v>
       </c>
       <c r="F893" s="49" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="894" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B894" s="50"/>
+      <c r="C894" s="50"/>
+      <c r="F894" s="50"/>
+    </row>
+    <row r="895" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A895" t="s">
+        <v>308</v>
+      </c>
+      <c r="B895" s="49" t="s">
+        <v>465</v>
+      </c>
+      <c r="C895" s="49" t="s">
+        <v>465</v>
+      </c>
+      <c r="F895" s="49" t="s">
         <v>696</v>
       </c>
-    </row>
-    <row r="894" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A894" t="s">
-        <v>308</v>
-      </c>
-      <c r="B894" s="49" t="s">
-        <v>444</v>
-      </c>
-      <c r="C894" s="49" t="s">
-        <v>444</v>
-      </c>
-      <c r="F894" s="49" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="895" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B895" s="50"/>
-      <c r="C895" s="50"/>
-      <c r="F895" s="50"/>
     </row>
     <row r="896" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A896" t="s">
         <v>308</v>
       </c>
       <c r="B896" s="49" t="s">
-        <v>997</v>
+        <v>436</v>
       </c>
       <c r="C896" s="49" t="s">
-        <v>997</v>
+        <v>436</v>
       </c>
       <c r="F896" s="49" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="897" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B897" s="50"/>
-      <c r="C897" s="50"/>
-      <c r="F897" s="50"/>
+        <v>696</v>
+      </c>
+    </row>
+    <row r="897" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A897" t="s">
+        <v>308</v>
+      </c>
+      <c r="B897" s="49" t="s">
+        <v>444</v>
+      </c>
+      <c r="C897" s="49" t="s">
+        <v>444</v>
+      </c>
+      <c r="F897" s="49" t="s">
+        <v>696</v>
+      </c>
     </row>
     <row r="898" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B898" s="50"/>
@@ -25878,80 +25911,80 @@
         <v>308</v>
       </c>
       <c r="B899" s="49" t="s">
-        <v>431</v>
+        <v>997</v>
       </c>
       <c r="C899" s="49" t="s">
-        <v>431</v>
+        <v>997</v>
       </c>
       <c r="F899" s="49" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="900" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A900" t="s">
-        <v>308</v>
-      </c>
-      <c r="B900" s="49" t="s">
-        <v>422</v>
-      </c>
-      <c r="C900" s="49" t="s">
-        <v>422</v>
-      </c>
-      <c r="F900" s="49" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="901" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A901" t="s">
-        <v>308</v>
-      </c>
-      <c r="B901" s="49" t="s">
-        <v>459</v>
-      </c>
-      <c r="C901" s="49" t="s">
-        <v>459</v>
-      </c>
-      <c r="F901" s="49" t="s">
-        <v>698</v>
-      </c>
+        <v>697</v>
+      </c>
+    </row>
+    <row r="900" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B900" s="50"/>
+      <c r="C900" s="50"/>
+      <c r="F900" s="50"/>
+    </row>
+    <row r="901" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B901" s="50"/>
+      <c r="C901" s="50"/>
+      <c r="F901" s="50"/>
     </row>
     <row r="902" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A902" t="s">
         <v>308</v>
       </c>
       <c r="B902" s="49" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C902" s="49" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F902" s="49" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="903" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B903" s="50"/>
-      <c r="C903" s="50"/>
-      <c r="F903" s="50"/>
+    <row r="903" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A903" t="s">
+        <v>308</v>
+      </c>
+      <c r="B903" s="49" t="s">
+        <v>422</v>
+      </c>
+      <c r="C903" s="49" t="s">
+        <v>422</v>
+      </c>
+      <c r="F903" s="49" t="s">
+        <v>698</v>
+      </c>
     </row>
     <row r="904" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A904" t="s">
         <v>308</v>
       </c>
       <c r="B904" s="49" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C904" s="49" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="F904" s="49" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="905" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B905" s="50"/>
-      <c r="C905" s="50"/>
-      <c r="F905" s="50"/>
+        <v>698</v>
+      </c>
+    </row>
+    <row r="905" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A905" t="s">
+        <v>308</v>
+      </c>
+      <c r="B905" s="49" t="s">
+        <v>429</v>
+      </c>
+      <c r="C905" s="49" t="s">
+        <v>429</v>
+      </c>
+      <c r="F905" s="49" t="s">
+        <v>698</v>
+      </c>
     </row>
     <row r="906" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B906" s="50"/>
@@ -25963,28 +25996,19 @@
         <v>308</v>
       </c>
       <c r="B907" s="49" t="s">
-        <v>483</v>
+        <v>462</v>
       </c>
       <c r="C907" s="49" t="s">
-        <v>483</v>
+        <v>462</v>
       </c>
       <c r="F907" s="49" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="908" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A908" t="s">
-        <v>308</v>
-      </c>
-      <c r="B908" s="49" t="s">
-        <v>464</v>
-      </c>
-      <c r="C908" s="49" t="s">
-        <v>464</v>
-      </c>
-      <c r="F908" s="49" t="s">
-        <v>700</v>
-      </c>
+        <v>699</v>
+      </c>
+    </row>
+    <row r="908" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B908" s="50"/>
+      <c r="C908" s="50"/>
+      <c r="F908" s="50"/>
     </row>
     <row r="909" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B909" s="50"/>
@@ -25996,13 +26020,13 @@
         <v>308</v>
       </c>
       <c r="B910" s="49" t="s">
-        <v>411</v>
+        <v>483</v>
       </c>
       <c r="C910" s="49" t="s">
-        <v>411</v>
+        <v>483</v>
       </c>
       <c r="F910" s="49" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="911" spans="1:6" x14ac:dyDescent="0.25">
@@ -26010,46 +26034,46 @@
         <v>308</v>
       </c>
       <c r="B911" s="49" t="s">
-        <v>434</v>
+        <v>464</v>
       </c>
       <c r="C911" s="49" t="s">
-        <v>434</v>
+        <v>464</v>
       </c>
       <c r="F911" s="49" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="912" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B912" s="50"/>
+      <c r="C912" s="50"/>
+      <c r="F912" s="50"/>
+    </row>
+    <row r="913" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A913" t="s">
+        <v>308</v>
+      </c>
+      <c r="B913" s="49" t="s">
+        <v>411</v>
+      </c>
+      <c r="C913" s="49" t="s">
+        <v>411</v>
+      </c>
+      <c r="F913" s="49" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="912" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A912" t="s">
-        <v>308</v>
-      </c>
-      <c r="B912" s="49" t="s">
-        <v>433</v>
-      </c>
-      <c r="C912" s="49" t="s">
-        <v>433</v>
-      </c>
-      <c r="F912" s="49" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="913" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B913" s="50"/>
-      <c r="C913" s="50"/>
-      <c r="F913" s="50"/>
     </row>
     <row r="914" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A914" t="s">
         <v>308</v>
       </c>
       <c r="B914" s="49" t="s">
-        <v>998</v>
+        <v>434</v>
       </c>
       <c r="C914" s="49" t="s">
-        <v>998</v>
+        <v>434</v>
       </c>
       <c r="F914" s="49" t="s">
-        <v>583</v>
+        <v>701</v>
       </c>
     </row>
     <row r="915" spans="1:6" x14ac:dyDescent="0.25">
@@ -26057,66 +26081,66 @@
         <v>308</v>
       </c>
       <c r="B915" s="49" t="s">
+        <v>433</v>
+      </c>
+      <c r="C915" s="49" t="s">
+        <v>433</v>
+      </c>
+      <c r="F915" s="49" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="916" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B916" s="50"/>
+      <c r="C916" s="50"/>
+      <c r="F916" s="50"/>
+    </row>
+    <row r="917" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A917" t="s">
+        <v>308</v>
+      </c>
+      <c r="B917" s="49" t="s">
+        <v>998</v>
+      </c>
+      <c r="C917" s="49" t="s">
+        <v>998</v>
+      </c>
+      <c r="F917" s="49" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="918" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A918" t="s">
+        <v>308</v>
+      </c>
+      <c r="B918" s="49" t="s">
         <v>999</v>
       </c>
-      <c r="C915" s="49" t="s">
+      <c r="C918" s="49" t="s">
         <v>999</v>
       </c>
-      <c r="F915" s="49" t="s">
+      <c r="F918" s="49" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="916" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A916" t="s">
-        <v>308</v>
-      </c>
-      <c r="B916" s="49" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C916" s="49" t="s">
-        <v>1000</v>
-      </c>
-      <c r="F916" s="49" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="917" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B917" s="50"/>
-      <c r="C917" s="50"/>
-      <c r="F917" s="50"/>
-    </row>
-    <row r="918" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B918" s="50"/>
-      <c r="C918" s="50"/>
-      <c r="F918" s="50"/>
     </row>
     <row r="919" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A919" t="s">
         <v>308</v>
       </c>
       <c r="B919" s="49" t="s">
-        <v>479</v>
+        <v>1000</v>
       </c>
       <c r="C919" s="49" t="s">
-        <v>479</v>
+        <v>1000</v>
       </c>
       <c r="F919" s="49" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="920" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A920" t="s">
-        <v>308</v>
-      </c>
-      <c r="B920" s="49" t="s">
-        <v>453</v>
-      </c>
-      <c r="C920" s="49" t="s">
-        <v>453</v>
-      </c>
-      <c r="F920" s="49" t="s">
-        <v>702</v>
-      </c>
+        <v>583</v>
+      </c>
+    </row>
+    <row r="920" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B920" s="50"/>
+      <c r="C920" s="50"/>
+      <c r="F920" s="50"/>
     </row>
     <row r="921" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B921" s="50"/>
@@ -26128,150 +26152,150 @@
         <v>308</v>
       </c>
       <c r="B922" s="49" t="s">
+        <v>479</v>
+      </c>
+      <c r="C922" s="49" t="s">
+        <v>479</v>
+      </c>
+      <c r="F922" s="49" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="923" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A923" t="s">
+        <v>308</v>
+      </c>
+      <c r="B923" s="49" t="s">
+        <v>453</v>
+      </c>
+      <c r="C923" s="49" t="s">
+        <v>453</v>
+      </c>
+      <c r="F923" s="49" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="924" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B924" s="50"/>
+      <c r="C924" s="50"/>
+      <c r="F924" s="50"/>
+    </row>
+    <row r="925" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A925" t="s">
+        <v>308</v>
+      </c>
+      <c r="B925" s="49" t="s">
         <v>412</v>
       </c>
-      <c r="C922" s="49" t="s">
+      <c r="C925" s="49" t="s">
         <v>412</v>
       </c>
-      <c r="F922" s="49" t="s">
+      <c r="F925" s="49" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="923" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B923" s="50"/>
-      <c r="C923" s="50"/>
-      <c r="F923" s="50"/>
-    </row>
-    <row r="924" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A924" t="s">
-        <v>308</v>
-      </c>
-      <c r="B924" s="49" t="s">
-        <v>478</v>
-      </c>
-      <c r="C924" s="49" t="s">
-        <v>478</v>
-      </c>
-      <c r="F924" s="49" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="925" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B925" s="50"/>
-      <c r="C925" s="50"/>
-      <c r="F925" s="50"/>
-    </row>
-    <row r="926" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A926" t="s">
-        <v>308</v>
-      </c>
-      <c r="B926" s="49" t="s">
-        <v>1001</v>
-      </c>
-      <c r="C926" s="49" t="s">
-        <v>1001</v>
-      </c>
-      <c r="F926" s="49" t="s">
-        <v>705</v>
-      </c>
+    <row r="926" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B926" s="50"/>
+      <c r="C926" s="50"/>
+      <c r="F926" s="50"/>
     </row>
     <row r="927" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A927" t="s">
         <v>308</v>
       </c>
       <c r="B927" s="49" t="s">
+        <v>478</v>
+      </c>
+      <c r="C927" s="49" t="s">
+        <v>478</v>
+      </c>
+      <c r="F927" s="49" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="928" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B928" s="50"/>
+      <c r="C928" s="50"/>
+      <c r="F928" s="50"/>
+    </row>
+    <row r="929" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A929" t="s">
+        <v>308</v>
+      </c>
+      <c r="B929" s="49" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C929" s="49" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F929" s="49" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="930" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A930" t="s">
+        <v>308</v>
+      </c>
+      <c r="B930" s="49" t="s">
         <v>471</v>
       </c>
-      <c r="C927" s="49" t="s">
+      <c r="C930" s="49" t="s">
         <v>471</v>
       </c>
-      <c r="F927" s="49" t="s">
+      <c r="F930" s="49" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="928" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A928" t="s">
-        <v>308</v>
-      </c>
-      <c r="B928" s="49" t="s">
-        <v>482</v>
-      </c>
-      <c r="C928" s="49" t="s">
-        <v>482</v>
-      </c>
-      <c r="F928" s="49" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="929" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B929" s="50"/>
-      <c r="C929" s="50"/>
-      <c r="F929" s="50"/>
-    </row>
-    <row r="930" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B930" s="50"/>
-      <c r="C930" s="50"/>
-      <c r="F930" s="50"/>
     </row>
     <row r="931" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A931" t="s">
         <v>308</v>
       </c>
       <c r="B931" s="49" t="s">
+        <v>482</v>
+      </c>
+      <c r="C931" s="49" t="s">
+        <v>482</v>
+      </c>
+      <c r="F931" s="49" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="932" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B932" s="50"/>
+      <c r="C932" s="50"/>
+      <c r="F932" s="50"/>
+    </row>
+    <row r="933" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B933" s="50"/>
+      <c r="C933" s="50"/>
+      <c r="F933" s="50"/>
+    </row>
+    <row r="934" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A934" t="s">
+        <v>308</v>
+      </c>
+      <c r="B934" s="49" t="s">
         <v>1002</v>
       </c>
-      <c r="C931" s="49" t="s">
+      <c r="C934" s="49" t="s">
         <v>1002</v>
       </c>
-      <c r="F931" s="49" t="s">
+      <c r="F934" s="49" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="932" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A932" t="s">
-        <v>308</v>
-      </c>
-      <c r="B932" s="49" t="s">
-        <v>449</v>
-      </c>
-      <c r="C932" s="49" t="s">
-        <v>449</v>
-      </c>
-      <c r="F932" s="49" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="933" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A933" t="s">
-        <v>308</v>
-      </c>
-      <c r="B933" s="49" t="s">
-        <v>475</v>
-      </c>
-      <c r="C933" s="49" t="s">
-        <v>475</v>
-      </c>
-      <c r="F933" s="49" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="934" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B934" s="50"/>
-      <c r="C934" s="50"/>
-      <c r="F934" s="50"/>
     </row>
     <row r="935" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A935" t="s">
         <v>308</v>
       </c>
       <c r="B935" s="49" t="s">
-        <v>410</v>
+        <v>449</v>
       </c>
       <c r="C935" s="49" t="s">
-        <v>410</v>
+        <v>449</v>
       </c>
       <c r="F935" s="49" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="936" spans="1:6" x14ac:dyDescent="0.25">
@@ -26279,38 +26303,29 @@
         <v>308</v>
       </c>
       <c r="B936" s="49" t="s">
-        <v>419</v>
+        <v>475</v>
       </c>
       <c r="C936" s="49" t="s">
-        <v>419</v>
+        <v>475</v>
       </c>
       <c r="F936" s="49" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="937" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A937" t="s">
-        <v>308</v>
-      </c>
-      <c r="B937" s="49" t="s">
-        <v>1003</v>
-      </c>
-      <c r="C937" s="49" t="s">
-        <v>1003</v>
-      </c>
-      <c r="F937" s="49" t="s">
-        <v>707</v>
-      </c>
+        <v>706</v>
+      </c>
+    </row>
+    <row r="937" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B937" s="50"/>
+      <c r="C937" s="50"/>
+      <c r="F937" s="50"/>
     </row>
     <row r="938" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A938" t="s">
         <v>308</v>
       </c>
       <c r="B938" s="49" t="s">
-        <v>480</v>
+        <v>410</v>
       </c>
       <c r="C938" s="49" t="s">
-        <v>480</v>
+        <v>410</v>
       </c>
       <c r="F938" s="49" t="s">
         <v>707</v>
@@ -26321,10 +26336,10 @@
         <v>308</v>
       </c>
       <c r="B939" s="49" t="s">
-        <v>1004</v>
+        <v>419</v>
       </c>
       <c r="C939" s="49" t="s">
-        <v>1004</v>
+        <v>419</v>
       </c>
       <c r="F939" s="49" t="s">
         <v>707</v>
@@ -26335,10 +26350,10 @@
         <v>308</v>
       </c>
       <c r="B940" s="49" t="s">
-        <v>401</v>
+        <v>1003</v>
       </c>
       <c r="C940" s="49" t="s">
-        <v>401</v>
+        <v>1003</v>
       </c>
       <c r="F940" s="49" t="s">
         <v>707</v>
@@ -26349,10 +26364,10 @@
         <v>308</v>
       </c>
       <c r="B941" s="49" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="C941" s="49" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="F941" s="49" t="s">
         <v>707</v>
@@ -26363,10 +26378,10 @@
         <v>308</v>
       </c>
       <c r="B942" s="49" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C942" s="49" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="F942" s="49" t="s">
         <v>707</v>
@@ -26377,10 +26392,10 @@
         <v>308</v>
       </c>
       <c r="B943" s="49" t="s">
-        <v>1006</v>
+        <v>401</v>
       </c>
       <c r="C943" s="49" t="s">
-        <v>1006</v>
+        <v>401</v>
       </c>
       <c r="F943" s="49" t="s">
         <v>707</v>
@@ -26391,10 +26406,10 @@
         <v>308</v>
       </c>
       <c r="B944" s="49" t="s">
-        <v>447</v>
+        <v>473</v>
       </c>
       <c r="C944" s="49" t="s">
-        <v>447</v>
+        <v>473</v>
       </c>
       <c r="F944" s="49" t="s">
         <v>707</v>
@@ -26405,32 +26420,41 @@
         <v>308</v>
       </c>
       <c r="B945" s="49" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="C945" s="49" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="F945" s="49" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="946" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B946" s="50"/>
-      <c r="C946" s="50"/>
-      <c r="F946" s="50"/>
+    <row r="946" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A946" t="s">
+        <v>308</v>
+      </c>
+      <c r="B946" s="49" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C946" s="49" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F946" s="49" t="s">
+        <v>707</v>
+      </c>
     </row>
     <row r="947" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A947" t="s">
         <v>308</v>
       </c>
       <c r="B947" s="49" t="s">
-        <v>474</v>
+        <v>447</v>
       </c>
       <c r="C947" s="49" t="s">
-        <v>474</v>
+        <v>447</v>
       </c>
       <c r="F947" s="49" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="948" spans="1:6" x14ac:dyDescent="0.25">
@@ -26438,13 +26462,13 @@
         <v>308</v>
       </c>
       <c r="B948" s="49" t="s">
-        <v>481</v>
+        <v>1007</v>
       </c>
       <c r="C948" s="49" t="s">
-        <v>481</v>
+        <v>1007</v>
       </c>
       <c r="F948" s="49" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="949" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -26457,57 +26481,66 @@
         <v>308</v>
       </c>
       <c r="B950" s="49" t="s">
+        <v>474</v>
+      </c>
+      <c r="C950" s="49" t="s">
+        <v>474</v>
+      </c>
+      <c r="F950" s="49" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="951" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A951" t="s">
+        <v>308</v>
+      </c>
+      <c r="B951" s="49" t="s">
+        <v>481</v>
+      </c>
+      <c r="C951" s="49" t="s">
+        <v>481</v>
+      </c>
+      <c r="F951" s="49" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="952" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B952" s="50"/>
+      <c r="C952" s="50"/>
+      <c r="F952" s="50"/>
+    </row>
+    <row r="953" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A953" t="s">
+        <v>308</v>
+      </c>
+      <c r="B953" s="49" t="s">
         <v>1008</v>
       </c>
-      <c r="C950" s="49" t="s">
+      <c r="C953" s="49" t="s">
         <v>1008</v>
       </c>
-      <c r="F950" s="49" t="s">
+      <c r="F953" s="49" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="951" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B951" s="50"/>
-      <c r="C951" s="50"/>
-      <c r="F951" s="50"/>
-    </row>
-    <row r="952" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A952" t="s">
-        <v>308</v>
-      </c>
-      <c r="B952" s="49" t="s">
+    <row r="954" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B954" s="50"/>
+      <c r="C954" s="50"/>
+      <c r="F954" s="50"/>
+    </row>
+    <row r="955" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A955" t="s">
+        <v>308</v>
+      </c>
+      <c r="B955" s="49" t="s">
         <v>456</v>
       </c>
-      <c r="C952" s="49" t="s">
+      <c r="C955" s="49" t="s">
         <v>456</v>
       </c>
-      <c r="F952" s="49" t="s">
+      <c r="F955" s="49" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="953" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B953" s="50"/>
-      <c r="C953" s="50"/>
-      <c r="F953" s="50"/>
-    </row>
-    <row r="954" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A954" t="s">
-        <v>308</v>
-      </c>
-      <c r="B954" s="49" t="s">
-        <v>1009</v>
-      </c>
-      <c r="C954" s="49" t="s">
-        <v>1009</v>
-      </c>
-      <c r="F954" s="49" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="955" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B955" s="50"/>
-      <c r="C955" s="50"/>
-      <c r="F955" s="50"/>
     </row>
     <row r="956" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B956" s="50"/>
@@ -26519,13 +26552,13 @@
         <v>308</v>
       </c>
       <c r="B957" s="49" t="s">
-        <v>438</v>
+        <v>1009</v>
       </c>
       <c r="C957" s="49" t="s">
-        <v>438</v>
+        <v>1009</v>
       </c>
       <c r="F957" s="49" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="958" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -26533,32 +26566,23 @@
       <c r="C958" s="50"/>
       <c r="F958" s="50"/>
     </row>
-    <row r="959" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A959" t="s">
-        <v>308</v>
-      </c>
-      <c r="B959" s="49" t="s">
-        <v>1010</v>
-      </c>
-      <c r="C959" s="49" t="s">
-        <v>1010</v>
-      </c>
-      <c r="F959" s="49" t="s">
-        <v>713</v>
-      </c>
+    <row r="959" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B959" s="50"/>
+      <c r="C959" s="50"/>
+      <c r="F959" s="50"/>
     </row>
     <row r="960" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A960" t="s">
         <v>308</v>
       </c>
       <c r="B960" s="49" t="s">
-        <v>1011</v>
+        <v>438</v>
       </c>
       <c r="C960" s="49" t="s">
-        <v>1011</v>
+        <v>438</v>
       </c>
       <c r="F960" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="961" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -26571,13 +26595,13 @@
         <v>308</v>
       </c>
       <c r="B962" s="49" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="C962" s="49" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="F962" s="49" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="963" spans="1:6" x14ac:dyDescent="0.25">
@@ -26585,59 +26609,92 @@
         <v>308</v>
       </c>
       <c r="B963" s="49" t="s">
-        <v>448</v>
+        <v>1011</v>
       </c>
       <c r="C963" s="49" t="s">
-        <v>448</v>
+        <v>1011</v>
       </c>
       <c r="F963" s="49" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="964" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A964" t="s">
-        <v>308</v>
-      </c>
-      <c r="B964" s="49" t="s">
-        <v>1013</v>
-      </c>
-      <c r="C964" s="49" t="s">
-        <v>1013</v>
-      </c>
-      <c r="F964" s="49" t="s">
-        <v>714</v>
-      </c>
+        <v>713</v>
+      </c>
+    </row>
+    <row r="964" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B964" s="50"/>
+      <c r="C964" s="50"/>
+      <c r="F964" s="50"/>
     </row>
     <row r="965" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A965" t="s">
         <v>308</v>
       </c>
       <c r="B965" s="49" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="C965" s="49" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="F965" s="49" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="966" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B966" s="50"/>
-      <c r="C966" s="50"/>
-      <c r="F966" s="50"/>
+    <row r="966" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A966" t="s">
+        <v>308</v>
+      </c>
+      <c r="B966" s="49" t="s">
+        <v>448</v>
+      </c>
+      <c r="C966" s="49" t="s">
+        <v>448</v>
+      </c>
+      <c r="F966" s="49" t="s">
+        <v>714</v>
+      </c>
     </row>
     <row r="967" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A967" t="s">
         <v>308</v>
       </c>
       <c r="B967" s="49" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C967" s="49" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F967" s="49" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="968" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A968" t="s">
+        <v>308</v>
+      </c>
+      <c r="B968" s="49" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C968" s="49" t="s">
+        <v>1014</v>
+      </c>
+      <c r="F968" s="49" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="969" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B969" s="50"/>
+      <c r="C969" s="50"/>
+      <c r="F969" s="50"/>
+    </row>
+    <row r="970" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A970" t="s">
+        <v>308</v>
+      </c>
+      <c r="B970" s="49" t="s">
         <v>468</v>
       </c>
-      <c r="C967" s="49" t="s">
+      <c r="C970" s="49" t="s">
         <v>468</v>
       </c>
-      <c r="F967" s="49" t="s">
+      <c r="F970" s="49" t="s">
         <v>715</v>
       </c>
     </row>
@@ -26747,7 +26804,7 @@
       </c>
       <c r="C2" s="24">
         <f ca="1">NOW()</f>
-        <v>44883.658832986112</v>
+        <v>44902.315220254626</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>215</v>

--- a/forms/contact/suspected_case-create.xlsx
+++ b/forms/contact/suspected_case-create.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tija Mbararieny\Research Work\HIDGA Digital Health\CHT Toolkit and Forms\Devolved Community Testing\Communty Testing Malaria_Covid_CHV Commtest Server_Server 2\Revised Forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EDD7E34-25C8-4E9F-9379-CCD29CD9D227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0679529F-DB23-4372-9AF8-FAF9B9A4D88A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -18,14 +18,14 @@
     <sheet name="settings" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">survey!$A$1:$N$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">survey!$A$1:$N$59</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3503" uniqueCount="1092">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3523" uniqueCount="1095">
   <si>
     <t>type</t>
   </si>
@@ -3301,6 +3301,15 @@
   </si>
   <si>
     <t>I am currently on treatment</t>
+  </si>
+  <si>
+    <t>numbers</t>
+  </si>
+  <si>
+    <t>trace_contact</t>
+  </si>
+  <si>
+    <t>PARENT</t>
   </si>
 </sst>
 </file>
@@ -3671,11 +3680,14 @@
     <cellStyle name="Normal 2" xfId="2" xr:uid="{A74C0039-9974-4478-A1FA-5F9B70CF4227}"/>
     <cellStyle name="Normal 3" xfId="1" xr:uid="{A15D1226-8CF2-438D-8DB4-1551DF3197F5}"/>
   </cellStyles>
-  <dxfs count="384">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEAD1DC"/>
+  <dxfs count="407">
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3685,7 +3697,27 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3695,31 +3727,77 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFCFE2F3"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF980000"/>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3730,6 +3808,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3775,6 +3863,154 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF980000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEAD1DC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -7759,13 +7995,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N951"/>
+  <dimension ref="A1:N955"/>
   <sheetViews>
-    <sheetView zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C53" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C96" sqref="C96"/>
+      <selection pane="bottomRight" activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -8021,7 +8257,9 @@
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
+      <c r="L10" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
     </row>
@@ -8043,7 +8281,9 @@
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
+      <c r="L11" s="6" t="s">
+        <v>1093</v>
+      </c>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
     </row>
@@ -8065,7 +8305,9 @@
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
+      <c r="L12" s="6" t="s">
+        <v>1094</v>
+      </c>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
     </row>
@@ -8087,140 +8329,138 @@
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
+      <c r="L13" s="6" t="s">
+        <v>194</v>
+      </c>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" t="s">
+      <c r="F14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3" t="s">
+        <v>1092</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3" t="s">
+        <v>1092</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+    </row>
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3" t="s">
+        <v>1092</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+    </row>
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" t="s">
         <v>283</v>
       </c>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" t="s">
-        <v>294</v>
-      </c>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" t="s">
-        <v>287</v>
-      </c>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" t="s">
-        <v>289</v>
-      </c>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="1:14" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" s="32" t="s">
-        <v>292</v>
-      </c>
-      <c r="C18" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32" t="s">
-        <v>298</v>
-      </c>
-      <c r="H18" s="32" t="s">
-        <v>299</v>
-      </c>
-      <c r="I18" s="32" t="s">
-        <v>485</v>
-      </c>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="33"/>
-      <c r="N18" s="33"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>16</v>
@@ -8231,7 +8471,7 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
@@ -8241,20 +8481,22 @@
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>243</v>
+        <v>286</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>500</v>
+        <v>16</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
+      <c r="I20" t="s">
+        <v>287</v>
+      </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
@@ -8263,68 +8505,74 @@
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>252</v>
+        <v>288</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>253</v>
+        <v>16</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
+      <c r="I21" t="s">
+        <v>289</v>
+      </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
+    <row r="22" spans="1:14" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>292</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32" t="s">
+        <v>298</v>
+      </c>
+      <c r="H22" s="32" t="s">
+        <v>299</v>
+      </c>
+      <c r="I22" s="32" t="s">
+        <v>485</v>
+      </c>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="33"/>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>244</v>
+        <v>290</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>489</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D23" s="3"/>
       <c r="E23" s="3"/>
-      <c r="F23" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
+      <c r="I23" t="s">
+        <v>291</v>
+      </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
@@ -8336,15 +8584,13 @@
         <v>29</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>491</v>
+        <v>243</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>500</v>
       </c>
       <c r="D24" s="3"/>
-      <c r="E24" s="3" t="s">
-        <v>248</v>
-      </c>
+      <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -8357,23 +8603,17 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>71</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
@@ -8385,18 +8625,16 @@
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>483</v>
+        <v>29</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>484</v>
+        <v>246</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D26" s="3"/>
-      <c r="E26" s="3" t="s">
-        <v>257</v>
-      </c>
+      <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
@@ -8407,21 +8645,23 @@
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
     </row>
-    <row r="27" spans="1:14" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="F27" s="3"/>
+        <v>489</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
@@ -8432,13 +8672,19 @@
       <c r="N27" s="3"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
+      <c r="A28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>491</v>
+      </c>
       <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
+      <c r="E28" s="3" t="s">
+        <v>248</v>
+      </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
@@ -8450,9 +8696,24 @@
       <c r="N28" s="3"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
+      <c r="A29" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
@@ -8463,18 +8724,18 @@
       <c r="N29" s="3"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>255</v>
+      <c r="A30" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>493</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -8486,21 +8747,24 @@
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>30</v>
+        <v>250</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>31</v>
+        <v>494</v>
       </c>
       <c r="D31" s="3"/>
+      <c r="E31" s="3" t="s">
+        <v>257</v>
+      </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
-      <c r="I31" s="12"/>
+      <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
@@ -8508,27 +8772,17 @@
       <c r="N31" s="3"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="A32" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
-      <c r="I32" s="12"/>
+      <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
@@ -8536,168 +8790,159 @@
       <c r="N32" s="3"/>
     </row>
     <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
-      <c r="I33" s="12"/>
+      <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+    </row>
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+    </row>
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+    </row>
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B38" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C38" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D38" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E38" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="F34" s="3"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="7"/>
-    </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="J35" s="7"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7"/>
-      <c r="N35" s="7"/>
-    </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="F36" s="3"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="7"/>
-      <c r="N36" s="7"/>
-    </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="F37" s="3"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="L37" s="7"/>
-      <c r="M37" s="7"/>
-      <c r="N37" s="7"/>
-    </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D38" s="7"/>
-      <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
+      <c r="I38" s="10"/>
       <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
+      <c r="K38" s="3" t="s">
+        <v>236</v>
+      </c>
       <c r="L38" s="7"/>
       <c r="M38" s="7"/>
       <c r="N38" s="7"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="A39" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C39" s="3"/>
       <c r="D39" s="7"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
-      <c r="I39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="10" t="s">
+        <v>284</v>
+      </c>
       <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
+      <c r="K39" s="3"/>
       <c r="L39" s="7"/>
       <c r="M39" s="7"/>
       <c r="N39" s="7"/>
@@ -8707,23 +8952,22 @@
         <v>18</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D40" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D40" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E40" s="3"/>
+      <c r="E40" s="3" t="s">
+        <v>233</v>
+      </c>
       <c r="F40" s="3"/>
       <c r="G40" s="7"/>
-      <c r="H40" s="7" t="s">
-        <v>241</v>
-      </c>
+      <c r="H40" s="7"/>
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
       <c r="L40" s="7"/>
       <c r="M40" s="7"/>
       <c r="N40" s="7"/>
@@ -8733,44 +8977,44 @@
         <v>18</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D41" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D41" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E41" s="3"/>
+      <c r="E41" s="3" t="s">
+        <v>234</v>
+      </c>
       <c r="F41" s="3"/>
       <c r="G41" s="7"/>
-      <c r="H41" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="I41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="10"/>
       <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
+      <c r="K41" s="7" t="s">
+        <v>235</v>
+      </c>
       <c r="L41" s="7"/>
       <c r="M41" s="7"/>
       <c r="N41" s="7"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>47</v>
+      <c r="A42" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="7"/>
-      <c r="H42" s="7" t="s">
-        <v>241</v>
-      </c>
+      <c r="H42" s="7"/>
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
@@ -8779,23 +9023,19 @@
       <c r="N42" s="7"/>
     </row>
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B43" s="15" t="s">
-        <v>1</v>
+      <c r="A43" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D43" s="3"/>
+        <v>41</v>
+      </c>
+      <c r="D43" s="7"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="3" t="s">
-        <v>50</v>
-      </c>
+      <c r="I43" s="7"/>
       <c r="J43" s="7"/>
       <c r="K43" s="7"/>
       <c r="L43" s="7"/>
@@ -8803,23 +9043,25 @@
       <c r="N43" s="7"/>
     </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="14" t="s">
-        <v>49</v>
+      <c r="A44" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D44" s="3"/>
+        <v>43</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
       <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="3" t="s">
-        <v>282</v>
-      </c>
+      <c r="H44" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="I44" s="7"/>
       <c r="J44" s="7"/>
       <c r="K44" s="7"/>
       <c r="L44" s="7"/>
@@ -8828,23 +9070,23 @@
     </row>
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E45" s="3"/>
-      <c r="F45" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="F45" s="3"/>
       <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
+      <c r="H45" s="7" t="s">
+        <v>241</v>
+      </c>
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
       <c r="K45" s="7"/>
@@ -8854,23 +9096,21 @@
     </row>
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="D46" s="7"/>
       <c r="E46" s="3"/>
-      <c r="F46" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="F46" s="3"/>
       <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
+      <c r="H46" s="7" t="s">
+        <v>241</v>
+      </c>
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
       <c r="K46" s="7"/>
@@ -8878,82 +9118,74 @@
       <c r="M46" s="7"/>
       <c r="N46" s="7"/>
     </row>
-    <row r="47" spans="1:14" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="B47" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="C47" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="D47" s="32" t="s">
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+    </row>
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+    </row>
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E47" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="F47" s="32"/>
-      <c r="G47" s="32"/>
-      <c r="H47" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="I47" s="33"/>
-      <c r="J47" s="33"/>
-      <c r="K47" s="33"/>
-      <c r="L47" s="33"/>
-      <c r="M47" s="33"/>
-      <c r="N47" s="33"/>
-    </row>
-    <row r="48" spans="1:14" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="B48" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="C48" s="36" t="s">
-        <v>221</v>
-      </c>
-      <c r="D48" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="E48" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="F48" s="36"/>
-      <c r="G48" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="H48" s="36" t="s">
-        <v>274</v>
-      </c>
-      <c r="I48" s="37"/>
-      <c r="J48" s="37"/>
-      <c r="K48" s="37"/>
-      <c r="L48" s="37"/>
-      <c r="M48" s="37"/>
-      <c r="N48" s="37"/>
-    </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D49" s="7"/>
       <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
+      <c r="F49" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G49" s="7"/>
       <c r="H49" s="7"/>
-      <c r="I49" s="3" t="s">
-        <v>304</v>
-      </c>
+      <c r="I49" s="7"/>
       <c r="J49" s="7"/>
       <c r="K49" s="7"/>
       <c r="L49" s="7"/>
@@ -8961,23 +9193,25 @@
       <c r="N49" s="7"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="14" t="s">
-        <v>49</v>
+      <c r="A50" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>301</v>
+        <v>56</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="D50" s="7"/>
+        <v>57</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
+      <c r="F50" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
-      <c r="I50" s="3" t="s">
-        <v>305</v>
-      </c>
+      <c r="I50" s="7"/>
       <c r="J50" s="7"/>
       <c r="K50" s="7"/>
       <c r="L50" s="7"/>
@@ -8985,23 +9219,26 @@
       <c r="N50" s="7"/>
     </row>
     <row r="51" spans="1:14" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="40" t="s">
-        <v>29</v>
+      <c r="A51" s="32" t="s">
+        <v>58</v>
       </c>
       <c r="B51" s="32" t="s">
-        <v>303</v>
+        <v>59</v>
       </c>
       <c r="C51" s="32" t="s">
-        <v>307</v>
-      </c>
-      <c r="D51" s="33"/>
-      <c r="E51" s="41" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <v>67</v>
+      </c>
+      <c r="D51" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="E51" s="32" t="s">
+        <v>60</v>
       </c>
       <c r="F51" s="32"/>
-      <c r="G51" s="33"/>
-      <c r="H51" s="33"/>
+      <c r="G51" s="32"/>
+      <c r="H51" s="32" t="s">
+        <v>61</v>
+      </c>
       <c r="I51" s="33"/>
       <c r="J51" s="33"/>
       <c r="K51" s="33"/>
@@ -9010,14 +9247,28 @@
       <c r="N51" s="33"/>
     </row>
     <row r="52" spans="1:14" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="36"/>
-      <c r="B52" s="36"/>
-      <c r="C52" s="36"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36"/>
+      <c r="A52" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="B52" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="C52" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="D52" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E52" s="36" t="s">
+        <v>64</v>
+      </c>
       <c r="F52" s="36"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="36"/>
+      <c r="G52" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="H52" s="36" t="s">
+        <v>274</v>
+      </c>
       <c r="I52" s="37"/>
       <c r="J52" s="37"/>
       <c r="K52" s="37"/>
@@ -9025,141 +9276,150 @@
       <c r="M52" s="37"/>
       <c r="N52" s="37"/>
     </row>
-    <row r="53" spans="1:14" s="34" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="39" t="s">
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B53" s="32" t="s">
+      <c r="B53" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" s="7"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7"/>
+      <c r="N53" s="7"/>
+    </row>
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D54" s="7"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="7"/>
+      <c r="N54" s="7"/>
+    </row>
+    <row r="55" spans="1:14" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="B55" s="32" t="s">
+        <v>303</v>
+      </c>
+      <c r="C55" s="32" t="s">
+        <v>307</v>
+      </c>
+      <c r="D55" s="33"/>
+      <c r="E55" s="41" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F55" s="32"/>
+      <c r="G55" s="33"/>
+      <c r="H55" s="33"/>
+      <c r="I55" s="33"/>
+      <c r="J55" s="33"/>
+      <c r="K55" s="33"/>
+      <c r="L55" s="33"/>
+      <c r="M55" s="33"/>
+      <c r="N55" s="33"/>
+    </row>
+    <row r="56" spans="1:14" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="36"/>
+      <c r="B56" s="36"/>
+      <c r="C56" s="36"/>
+      <c r="D56" s="36"/>
+      <c r="E56" s="36"/>
+      <c r="F56" s="36"/>
+      <c r="G56" s="36"/>
+      <c r="H56" s="36"/>
+      <c r="I56" s="37"/>
+      <c r="J56" s="37"/>
+      <c r="K56" s="37"/>
+      <c r="L56" s="37"/>
+      <c r="M56" s="37"/>
+      <c r="N56" s="37"/>
+    </row>
+    <row r="57" spans="1:14" s="34" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="B57" s="32" t="s">
         <v>295</v>
       </c>
-      <c r="C53" s="32" t="s">
+      <c r="C57" s="32" t="s">
         <v>296</v>
       </c>
-      <c r="D53" s="33"/>
-      <c r="E53" s="32"/>
-      <c r="F53" s="32"/>
-      <c r="G53" s="33"/>
-      <c r="H53" s="33"/>
-      <c r="I53" s="32" t="s">
+      <c r="D57" s="33"/>
+      <c r="E57" s="32"/>
+      <c r="F57" s="32"/>
+      <c r="G57" s="33"/>
+      <c r="H57" s="33"/>
+      <c r="I57" s="32" t="s">
         <v>297</v>
       </c>
-      <c r="J53" s="33"/>
-      <c r="K53" s="33"/>
-      <c r="L53" s="33"/>
-      <c r="M53" s="33"/>
-      <c r="N53" s="33"/>
-    </row>
-    <row r="54" spans="1:14" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="35"/>
-      <c r="B54" s="36"/>
-      <c r="C54" s="36"/>
-      <c r="D54" s="37"/>
-      <c r="E54" s="37"/>
-      <c r="F54" s="36"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="36"/>
-      <c r="I54" s="36"/>
-      <c r="J54" s="37"/>
-      <c r="K54" s="37"/>
-      <c r="L54" s="37"/>
-      <c r="M54" s="37"/>
-      <c r="N54" s="37"/>
-    </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="3" t="s">
+      <c r="J57" s="33"/>
+      <c r="K57" s="33"/>
+      <c r="L57" s="33"/>
+      <c r="M57" s="33"/>
+      <c r="N57" s="33"/>
+    </row>
+    <row r="58" spans="1:14" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="35"/>
+      <c r="B58" s="36"/>
+      <c r="C58" s="36"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="36"/>
+      <c r="G58" s="36"/>
+      <c r="H58" s="36"/>
+      <c r="I58" s="36"/>
+      <c r="J58" s="37"/>
+      <c r="K58" s="37"/>
+      <c r="L58" s="37"/>
+      <c r="M58" s="37"/>
+      <c r="N58" s="37"/>
+    </row>
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B59" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C59" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D55" s="7"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3" t="s">
+      <c r="D59" s="7"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="7"/>
-      <c r="J55" s="7"/>
-      <c r="K55" s="7"/>
-      <c r="L55" s="7"/>
-      <c r="M55" s="7"/>
-      <c r="N55" s="7"/>
-    </row>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D56" s="7"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
-      <c r="I56" s="7"/>
-      <c r="J56" s="7"/>
-      <c r="K56" s="7"/>
-      <c r="L56" s="7"/>
-      <c r="M56" s="7"/>
-      <c r="N56" s="7"/>
-    </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="17"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-      <c r="I57" s="7"/>
-      <c r="J57" s="7"/>
-      <c r="K57" s="7"/>
-      <c r="L57" s="7"/>
-      <c r="M57" s="7"/>
-      <c r="N57" s="7"/>
-    </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
-      <c r="I58" s="7"/>
-      <c r="J58" s="7"/>
-      <c r="K58" s="7"/>
-      <c r="L58" s="7"/>
-      <c r="M58" s="7"/>
-      <c r="N58" s="7"/>
-    </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="13"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="17"/>
       <c r="G59" s="7"/>
       <c r="H59" s="7"/>
       <c r="I59" s="7"/>
@@ -9170,20 +9430,20 @@
       <c r="N59" s="7"/>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="13" t="s">
-        <v>14</v>
+      <c r="A60" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>256</v>
+        <v>73</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="F60" s="17"/>
+        <v>74</v>
+      </c>
+      <c r="D60" s="7"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G60" s="7"/>
       <c r="H60" s="7"/>
       <c r="I60" s="7"/>
@@ -9193,15 +9453,15 @@
       <c r="M60" s="7"/>
       <c r="N60" s="7"/>
     </row>
-    <row r="61" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="13" t="s">
         <v>29</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>276</v>
+        <v>75</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -9216,20 +9476,14 @@
       <c r="N61" s="7"/>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>79</v>
-      </c>
+      <c r="A62" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
-      <c r="F62" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="F62" s="17"/>
       <c r="G62" s="7"/>
       <c r="H62" s="7"/>
       <c r="I62" s="7"/>
@@ -9240,82 +9494,58 @@
       <c r="N62" s="7"/>
     </row>
     <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="A63" s="13"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
       <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="H63" s="3" t="s">
-        <v>220</v>
-      </c>
+      <c r="F63" s="17"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
       <c r="I63" s="7"/>
       <c r="J63" s="7"/>
-      <c r="K63" s="3" t="s">
-        <v>306</v>
-      </c>
+      <c r="K63" s="7"/>
       <c r="L63" s="7"/>
       <c r="M63" s="7"/>
       <c r="N63" s="7"/>
     </row>
     <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="3" t="s">
-        <v>62</v>
+      <c r="A64" s="13" t="s">
+        <v>14</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>82</v>
+        <v>256</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="H64" s="3" t="s">
-        <v>220</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="F64" s="17"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
       <c r="I64" s="7"/>
       <c r="J64" s="7"/>
-      <c r="K64" s="3" t="s">
-        <v>306</v>
-      </c>
+      <c r="K64" s="7"/>
       <c r="L64" s="7"/>
       <c r="M64" s="7"/>
       <c r="N64" s="7"/>
     </row>
-    <row r="65" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="3" t="s">
-        <v>84</v>
+    <row r="65" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A65" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>85</v>
+        <v>276</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="D65" s="3"/>
       <c r="E65" s="3"/>
-      <c r="F65" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="F65" s="17"/>
       <c r="G65" s="7"/>
       <c r="H65" s="7"/>
       <c r="I65" s="7"/>
@@ -9327,17 +9557,15 @@
     </row>
     <row r="66" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="D66" s="3"/>
       <c r="E66" s="3"/>
       <c r="F66" s="3" t="s">
         <v>71</v>
@@ -9345,9 +9573,7 @@
       <c r="G66" s="7"/>
       <c r="H66" s="7"/>
       <c r="I66" s="7"/>
-      <c r="J66" s="3" t="s">
-        <v>88</v>
-      </c>
+      <c r="J66" s="7"/>
       <c r="K66" s="7"/>
       <c r="L66" s="7"/>
       <c r="M66" s="7"/>
@@ -9355,75 +9581,81 @@
     </row>
     <row r="67" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>238</v>
+        <v>62</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>224</v>
+        <v>81</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E67" s="3"/>
-      <c r="F67" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G67" s="7"/>
-      <c r="H67" s="7"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>220</v>
+      </c>
       <c r="I67" s="7"/>
-      <c r="J67" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="K67" s="7"/>
+      <c r="J67" s="7"/>
+      <c r="K67" s="3" t="s">
+        <v>306</v>
+      </c>
       <c r="L67" s="7"/>
       <c r="M67" s="7"/>
       <c r="N67" s="7"/>
     </row>
     <row r="68" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>482</v>
+        <v>62</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>501</v>
+        <v>82</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>499</v>
+        <v>83</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="E68" s="3"/>
-      <c r="F68" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G68" s="7"/>
-      <c r="H68" s="7"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>220</v>
+      </c>
       <c r="I68" s="7"/>
-      <c r="J68" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="K68" s="7"/>
+      <c r="J68" s="7"/>
+      <c r="K68" s="3" t="s">
+        <v>306</v>
+      </c>
       <c r="L68" s="7"/>
       <c r="M68" s="7"/>
       <c r="N68" s="7"/>
     </row>
     <row r="69" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>275</v>
+        <v>222</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
+      <c r="F69" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
       <c r="I69" s="7"/>
@@ -9435,135 +9667,147 @@
     </row>
     <row r="70" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D70" s="3"/>
+        <v>223</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
+      <c r="F70" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
       <c r="I70" s="7"/>
-      <c r="J70" s="7"/>
-      <c r="K70" s="7" t="s">
-        <v>225</v>
-      </c>
+      <c r="J70" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="K70" s="7"/>
       <c r="L70" s="7"/>
       <c r="M70" s="7"/>
       <c r="N70" s="7"/>
     </row>
-    <row r="71" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>29</v>
+        <v>238</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D71" s="3"/>
+        <v>224</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
-      <c r="H71" s="3"/>
-      <c r="I71" s="3"/>
-      <c r="J71" s="3"/>
-      <c r="K71" s="3"/>
-      <c r="L71" s="3"/>
-      <c r="M71" s="3"/>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F71" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="7"/>
+      <c r="J71" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="K71" s="7"/>
+      <c r="L71" s="7"/>
+      <c r="M71" s="7"/>
+      <c r="N71" s="7"/>
+    </row>
+    <row r="72" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>29</v>
+        <v>482</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>94</v>
+        <v>501</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D72" s="3"/>
+        <v>499</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
-      <c r="H72" s="3"/>
-      <c r="I72" s="3"/>
-      <c r="J72" s="3"/>
-      <c r="K72" s="3"/>
-      <c r="L72" s="3"/>
-      <c r="M72" s="3"/>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F72" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="7"/>
+      <c r="J72" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="K72" s="7"/>
+      <c r="L72" s="7"/>
+      <c r="M72" s="7"/>
+      <c r="N72" s="7"/>
+    </row>
+    <row r="73" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>97</v>
+        <v>275</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
-      <c r="H73" s="3"/>
-      <c r="I73" s="3"/>
-      <c r="J73" s="3"/>
-      <c r="K73" s="3"/>
-      <c r="L73" s="3"/>
-      <c r="M73" s="3"/>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="7"/>
+      <c r="J73" s="7"/>
+      <c r="K73" s="7"/>
+      <c r="L73" s="7"/>
+      <c r="M73" s="7"/>
+      <c r="N73" s="7"/>
+    </row>
+    <row r="74" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>66</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="D74" s="3"/>
       <c r="E74" s="3"/>
-      <c r="F74" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
-      <c r="I74" s="3"/>
-      <c r="J74" s="3"/>
-      <c r="K74" s="3"/>
-      <c r="L74" s="3"/>
-      <c r="M74" s="3"/>
-      <c r="N74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="7"/>
+      <c r="J74" s="7"/>
+      <c r="K74" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L74" s="7"/>
+      <c r="M74" s="7"/>
+      <c r="N74" s="7"/>
     </row>
     <row r="75" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>66</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D75" s="3"/>
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
@@ -9577,21 +9821,17 @@
     </row>
     <row r="76" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>258</v>
+        <v>94</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="D76" s="3"/>
       <c r="E76" s="3"/>
-      <c r="F76" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="F76" s="3"/>
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
@@ -9603,11 +9843,17 @@
     </row>
     <row r="77" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
@@ -9621,17 +9867,21 @@
     </row>
     <row r="78" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D78" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
+      <c r="F78" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
@@ -9642,10 +9892,18 @@
       <c r="N78" s="3"/>
     </row>
     <row r="79" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="3"/>
-      <c r="B79" s="3"/>
-      <c r="C79" s="3"/>
-      <c r="D79" s="3"/>
+      <c r="A79" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
@@ -9659,19 +9917,21 @@
     </row>
     <row r="80" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="D80" s="3"/>
-      <c r="E80" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="F80" s="3"/>
+        <v>259</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
       <c r="I80" s="3"/>
@@ -9681,16 +9941,12 @@
       <c r="M80" s="3"/>
       <c r="N80" s="3"/>
     </row>
-    <row r="81" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>502</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
@@ -9704,22 +9960,18 @@
       <c r="N81" s="3"/>
     </row>
     <row r="82" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="B82" s="27" t="s">
-        <v>496</v>
-      </c>
-      <c r="C82" s="27" t="s">
-        <v>503</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="A82" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D82" s="3"/>
       <c r="E82" s="3"/>
-      <c r="F82" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="F82" s="3"/>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
@@ -9730,24 +9982,12 @@
       <c r="N82" s="3"/>
     </row>
     <row r="83" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="27" t="s">
-        <v>504</v>
-      </c>
-      <c r="B83" s="27" t="s">
-        <v>505</v>
-      </c>
-      <c r="C83" s="27" t="s">
-        <v>506</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="A83" s="3"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
@@ -9758,18 +9998,18 @@
       <c r="N83" s="3"/>
     </row>
     <row r="84" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="27" t="s">
-        <v>483</v>
-      </c>
-      <c r="B84" s="27" t="s">
-        <v>520</v>
-      </c>
-      <c r="C84" s="27" t="s">
-        <v>518</v>
+      <c r="A84" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>279</v>
       </c>
       <c r="D84" s="3"/>
-      <c r="E84" s="29" t="s">
-        <v>1010</v>
+      <c r="E84" s="3" t="s">
+        <v>251</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
@@ -9781,22 +10021,19 @@
       <c r="M84" s="3"/>
       <c r="N84" s="3"/>
     </row>
-    <row r="85" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="B85" s="27" t="s">
-        <v>497</v>
-      </c>
-      <c r="C85" s="27" t="s">
-        <v>498</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>71</v>
-      </c>
+    <row r="85" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
       <c r="I85" s="3"/>
@@ -9808,20 +10045,18 @@
     </row>
     <row r="86" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="27" t="s">
-        <v>504</v>
+        <v>55</v>
       </c>
       <c r="B86" s="27" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="C86" s="27" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E86" s="3" t="s">
-        <v>523</v>
-      </c>
+      <c r="E86" s="3"/>
       <c r="F86" s="3" t="s">
         <v>71</v>
       </c>
@@ -9836,19 +10071,23 @@
     </row>
     <row r="87" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="27" t="s">
-        <v>483</v>
+        <v>504</v>
       </c>
       <c r="B87" s="27" t="s">
-        <v>521</v>
+        <v>505</v>
       </c>
       <c r="C87" s="27" t="s">
-        <v>518</v>
-      </c>
-      <c r="D87" s="3"/>
-      <c r="E87" s="29" t="s">
-        <v>1009</v>
-      </c>
-      <c r="F87" s="3"/>
+        <v>506</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
@@ -9860,12 +10099,18 @@
     </row>
     <row r="88" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="B88" s="27"/>
-      <c r="C88" s="27"/>
+        <v>483</v>
+      </c>
+      <c r="B88" s="27" t="s">
+        <v>520</v>
+      </c>
+      <c r="C88" s="27" t="s">
+        <v>518</v>
+      </c>
       <c r="D88" s="3"/>
-      <c r="E88" s="3"/>
+      <c r="E88" s="29" t="s">
+        <v>1010</v>
+      </c>
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
@@ -9877,12 +10122,21 @@
       <c r="N88" s="3"/>
     </row>
     <row r="89" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="3"/>
-      <c r="B89" s="3"/>
-      <c r="C89" s="3"/>
-      <c r="D89" s="3"/>
-      <c r="E89" s="3"/>
-      <c r="F89" s="3"/>
+      <c r="A89" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B89" s="27" t="s">
+        <v>497</v>
+      </c>
+      <c r="C89" s="27" t="s">
+        <v>498</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
@@ -9893,20 +10147,24 @@
       <c r="N89" s="3"/>
     </row>
     <row r="90" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>261</v>
+      <c r="A90" s="27" t="s">
+        <v>504</v>
+      </c>
+      <c r="B90" s="27" t="s">
+        <v>507</v>
       </c>
       <c r="C90" s="27" t="s">
-        <v>281</v>
-      </c>
-      <c r="D90" s="3"/>
+        <v>506</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E90" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="F90" s="3"/>
+        <v>523</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
       <c r="I90" s="3"/>
@@ -9916,18 +10174,20 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
     </row>
-    <row r="91" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A91" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>495</v>
+    <row r="91" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="27" t="s">
+        <v>483</v>
+      </c>
+      <c r="B91" s="27" t="s">
+        <v>521</v>
+      </c>
+      <c r="C91" s="27" t="s">
+        <v>518</v>
       </c>
       <c r="D91" s="3"/>
-      <c r="E91" s="3"/>
+      <c r="E91" s="29" t="s">
+        <v>1009</v>
+      </c>
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
@@ -9940,20 +10200,13 @@
     </row>
     <row r="92" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="B92" s="27" t="s">
-        <v>262</v>
-      </c>
-      <c r="C92" s="30" t="s">
-        <v>524</v>
-      </c>
-      <c r="D92" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="F92" s="3" t="s">
-        <v>71</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B92" s="27"/>
+      <c r="C92" s="27"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="3"/>
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
@@ -9964,21 +10217,11 @@
       <c r="N92" s="3"/>
     </row>
     <row r="93" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="B93" s="27" t="s">
-        <v>263</v>
-      </c>
-      <c r="C93" s="30" t="s">
-        <v>525</v>
-      </c>
-      <c r="D93" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="E93" s="27" t="s">
-        <v>536</v>
-      </c>
+      <c r="A93" s="3"/>
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
@@ -9990,20 +10233,18 @@
       <c r="N93" s="3"/>
     </row>
     <row r="94" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="B94" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="C94" s="30" t="s">
-        <v>543</v>
-      </c>
-      <c r="D94" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="E94" s="27" t="s">
-        <v>541</v>
+      <c r="A94" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C94" s="27" t="s">
+        <v>281</v>
+      </c>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3" t="s">
+        <v>251</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -10015,22 +10256,18 @@
       <c r="M94" s="3"/>
       <c r="N94" s="3"/>
     </row>
-    <row r="95" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="B95" s="27" t="s">
-        <v>265</v>
-      </c>
-      <c r="C95" s="30" t="s">
-        <v>540</v>
-      </c>
-      <c r="D95" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="E95" s="27" t="s">
-        <v>544</v>
-      </c>
+    <row r="95" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
@@ -10046,10 +10283,10 @@
         <v>55</v>
       </c>
       <c r="B96" s="27" t="s">
-        <v>539</v>
+        <v>262</v>
       </c>
       <c r="C96" s="30" t="s">
-        <v>267</v>
+        <v>524</v>
       </c>
       <c r="D96" s="27" t="s">
         <v>44</v>
@@ -10068,46 +10305,50 @@
     </row>
     <row r="97" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="27" t="s">
-        <v>526</v>
+        <v>55</v>
       </c>
       <c r="B97" s="27" t="s">
-        <v>542</v>
+        <v>263</v>
       </c>
       <c r="C97" s="30" t="s">
-        <v>1008</v>
+        <v>525</v>
       </c>
       <c r="D97" s="27" t="s">
         <v>44</v>
       </c>
       <c r="E97" s="27" t="s">
-        <v>545</v>
-      </c>
-      <c r="F97" s="3" t="s">
-        <v>71</v>
-      </c>
+        <v>536</v>
+      </c>
+      <c r="F97" s="3"/>
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
       <c r="I97" s="3"/>
       <c r="J97" s="3"/>
-      <c r="K97" s="27"/>
+      <c r="K97" s="3"/>
       <c r="L97" s="3"/>
       <c r="M97" s="3"/>
       <c r="N97" s="3"/>
     </row>
     <row r="98" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="27" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B98" s="27" t="s">
-        <v>266</v>
-      </c>
-      <c r="C98" s="27"/>
+        <v>264</v>
+      </c>
+      <c r="C98" s="30" t="s">
+        <v>543</v>
+      </c>
+      <c r="D98" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="E98" s="27" t="s">
+        <v>541</v>
+      </c>
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
-      <c r="I98" s="29" t="s">
-        <v>546</v>
-      </c>
+      <c r="I98" s="3"/>
       <c r="J98" s="3"/>
       <c r="K98" s="3"/>
       <c r="L98" s="3"/>
@@ -10116,15 +10357,20 @@
     </row>
     <row r="99" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="27" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B99" s="27" t="s">
-        <v>269</v>
-      </c>
-      <c r="C99" s="27" t="s">
-        <v>268</v>
-      </c>
-      <c r="D99" s="27"/>
+        <v>265</v>
+      </c>
+      <c r="C99" s="30" t="s">
+        <v>540</v>
+      </c>
+      <c r="D99" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="E99" s="27" t="s">
+        <v>544</v>
+      </c>
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
       <c r="H99" s="3"/>
@@ -10135,21 +10381,22 @@
       <c r="M99" s="3"/>
       <c r="N99" s="3"/>
     </row>
-    <row r="100" spans="1:14" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="27" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B100" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="C100" s="28" t="s">
-        <v>538</v>
-      </c>
-      <c r="D100" s="27"/>
-      <c r="E100" s="31" t="s">
-        <v>537</v>
-      </c>
-      <c r="F100" s="3"/>
+        <v>539</v>
+      </c>
+      <c r="C100" s="30" t="s">
+        <v>267</v>
+      </c>
+      <c r="D100" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G100" s="3"/>
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
@@ -10160,144 +10407,147 @@
       <c r="N100" s="3"/>
     </row>
     <row r="101" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B101" s="3"/>
-      <c r="C101" s="3"/>
-      <c r="D101" s="3"/>
-      <c r="E101" s="3"/>
-      <c r="F101" s="3"/>
+      <c r="A101" s="27" t="s">
+        <v>526</v>
+      </c>
+      <c r="B101" s="27" t="s">
+        <v>542</v>
+      </c>
+      <c r="C101" s="30" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D101" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="E101" s="27" t="s">
+        <v>545</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G101" s="3"/>
       <c r="H101" s="3"/>
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
-      <c r="K101" s="3"/>
+      <c r="K101" s="27"/>
       <c r="L101" s="3"/>
       <c r="M101" s="3"/>
       <c r="N101" s="3"/>
     </row>
     <row r="102" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="3"/>
-      <c r="B102" s="3"/>
-      <c r="C102" s="3"/>
-      <c r="D102" s="3"/>
-      <c r="E102" s="3"/>
+      <c r="A102" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B102" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="C102" s="27"/>
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
       <c r="H102" s="3"/>
-      <c r="I102" s="3"/>
+      <c r="I102" s="29" t="s">
+        <v>546</v>
+      </c>
       <c r="J102" s="3"/>
       <c r="K102" s="3"/>
       <c r="L102" s="3"/>
       <c r="M102" s="3"/>
       <c r="N102" s="3"/>
     </row>
-    <row r="103" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="5" t="s">
+    <row r="103" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B103" s="27" t="s">
+        <v>269</v>
+      </c>
+      <c r="C103" s="27" t="s">
+        <v>268</v>
+      </c>
+      <c r="D103" s="27"/>
+      <c r="F103" s="3"/>
+      <c r="G103" s="3"/>
+      <c r="H103" s="3"/>
+      <c r="I103" s="3"/>
+      <c r="J103" s="3"/>
+      <c r="K103" s="3"/>
+      <c r="L103" s="3"/>
+      <c r="M103" s="3"/>
+      <c r="N103" s="3"/>
+    </row>
+    <row r="104" spans="1:14" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A104" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B104" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C104" s="28" t="s">
+        <v>538</v>
+      </c>
+      <c r="D104" s="27"/>
+      <c r="E104" s="31" t="s">
+        <v>537</v>
+      </c>
+      <c r="F104" s="3"/>
+      <c r="G104" s="3"/>
+      <c r="H104" s="3"/>
+      <c r="I104" s="3"/>
+      <c r="J104" s="3"/>
+      <c r="K104" s="3"/>
+      <c r="L104" s="3"/>
+      <c r="M104" s="3"/>
+      <c r="N104" s="3"/>
+    </row>
+    <row r="105" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B105" s="3"/>
+      <c r="C105" s="3"/>
+      <c r="D105" s="3"/>
+      <c r="E105" s="3"/>
+      <c r="F105" s="3"/>
+      <c r="G105" s="3"/>
+      <c r="H105" s="3"/>
+      <c r="I105" s="3"/>
+      <c r="J105" s="3"/>
+      <c r="K105" s="3"/>
+      <c r="L105" s="3"/>
+      <c r="M105" s="3"/>
+      <c r="N105" s="3"/>
+    </row>
+    <row r="106" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="3"/>
+      <c r="B106" s="3"/>
+      <c r="C106" s="3"/>
+      <c r="D106" s="3"/>
+      <c r="E106" s="3"/>
+      <c r="F106" s="3"/>
+      <c r="G106" s="3"/>
+      <c r="H106" s="3"/>
+      <c r="I106" s="3"/>
+      <c r="J106" s="3"/>
+      <c r="K106" s="3"/>
+      <c r="L106" s="3"/>
+      <c r="M106" s="3"/>
+      <c r="N106" s="3"/>
+    </row>
+    <row r="107" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B103" s="5" t="s">
+      <c r="B107" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="C103" s="3" t="s">
+      <c r="C107" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D103" s="17"/>
-      <c r="E103" s="17"/>
-      <c r="F103" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G103" s="17"/>
-      <c r="H103" s="17"/>
-      <c r="I103" s="17"/>
-      <c r="J103" s="17"/>
-      <c r="K103" s="17"/>
-      <c r="L103" s="17"/>
-      <c r="M103" s="17"/>
-      <c r="N103" s="17"/>
-    </row>
-    <row r="104" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D104" s="7"/>
-      <c r="E104" s="8"/>
-      <c r="F104" s="8"/>
-      <c r="G104" s="8"/>
-      <c r="H104" s="8"/>
-      <c r="I104" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="J104" s="8"/>
-      <c r="K104" s="8"/>
-      <c r="L104" s="8"/>
-      <c r="M104" s="8"/>
-      <c r="N104" s="8"/>
-    </row>
-    <row r="105" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D105" s="7"/>
-      <c r="E105" s="8"/>
-      <c r="F105" s="8"/>
-      <c r="G105" s="8"/>
-      <c r="H105" s="8"/>
-      <c r="I105" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="J105" s="8"/>
-      <c r="K105" s="8"/>
-      <c r="L105" s="8"/>
-      <c r="M105" s="8"/>
-      <c r="N105" s="8"/>
-    </row>
-    <row r="106" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D106" s="7"/>
-      <c r="E106" s="8"/>
-      <c r="F106" s="8"/>
-      <c r="G106" s="8"/>
-      <c r="H106" s="8"/>
-      <c r="I106" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="J106" s="8"/>
-      <c r="K106" s="8"/>
-      <c r="L106" s="8"/>
-      <c r="M106" s="8"/>
-      <c r="N106" s="8"/>
-    </row>
-    <row r="107" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B107" s="17"/>
-      <c r="C107" s="17"/>
       <c r="D107" s="17"/>
       <c r="E107" s="17"/>
-      <c r="F107" s="17"/>
+      <c r="F107" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="G107" s="17"/>
       <c r="H107" s="17"/>
       <c r="I107" s="17"/>
@@ -10308,27 +10558,113 @@
       <c r="N107" s="17"/>
     </row>
     <row r="108" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="18" t="s">
+      <c r="A108" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D108" s="7"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c r="H108" s="8"/>
+      <c r="I108" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="J108" s="8"/>
+      <c r="K108" s="8"/>
+      <c r="L108" s="8"/>
+      <c r="M108" s="8"/>
+      <c r="N108" s="8"/>
+    </row>
+    <row r="109" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D109" s="7"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c r="H109" s="8"/>
+      <c r="I109" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="J109" s="8"/>
+      <c r="K109" s="8"/>
+      <c r="L109" s="8"/>
+      <c r="M109" s="8"/>
+      <c r="N109" s="8"/>
+    </row>
+    <row r="110" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D110" s="7"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c r="H110" s="8"/>
+      <c r="I110" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="J110" s="8"/>
+      <c r="K110" s="8"/>
+      <c r="L110" s="8"/>
+      <c r="M110" s="8"/>
+      <c r="N110" s="8"/>
+    </row>
+    <row r="111" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B108" s="17"/>
-      <c r="C108" s="17"/>
-      <c r="D108" s="17"/>
-      <c r="E108" s="17"/>
-      <c r="F108" s="17"/>
-      <c r="G108" s="17"/>
-      <c r="H108" s="17"/>
-      <c r="I108" s="17"/>
-      <c r="J108" s="17"/>
-      <c r="K108" s="17"/>
-      <c r="L108" s="17"/>
-      <c r="M108" s="17"/>
-      <c r="N108" s="17"/>
-    </row>
-    <row r="109" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B111" s="17"/>
+      <c r="C111" s="17"/>
+      <c r="D111" s="17"/>
+      <c r="E111" s="17"/>
+      <c r="F111" s="17"/>
+      <c r="G111" s="17"/>
+      <c r="H111" s="17"/>
+      <c r="I111" s="17"/>
+      <c r="J111" s="17"/>
+      <c r="K111" s="17"/>
+      <c r="L111" s="17"/>
+      <c r="M111" s="17"/>
+      <c r="N111" s="17"/>
+    </row>
+    <row r="112" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B112" s="17"/>
+      <c r="C112" s="17"/>
+      <c r="D112" s="17"/>
+      <c r="E112" s="17"/>
+      <c r="F112" s="17"/>
+      <c r="G112" s="17"/>
+      <c r="H112" s="17"/>
+      <c r="I112" s="17"/>
+      <c r="J112" s="17"/>
+      <c r="K112" s="17"/>
+      <c r="L112" s="17"/>
+      <c r="M112" s="17"/>
+      <c r="N112" s="17"/>
+    </row>
     <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11168,1784 +11504,1841 @@
     <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <conditionalFormatting sqref="A38:J38 A39:F42 I39:J42 A43:J48 K37:K48 D29:N29 E32:E33 A30:N30 L34:N48 F56:K62 A1:N13 A76:N77 E101:E102 A99:D102 J31:N33 F31:H33 A31:D33 A56:D64 C80:C81 C91 A19:H19 J19:N19 A20:N25 L55:N68 A55:K55 F99:N102 F98:H98 J98:N98 A52:N54 A18:N18 A27:N28 A68:D75 F68:N75 A82:E82 A85:D85 A88:E89 B83:D84 B86:E87 A92:D97 F78:N97 A103:N951">
-    <cfRule type="containsText" dxfId="383" priority="323" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A38:H38 A39:F42 F34:H37 C23:C24 I34:J48 A43:H48 K37:K48 L34:N48 A1:N13 A22:N22 A23:B25 A28:C28 A32:H33 D23:N25 E101:E102 A99:D102 J31:N33 A31:D31 F31:H31 A20:N20 A55:H55 A17:H17 J17:N17 F99:N102 F98:H98 J98:N98 J19:N19 A19:H19 A52:N54 A18:N18 D27:N28 A27:B28 A88:E89 A92:D97 F88:N97 A103:N951 A56:D59 A60:B61 D60:D61 A76:N77 C60 C80 F71:N75 A65:H68 F69:H70 I55:N70 A82:E82 A85:D85 B83:D84 B86:E86 B87:D87 F78:N86 F87 E57:E59 A62:E64 A69:E75 A78:E79 A80:B81 D80:D81 F56:H64">
-    <cfRule type="expression" dxfId="382" priority="324">
+  <conditionalFormatting sqref="A42:J42 A43:F46 I43:J46 A47:J52 K41:K52 D33:N33 E36:E37 A34:N34 L38:N52 F60:K66 A80:N81 E105:E106 A103:D106 J35:N37 F35:H37 A35:D37 A60:D68 C84:C85 C95 A23:H23 J23:N23 A24:N29 L59:N72 A59:K59 F103:N106 F102:H102 J102:N102 A56:N58 A22:N22 A31:N32 A72:D79 F72:N79 A86:E86 A89:D89 A92:E93 B87:D88 B90:E91 A96:D101 F82:N101 A107:N955 A1:N9 A14:N17 A10:K13 M10:N13">
+    <cfRule type="containsText" dxfId="406" priority="362" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A42:H42 A43:F46 F38:H41 C27:C28 I38:J52 A47:H52 K41:K52 L38:N52 A26:N26 A27:B29 A32:C32 A36:H37 D27:N29 E105:E106 A103:D106 J35:N37 A35:D35 F35:H35 A24:N24 A59:H59 A21:H21 J21:N21 F103:N106 F102:H102 J102:N102 J23:N23 A23:H23 A56:N58 A22:N22 D31:N32 A31:B32 A92:E93 A96:D101 F92:N101 A107:N955 A60:D63 A64:B65 D64:D65 A80:N81 C64 C84 F75:N79 A69:H72 F73:H74 I59:N74 A86:E86 A89:D89 B87:D88 B90:E90 B91:D91 F82:N90 F91 E61:E63 A66:E68 A73:E79 A82:E83 A84:B85 D84:D85 F60:H68 A1:N9 A14:N17 A10:K13 M10:N13">
+    <cfRule type="expression" dxfId="405" priority="363">
       <formula>AND($A1="begin group", NOT($B1 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A38:J38 A39:F42 I39:J42 A43:J48 K37:K48 L34:N48 D29:N29 E32:E33 A30:N30 F56:J62 A1:N13 A76:N77 E101:E102 A99:D102 J31:N33 F31:H33 A31:D33 A56:D64 C80:C81 C91 A19:H19 J19:N19 A20:N25 K55:N68 A55:J55 F99:N102 F98:H98 J98:N98 A52:N54 A18:N18 A27:N28 A68:D75 F68:N75 A82:E82 A85:D85 A88:E89 B83:D84 B86:E87 A92:D97 F78:N97 A103:N951">
-    <cfRule type="cellIs" dxfId="381" priority="326" operator="equal">
+  <conditionalFormatting sqref="A42:J42 A43:F46 I43:J46 A47:J52 K41:K52 L38:N52 D33:N33 E36:E37 A34:N34 F60:J66 A80:N81 E105:E106 A103:D106 J35:N37 F35:H37 A35:D37 A60:D68 C84:C85 C95 A23:H23 J23:N23 A24:N29 K59:N72 A59:J59 F103:N106 F102:H102 J102:N102 A56:N58 A22:N22 A31:N32 A72:D79 F72:N79 A86:E86 A89:D89 A92:E93 B87:D88 B90:E91 A96:D101 F82:N101 A107:N955 A1:N9 A14:N17 A10:K13 M10:N13">
+    <cfRule type="cellIs" dxfId="404" priority="365" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I13 I34:I48 I21:I25 I99:I951 I18 I27:I28 I88:I97 I52:I86">
-    <cfRule type="expression" dxfId="380" priority="327">
+  <conditionalFormatting sqref="I38:I52 I25:I29 I103:I955 I22 I31:I32 I92:I101 I56:I90 I1:I17">
+    <cfRule type="expression" dxfId="403" priority="366">
       <formula>AND($I1 = "", $A1 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C13 C22:C24 C31:C48 C20 C17:C18 C92:C951 C52:C60 C82:C90 C62:C80">
-    <cfRule type="expression" dxfId="379" priority="328">
+  <conditionalFormatting sqref="C26:C28 C35:C52 C24 C21:C22 C96:C955 C56:C64 C86:C94 C66:C84 C1:C17">
+    <cfRule type="expression" dxfId="402" priority="367">
       <formula>AND(AND(NOT($A1 = "end group"), NOT($A1 = "end repeat"), NOT($A1 = "")), $C1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B13 B22:B25 B31:B48 B20 B17:B18 B27:B28 B52:B951">
-    <cfRule type="expression" dxfId="378" priority="329">
+  <conditionalFormatting sqref="B26:B29 B35:B52 B24 B21:B22 B31:B32 B56:B955 B1:B17">
+    <cfRule type="expression" dxfId="401" priority="368">
       <formula>AND(AND(NOT($A1 = "end group"), NOT($A1 = "end repeat"), NOT($A1 = "")), $B1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A13 A30:C30 A30:A48 A20:A25 A52:A66 A18 A27:A28 A68:A82 A85 A88:A951">
-    <cfRule type="cellIs" dxfId="377" priority="330" operator="equal">
+  <conditionalFormatting sqref="A34:C34 A34:A52 A24:A29 A56:A70 A22 A31:A32 A72:A86 A89 A92:A955 A1:A17">
+    <cfRule type="cellIs" dxfId="400" priority="369" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="376" priority="332" operator="notEqual">
+    <cfRule type="cellIs" dxfId="399" priority="371" operator="notEqual">
       <formula>"name"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="notContainsText" dxfId="375" priority="333" operator="notContains" text="label"/>
+    <cfRule type="notContainsText" dxfId="398" priority="372" operator="notContains" text="label"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="cellIs" dxfId="374" priority="334" operator="notEqual">
+    <cfRule type="cellIs" dxfId="397" priority="373" operator="notEqual">
       <formula>"required"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" dxfId="373" priority="335" operator="notEqual">
+    <cfRule type="cellIs" dxfId="396" priority="374" operator="notEqual">
       <formula>"relevant"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="372" priority="336" operator="notEqual">
+    <cfRule type="cellIs" dxfId="395" priority="375" operator="notEqual">
       <formula>"appearance"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="cellIs" dxfId="371" priority="337" operator="notEqual">
+    <cfRule type="cellIs" dxfId="394" priority="376" operator="notEqual">
       <formula>"constraint"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="notContainsText" dxfId="370" priority="338" operator="notContains" text="constraint_message"/>
+    <cfRule type="notContainsText" dxfId="393" priority="377" operator="notContains" text="constraint_message"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="cellIs" dxfId="369" priority="339" operator="notEqual">
+    <cfRule type="cellIs" dxfId="392" priority="378" operator="notEqual">
       <formula>"calculation"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="cellIs" dxfId="368" priority="340" operator="notEqual">
+    <cfRule type="cellIs" dxfId="391" priority="379" operator="notEqual">
       <formula>"choice_filter"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1">
-    <cfRule type="notContainsText" dxfId="367" priority="341" operator="notContains" text="hint"/>
+    <cfRule type="notContainsText" dxfId="390" priority="380" operator="notContains" text="hint"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1">
-    <cfRule type="cellIs" dxfId="366" priority="342" operator="notEqual">
+    <cfRule type="cellIs" dxfId="389" priority="381" operator="notEqual">
       <formula>"default"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:N1">
-    <cfRule type="cellIs" dxfId="365" priority="343" operator="notEqual">
+    <cfRule type="cellIs" dxfId="388" priority="382" operator="notEqual">
       <formula>"media::image"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H43:H48 H1:H13 H20:H25 H17:H18 H27:H38 H52:H951">
-    <cfRule type="expression" dxfId="364" priority="344">
+  <conditionalFormatting sqref="H47:H52 H24:H29 H21:H22 H31:H42 H56:H955 H1:H17">
+    <cfRule type="expression" dxfId="387" priority="383">
       <formula>AND(NOT($G1 = ""), $H1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A38:H38 A39:F42 F34:H37 C23:C24 I34:J48 A43:H48 K37:K48 L34:N48 A1:N13 A22:N22 A23:B25 A28:C28 A32:H33 D23:N25 E101:E102 A99:D102 J31:N33 A31:D31 F31:H31 A20:N20 A55:H55 A17:H17 J17:N17 F99:N102 F98:H98 J98:N98 J19:N19 A19:H19 A52:N54 A18:N18 D27:N28 A27:B28 A88:E89 A92:D97 F88:N97 A103:N951 A56:D59 A60:B61 D60:D61 A76:N77 C60 C80 F71:N75 A65:H68 F69:H70 I55:N70 A82:E82 A85:D85 B83:D84 B86:E86 B87:D87 F78:N86 F87 E57:E59 A62:E64 A69:E75 A80:B81 D80:D81 A78:E79 F56:H64">
-    <cfRule type="expression" dxfId="363" priority="345">
+  <conditionalFormatting sqref="A42:H42 A43:F46 F38:H41 C27:C28 I38:J52 A47:H52 K41:K52 L38:N52 A26:N26 A27:B29 A32:C32 A36:H37 D27:N29 E105:E106 A103:D106 J35:N37 A35:D35 F35:H35 A24:N24 A59:H59 A21:H21 J21:N21 F103:N106 F102:H102 J102:N102 J23:N23 A23:H23 A56:N58 A22:N22 D31:N32 A31:B32 A92:E93 A96:D101 F92:N101 A107:N955 A60:D63 A64:B65 D64:D65 A80:N81 C64 C84 F75:N79 A69:H72 F73:H74 I59:N74 A86:E86 A89:D89 B87:D88 B90:E90 B91:D91 F82:N90 F91 E61:E63 A66:E68 A73:E79 A84:B85 D84:D85 A82:E83 F60:H68 A1:N9 A14:N17 A10:K13 M10:N13">
+    <cfRule type="expression" dxfId="386" priority="384">
       <formula>AND($A1="begin repeat", NOT($B1 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F56:J56 F101:N102 A101:D102 A53:N54 A18:N18 F92:F97 F88:N89 A88:D89 A56:D59 E57:J59 C60 F78:N79 C80 A82:D82 B83:D84 F82:N84 A62:J64 A67:J77 A78:D79">
-    <cfRule type="expression" dxfId="362" priority="348">
-      <formula>AND($A18="end repeat", $B18 = "", $C18 = "", $D18 = "", $E18 = "", $F18 = "", $G18 = "", $H18 = "", $I18 = "", $J18 = "", $K18 = "", $L18 = "", $M18 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F56:J56 F101:N102 A101:D102 A53:N54 A18:N18 F92:F97 F88:N89 A88:D89 A56:D59 E57:J59 C60 F78:N79 C80 A82:D82 B83:D84 F82:N84 A62:J64 A67:J77 A78:D79">
-    <cfRule type="expression" dxfId="361" priority="350">
-      <formula>AND($A18="end group", $B18 = "", $C18 = "", $D18 = "", $E18 = "", $F18 = "", $G18 = "", $H18 = "", $I18 = "", $J18 = "", $K18 = "", $L18 = "", $M18 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E78:E79">
-    <cfRule type="cellIs" dxfId="360" priority="354" operator="equal">
+  <conditionalFormatting sqref="F60:J60 F105:N106 A105:D106 A57:N58 A22:N22 F96:F101 F92:N93 A92:D93 A60:D63 E61:J63 C64 F82:N83 C84 A86:D86 B87:D88 F86:N88 A66:J68 A71:J81 A82:D83 A15:D17 F15:F17 A14:F14">
+    <cfRule type="expression" dxfId="385" priority="387">
+      <formula>AND($A14="end repeat", $B14 = "", $C14 = "", $D14 = "", $E14 = "", $F14 = "", $G14 = "", $H14 = "", $I14 = "", $J14 = "", $K14 = "", $L14 = "", $M14 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F60:J60 F105:N106 A105:D106 A57:N58 A22:N22 F96:F101 F92:N93 A92:D93 A60:D63 E61:J63 C64 F82:N83 C84 A86:D86 B87:D88 F86:N88 A66:J68 A71:J81 A82:D83 A15:D17 F15:F17 A14:F14">
+    <cfRule type="expression" dxfId="384" priority="389">
+      <formula>AND($A14="end group", $B14 = "", $C14 = "", $D14 = "", $E14 = "", $F14 = "", $G14 = "", $H14 = "", $I14 = "", $J14 = "", $K14 = "", $L14 = "", $M14 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E82:E83">
+    <cfRule type="cellIs" dxfId="383" priority="393" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K34:K35">
-    <cfRule type="expression" dxfId="359" priority="357">
-      <formula>AND($A36="end repeat", $B36 = "", $C36 = "", $D36 = "", $E36 = "", $F36 = "", $G36 = "", $H36 = "", $I36 = "", $J36 = "", $K34 = "", $L36 = "", $M36 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
-    <cfRule type="expression" dxfId="358" priority="358">
-      <formula>AND($A31="begin repeat", NOT($B31 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K34:K35">
-    <cfRule type="expression" dxfId="357" priority="359">
-      <formula>AND($A36="end group", $B36 = "", $C36 = "", $D36 = "", $E36 = "", $F36 = "", $G36 = "", $H36 = "", $I36 = "", $J36 = "", $K34 = "", $L36 = "", $M36 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
-    <cfRule type="expression" dxfId="356" priority="360">
-      <formula>AND($A31="begin group", NOT($B31 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22:C24 C20 C31:C33">
-    <cfRule type="expression" dxfId="355" priority="361">
-      <formula>AND($C20 = "", $A20 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22:C24 C32:C33 C20">
-    <cfRule type="expression" dxfId="354" priority="362">
-      <formula>AND($A20="end repeat", $B20 = "", $C20 = "", $D20 = "", $E20 = "", $F20 = "", $G20 = "", $H20 = "", $C20 = "", $J20 = "", $K20 = "", $L20 = "", $M20 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22:C24 C32:C33 C20">
-    <cfRule type="expression" dxfId="353" priority="363">
-      <formula>AND($A20="end group", $B20 = "", $C20 = "", $D20 = "", $E20 = "", $F20 = "", $G20 = "", $H20 = "", $C20 = "", $J20 = "", $K20 = "", $L20 = "", $M20 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K34:K35 F34:J37 A65:K66 A34:C37 F63:F64 H63:K64 B67:D68 F67:I68 K67:K68">
-    <cfRule type="containsText" dxfId="352" priority="364" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A34:C37">
-    <cfRule type="expression" dxfId="351" priority="365">
+  <conditionalFormatting sqref="K38:K39">
+    <cfRule type="expression" dxfId="382" priority="396">
+      <formula>AND($A40="end repeat", $B40 = "", $C40 = "", $D40 = "", $E40 = "", $F40 = "", $G40 = "", $H40 = "", $I40 = "", $J40 = "", $K38 = "", $L40 = "", $M40 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="expression" dxfId="381" priority="397">
+      <formula>AND($A35="begin repeat", NOT($B35 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K38:K39">
+    <cfRule type="expression" dxfId="380" priority="398">
+      <formula>AND($A40="end group", $B40 = "", $C40 = "", $D40 = "", $E40 = "", $F40 = "", $G40 = "", $H40 = "", $I40 = "", $J40 = "", $K38 = "", $L40 = "", $M40 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="expression" dxfId="379" priority="399">
+      <formula>AND($A35="begin group", NOT($B35 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26:C28 C24 C35:C37 C14">
+    <cfRule type="expression" dxfId="378" priority="400">
+      <formula>AND($C14 = "", $A14 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26:C28 C36:C37 C24 C14">
+    <cfRule type="expression" dxfId="377" priority="401">
+      <formula>AND($A14="end repeat", $B14 = "", $C14 = "", $D14 = "", $E14 = "", $F14 = "", $G14 = "", $H14 = "", $C14 = "", $J14 = "", $K14 = "", $L14 = "", $M14 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26:C28 C36:C37 C24 C14">
+    <cfRule type="expression" dxfId="376" priority="402">
+      <formula>AND($A14="end group", $B14 = "", $C14 = "", $D14 = "", $E14 = "", $F14 = "", $G14 = "", $H14 = "", $C14 = "", $J14 = "", $K14 = "", $L14 = "", $M14 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K38:K39 F38:J41 A69:K70 A38:C41 F67:F68 H67:K68 B71:D72 F71:I72 K71:K72">
+    <cfRule type="containsText" dxfId="375" priority="403" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A38:C41">
+    <cfRule type="expression" dxfId="374" priority="404">
+      <formula>AND($A38="begin group", NOT($B38 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A38:C41 F38:J41">
+    <cfRule type="expression" dxfId="373" priority="405">
+      <formula>AND($A38="end group", $B38 = "", $C38 = "", $D38 = "", $E38 = "", $F38 = "", $G38 = "", $H38 = "", $I38 = "", $J38 = "", $K38 = "", $L38 = "", $M38 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K38:K39 F38:J41 A69:J70 A38:C41 F67:F68 H67:J68 B71:D72 F71:I72">
+    <cfRule type="cellIs" dxfId="372" priority="406" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I43">
+    <cfRule type="expression" dxfId="371" priority="409">
+      <formula>AND(AND(NOT($A43 = "end group"), NOT($A43 = "end repeat"), NOT($A43 = "")), $B43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A38:C41">
+    <cfRule type="expression" dxfId="370" priority="412">
+      <formula>AND($A38="begin repeat", NOT($B38 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A38:C41 F38:J41">
+    <cfRule type="expression" dxfId="369" priority="413">
+      <formula>AND($A38="end repeat", $B38 = "", $C38 = "", $D38 = "", $E38 = "", $F38 = "", $G38 = "", $H38 = "", $I38 = "", $J38 = "", $K38 = "", $L38 = "", $M38 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="containsText" dxfId="368" priority="426" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="cellIs" dxfId="367" priority="427" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="containsText" dxfId="366" priority="434" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="expression" dxfId="365" priority="435">
+      <formula>AND($A60="begin group", NOT($B60 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="expression" dxfId="364" priority="436">
+      <formula>AND($A60="end group", $B60 = "", $C60 = "", $D60 = "", $E60 = "", $F60 = "", $G60 = "", $H60 = "", $I60 = "", $J60 = "", $K60 = "", $L60 = "", $M60 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="cellIs" dxfId="363" priority="437" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="expression" dxfId="362" priority="438">
+      <formula>AND($A60="begin repeat", NOT($B60 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="expression" dxfId="361" priority="439">
+      <formula>AND($A60="end repeat", $B60 = "", $C60 = "", $D60 = "", $E60 = "", $F60 = "", $G60 = "", $H60 = "", $I60 = "", $J60 = "", $K60 = "", $L60 = "", $M60 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61:E63">
+    <cfRule type="containsText" dxfId="360" priority="446" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61:E63">
+    <cfRule type="cellIs" dxfId="359" priority="449" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66">
+    <cfRule type="containsText" dxfId="358" priority="456" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66">
+    <cfRule type="cellIs" dxfId="357" priority="457" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E67">
+    <cfRule type="containsText" dxfId="356" priority="460" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E67">
+    <cfRule type="cellIs" dxfId="355" priority="463" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E68">
+    <cfRule type="containsText" dxfId="354" priority="466" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E68">
+    <cfRule type="cellIs" dxfId="353" priority="469" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71:E72">
+    <cfRule type="containsText" dxfId="352" priority="484" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71:E72">
+    <cfRule type="cellIs" dxfId="351" priority="487" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E73">
+    <cfRule type="containsText" dxfId="350" priority="496" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E73">
+    <cfRule type="cellIs" dxfId="349" priority="499" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E74">
+    <cfRule type="containsText" dxfId="348" priority="514" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E74">
+    <cfRule type="cellIs" dxfId="347" priority="517" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="containsText" dxfId="346" priority="520" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="cellIs" dxfId="345" priority="523" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="containsText" dxfId="344" priority="526" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="cellIs" dxfId="343" priority="529" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76">
+    <cfRule type="containsText" dxfId="342" priority="532" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76">
+    <cfRule type="cellIs" dxfId="341" priority="535" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E77">
+    <cfRule type="containsText" dxfId="340" priority="538" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E77">
+    <cfRule type="cellIs" dxfId="339" priority="541" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E78">
+    <cfRule type="containsText" dxfId="338" priority="544" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E78">
+    <cfRule type="cellIs" dxfId="337" priority="547" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E79">
+    <cfRule type="containsText" dxfId="336" priority="550" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E79">
+    <cfRule type="cellIs" dxfId="335" priority="553" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A82:D83 A84:B85 D84:D85 A94:B95 D94:D95 A102:C102 C94">
+    <cfRule type="containsText" dxfId="334" priority="574" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A94:B95 D94:D95 A102:C102 C94">
+    <cfRule type="expression" dxfId="333" priority="575">
+      <formula>AND($A94="begin group", NOT($B94 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C94">
+    <cfRule type="expression" dxfId="332" priority="576">
+      <formula>AND($A94="end group", $B94 = "", $C94 = "", $D94 = "", $E94 = "", $F94 = "", $G94 = "", $H94 = "", $I94 = "", $J94 = "", $K94 = "", $L94 = "", $M94 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A82:D83 A84:B85 D84:D85 A94:B95 D94:D95 A102:C102 C94">
+    <cfRule type="cellIs" dxfId="331" priority="577" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A94:B95 D94:D95 A102:C102 C94">
+    <cfRule type="expression" dxfId="330" priority="583">
+      <formula>AND($A94="begin repeat", NOT($B94 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C94">
+    <cfRule type="expression" dxfId="329" priority="584">
+      <formula>AND($A94="end repeat", $B94 = "", $C94 = "", $D94 = "", $E94 = "", $F94 = "", $G94 = "", $H94 = "", $I94 = "", $J94 = "", $K94 = "", $L94 = "", $M94 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E105:E106 E92:E93 E82:E83 E86">
+    <cfRule type="expression" dxfId="328" priority="591">
+      <formula>AND($E82 = "", $A82 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E105:E106 E92:E93 E82:E83 E86">
+    <cfRule type="expression" dxfId="327" priority="592">
+      <formula>AND($A82="end repeat", $B82 = "", $C82 = "", $D82 = "", $E82 = "", $F82 = "", $G82 = "", $H82 = "", $E82 = "", $J82 = "", $K82 = "", $L82 = "", $M82 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E105:E106 E92:E93 E82:E83 E86">
+    <cfRule type="expression" dxfId="326" priority="593">
+      <formula>AND($A82="end group", $B82 = "", $C82 = "", $D82 = "", $E82 = "", $F82 = "", $G82 = "", $H82 = "", $E82 = "", $J82 = "", $K82 = "", $L82 = "", $M82 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E82:E83">
+    <cfRule type="containsText" dxfId="325" priority="594" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38:D41">
+    <cfRule type="containsText" dxfId="324" priority="345" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38:D41">
+    <cfRule type="expression" dxfId="323" priority="346">
+      <formula>AND($A38="begin group", NOT($B38 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38:D41">
+    <cfRule type="expression" dxfId="322" priority="347">
+      <formula>AND($A38="end group", $B38 = "", $C38 = "", $D38 = "", $E38 = "", $F38 = "", $G38 = "", $H38 = "", $I38 = "", $J38 = "", $K38 = "", $L38 = "", $M38 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38:D41">
+    <cfRule type="cellIs" dxfId="321" priority="348" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38:D41">
+    <cfRule type="expression" dxfId="320" priority="349">
+      <formula>AND($A38="begin repeat", NOT($B38 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38:D41">
+    <cfRule type="expression" dxfId="319" priority="350">
+      <formula>AND($A38="end repeat", $B38 = "", $C38 = "", $D38 = "", $E38 = "", $F38 = "", $G38 = "", $H38 = "", $I38 = "", $J38 = "", $K38 = "", $L38 = "", $M38 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38:E41">
+    <cfRule type="containsText" dxfId="318" priority="351" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38:E41">
+    <cfRule type="expression" dxfId="317" priority="352">
+      <formula>AND($A38="begin group", NOT($B38 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41">
+    <cfRule type="expression" dxfId="316" priority="353">
+      <formula>AND($A41="end group", $B41 = "", $C41 = "", $D41 = "", $E41 = "", $F41 = "", $G41 = "", $H41 = "", $I41 = "", $J41 = "", $K41 = "", $L41 = "", $M41 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38:E41">
+    <cfRule type="cellIs" dxfId="315" priority="354" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38:E41">
+    <cfRule type="expression" dxfId="314" priority="355">
+      <formula>AND($A38="begin repeat", NOT($B38 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41">
+    <cfRule type="expression" dxfId="313" priority="356">
+      <formula>AND($A41="end repeat", $B41 = "", $C41 = "", $D41 = "", $E41 = "", $F41 = "", $G41 = "", $H41 = "", $I41 = "", $J41 = "", $K41 = "", $L41 = "", $M41 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E40">
+    <cfRule type="expression" dxfId="312" priority="357">
+      <formula>AND($A40="end group", $B40 = "", $C40 = "", $D40 = "", $E40 = "", $F40 = "", $G40 = "", $H40 = "", $I40 = "", $J40 = "", $K38 = "", $L40 = "", $M40 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38:E39">
+    <cfRule type="expression" dxfId="311" priority="358">
+      <formula>AND($A38="end group", $B38 = "", $C38 = "", $D38 = "", $E38 = "", $F38 = "", $G38 = "", $H38 = "", $I38 = "", $J38 = "", #REF! = "", $L38 = "", $M38 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E40">
+    <cfRule type="expression" dxfId="310" priority="359">
+      <formula>AND($A40="end repeat", $B40 = "", $C40 = "", $D40 = "", $E40 = "", $F40 = "", $G40 = "", $H40 = "", $I40 = "", $J40 = "", $K38 = "", $L40 = "", $M40 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38:E39">
+    <cfRule type="expression" dxfId="309" priority="360">
+      <formula>AND($A38="end repeat", $B38 = "", $C38 = "", $D38 = "", $E38 = "", $F38 = "", $G38 = "", $H38 = "", $I38 = "", $J38 = "", #REF! = "", $L38 = "", $M38 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G67">
+    <cfRule type="containsText" dxfId="308" priority="339" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G67">
+    <cfRule type="cellIs" dxfId="307" priority="342" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G68">
+    <cfRule type="containsText" dxfId="306" priority="333" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G68">
+    <cfRule type="cellIs" dxfId="305" priority="336" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71:A72">
+    <cfRule type="containsText" dxfId="304" priority="326" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71:A72">
+    <cfRule type="cellIs" dxfId="303" priority="329" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71:A72">
+    <cfRule type="cellIs" dxfId="302" priority="330" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J71:J72">
+    <cfRule type="containsText" dxfId="301" priority="320" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J71:J72">
+    <cfRule type="cellIs" dxfId="300" priority="323" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A46:F46 I46:N46">
+    <cfRule type="expression" dxfId="299" priority="691">
+      <formula>AND($A46="end group", $B46 = "", $C46 = "", $D46 = "", $E46 = "", $F46 = "", #REF! = "", #REF! = "", $I46 = "", $J46 = "", $K46 = "", $L46 = "", $M46 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I43:N45">
+    <cfRule type="expression" dxfId="298" priority="693">
+      <formula>AND($A43="end group", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G44 = "", $H44 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A46:F46 I46:N46">
+    <cfRule type="expression" dxfId="297" priority="705">
+      <formula>AND($A46="end repeat", $B46 = "", $C46 = "", $D46 = "", $E46 = "", $F46 = "", #REF! = "", #REF! = "", $I46 = "", $J46 = "", $K46 = "", $L46 = "", $M46 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I43:N45">
+    <cfRule type="expression" dxfId="296" priority="707">
+      <formula>AND($A43="end repeat", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G44 = "", $H44 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G44:G46">
+    <cfRule type="expression" dxfId="295" priority="314">
+      <formula>AND($A44="begin group", NOT($B44 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G44:G46">
+    <cfRule type="expression" dxfId="294" priority="315">
+      <formula>AND($A44="end group", $B44 = "", $C44 = "", $D44 = "", $E44 = "", $F44 = "", $G44 = "", $H44 = "", $I44 = "", $J44 = "", $K44 = "", $L44 = "", $M44 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G44:G46">
+    <cfRule type="expression" dxfId="293" priority="316">
+      <formula>AND($A44="begin repeat", NOT($B44 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G44:G46">
+    <cfRule type="expression" dxfId="292" priority="317">
+      <formula>AND($A44="end repeat", $B44 = "", $C44 = "", $D44 = "", $E44 = "", $F44 = "", $G44 = "", $H44 = "", $I44 = "", $J44 = "", $K44 = "", $L44 = "", $M44 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G44:G46">
+    <cfRule type="containsText" dxfId="291" priority="318" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G44:G46">
+    <cfRule type="cellIs" dxfId="290" priority="319" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H44:H46">
+    <cfRule type="expression" dxfId="289" priority="307">
+      <formula>AND($A44="begin group", NOT($B44 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H44:H46">
+    <cfRule type="expression" dxfId="288" priority="308">
+      <formula>AND($A44="end group", $B44 = "", $C44 = "", $D44 = "", $E44 = "", $F44 = "", $G44 = "", $H44 = "", $I44 = "", $J44 = "", $K44 = "", $L44 = "", $M44 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H44:H46">
+    <cfRule type="expression" dxfId="287" priority="309">
+      <formula>AND(NOT($G44 = ""), $H44 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H44:H46">
+    <cfRule type="expression" dxfId="286" priority="310">
+      <formula>AND($A44="begin repeat", NOT($B44 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H44:H46">
+    <cfRule type="expression" dxfId="285" priority="311">
+      <formula>AND($A44="end repeat", $B44 = "", $C44 = "", $D44 = "", $E44 = "", $F44 = "", $G44 = "", $H44 = "", $I44 = "", $J44 = "", $K44 = "", $L44 = "", $M44 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H44:H46">
+    <cfRule type="containsText" dxfId="284" priority="312" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H44:H46">
+    <cfRule type="cellIs" dxfId="283" priority="313" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="expression" dxfId="282" priority="852">
+      <formula>AND($A27="begin group", NOT($B27 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="expression" dxfId="281" priority="854">
+      <formula>AND($A27="end group", $B27 = "", $C29 = "", $D27 = "", $E27 = "", $F27 = "", $G27 = "", $H27 = "", $I27 = "", $J27 = "", $K27 = "", $L27 = "", $M27 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="expression" dxfId="280" priority="864">
+      <formula>AND(AND(NOT($A27 = "end group"), NOT($A27 = "end repeat"), NOT($A27 = "")), $C29 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="expression" dxfId="279" priority="866">
+      <formula>AND($A27="begin repeat", NOT($B27 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="expression" dxfId="278" priority="868">
+      <formula>AND($A27="end repeat", $B27 = "", $C29 = "", $D27 = "", $E27 = "", $F27 = "", $G27 = "", $H27 = "", $I27 = "", $J27 = "", $K27 = "", $L27 = "", $M27 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="expression" dxfId="277" priority="879">
+      <formula>AND($C29 = "", $A27 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="expression" dxfId="276" priority="881">
+      <formula>AND($A27="end repeat", $B27 = "", $C29 = "", $D27 = "", $E27 = "", $F27 = "", $G27 = "", $H27 = "", $C29 = "", $J27 = "", $K27 = "", $L27 = "", $M27 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="expression" dxfId="275" priority="883">
+      <formula>AND($A27="end group", $B27 = "", $C29 = "", $D27 = "", $E27 = "", $F27 = "", $G27 = "", $H27 = "", $C29 = "", $J27 = "", $K27 = "", $L27 = "", $M27 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34">
+    <cfRule type="expression" dxfId="274" priority="1127">
+      <formula>AND($A29="begin group", NOT($B29 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34">
+    <cfRule type="expression" dxfId="273" priority="1129">
+      <formula>AND($A29="end group", $B29 = "", $C34 = "", $D29 = "", $E29 = "", $F29 = "", $G29 = "", $H29 = "", $I29 = "", $J29 = "", $K29 = "", $L29 = "", $M29 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34">
+    <cfRule type="expression" dxfId="272" priority="1131">
+      <formula>AND(AND(NOT($A29 = "end group"), NOT($A29 = "end repeat"), NOT($A29 = "")), $C34 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34">
+    <cfRule type="expression" dxfId="271" priority="1133">
+      <formula>AND($A29="begin repeat", NOT($B29 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34">
+    <cfRule type="expression" dxfId="270" priority="1135">
+      <formula>AND($A29="end repeat", $B29 = "", $C34 = "", $D29 = "", $E29 = "", $F29 = "", $G29 = "", $H29 = "", $I29 = "", $J29 = "", $K29 = "", $L29 = "", $M29 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34">
+    <cfRule type="expression" dxfId="269" priority="1137">
+      <formula>AND($C34 = "", $A29 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34">
+    <cfRule type="expression" dxfId="268" priority="1139">
+      <formula>AND($A29="end repeat", $B29 = "", $C34 = "", $D29 = "", $E29 = "", $F29 = "", $G29 = "", $H29 = "", $C34 = "", $J29 = "", $K29 = "", $L29 = "", $M29 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34">
+    <cfRule type="expression" dxfId="267" priority="1141">
+      <formula>AND($A29="end group", $B29 = "", $C34 = "", $D29 = "", $E29 = "", $F29 = "", $G29 = "", $H29 = "", $C34 = "", $J29 = "", $K29 = "", $L29 = "", $M29 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="expression" dxfId="266" priority="1148">
+      <formula>AND($A29="begin group", NOT($B29 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="expression" dxfId="265" priority="1154">
+      <formula>AND($A29="begin repeat", NOT($B29 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25 D25:N25">
+    <cfRule type="expression" dxfId="264" priority="1170">
+      <formula>AND($A25="begin group", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25 D25:N25">
+    <cfRule type="expression" dxfId="263" priority="1186">
+      <formula>AND($A25="begin repeat", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="expression" dxfId="262" priority="1214">
+      <formula>AND($A29="end group", $B29 = "", $C25 = "", $D29 = "", $E29 = "", $F29 = "", $G29 = "", $H29 = "", $I29 = "", $J29 = "", $K29 = "", $L29 = "", $M29 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="expression" dxfId="261" priority="1215">
+      <formula>AND(AND(NOT($A29 = "end group"), NOT($A29 = "end repeat"), NOT($A29 = "")), $C25 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="expression" dxfId="260" priority="1216">
+      <formula>AND($A29="end repeat", $B29 = "", $C25 = "", $D29 = "", $E29 = "", $F29 = "", $G29 = "", $H29 = "", $I29 = "", $J29 = "", $K29 = "", $L29 = "", $M29 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="expression" dxfId="259" priority="1217">
+      <formula>AND($C25 = "", $A29 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="expression" dxfId="258" priority="1218">
+      <formula>AND($A29="end repeat", $B29 = "", $C25 = "", $D29 = "", $E29 = "", $F29 = "", $G29 = "", $H29 = "", $C25 = "", $J29 = "", $K29 = "", $L29 = "", $M29 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="expression" dxfId="257" priority="1219">
+      <formula>AND($A29="end group", $B29 = "", $C25 = "", $D29 = "", $E29 = "", $F29 = "", $G29 = "", $H29 = "", $C25 = "", $J29 = "", $K29 = "", $L29 = "", $M29 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="cellIs" dxfId="256" priority="286" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="containsText" dxfId="255" priority="284" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="cellIs" dxfId="254" priority="285" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="expression" dxfId="253" priority="287">
+      <formula>AND($A25="begin group", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="expression" dxfId="252" priority="288">
+      <formula>AND($A25="begin repeat", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32:C32">
+    <cfRule type="containsText" dxfId="251" priority="277" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32:C32">
+    <cfRule type="cellIs" dxfId="250" priority="279" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32:C32">
+    <cfRule type="cellIs" dxfId="249" priority="278" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="expression" dxfId="248" priority="1238">
+      <formula>AND($A31="end group", $B31 = "", $C36 = "", $D31 = "", $E31 = "", $F31 = "", $G31 = "", $H31 = "", $I31 = "", $J31 = "", $K31 = "", $L31 = "", $M31 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="expression" dxfId="247" priority="1239">
+      <formula>AND($A31="end repeat", $B31 = "", $C36 = "", $D31 = "", $E31 = "", $F31 = "", $G31 = "", $H31 = "", $I31 = "", $J31 = "", $K31 = "", $L31 = "", $M31 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A34">
+    <cfRule type="expression" dxfId="246" priority="1243">
+      <formula>AND($A34="begin group", NOT($B33 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B34 D34:N34">
+    <cfRule type="expression" dxfId="245" priority="1244">
+      <formula>AND(#REF!="begin group", NOT($B34 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I33">
+    <cfRule type="expression" dxfId="244" priority="1247">
+      <formula>AND($I33 = "", $A34 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I34">
+    <cfRule type="expression" dxfId="243" priority="1248">
+      <formula>AND($I34 = "", #REF! = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B34">
+    <cfRule type="expression" dxfId="242" priority="1250">
+      <formula>AND(AND(NOT(#REF! = "end group"), NOT(#REF! = "end repeat"), NOT(#REF! = "")), $B34 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A34">
+    <cfRule type="expression" dxfId="241" priority="1254">
+      <formula>AND($A34="begin repeat", NOT($B33 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B34 D34:N34">
+    <cfRule type="expression" dxfId="240" priority="1255">
+      <formula>AND(#REF!="begin repeat", NOT($B34 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25:C25">
+    <cfRule type="expression" dxfId="239" priority="1269">
+      <formula>AND($A34="begin group", NOT($B25 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33:N33">
+    <cfRule type="expression" dxfId="238" priority="1270">
+      <formula>AND($A34="begin group", NOT($B25 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25:C25">
+    <cfRule type="expression" dxfId="237" priority="1271">
+      <formula>AND(AND(NOT($A34 = "end group"), NOT($A34 = "end repeat"), NOT($A34 = "")), $B25 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25:C25">
+    <cfRule type="expression" dxfId="236" priority="1272">
+      <formula>AND($A34="begin repeat", NOT($B25 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33:N33">
+    <cfRule type="expression" dxfId="235" priority="1273">
+      <formula>AND($A34="begin repeat", NOT($B25 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A34:C34">
+    <cfRule type="expression" dxfId="234" priority="272">
+      <formula>AND($A34="begin group", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A34:C34">
+    <cfRule type="expression" dxfId="233" priority="273">
+      <formula>AND($A34="begin repeat", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A34">
+    <cfRule type="expression" dxfId="232" priority="270">
       <formula>AND($A34="begin group", NOT($B34 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A34:C37 F34:J37">
-    <cfRule type="expression" dxfId="350" priority="366">
-      <formula>AND($A34="end group", $B34 = "", $C34 = "", $D34 = "", $E34 = "", $F34 = "", $G34 = "", $H34 = "", $I34 = "", $J34 = "", $K34 = "", $L34 = "", $M34 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K34:K35 F34:J37 A65:J66 A34:C37 F63:F64 H63:J64 B67:D68 F67:I68">
-    <cfRule type="cellIs" dxfId="349" priority="367" operator="equal">
+  <conditionalFormatting sqref="A34">
+    <cfRule type="expression" dxfId="231" priority="271">
+      <formula>AND($A34="begin repeat", NOT($B34 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B34:C34">
+    <cfRule type="expression" dxfId="230" priority="268">
+      <formula>AND($A34="begin group", NOT($B33 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B34:C34">
+    <cfRule type="expression" dxfId="229" priority="269">
+      <formula>AND($A34="begin repeat", NOT($B33 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B34:C34">
+    <cfRule type="expression" dxfId="228" priority="266">
+      <formula>AND($A34="begin group", NOT($B34 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B34:C34">
+    <cfRule type="expression" dxfId="227" priority="267">
+      <formula>AND($A34="begin repeat", NOT($B34 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C35">
+    <cfRule type="expression" dxfId="226" priority="1291">
+      <formula>AND($A35="end repeat", $B35 = "", $C35 = "", $D35 = "", $E34 = "", $F35 = "", $G35 = "", $H35 = "", $C35 = "", $J35 = "", $K35 = "", $L35 = "", $M35 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C35">
+    <cfRule type="expression" dxfId="225" priority="1293">
+      <formula>AND($A35="end group", $B35 = "", $C35 = "", $D35 = "", $E34 = "", $F35 = "", $G35 = "", $H35 = "", $C35 = "", $J35 = "", $K35 = "", $L35 = "", $M35 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A64:B65 F64:J65">
+    <cfRule type="expression" dxfId="224" priority="1328">
+      <formula>AND($A64="end group", $B64 = "", #REF! = "", $D64 = "", $E64 = "", $F64 = "", $G64 = "", $H64 = "", $I64 = "", $J64 = "", $K64 = "", $L64 = "", $M64 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C65">
+    <cfRule type="expression" dxfId="223" priority="1353">
+      <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C65">
+    <cfRule type="expression" dxfId="222" priority="1354">
+      <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C65">
+    <cfRule type="expression" dxfId="221" priority="1368">
+      <formula>AND(AND(NOT(#REF! = "end group"), NOT(#REF! = "end repeat"), NOT(#REF! = "")), $C65 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C65">
+    <cfRule type="expression" dxfId="220" priority="1369">
+      <formula>AND(#REF!="end repeat", #REF! = "", $C65 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C65">
+    <cfRule type="expression" dxfId="219" priority="1370">
+      <formula>AND(#REF!="end group", #REF! = "", $C65 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64:E65">
+    <cfRule type="containsText" dxfId="218" priority="260" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64:E65">
+    <cfRule type="cellIs" dxfId="217" priority="261" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I39">
-    <cfRule type="expression" dxfId="348" priority="370">
-      <formula>AND(AND(NOT($A39 = "end group"), NOT($A39 = "end repeat"), NOT($A39 = "")), $B39 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A34:C37">
-    <cfRule type="expression" dxfId="347" priority="373">
-      <formula>AND($A34="begin repeat", NOT($B34 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A34:C37 F34:J37">
-    <cfRule type="expression" dxfId="346" priority="374">
-      <formula>AND($A34="end repeat", $B34 = "", $C34 = "", $D34 = "", $E34 = "", $F34 = "", $G34 = "", $H34 = "", $I34 = "", $J34 = "", $K34 = "", $L34 = "", $M34 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="containsText" dxfId="345" priority="387" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="344" priority="388" operator="equal">
+  <conditionalFormatting sqref="K38:K39 E64:E65">
+    <cfRule type="expression" dxfId="216" priority="262">
+      <formula>AND($A40="begin repeat", NOT($B40 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K38:K39 E64:E65">
+    <cfRule type="expression" dxfId="215" priority="263">
+      <formula>AND($A40="begin group", NOT($B40 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64:E65">
+    <cfRule type="expression" dxfId="214" priority="264">
+      <formula>AND(#REF!="begin group", NOT($B64 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64:E65">
+    <cfRule type="expression" dxfId="213" priority="265">
+      <formula>AND(#REF!="begin repeat", NOT($B64 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B107:B955 A25 C25 A34:C34 B2:B13 B23:B29 B31:B32 B18:B21">
+    <cfRule type="expression" dxfId="212" priority="1385">
+      <formula>COUNTIF($B$2:$B$963,A2)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C85 C95">
+    <cfRule type="expression" dxfId="211" priority="255">
+      <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C85 C95">
+    <cfRule type="expression" dxfId="210" priority="256">
+      <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C85">
+    <cfRule type="expression" dxfId="209" priority="257">
+      <formula>AND(AND(NOT(#REF! = "end group"), NOT(#REF! = "end repeat"), NOT(#REF! = "")), $C85 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C85">
+    <cfRule type="expression" dxfId="208" priority="258">
+      <formula>AND(#REF!="end repeat", #REF! = "", $C85 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C95 C85">
+    <cfRule type="expression" dxfId="207" priority="259">
+      <formula>AND(#REF!="end group", #REF! = "", $C85 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E84:E85">
+    <cfRule type="containsText" dxfId="206" priority="247" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E84:E85">
+    <cfRule type="cellIs" dxfId="205" priority="248" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="containsText" dxfId="343" priority="395" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="expression" dxfId="342" priority="396">
-      <formula>AND($A56="begin group", NOT($B56 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="expression" dxfId="341" priority="397">
-      <formula>AND($A56="end group", $B56 = "", $C56 = "", $D56 = "", $E56 = "", $F56 = "", $G56 = "", $H56 = "", $I56 = "", $J56 = "", $K56 = "", $L56 = "", $M56 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="340" priority="398" operator="equal">
+  <conditionalFormatting sqref="E84:E85 E87">
+    <cfRule type="expression" dxfId="204" priority="251">
+      <formula>AND(#REF!="begin group", NOT($B84 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E84:E85 E87">
+    <cfRule type="expression" dxfId="203" priority="252">
+      <formula>AND(#REF!="begin repeat", NOT($B84 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C95">
+    <cfRule type="expression" dxfId="202" priority="235">
+      <formula>AND(AND(NOT(#REF! = "end group"), NOT(#REF! = "end repeat"), NOT(#REF! = "")), $C95 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C95">
+    <cfRule type="expression" dxfId="201" priority="236">
+      <formula>AND(#REF!="end repeat", #REF! = "", $C95 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E94:E95">
+    <cfRule type="containsText" dxfId="200" priority="225" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E94:E95">
+    <cfRule type="cellIs" dxfId="199" priority="226" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="expression" dxfId="339" priority="399">
-      <formula>AND($A56="begin repeat", NOT($B56 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="expression" dxfId="338" priority="400">
-      <formula>AND($A56="end repeat", $B56 = "", $C56 = "", $D56 = "", $E56 = "", $F56 = "", $G56 = "", $H56 = "", $I56 = "", $J56 = "", $K56 = "", $L56 = "", $M56 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57:E59">
-    <cfRule type="containsText" dxfId="337" priority="407" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57:E59">
-    <cfRule type="cellIs" dxfId="336" priority="410" operator="equal">
+  <conditionalFormatting sqref="E94:E95">
+    <cfRule type="expression" dxfId="198" priority="229">
+      <formula>AND(#REF!="begin group", NOT($B94 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E94:E95">
+    <cfRule type="expression" dxfId="197" priority="230">
+      <formula>AND(#REF!="begin repeat", NOT($B94 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F103:N104 F102:H102 J102:N102 F96:N101 A96:C104">
+    <cfRule type="expression" dxfId="196" priority="1457">
+      <formula>AND($A96="end group", $B96 = "", $C96 = "", #REF! = "", $D96 = "", $F96 = "", $G96 = "", $H96 = "", $I96 = "", $J96 = "", $K96 = "", $L96 = "", $M96 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F103:N104 F102:H102 J102:N102 F96:N101 A96:C104">
+    <cfRule type="expression" dxfId="195" priority="1462">
+      <formula>AND($A96="end repeat", $B96 = "", $C96 = "", #REF! = "", $D96 = "", $F96 = "", $G96 = "", $H96 = "", $I96 = "", $J96 = "", $K96 = "", $L96 = "", $M96 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D103:D104 D96:D101">
+    <cfRule type="expression" dxfId="194" priority="1468">
+      <formula>AND($D96 = "", $A96 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D103:D104 D96:D101">
+    <cfRule type="expression" dxfId="193" priority="1470">
+      <formula>AND($A96="end repeat", $B96 = "", $C96 = "", #REF! = "", $D96 = "", $F96 = "", $G96 = "", $H96 = "", $D96 = "", $J96 = "", $K96 = "", $L96 = "", $M96 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D103:D104 D96:D101">
+    <cfRule type="expression" dxfId="192" priority="1472">
+      <formula>AND($A96="end group", $B96 = "", $C96 = "", #REF! = "", $D96 = "", $F96 = "", $G96 = "", $H96 = "", $D96 = "", $J96 = "", $K96 = "", $L96 = "", $M96 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32 C29">
+    <cfRule type="expression" dxfId="191" priority="1531">
+      <formula>AND($A29="end group", $B29 = "", $C35 = "", $D29 = "", $E29 = "", $F29 = "", $G29 = "", $H29 = "", $I29 = "", $J29 = "", $K29 = "", $L29 = "", $M29 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32 C29">
+    <cfRule type="expression" dxfId="190" priority="1533">
+      <formula>AND($A29="end repeat", $B29 = "", $C35 = "", $D29 = "", $E29 = "", $F29 = "", $G29 = "", $H29 = "", $I29 = "", $J29 = "", $K29 = "", $L29 = "", $M29 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="expression" dxfId="189" priority="1573">
+      <formula>AND($A34="end group", $B25 = "", $C38 = "", $D33 = "", $E33 = "", $F33 = "", $G33 = "", $H33 = "", $I33 = "", $J33 = "", $K33 = "", $L33 = "", $M33 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="expression" dxfId="188" priority="1574">
+      <formula>AND($A34="end repeat", $B25 = "", $C38 = "", $D33 = "", $E33 = "", $F33 = "", $G33 = "", $H33 = "", $I33 = "", $J33 = "", $K33 = "", $L33 = "", $M33 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A34:C34">
+    <cfRule type="expression" dxfId="187" priority="1575">
+      <formula>AND($A44="begin group", NOT($B34 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A34:C34">
+    <cfRule type="expression" dxfId="186" priority="1576">
+      <formula>AND(AND(NOT($A44 = "end group"), NOT($A44 = "end repeat"), NOT($A44 = "")), $B34 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A34:C34">
+    <cfRule type="expression" dxfId="185" priority="1577">
+      <formula>AND($A44="begin repeat", NOT($B34 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34">
+    <cfRule type="expression" dxfId="184" priority="1580">
+      <formula>AND(#REF!="end group", $B34 = "", $C38 = "", $D34 = "", #REF! = "", $F34 = "", $G34 = "", $H34 = "", $I34 = "", $J34 = "", $K34 = "", $L34 = "", $M34 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34">
+    <cfRule type="expression" dxfId="183" priority="1581">
+      <formula>AND(#REF!="end repeat", $B34 = "", $C38 = "", $D34 = "", #REF! = "", $F34 = "", $G34 = "", $H34 = "", $I34 = "", $J34 = "", $K34 = "", $L34 = "", $M34 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F95:N95 A95:B95 D95 D65 F85:N85 A85:B85 D85">
+    <cfRule type="expression" dxfId="182" priority="1595">
+      <formula>AND($A65="end group", $B65 = "", #REF! = "", $D65 = "", $E65 = "", $F65 = "", $G65 = "", $H65 = "", $I65 = "", $J65 = "", $K65 = "", $L65 = "", $M65 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F94:N94 A94:B94 D94 D64 F84:N84 A84:B84 D84">
+    <cfRule type="expression" dxfId="181" priority="1596">
+      <formula>AND($A64="end group", $B64 = "", $C65 = "", $D64 = "", $E64 = "", $F64 = "", $G64 = "", $H64 = "", $I64 = "", $J64 = "", $K64 = "", $L64 = "", $M64 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F94:N94 A94:B94 D94 F84:N84 A84:B84 D84">
+    <cfRule type="expression" dxfId="180" priority="1599">
+      <formula>AND($A84="end repeat", $B84 = "", $C85 = "", $D84 = "", $E84 = "", $F84 = "", $G84 = "", $H84 = "", $I84 = "", $J84 = "", $K84 = "", $L84 = "", $M84 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F95:N95 A95:B95 D95 F85:N85 A85:B85 D85">
+    <cfRule type="expression" dxfId="179" priority="1600">
+      <formula>AND($A85="end repeat", $B85 = "", #REF! = "", $D85 = "", $E85 = "", $F85 = "", $G85 = "", $H85 = "", $I85 = "", $J85 = "", $K85 = "", $L85 = "", $M85 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
+    <cfRule type="expression" dxfId="178" priority="217">
+      <formula>AND(AND(NOT($A23 = "end group"), NOT($A23 = "end repeat"), NOT($A23 = "")), $C23 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23">
+    <cfRule type="expression" dxfId="177" priority="218">
+      <formula>AND(AND(NOT($A23 = "end group"), NOT($A23 = "end repeat"), NOT($A23 = "")), $B23 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23">
+    <cfRule type="cellIs" dxfId="176" priority="219" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H23">
+    <cfRule type="expression" dxfId="175" priority="220">
+      <formula>AND(NOT($G23 = ""), $H23 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I24">
+    <cfRule type="expression" dxfId="174" priority="1607">
+      <formula>AND($A23="begin group", NOT($B23 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I24">
+    <cfRule type="expression" dxfId="173" priority="1610">
+      <formula>AND($I24 = "", $A23 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I24">
+    <cfRule type="expression" dxfId="172" priority="1612">
+      <formula>AND($A23="begin repeat", NOT($B23 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18:H18 J18:N18">
+    <cfRule type="containsText" dxfId="171" priority="209" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18:H18 J18:N18">
+    <cfRule type="expression" dxfId="170" priority="210">
+      <formula>AND($A18="begin group", NOT($B18 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18:H18 J18:N18">
+    <cfRule type="cellIs" dxfId="169" priority="211" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E62">
-    <cfRule type="containsText" dxfId="335" priority="417" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E62">
-    <cfRule type="cellIs" dxfId="334" priority="418" operator="equal">
+  <conditionalFormatting sqref="A18:H18 J18:N18">
+    <cfRule type="expression" dxfId="168" priority="212">
+      <formula>AND($A18="begin repeat", NOT($B18 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18">
+    <cfRule type="expression" dxfId="167" priority="204">
+      <formula>AND(AND(NOT($A18 = "end group"), NOT($A18 = "end repeat"), NOT($A18 = "")), $C18 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18">
+    <cfRule type="expression" dxfId="166" priority="205">
+      <formula>AND(AND(NOT($A18 = "end group"), NOT($A18 = "end repeat"), NOT($A18 = "")), $B18 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18">
+    <cfRule type="cellIs" dxfId="165" priority="206" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18">
+    <cfRule type="expression" dxfId="164" priority="207">
+      <formula>AND(NOT($G18 = ""), $H18 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19:H19 J19:N19">
+    <cfRule type="containsText" dxfId="163" priority="200" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19:H19 J19:N19">
+    <cfRule type="expression" dxfId="162" priority="201">
+      <formula>AND($A19="begin group", NOT($B19 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19:H19 J19:N19">
+    <cfRule type="cellIs" dxfId="161" priority="202" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E63">
-    <cfRule type="containsText" dxfId="333" priority="421" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="332" priority="424" operator="equal">
+  <conditionalFormatting sqref="A19:H19 J19:N19">
+    <cfRule type="expression" dxfId="160" priority="203">
+      <formula>AND($A19="begin repeat", NOT($B19 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="expression" dxfId="159" priority="195">
+      <formula>AND(AND(NOT($A19 = "end group"), NOT($A19 = "end repeat"), NOT($A19 = "")), $C19 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19">
+    <cfRule type="expression" dxfId="158" priority="196">
+      <formula>AND(AND(NOT($A19 = "end group"), NOT($A19 = "end repeat"), NOT($A19 = "")), $B19 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19">
+    <cfRule type="cellIs" dxfId="157" priority="197" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H19">
+    <cfRule type="expression" dxfId="156" priority="198">
+      <formula>AND(NOT($G19 = ""), $H19 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20:H20 J20:N20">
+    <cfRule type="containsText" dxfId="155" priority="191" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20:H20 J20:N20">
+    <cfRule type="expression" dxfId="154" priority="192">
+      <formula>AND($A20="begin group", NOT($B20 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20:H20 J20:N20">
+    <cfRule type="cellIs" dxfId="153" priority="193" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
-    <cfRule type="containsText" dxfId="331" priority="427" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" dxfId="330" priority="430" operator="equal">
+  <conditionalFormatting sqref="A20:H20 J20:N20">
+    <cfRule type="expression" dxfId="152" priority="194">
+      <formula>AND($A20="begin repeat", NOT($B20 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20">
+    <cfRule type="expression" dxfId="151" priority="186">
+      <formula>AND(AND(NOT($A20 = "end group"), NOT($A20 = "end repeat"), NOT($A20 = "")), $C20 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20">
+    <cfRule type="expression" dxfId="150" priority="187">
+      <formula>AND(AND(NOT($A20 = "end group"), NOT($A20 = "end repeat"), NOT($A20 = "")), $B20 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20">
+    <cfRule type="cellIs" dxfId="149" priority="188" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20">
+    <cfRule type="expression" dxfId="148" priority="189">
+      <formula>AND(NOT($G20 = ""), $H20 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21:H21 J21:N21">
+    <cfRule type="containsText" dxfId="147" priority="182" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21:H21 J21:N21">
+    <cfRule type="cellIs" dxfId="146" priority="184" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E67:E68">
-    <cfRule type="containsText" dxfId="329" priority="445" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E67:E68">
-    <cfRule type="cellIs" dxfId="328" priority="448" operator="equal">
+  <conditionalFormatting sqref="A21">
+    <cfRule type="cellIs" dxfId="145" priority="179" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L53:N53 A53:J53">
+    <cfRule type="containsText" dxfId="144" priority="144" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A53:J53">
+    <cfRule type="expression" dxfId="143" priority="145">
+      <formula>AND($A53="begin group", NOT($B53 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A53:N53">
+    <cfRule type="expression" dxfId="142" priority="146">
+      <formula>AND($A53="end group", $B53 = "", $C53 = "", $D53 = "", $E53 = "", $F53 = "", $G53 = "", $H53 = "", $I53 = "", $J53 = "", $K53 = "", $L53 = "", $M53 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A53:J53">
+    <cfRule type="cellIs" dxfId="141" priority="147" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E69">
-    <cfRule type="containsText" dxfId="327" priority="457" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E69">
-    <cfRule type="cellIs" dxfId="326" priority="460" operator="equal">
+  <conditionalFormatting sqref="I53">
+    <cfRule type="expression" dxfId="140" priority="148">
+      <formula>AND($I53 = "", $A53 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C53">
+    <cfRule type="expression" dxfId="139" priority="149">
+      <formula>AND(AND(NOT($A53 = "end group"), NOT($A53 = "end repeat"), NOT($A53 = "")), $C53 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B53">
+    <cfRule type="expression" dxfId="138" priority="150">
+      <formula>AND(AND(NOT($A53 = "end group"), NOT($A53 = "end repeat"), NOT($A53 = "")), $B53 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A53">
+    <cfRule type="cellIs" dxfId="137" priority="151" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H53">
+    <cfRule type="expression" dxfId="136" priority="152">
+      <formula>AND(NOT($G53 = ""), $H53 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A53:J53">
+    <cfRule type="expression" dxfId="135" priority="153">
+      <formula>AND($A53="begin repeat", NOT($B53 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A53:N53">
+    <cfRule type="expression" dxfId="134" priority="154">
+      <formula>AND($A53="end repeat", $B53 = "", $C53 = "", $D53 = "", $E53 = "", $F53 = "", $G53 = "", $H53 = "", $I53 = "", $J53 = "", $K53 = "", $L53 = "", $M53 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K53">
+    <cfRule type="containsText" dxfId="133" priority="155" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K53:N53">
+    <cfRule type="expression" dxfId="132" priority="156">
+      <formula>AND($A53="begin group", NOT($B53 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K53:N53">
+    <cfRule type="cellIs" dxfId="131" priority="157" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E70">
-    <cfRule type="containsText" dxfId="325" priority="475" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="324" priority="478" operator="equal">
+  <conditionalFormatting sqref="K53:N53">
+    <cfRule type="expression" dxfId="130" priority="158">
+      <formula>AND($A53="begin repeat", NOT($B53 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L54:N54 A54:J54">
+    <cfRule type="containsText" dxfId="129" priority="128" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A54:J54">
+    <cfRule type="expression" dxfId="128" priority="129">
+      <formula>AND($A54="begin group", NOT($B54 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A54:N54">
+    <cfRule type="expression" dxfId="127" priority="130">
+      <formula>AND($A54="end group", $B54 = "", $C54 = "", $D54 = "", $E54 = "", $F54 = "", $G54 = "", $H54 = "", $I54 = "", $J54 = "", $K54 = "", $L54 = "", $M54 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A54:J54">
+    <cfRule type="cellIs" dxfId="126" priority="131" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E68">
-    <cfRule type="containsText" dxfId="323" priority="481" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E68">
-    <cfRule type="cellIs" dxfId="322" priority="484" operator="equal">
+  <conditionalFormatting sqref="I54">
+    <cfRule type="expression" dxfId="125" priority="132">
+      <formula>AND($I54 = "", $A54 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C54">
+    <cfRule type="expression" dxfId="124" priority="133">
+      <formula>AND(AND(NOT($A54 = "end group"), NOT($A54 = "end repeat"), NOT($A54 = "")), $C54 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B54">
+    <cfRule type="expression" dxfId="123" priority="134">
+      <formula>AND(AND(NOT($A54 = "end group"), NOT($A54 = "end repeat"), NOT($A54 = "")), $B54 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A54">
+    <cfRule type="cellIs" dxfId="122" priority="135" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H54">
+    <cfRule type="expression" dxfId="121" priority="136">
+      <formula>AND(NOT($G54 = ""), $H54 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A54:J54">
+    <cfRule type="expression" dxfId="120" priority="137">
+      <formula>AND($A54="begin repeat", NOT($B54 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A54:N54">
+    <cfRule type="expression" dxfId="119" priority="138">
+      <formula>AND($A54="end repeat", $B54 = "", $C54 = "", $D54 = "", $E54 = "", $F54 = "", $G54 = "", $H54 = "", $I54 = "", $J54 = "", $K54 = "", $L54 = "", $M54 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K54">
+    <cfRule type="containsText" dxfId="118" priority="139" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K54:N54">
+    <cfRule type="expression" dxfId="117" priority="140">
+      <formula>AND($A54="begin group", NOT($B54 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K54:N54">
+    <cfRule type="cellIs" dxfId="116" priority="141" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E71">
-    <cfRule type="containsText" dxfId="321" priority="487" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E71">
-    <cfRule type="cellIs" dxfId="320" priority="490" operator="equal">
+  <conditionalFormatting sqref="K54:N54">
+    <cfRule type="expression" dxfId="115" priority="142">
+      <formula>AND($A54="begin repeat", NOT($B54 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L55:N55 A55:J55">
+    <cfRule type="containsText" dxfId="114" priority="112" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A55:J55">
+    <cfRule type="expression" dxfId="113" priority="113">
+      <formula>AND($A55="begin group", NOT($B55 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A55:N55">
+    <cfRule type="expression" dxfId="112" priority="114">
+      <formula>AND($A55="end group", $B55 = "", $C55 = "", $D55 = "", $E55 = "", $F55 = "", $G55 = "", $H55 = "", $I55 = "", $J55 = "", $K55 = "", $L55 = "", $M55 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A55:J55">
+    <cfRule type="cellIs" dxfId="111" priority="115" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="containsText" dxfId="319" priority="493" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="318" priority="496" operator="equal">
+  <conditionalFormatting sqref="I55">
+    <cfRule type="expression" dxfId="110" priority="116">
+      <formula>AND($I55 = "", $A55 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C55">
+    <cfRule type="expression" dxfId="109" priority="117">
+      <formula>AND(AND(NOT($A55 = "end group"), NOT($A55 = "end repeat"), NOT($A55 = "")), $C55 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B55">
+    <cfRule type="expression" dxfId="108" priority="118">
+      <formula>AND(AND(NOT($A55 = "end group"), NOT($A55 = "end repeat"), NOT($A55 = "")), $B55 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A55">
+    <cfRule type="cellIs" dxfId="107" priority="119" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H55">
+    <cfRule type="expression" dxfId="106" priority="120">
+      <formula>AND(NOT($G55 = ""), $H55 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A55:J55">
+    <cfRule type="expression" dxfId="105" priority="121">
+      <formula>AND($A55="begin repeat", NOT($B55 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A55:N55">
+    <cfRule type="expression" dxfId="104" priority="122">
+      <formula>AND($A55="end repeat", $B55 = "", $C55 = "", $D55 = "", $E55 = "", $F55 = "", $G55 = "", $H55 = "", $I55 = "", $J55 = "", $K55 = "", $L55 = "", $M55 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K55">
+    <cfRule type="containsText" dxfId="103" priority="123" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K55:N55">
+    <cfRule type="expression" dxfId="102" priority="124">
+      <formula>AND($A55="begin group", NOT($B55 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K55:N55">
+    <cfRule type="cellIs" dxfId="101" priority="125" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E73">
-    <cfRule type="containsText" dxfId="317" priority="499" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="316" priority="502" operator="equal">
+  <conditionalFormatting sqref="K55:N55">
+    <cfRule type="expression" dxfId="100" priority="126">
+      <formula>AND($A55="begin repeat", NOT($B55 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I102">
+    <cfRule type="containsText" dxfId="99" priority="98" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I102">
+    <cfRule type="expression" dxfId="98" priority="99">
+      <formula>AND($A102="begin group", NOT($B102 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I102">
+    <cfRule type="cellIs" dxfId="97" priority="100" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E74">
-    <cfRule type="containsText" dxfId="315" priority="505" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="314" priority="508" operator="equal">
+  <conditionalFormatting sqref="I102">
+    <cfRule type="expression" dxfId="96" priority="101">
+      <formula>AND($I102 = "", $A102 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I102">
+    <cfRule type="expression" dxfId="95" priority="102">
+      <formula>AND($A102="begin repeat", NOT($B102 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I102">
+    <cfRule type="expression" dxfId="94" priority="103">
+      <formula>AND($A102="end group", $B102 = "", $C102 = "", #REF! = "", $D102 = "", $F102 = "", $G102 = "", $H102 = "", $I102 = "", $J102 = "", $K102 = "", $L102 = "", $M102 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I102">
+    <cfRule type="expression" dxfId="93" priority="104">
+      <formula>AND($A102="end repeat", $B102 = "", $C102 = "", #REF! = "", $D102 = "", $F102 = "", $G102 = "", $H102 = "", $I102 = "", $J102 = "", $K102 = "", $L102 = "", $M102 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J72">
+    <cfRule type="containsText" dxfId="92" priority="96" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J72">
+    <cfRule type="cellIs" dxfId="91" priority="97" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="containsText" dxfId="313" priority="511" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="312" priority="514" operator="equal">
+  <conditionalFormatting sqref="C31:C32">
+    <cfRule type="expression" dxfId="90" priority="1668">
+      <formula>AND($A28="begin group", NOT($B28 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31:C32">
+    <cfRule type="expression" dxfId="89" priority="1670">
+      <formula>AND($A28="end group", $B28 = "", $C31 = "", $D28 = "", $E28 = "", $F28 = "", $G28 = "", $H28 = "", $I28 = "", $J28 = "", $K28 = "", $L28 = "", $M28 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31:C32">
+    <cfRule type="expression" dxfId="88" priority="1672">
+      <formula>AND(AND(NOT($A28 = "end group"), NOT($A28 = "end repeat"), NOT($A28 = "")), $C31 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31:C32">
+    <cfRule type="expression" dxfId="87" priority="1674">
+      <formula>AND($A28="begin repeat", NOT($B28 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31:C32">
+    <cfRule type="expression" dxfId="86" priority="1676">
+      <formula>AND($A28="end repeat", $B28 = "", $C31 = "", $D28 = "", $E28 = "", $F28 = "", $G28 = "", $H28 = "", $I28 = "", $J28 = "", $K28 = "", $L28 = "", $M28 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31:C32">
+    <cfRule type="expression" dxfId="85" priority="1678">
+      <formula>AND($C31 = "", $A28 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31:C32">
+    <cfRule type="expression" dxfId="84" priority="1680">
+      <formula>AND($A28="end repeat", $B28 = "", $C31 = "", $D28 = "", $E28 = "", $F28 = "", $G28 = "", $H28 = "", $C31 = "", $J28 = "", $K28 = "", $L28 = "", $M28 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31:C32">
+    <cfRule type="expression" dxfId="83" priority="1682">
+      <formula>AND($A28="end group", $B28 = "", $C31 = "", $D28 = "", $E28 = "", $F28 = "", $G28 = "", $H28 = "", $C31 = "", $J28 = "", $K28 = "", $L28 = "", $M28 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30:N30">
+    <cfRule type="containsText" dxfId="82" priority="77" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30:B30 D30:N30">
+    <cfRule type="expression" dxfId="81" priority="78">
+      <formula>AND($A30="begin group", NOT($B30 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30:N30">
+    <cfRule type="cellIs" dxfId="80" priority="79" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A78:D79 A80:B81 D80:D81 A90:B91 D90:D91 A98:C98 C90">
-    <cfRule type="containsText" dxfId="311" priority="535" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A90:B91 D90:D91 A98:C98 C90">
-    <cfRule type="expression" dxfId="310" priority="536">
-      <formula>AND($A90="begin group", NOT($B90 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C90">
-    <cfRule type="expression" dxfId="309" priority="537">
-      <formula>AND($A90="end group", $B90 = "", $C90 = "", $D90 = "", $E90 = "", $F90 = "", $G90 = "", $H90 = "", $I90 = "", $J90 = "", $K90 = "", $L90 = "", $M90 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A78:D79 A80:B81 D80:D81 A90:B91 D90:D91 A98:C98 C90">
-    <cfRule type="cellIs" dxfId="308" priority="538" operator="equal">
+  <conditionalFormatting sqref="I30">
+    <cfRule type="expression" dxfId="79" priority="80">
+      <formula>AND($I30 = "", $A30 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30">
+    <cfRule type="expression" dxfId="78" priority="81">
+      <formula>AND(AND(NOT($A30 = "end group"), NOT($A30 = "end repeat"), NOT($A30 = "")), $B30 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30">
+    <cfRule type="cellIs" dxfId="77" priority="82" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H30">
+    <cfRule type="expression" dxfId="76" priority="83">
+      <formula>AND(NOT($G30 = ""), $H30 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30:B30 D30:N30">
+    <cfRule type="expression" dxfId="75" priority="84">
+      <formula>AND($A30="begin repeat", NOT($B30 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="expression" dxfId="74" priority="85">
+      <formula>AND($A28="end group", $B28 = "", $C30 = "", $D28 = "", $E28 = "", $F28 = "", $G28 = "", $H28 = "", $I28 = "", $J28 = "", $K28 = "", $L28 = "", $M28 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="expression" dxfId="73" priority="86">
+      <formula>AND(AND(NOT($A28 = "end group"), NOT($A28 = "end repeat"), NOT($A28 = "")), $C30 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="expression" dxfId="72" priority="87">
+      <formula>AND($A28="end repeat", $B28 = "", $C30 = "", $D28 = "", $E28 = "", $F28 = "", $G28 = "", $H28 = "", $I28 = "", $J28 = "", $K28 = "", $L28 = "", $M28 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="expression" dxfId="71" priority="88">
+      <formula>AND($C30 = "", $A28 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="expression" dxfId="70" priority="89">
+      <formula>AND($A28="end repeat", $B28 = "", $C30 = "", $D28 = "", $E28 = "", $F28 = "", $G28 = "", $H28 = "", $C30 = "", $J28 = "", $K28 = "", $L28 = "", $M28 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="expression" dxfId="69" priority="90">
+      <formula>AND($A28="end group", $B28 = "", $C30 = "", $D28 = "", $E28 = "", $F28 = "", $G28 = "", $H28 = "", $C30 = "", $J28 = "", $K28 = "", $L28 = "", $M28 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="expression" dxfId="68" priority="92">
+      <formula>AND($A30="end group", $B30 = "", $C36 = "", $D30 = "", $E30 = "", $F30 = "", $G30 = "", $H30 = "", $I30 = "", $J30 = "", $K30 = "", $L30 = "", $M30 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="expression" dxfId="67" priority="93">
+      <formula>AND($A30="end repeat", $B30 = "", $C36 = "", $D30 = "", $E30 = "", $F30 = "", $G30 = "", $H30 = "", $I30 = "", $J30 = "", $K30 = "", $L30 = "", $M30 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="expression" dxfId="66" priority="94">
+      <formula>AND($A28="begin group", NOT($B28 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="expression" dxfId="65" priority="95">
+      <formula>AND($A28="begin repeat", NOT($B28 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E94">
+    <cfRule type="expression" dxfId="64" priority="1838">
+      <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E94">
+    <cfRule type="expression" dxfId="63" priority="1840">
+      <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E84:E85">
+    <cfRule type="expression" dxfId="62" priority="1896">
+      <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E84:E85">
+    <cfRule type="expression" dxfId="61" priority="1897">
+      <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87">
+    <cfRule type="containsText" dxfId="60" priority="64" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87">
+    <cfRule type="cellIs" dxfId="59" priority="65" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A90:B91 D90:D91 A98:C98 C90">
-    <cfRule type="expression" dxfId="307" priority="544">
-      <formula>AND($A90="begin repeat", NOT($B90 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C90">
-    <cfRule type="expression" dxfId="306" priority="545">
-      <formula>AND($A90="end repeat", $B90 = "", $C90 = "", $D90 = "", $E90 = "", $F90 = "", $G90 = "", $H90 = "", $I90 = "", $J90 = "", $K90 = "", $L90 = "", $M90 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E101:E102 E88:E89 E78:E79 E82">
-    <cfRule type="expression" dxfId="305" priority="552">
-      <formula>AND($E78 = "", $A78 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E101:E102 E88:E89 E78:E79 E82">
-    <cfRule type="expression" dxfId="304" priority="553">
-      <formula>AND($A78="end repeat", $B78 = "", $C78 = "", $D78 = "", $E78 = "", $F78 = "", $G78 = "", $H78 = "", $E78 = "", $J78 = "", $K78 = "", $L78 = "", $M78 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E101:E102 E88:E89 E78:E79 E82">
-    <cfRule type="expression" dxfId="303" priority="554">
-      <formula>AND($A78="end group", $B78 = "", $C78 = "", $D78 = "", $E78 = "", $F78 = "", $G78 = "", $H78 = "", $E78 = "", $J78 = "", $K78 = "", $L78 = "", $M78 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E78:E79">
-    <cfRule type="containsText" dxfId="302" priority="555" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D34:D37">
-    <cfRule type="containsText" dxfId="301" priority="306" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D34:D37">
-    <cfRule type="expression" dxfId="300" priority="307">
-      <formula>AND($A34="begin group", NOT($B34 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D34:D37">
-    <cfRule type="expression" dxfId="299" priority="308">
-      <formula>AND($A34="end group", $B34 = "", $C34 = "", $D34 = "", $E34 = "", $F34 = "", $G34 = "", $H34 = "", $I34 = "", $J34 = "", $K34 = "", $L34 = "", $M34 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D34:D37">
-    <cfRule type="cellIs" dxfId="298" priority="309" operator="equal">
+  <conditionalFormatting sqref="E87">
+    <cfRule type="expression" dxfId="58" priority="68">
+      <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87">
+    <cfRule type="expression" dxfId="57" priority="69">
+      <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E90:E91">
+    <cfRule type="containsText" dxfId="56" priority="58" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E90:E91">
+    <cfRule type="cellIs" dxfId="55" priority="59" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34:D37">
-    <cfRule type="expression" dxfId="297" priority="310">
-      <formula>AND($A34="begin repeat", NOT($B34 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D34:D37">
-    <cfRule type="expression" dxfId="296" priority="311">
-      <formula>AND($A34="end repeat", $B34 = "", $C34 = "", $D34 = "", $E34 = "", $F34 = "", $G34 = "", $H34 = "", $I34 = "", $J34 = "", $K34 = "", $L34 = "", $M34 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34:E37">
-    <cfRule type="containsText" dxfId="295" priority="312" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34:E37">
-    <cfRule type="expression" dxfId="294" priority="313">
-      <formula>AND($A34="begin group", NOT($B34 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
-    <cfRule type="expression" dxfId="293" priority="314">
-      <formula>AND($A37="end group", $B37 = "", $C37 = "", $D37 = "", $E37 = "", $F37 = "", $G37 = "", $H37 = "", $I37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34:E37">
-    <cfRule type="cellIs" dxfId="292" priority="315" operator="equal">
+  <conditionalFormatting sqref="E90:E91">
+    <cfRule type="expression" dxfId="54" priority="60">
+      <formula>AND(#REF!="begin group", NOT($B89 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E90:E91">
+    <cfRule type="expression" dxfId="53" priority="61">
+      <formula>AND(#REF!="begin repeat", NOT($B89 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E90:E91">
+    <cfRule type="expression" dxfId="52" priority="62">
+      <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E90:E91">
+    <cfRule type="expression" dxfId="51" priority="63">
+      <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F89:N89 A89:D89">
+    <cfRule type="expression" dxfId="50" priority="1911">
+      <formula>AND($A89="end repeat", $B89 = "", $C89 = "", $D89 = "", $E90 = "", $F89 = "", $G89 = "", $H89 = "", $I89 = "", $J89 = "", $K89 = "", $L89 = "", $M89 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F90:N90 B90:D90">
+    <cfRule type="expression" dxfId="49" priority="1912">
+      <formula>AND($A90="end repeat", $B90 = "", $C90 = "", $D90 = "", #REF! = "", $F90 = "", $G90 = "", $H90 = "", $I90 = "", $J90 = "", $K90 = "", $L90 = "", $M90 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F89:N89 A89:D89">
+    <cfRule type="expression" dxfId="48" priority="1917">
+      <formula>AND($A89="end group", $B89 = "", $C89 = "", $D89 = "", $E90 = "", $F89 = "", $G89 = "", $H89 = "", $I89 = "", $J89 = "", $K89 = "", $L89 = "", $M89 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F90:N90 B90:D90">
+    <cfRule type="expression" dxfId="47" priority="1918">
+      <formula>AND($A90="end group", $B90 = "", $C90 = "", $D90 = "", #REF! = "", $F90 = "", $G90 = "", $H90 = "", $I90 = "", $J90 = "", $K90 = "", $L90 = "", $M90 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E95">
+    <cfRule type="expression" dxfId="46" priority="1942">
+      <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E95">
+    <cfRule type="expression" dxfId="45" priority="1943">
+      <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I43 B35:B52 B56 B59:B106">
+    <cfRule type="expression" dxfId="44" priority="1957">
+      <formula>COUNTIF($B$2:$B$1002,B35)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G91:N91">
+    <cfRule type="expression" dxfId="43" priority="1980">
+      <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I91">
+    <cfRule type="expression" dxfId="42" priority="1985">
+      <formula>AND($I91 = "", #REF! = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G91:N91">
+    <cfRule type="expression" dxfId="41" priority="1995">
+      <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G91:N91">
+    <cfRule type="expression" dxfId="40" priority="2012">
+      <formula>AND(#REF!="end repeat", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", $G91 = "", $H91 = "", $I91 = "", $J91 = "", $K91 = "", $L91 = "", $M91 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G91:N91">
+    <cfRule type="expression" dxfId="39" priority="2015">
+      <formula>AND(#REF!="end group", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", $G91 = "", $H91 = "", $I91 = "", $J91 = "", $K91 = "", $L91 = "", $M91 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B57:B58 B22">
+    <cfRule type="expression" dxfId="38" priority="2111">
+      <formula>COUNTIF($B$2:$B$973,B22)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F91 B91:D91">
+    <cfRule type="expression" dxfId="37" priority="2115">
+      <formula>AND($A91="end repeat", $B91 = "", $C91 = "", $D91 = "", $E91 = "", $F91 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F91 B91:D91">
+    <cfRule type="expression" dxfId="36" priority="2117">
+      <formula>AND($A91="end group", $B91 = "", $C91 = "", $D91 = "", $E91 = "", $F91 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B53:B55">
+    <cfRule type="expression" dxfId="35" priority="2130">
+      <formula>COUNTIF($B$2:$B$968,B53)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30">
+    <cfRule type="expression" dxfId="34" priority="2133">
+      <formula>COUNTIF($B$2:$B$960,B30)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17">
+    <cfRule type="expression" dxfId="33" priority="32">
+      <formula>AND($A17="end group", $B17 = "", $C17 = "", $D17 = "", $E17 = "", $F17 = "", $G17 = "", $H17 = "", $I17 = "", $J17 = "", $K17 = "", $L17 = "", $M17 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17">
+    <cfRule type="expression" dxfId="32" priority="35">
+      <formula>AND($A17="end repeat", $B17 = "", $C17 = "", $D17 = "", $E17 = "", $F17 = "", $G17 = "", $H17 = "", $I17 = "", $J17 = "", $K17 = "", $L17 = "", $M17 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="expression" dxfId="31" priority="36">
+      <formula>AND($A16="end group", $B16 = "", $C16 = "", $D16 = "", $E16 = "", $F16 = "", $G16 = "", $H16 = "", $I16 = "", $J16 = "", $K15 = "", $L16 = "", $M16 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15">
+    <cfRule type="expression" dxfId="30" priority="37">
+      <formula>AND($A15="end group", $B15 = "", $C15 = "", $D15 = "", $E15 = "", $F15 = "", $G15 = "", $H15 = "", $I15 = "", $J15 = "", #REF! = "", $L15 = "", $M15 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="expression" dxfId="29" priority="38">
+      <formula>AND($A16="end repeat", $B16 = "", $C16 = "", $D16 = "", $E16 = "", $F16 = "", $G16 = "", $H16 = "", $I16 = "", $J16 = "", $K15 = "", $L16 = "", $M16 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15">
+    <cfRule type="expression" dxfId="28" priority="39">
+      <formula>AND($A15="end repeat", $B15 = "", $C15 = "", $D15 = "", $E15 = "", $F15 = "", $G15 = "", $H15 = "", $I15 = "", $J15 = "", #REF! = "", $L15 = "", $M15 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="expression" dxfId="18" priority="2216">
+      <formula>AND(A1 = "type", COUNTIF($A$1:$A$964, "begin group") = COUNTIF($A$1:$A$964, "end group"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="expression" dxfId="17" priority="2217">
+      <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$955, "begin group") = COUNTIF($A$1:$A$964, "end group")))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14:B17">
+    <cfRule type="expression" dxfId="16" priority="2218">
+      <formula>COUNTIF($B$2:$B$987,B14)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L10:L13">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L10:L13">
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>AND($A10="begin group", NOT($B10 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L10:L13">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E34:E37">
-    <cfRule type="expression" dxfId="291" priority="316">
-      <formula>AND($A34="begin repeat", NOT($B34 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
-    <cfRule type="expression" dxfId="290" priority="317">
-      <formula>AND($A37="end repeat", $B37 = "", $C37 = "", $D37 = "", $E37 = "", $F37 = "", $G37 = "", $H37 = "", $I37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
-    <cfRule type="expression" dxfId="289" priority="318">
-      <formula>AND($A36="end group", $B36 = "", $C36 = "", $D36 = "", $E36 = "", $F36 = "", $G36 = "", $H36 = "", $I36 = "", $J36 = "", $K34 = "", $L36 = "", $M36 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34:E35">
-    <cfRule type="expression" dxfId="288" priority="319">
-      <formula>AND($A34="end group", $B34 = "", $C34 = "", $D34 = "", $E34 = "", $F34 = "", $G34 = "", $H34 = "", $I34 = "", $J34 = "", #REF! = "", $L34 = "", $M34 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
-    <cfRule type="expression" dxfId="287" priority="320">
-      <formula>AND($A36="end repeat", $B36 = "", $C36 = "", $D36 = "", $E36 = "", $F36 = "", $G36 = "", $H36 = "", $I36 = "", $J36 = "", $K34 = "", $L36 = "", $M36 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34:E35">
-    <cfRule type="expression" dxfId="286" priority="321">
-      <formula>AND($A34="end repeat", $B34 = "", $C34 = "", $D34 = "", $E34 = "", $F34 = "", $G34 = "", $H34 = "", $I34 = "", $J34 = "", #REF! = "", $L34 = "", $M34 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G63">
-    <cfRule type="containsText" dxfId="285" priority="300" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G63">
-    <cfRule type="cellIs" dxfId="284" priority="303" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G64">
-    <cfRule type="containsText" dxfId="283" priority="294" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G64">
-    <cfRule type="cellIs" dxfId="282" priority="297" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A67:A68">
-    <cfRule type="containsText" dxfId="281" priority="287" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A67:A68">
-    <cfRule type="cellIs" dxfId="280" priority="290" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A67:A68">
-    <cfRule type="cellIs" dxfId="279" priority="291" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J67:J68">
-    <cfRule type="containsText" dxfId="278" priority="281" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J67:J68">
-    <cfRule type="cellIs" dxfId="277" priority="284" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A42:F42 I42:N42">
-    <cfRule type="expression" dxfId="276" priority="652">
-      <formula>AND($A42="end group", $B42 = "", $C42 = "", $D42 = "", $E42 = "", $F42 = "", #REF! = "", #REF! = "", $I42 = "", $J42 = "", $K42 = "", $L42 = "", $M42 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I39:N41">
-    <cfRule type="expression" dxfId="275" priority="654">
-      <formula>AND($A39="end group", $B39 = "", $C39 = "", $D39 = "", $E39 = "", $F39 = "", $G40 = "", $H40 = "", $I39 = "", $J39 = "", $K39 = "", $L39 = "", $M39 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A42:F42 I42:N42">
-    <cfRule type="expression" dxfId="274" priority="666">
-      <formula>AND($A42="end repeat", $B42 = "", $C42 = "", $D42 = "", $E42 = "", $F42 = "", #REF! = "", #REF! = "", $I42 = "", $J42 = "", $K42 = "", $L42 = "", $M42 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I39:N41">
-    <cfRule type="expression" dxfId="273" priority="668">
-      <formula>AND($A39="end repeat", $B39 = "", $C39 = "", $D39 = "", $E39 = "", $F39 = "", $G40 = "", $H40 = "", $I39 = "", $J39 = "", $K39 = "", $L39 = "", $M39 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G40:G42">
-    <cfRule type="expression" dxfId="272" priority="275">
-      <formula>AND($A40="begin group", NOT($B40 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G40:G42">
-    <cfRule type="expression" dxfId="271" priority="276">
-      <formula>AND($A40="end group", $B40 = "", $C40 = "", $D40 = "", $E40 = "", $F40 = "", $G40 = "", $H40 = "", $I40 = "", $J40 = "", $K40 = "", $L40 = "", $M40 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G40:G42">
-    <cfRule type="expression" dxfId="270" priority="277">
-      <formula>AND($A40="begin repeat", NOT($B40 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G40:G42">
-    <cfRule type="expression" dxfId="269" priority="278">
-      <formula>AND($A40="end repeat", $B40 = "", $C40 = "", $D40 = "", $E40 = "", $F40 = "", $G40 = "", $H40 = "", $I40 = "", $J40 = "", $K40 = "", $L40 = "", $M40 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G40:G42">
-    <cfRule type="containsText" dxfId="268" priority="279" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G40:G42">
-    <cfRule type="cellIs" dxfId="267" priority="280" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H40:H42">
-    <cfRule type="expression" dxfId="266" priority="268">
-      <formula>AND($A40="begin group", NOT($B40 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H40:H42">
-    <cfRule type="expression" dxfId="265" priority="269">
-      <formula>AND($A40="end group", $B40 = "", $C40 = "", $D40 = "", $E40 = "", $F40 = "", $G40 = "", $H40 = "", $I40 = "", $J40 = "", $K40 = "", $L40 = "", $M40 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H40:H42">
-    <cfRule type="expression" dxfId="264" priority="270">
-      <formula>AND(NOT($G40 = ""), $H40 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H40:H42">
-    <cfRule type="expression" dxfId="263" priority="271">
-      <formula>AND($A40="begin repeat", NOT($B40 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H40:H42">
-    <cfRule type="expression" dxfId="262" priority="272">
-      <formula>AND($A40="end repeat", $B40 = "", $C40 = "", $D40 = "", $E40 = "", $F40 = "", $G40 = "", $H40 = "", $I40 = "", $J40 = "", $K40 = "", $L40 = "", $M40 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H40:H42">
-    <cfRule type="containsText" dxfId="261" priority="273" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H40:H42">
-    <cfRule type="cellIs" dxfId="260" priority="274" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="259" priority="813">
-      <formula>AND($A23="begin group", NOT($B23 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="258" priority="815">
-      <formula>AND($A23="end group", $B23 = "", $C25 = "", $D23 = "", $E23 = "", $F23 = "", $G23 = "", $H23 = "", $I23 = "", $J23 = "", $K23 = "", $L23 = "", $M23 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="257" priority="825">
-      <formula>AND(AND(NOT($A23 = "end group"), NOT($A23 = "end repeat"), NOT($A23 = "")), $C25 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="256" priority="827">
-      <formula>AND($A23="begin repeat", NOT($B23 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="255" priority="829">
-      <formula>AND($A23="end repeat", $B23 = "", $C25 = "", $D23 = "", $E23 = "", $F23 = "", $G23 = "", $H23 = "", $I23 = "", $J23 = "", $K23 = "", $L23 = "", $M23 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="254" priority="840">
-      <formula>AND($C25 = "", $A23 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="253" priority="842">
-      <formula>AND($A23="end repeat", $B23 = "", $C25 = "", $D23 = "", $E23 = "", $F23 = "", $G23 = "", $H23 = "", $C25 = "", $J23 = "", $K23 = "", $L23 = "", $M23 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="252" priority="844">
-      <formula>AND($A23="end group", $B23 = "", $C25 = "", $D23 = "", $E23 = "", $F23 = "", $G23 = "", $H23 = "", $C25 = "", $J23 = "", $K23 = "", $L23 = "", $M23 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="251" priority="1088">
-      <formula>AND($A25="begin group", NOT($B25 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="250" priority="1090">
-      <formula>AND($A25="end group", $B25 = "", $C30 = "", $D25 = "", $E25 = "", $F25 = "", $G25 = "", $H25 = "", $I25 = "", $J25 = "", $K25 = "", $L25 = "", $M25 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="249" priority="1092">
-      <formula>AND(AND(NOT($A25 = "end group"), NOT($A25 = "end repeat"), NOT($A25 = "")), $C30 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="248" priority="1094">
-      <formula>AND($A25="begin repeat", NOT($B25 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="247" priority="1096">
-      <formula>AND($A25="end repeat", $B25 = "", $C30 = "", $D25 = "", $E25 = "", $F25 = "", $G25 = "", $H25 = "", $I25 = "", $J25 = "", $K25 = "", $L25 = "", $M25 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="246" priority="1098">
-      <formula>AND($C30 = "", $A25 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="245" priority="1100">
-      <formula>AND($A25="end repeat", $B25 = "", $C30 = "", $D25 = "", $E25 = "", $F25 = "", $G25 = "", $H25 = "", $C30 = "", $J25 = "", $K25 = "", $L25 = "", $M25 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="244" priority="1102">
-      <formula>AND($A25="end group", $B25 = "", $C30 = "", $D25 = "", $E25 = "", $F25 = "", $G25 = "", $H25 = "", $C30 = "", $J25 = "", $K25 = "", $L25 = "", $M25 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
-    <cfRule type="expression" dxfId="243" priority="1109">
-      <formula>AND($A25="begin group", NOT($B25 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
-    <cfRule type="expression" dxfId="242" priority="1115">
-      <formula>AND($A25="begin repeat", NOT($B25 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A21 D21:N21">
-    <cfRule type="expression" dxfId="241" priority="1131">
-      <formula>AND($A21="begin group", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A21 D21:N21">
-    <cfRule type="expression" dxfId="240" priority="1147">
-      <formula>AND($A21="begin repeat", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
-    <cfRule type="expression" dxfId="239" priority="1175">
-      <formula>AND($A25="end group", $B25 = "", $C21 = "", $D25 = "", $E25 = "", $F25 = "", $G25 = "", $H25 = "", $I25 = "", $J25 = "", $K25 = "", $L25 = "", $M25 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
-    <cfRule type="expression" dxfId="238" priority="1176">
-      <formula>AND(AND(NOT($A25 = "end group"), NOT($A25 = "end repeat"), NOT($A25 = "")), $C21 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
-    <cfRule type="expression" dxfId="237" priority="1177">
-      <formula>AND($A25="end repeat", $B25 = "", $C21 = "", $D25 = "", $E25 = "", $F25 = "", $G25 = "", $H25 = "", $I25 = "", $J25 = "", $K25 = "", $L25 = "", $M25 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
-    <cfRule type="expression" dxfId="236" priority="1178">
-      <formula>AND($C21 = "", $A25 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
-    <cfRule type="expression" dxfId="235" priority="1179">
-      <formula>AND($A25="end repeat", $B25 = "", $C21 = "", $D25 = "", $E25 = "", $F25 = "", $G25 = "", $H25 = "", $C21 = "", $J25 = "", $K25 = "", $L25 = "", $M25 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
-    <cfRule type="expression" dxfId="234" priority="1180">
-      <formula>AND($A25="end group", $B25 = "", $C21 = "", $D25 = "", $E25 = "", $F25 = "", $G25 = "", $H25 = "", $C21 = "", $J25 = "", $K25 = "", $L25 = "", $M25 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
-    <cfRule type="cellIs" dxfId="233" priority="247" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
-    <cfRule type="containsText" dxfId="232" priority="245" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
-    <cfRule type="cellIs" dxfId="231" priority="246" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
-    <cfRule type="expression" dxfId="230" priority="248">
-      <formula>AND($A21="begin group", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
-    <cfRule type="expression" dxfId="229" priority="249">
-      <formula>AND($A21="begin repeat", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B28:C28">
-    <cfRule type="containsText" dxfId="228" priority="238" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B28:C28">
-    <cfRule type="cellIs" dxfId="227" priority="240" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B28:C28">
-    <cfRule type="cellIs" dxfId="226" priority="239" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C27">
-    <cfRule type="expression" dxfId="225" priority="1199">
-      <formula>AND($A27="end group", $B27 = "", $C32 = "", $D27 = "", $E27 = "", $F27 = "", $G27 = "", $H27 = "", $I27 = "", $J27 = "", $K27 = "", $L27 = "", $M27 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C27">
-    <cfRule type="expression" dxfId="224" priority="1200">
-      <formula>AND($A27="end repeat", $B27 = "", $C32 = "", $D27 = "", $E27 = "", $F27 = "", $G27 = "", $H27 = "", $I27 = "", $J27 = "", $K27 = "", $L27 = "", $M27 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A30">
-    <cfRule type="expression" dxfId="223" priority="1204">
-      <formula>AND($A30="begin group", NOT($B29 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B30 D30:N30">
-    <cfRule type="expression" dxfId="222" priority="1205">
-      <formula>AND(#REF!="begin group", NOT($B30 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I29">
-    <cfRule type="expression" dxfId="221" priority="1208">
-      <formula>AND($I29 = "", $A30 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I30">
-    <cfRule type="expression" dxfId="220" priority="1209">
-      <formula>AND($I30 = "", #REF! = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B30">
-    <cfRule type="expression" dxfId="219" priority="1211">
-      <formula>AND(AND(NOT(#REF! = "end group"), NOT(#REF! = "end repeat"), NOT(#REF! = "")), $B30 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A30">
-    <cfRule type="expression" dxfId="218" priority="1215">
-      <formula>AND($A30="begin repeat", NOT($B29 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B30 D30:N30">
-    <cfRule type="expression" dxfId="217" priority="1216">
-      <formula>AND(#REF!="begin repeat", NOT($B30 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A21:C21">
-    <cfRule type="expression" dxfId="216" priority="1230">
-      <formula>AND($A30="begin group", NOT($B21 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D29:N29">
-    <cfRule type="expression" dxfId="215" priority="1231">
-      <formula>AND($A30="begin group", NOT($B21 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A21:C21">
-    <cfRule type="expression" dxfId="214" priority="1232">
-      <formula>AND(AND(NOT($A30 = "end group"), NOT($A30 = "end repeat"), NOT($A30 = "")), $B21 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A21:C21">
-    <cfRule type="expression" dxfId="213" priority="1233">
-      <formula>AND($A30="begin repeat", NOT($B21 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D29:N29">
-    <cfRule type="expression" dxfId="212" priority="1234">
-      <formula>AND($A30="begin repeat", NOT($B21 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A30:C30">
-    <cfRule type="expression" dxfId="211" priority="233">
-      <formula>AND($A30="begin group", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A30:C30">
-    <cfRule type="expression" dxfId="210" priority="234">
-      <formula>AND($A30="begin repeat", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A30">
-    <cfRule type="expression" dxfId="209" priority="231">
-      <formula>AND($A30="begin group", NOT($B30 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A30">
-    <cfRule type="expression" dxfId="208" priority="232">
-      <formula>AND($A30="begin repeat", NOT($B30 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B30:C30">
-    <cfRule type="expression" dxfId="207" priority="229">
-      <formula>AND($A30="begin group", NOT($B29 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B30:C30">
-    <cfRule type="expression" dxfId="206" priority="230">
-      <formula>AND($A30="begin repeat", NOT($B29 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B30:C30">
-    <cfRule type="expression" dxfId="205" priority="227">
-      <formula>AND($A30="begin group", NOT($B30 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B30:C30">
-    <cfRule type="expression" dxfId="204" priority="228">
-      <formula>AND($A30="begin repeat", NOT($B30 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C31">
-    <cfRule type="expression" dxfId="203" priority="1252">
-      <formula>AND($A31="end repeat", $B31 = "", $C31 = "", $D31 = "", $E30 = "", $F31 = "", $G31 = "", $H31 = "", $C31 = "", $J31 = "", $K31 = "", $L31 = "", $M31 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C31">
-    <cfRule type="expression" dxfId="202" priority="1254">
-      <formula>AND($A31="end group", $B31 = "", $C31 = "", $D31 = "", $E30 = "", $F31 = "", $G31 = "", $H31 = "", $C31 = "", $J31 = "", $K31 = "", $L31 = "", $M31 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A60:B61 F60:J61">
-    <cfRule type="expression" dxfId="201" priority="1289">
-      <formula>AND($A60="end group", $B60 = "", #REF! = "", $D60 = "", $E60 = "", $F60 = "", $G60 = "", $H60 = "", $I60 = "", $J60 = "", $K60 = "", $L60 = "", $M60 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="200" priority="1314">
-      <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="199" priority="1315">
-      <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="198" priority="1329">
-      <formula>AND(AND(NOT(#REF! = "end group"), NOT(#REF! = "end repeat"), NOT(#REF! = "")), $C61 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="197" priority="1330">
-      <formula>AND(#REF!="end repeat", #REF! = "", $C61 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="196" priority="1331">
-      <formula>AND(#REF!="end group", #REF! = "", $C61 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60:E61">
-    <cfRule type="containsText" dxfId="195" priority="221" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60:E61">
-    <cfRule type="cellIs" dxfId="194" priority="222" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K34:K35 E60:E61">
-    <cfRule type="expression" dxfId="193" priority="223">
-      <formula>AND($A36="begin repeat", NOT($B36 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K34:K35 E60:E61">
-    <cfRule type="expression" dxfId="192" priority="224">
-      <formula>AND($A36="begin group", NOT($B36 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60:E61">
-    <cfRule type="expression" dxfId="191" priority="225">
-      <formula>AND(#REF!="begin group", NOT($B60 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60:E61">
-    <cfRule type="expression" dxfId="190" priority="226">
-      <formula>AND(#REF!="begin repeat", NOT($B60 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B103:B951 A21 C21 A30:C30 B2:B17 B19:B25 B27:B28">
-    <cfRule type="expression" dxfId="189" priority="1346">
-      <formula>COUNTIF($B$2:$B$959,A2)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C81 C91">
-    <cfRule type="expression" dxfId="188" priority="216">
-      <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C81 C91">
-    <cfRule type="expression" dxfId="187" priority="217">
-      <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C81">
-    <cfRule type="expression" dxfId="186" priority="218">
-      <formula>AND(AND(NOT(#REF! = "end group"), NOT(#REF! = "end repeat"), NOT(#REF! = "")), $C81 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C81">
-    <cfRule type="expression" dxfId="185" priority="219">
-      <formula>AND(#REF!="end repeat", #REF! = "", $C81 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C91 C81">
-    <cfRule type="expression" dxfId="184" priority="220">
-      <formula>AND(#REF!="end group", #REF! = "", $C81 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E80:E81">
-    <cfRule type="containsText" dxfId="183" priority="208" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E80:E81">
-    <cfRule type="cellIs" dxfId="182" priority="209" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E80:E81 E83">
-    <cfRule type="expression" dxfId="181" priority="212">
-      <formula>AND(#REF!="begin group", NOT($B80 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E80:E81 E83">
-    <cfRule type="expression" dxfId="180" priority="213">
-      <formula>AND(#REF!="begin repeat", NOT($B80 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C91">
-    <cfRule type="expression" dxfId="179" priority="196">
-      <formula>AND(AND(NOT(#REF! = "end group"), NOT(#REF! = "end repeat"), NOT(#REF! = "")), $C91 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C91">
-    <cfRule type="expression" dxfId="178" priority="197">
-      <formula>AND(#REF!="end repeat", #REF! = "", $C91 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E90:E91">
-    <cfRule type="containsText" dxfId="177" priority="186" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E90:E91">
-    <cfRule type="cellIs" dxfId="176" priority="187" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E90:E91">
-    <cfRule type="expression" dxfId="175" priority="190">
-      <formula>AND(#REF!="begin group", NOT($B90 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E90:E91">
-    <cfRule type="expression" dxfId="174" priority="191">
-      <formula>AND(#REF!="begin repeat", NOT($B90 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F99:N100 F98:H98 J98:N98 F92:N97 A92:C100">
-    <cfRule type="expression" dxfId="173" priority="1418">
-      <formula>AND($A92="end group", $B92 = "", $C92 = "", #REF! = "", $D92 = "", $F92 = "", $G92 = "", $H92 = "", $I92 = "", $J92 = "", $K92 = "", $L92 = "", $M92 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F99:N100 F98:H98 J98:N98 F92:N97 A92:C100">
-    <cfRule type="expression" dxfId="172" priority="1423">
-      <formula>AND($A92="end repeat", $B92 = "", $C92 = "", #REF! = "", $D92 = "", $F92 = "", $G92 = "", $H92 = "", $I92 = "", $J92 = "", $K92 = "", $L92 = "", $M92 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D99:D100 D92:D97">
-    <cfRule type="expression" dxfId="171" priority="1429">
-      <formula>AND($D92 = "", $A92 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D99:D100 D92:D97">
-    <cfRule type="expression" dxfId="170" priority="1431">
-      <formula>AND($A92="end repeat", $B92 = "", $C92 = "", #REF! = "", $D92 = "", $F92 = "", $G92 = "", $H92 = "", $D92 = "", $J92 = "", $K92 = "", $L92 = "", $M92 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D99:D100 D92:D97">
-    <cfRule type="expression" dxfId="169" priority="1433">
-      <formula>AND($A92="end group", $B92 = "", $C92 = "", #REF! = "", $D92 = "", $F92 = "", $G92 = "", $H92 = "", $D92 = "", $J92 = "", $K92 = "", $L92 = "", $M92 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C28 C25">
-    <cfRule type="expression" dxfId="168" priority="1492">
-      <formula>AND($A25="end group", $B25 = "", $C31 = "", $D25 = "", $E25 = "", $F25 = "", $G25 = "", $H25 = "", $I25 = "", $J25 = "", $K25 = "", $L25 = "", $M25 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C28 C25">
-    <cfRule type="expression" dxfId="167" priority="1494">
-      <formula>AND($A25="end repeat", $B25 = "", $C31 = "", $D25 = "", $E25 = "", $F25 = "", $G25 = "", $H25 = "", $I25 = "", $J25 = "", $K25 = "", $L25 = "", $M25 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
-    <cfRule type="expression" dxfId="166" priority="1534">
-      <formula>AND($A30="end group", $B21 = "", $C34 = "", $D29 = "", $E29 = "", $F29 = "", $G29 = "", $H29 = "", $I29 = "", $J29 = "", $K29 = "", $L29 = "", $M29 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
-    <cfRule type="expression" dxfId="165" priority="1535">
-      <formula>AND($A30="end repeat", $B21 = "", $C34 = "", $D29 = "", $E29 = "", $F29 = "", $G29 = "", $H29 = "", $I29 = "", $J29 = "", $K29 = "", $L29 = "", $M29 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A30:C30">
-    <cfRule type="expression" dxfId="164" priority="1536">
-      <formula>AND($A40="begin group", NOT($B30 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A30:C30">
-    <cfRule type="expression" dxfId="163" priority="1537">
-      <formula>AND(AND(NOT($A40 = "end group"), NOT($A40 = "end repeat"), NOT($A40 = "")), $B30 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A30:C30">
-    <cfRule type="expression" dxfId="162" priority="1538">
-      <formula>AND($A40="begin repeat", NOT($B30 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="161" priority="1541">
-      <formula>AND(#REF!="end group", $B30 = "", $C34 = "", $D30 = "", #REF! = "", $F30 = "", $G30 = "", $H30 = "", $I30 = "", $J30 = "", $K30 = "", $L30 = "", $M30 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="160" priority="1542">
-      <formula>AND(#REF!="end repeat", $B30 = "", $C34 = "", $D30 = "", #REF! = "", $F30 = "", $G30 = "", $H30 = "", $I30 = "", $J30 = "", $K30 = "", $L30 = "", $M30 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F91:N91 A91:B91 D91 D61 F81:N81 A81:B81 D81">
-    <cfRule type="expression" dxfId="159" priority="1556">
-      <formula>AND($A61="end group", $B61 = "", #REF! = "", $D61 = "", $E61 = "", $F61 = "", $G61 = "", $H61 = "", $I61 = "", $J61 = "", $K61 = "", $L61 = "", $M61 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F90:N90 A90:B90 D90 D60 F80:N80 A80:B80 D80">
-    <cfRule type="expression" dxfId="158" priority="1557">
-      <formula>AND($A60="end group", $B60 = "", $C61 = "", $D60 = "", $E60 = "", $F60 = "", $G60 = "", $H60 = "", $I60 = "", $J60 = "", $K60 = "", $L60 = "", $M60 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F90:N90 A90:B90 D90 F80:N80 A80:B80 D80">
-    <cfRule type="expression" dxfId="157" priority="1560">
-      <formula>AND($A80="end repeat", $B80 = "", $C81 = "", $D80 = "", $E80 = "", $F80 = "", $G80 = "", $H80 = "", $I80 = "", $J80 = "", $K80 = "", $L80 = "", $M80 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F91:N91 A91:B91 D91 F81:N81 A81:B81 D81">
-    <cfRule type="expression" dxfId="156" priority="1561">
-      <formula>AND($A81="end repeat", $B81 = "", #REF! = "", $D81 = "", $E81 = "", $F81 = "", $G81 = "", $H81 = "", $I81 = "", $J81 = "", $K81 = "", $L81 = "", $M81 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="155" priority="178">
-      <formula>AND(AND(NOT($A19 = "end group"), NOT($A19 = "end repeat"), NOT($A19 = "")), $C19 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19">
-    <cfRule type="expression" dxfId="154" priority="179">
-      <formula>AND(AND(NOT($A19 = "end group"), NOT($A19 = "end repeat"), NOT($A19 = "")), $B19 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A19">
-    <cfRule type="cellIs" dxfId="153" priority="180" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H19">
-    <cfRule type="expression" dxfId="152" priority="181">
-      <formula>AND(NOT($G19 = ""), $H19 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I20">
-    <cfRule type="expression" dxfId="151" priority="1568">
-      <formula>AND($A19="begin group", NOT($B19 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I20">
-    <cfRule type="expression" dxfId="150" priority="1571">
-      <formula>AND($I20 = "", $A19 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I20">
-    <cfRule type="expression" dxfId="149" priority="1573">
-      <formula>AND($A19="begin repeat", NOT($B19 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14:H14 J14:N14">
-    <cfRule type="containsText" dxfId="148" priority="170" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14:H14 J14:N14">
-    <cfRule type="expression" dxfId="147" priority="171">
-      <formula>AND($A14="begin group", NOT($B14 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14:H14 J14:N14">
-    <cfRule type="cellIs" dxfId="146" priority="172" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14:H14 J14:N14">
-    <cfRule type="expression" dxfId="145" priority="173">
-      <formula>AND($A14="begin repeat", NOT($B14 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="144" priority="165">
-      <formula>AND(AND(NOT($A14 = "end group"), NOT($A14 = "end repeat"), NOT($A14 = "")), $C14 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14">
-    <cfRule type="expression" dxfId="143" priority="166">
-      <formula>AND(AND(NOT($A14 = "end group"), NOT($A14 = "end repeat"), NOT($A14 = "")), $B14 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14">
-    <cfRule type="cellIs" dxfId="142" priority="167" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H14">
-    <cfRule type="expression" dxfId="141" priority="168">
-      <formula>AND(NOT($G14 = ""), $H14 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15:H15 J15:N15">
-    <cfRule type="containsText" dxfId="140" priority="161" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15:H15 J15:N15">
-    <cfRule type="expression" dxfId="139" priority="162">
-      <formula>AND($A15="begin group", NOT($B15 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15:H15 J15:N15">
-    <cfRule type="cellIs" dxfId="138" priority="163" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15:H15 J15:N15">
-    <cfRule type="expression" dxfId="137" priority="164">
-      <formula>AND($A15="begin repeat", NOT($B15 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15">
-    <cfRule type="expression" dxfId="136" priority="156">
-      <formula>AND(AND(NOT($A15 = "end group"), NOT($A15 = "end repeat"), NOT($A15 = "")), $C15 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15">
-    <cfRule type="expression" dxfId="135" priority="157">
-      <formula>AND(AND(NOT($A15 = "end group"), NOT($A15 = "end repeat"), NOT($A15 = "")), $B15 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15">
-    <cfRule type="cellIs" dxfId="134" priority="158" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
-    <cfRule type="expression" dxfId="133" priority="159">
-      <formula>AND(NOT($G15 = ""), $H15 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A16:H16 J16:N16">
-    <cfRule type="containsText" dxfId="132" priority="152" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A16:H16 J16:N16">
-    <cfRule type="expression" dxfId="131" priority="153">
-      <formula>AND($A16="begin group", NOT($B16 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A16:H16 J16:N16">
-    <cfRule type="cellIs" dxfId="130" priority="154" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A16:H16 J16:N16">
-    <cfRule type="expression" dxfId="129" priority="155">
-      <formula>AND($A16="begin repeat", NOT($B16 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="128" priority="147">
-      <formula>AND(AND(NOT($A16 = "end group"), NOT($A16 = "end repeat"), NOT($A16 = "")), $C16 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B16">
-    <cfRule type="expression" dxfId="127" priority="148">
-      <formula>AND(AND(NOT($A16 = "end group"), NOT($A16 = "end repeat"), NOT($A16 = "")), $B16 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A16">
-    <cfRule type="cellIs" dxfId="126" priority="149" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H16">
-    <cfRule type="expression" dxfId="125" priority="150">
-      <formula>AND(NOT($G16 = ""), $H16 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17:H17 J17:N17">
-    <cfRule type="containsText" dxfId="124" priority="143" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17:H17 J17:N17">
-    <cfRule type="cellIs" dxfId="123" priority="145" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17">
-    <cfRule type="cellIs" dxfId="122" priority="140" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L49:N49 A49:J49">
-    <cfRule type="containsText" dxfId="121" priority="105" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A49:J49">
-    <cfRule type="expression" dxfId="120" priority="106">
-      <formula>AND($A49="begin group", NOT($B49 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A49:N49">
-    <cfRule type="expression" dxfId="119" priority="107">
-      <formula>AND($A49="end group", $B49 = "", $C49 = "", $D49 = "", $E49 = "", $F49 = "", $G49 = "", $H49 = "", $I49 = "", $J49 = "", $K49 = "", $L49 = "", $M49 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A49:J49">
-    <cfRule type="cellIs" dxfId="118" priority="108" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I49">
-    <cfRule type="expression" dxfId="117" priority="109">
-      <formula>AND($I49 = "", $A49 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C49">
-    <cfRule type="expression" dxfId="116" priority="110">
-      <formula>AND(AND(NOT($A49 = "end group"), NOT($A49 = "end repeat"), NOT($A49 = "")), $C49 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B49">
-    <cfRule type="expression" dxfId="115" priority="111">
-      <formula>AND(AND(NOT($A49 = "end group"), NOT($A49 = "end repeat"), NOT($A49 = "")), $B49 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A49">
-    <cfRule type="cellIs" dxfId="114" priority="112" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H49">
-    <cfRule type="expression" dxfId="113" priority="113">
-      <formula>AND(NOT($G49 = ""), $H49 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A49:J49">
-    <cfRule type="expression" dxfId="112" priority="114">
-      <formula>AND($A49="begin repeat", NOT($B49 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A49:N49">
-    <cfRule type="expression" dxfId="111" priority="115">
-      <formula>AND($A49="end repeat", $B49 = "", $C49 = "", $D49 = "", $E49 = "", $F49 = "", $G49 = "", $H49 = "", $I49 = "", $J49 = "", $K49 = "", $L49 = "", $M49 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K49">
-    <cfRule type="containsText" dxfId="110" priority="116" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K49:N49">
-    <cfRule type="expression" dxfId="109" priority="117">
-      <formula>AND($A49="begin group", NOT($B49 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K49:N49">
-    <cfRule type="cellIs" dxfId="108" priority="118" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K49:N49">
-    <cfRule type="expression" dxfId="107" priority="119">
-      <formula>AND($A49="begin repeat", NOT($B49 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L50:N50 A50:J50">
-    <cfRule type="containsText" dxfId="106" priority="89" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A50:J50">
-    <cfRule type="expression" dxfId="105" priority="90">
-      <formula>AND($A50="begin group", NOT($B50 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A50:N50">
-    <cfRule type="expression" dxfId="104" priority="91">
-      <formula>AND($A50="end group", $B50 = "", $C50 = "", $D50 = "", $E50 = "", $F50 = "", $G50 = "", $H50 = "", $I50 = "", $J50 = "", $K50 = "", $L50 = "", $M50 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A50:J50">
-    <cfRule type="cellIs" dxfId="103" priority="92" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I50">
-    <cfRule type="expression" dxfId="102" priority="93">
-      <formula>AND($I50 = "", $A50 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C50">
-    <cfRule type="expression" dxfId="101" priority="94">
-      <formula>AND(AND(NOT($A50 = "end group"), NOT($A50 = "end repeat"), NOT($A50 = "")), $C50 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B50">
-    <cfRule type="expression" dxfId="100" priority="95">
-      <formula>AND(AND(NOT($A50 = "end group"), NOT($A50 = "end repeat"), NOT($A50 = "")), $B50 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A50">
-    <cfRule type="cellIs" dxfId="99" priority="96" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H50">
-    <cfRule type="expression" dxfId="98" priority="97">
-      <formula>AND(NOT($G50 = ""), $H50 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A50:J50">
-    <cfRule type="expression" dxfId="97" priority="98">
-      <formula>AND($A50="begin repeat", NOT($B50 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A50:N50">
-    <cfRule type="expression" dxfId="96" priority="99">
-      <formula>AND($A50="end repeat", $B50 = "", $C50 = "", $D50 = "", $E50 = "", $F50 = "", $G50 = "", $H50 = "", $I50 = "", $J50 = "", $K50 = "", $L50 = "", $M50 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K50">
-    <cfRule type="containsText" dxfId="95" priority="100" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K50:N50">
-    <cfRule type="expression" dxfId="94" priority="101">
-      <formula>AND($A50="begin group", NOT($B50 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K50:N50">
-    <cfRule type="cellIs" dxfId="93" priority="102" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K50:N50">
-    <cfRule type="expression" dxfId="92" priority="103">
-      <formula>AND($A50="begin repeat", NOT($B50 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L51:N51 A51:J51">
-    <cfRule type="containsText" dxfId="91" priority="73" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A51:J51">
-    <cfRule type="expression" dxfId="90" priority="74">
-      <formula>AND($A51="begin group", NOT($B51 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A51:N51">
-    <cfRule type="expression" dxfId="89" priority="75">
-      <formula>AND($A51="end group", $B51 = "", $C51 = "", $D51 = "", $E51 = "", $F51 = "", $G51 = "", $H51 = "", $I51 = "", $J51 = "", $K51 = "", $L51 = "", $M51 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A51:J51">
-    <cfRule type="cellIs" dxfId="88" priority="76" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I51">
-    <cfRule type="expression" dxfId="87" priority="77">
-      <formula>AND($I51 = "", $A51 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C51">
-    <cfRule type="expression" dxfId="86" priority="78">
-      <formula>AND(AND(NOT($A51 = "end group"), NOT($A51 = "end repeat"), NOT($A51 = "")), $C51 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B51">
-    <cfRule type="expression" dxfId="85" priority="79">
-      <formula>AND(AND(NOT($A51 = "end group"), NOT($A51 = "end repeat"), NOT($A51 = "")), $B51 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A51">
-    <cfRule type="cellIs" dxfId="84" priority="80" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H51">
-    <cfRule type="expression" dxfId="83" priority="81">
-      <formula>AND(NOT($G51 = ""), $H51 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A51:J51">
-    <cfRule type="expression" dxfId="82" priority="82">
-      <formula>AND($A51="begin repeat", NOT($B51 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A51:N51">
-    <cfRule type="expression" dxfId="81" priority="83">
-      <formula>AND($A51="end repeat", $B51 = "", $C51 = "", $D51 = "", $E51 = "", $F51 = "", $G51 = "", $H51 = "", $I51 = "", $J51 = "", $K51 = "", $L51 = "", $M51 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K51">
-    <cfRule type="containsText" dxfId="80" priority="84" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K51:N51">
-    <cfRule type="expression" dxfId="79" priority="85">
-      <formula>AND($A51="begin group", NOT($B51 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K51:N51">
-    <cfRule type="cellIs" dxfId="78" priority="86" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K51:N51">
-    <cfRule type="expression" dxfId="77" priority="87">
-      <formula>AND($A51="begin repeat", NOT($B51 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I98">
-    <cfRule type="containsText" dxfId="76" priority="59" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I98">
-    <cfRule type="expression" dxfId="75" priority="60">
-      <formula>AND($A98="begin group", NOT($B98 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I98">
-    <cfRule type="cellIs" dxfId="74" priority="61" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I98">
-    <cfRule type="expression" dxfId="73" priority="62">
-      <formula>AND($I98 = "", $A98 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I98">
-    <cfRule type="expression" dxfId="72" priority="63">
-      <formula>AND($A98="begin repeat", NOT($B98 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I98">
-    <cfRule type="expression" dxfId="71" priority="64">
-      <formula>AND($A98="end group", $B98 = "", $C98 = "", #REF! = "", $D98 = "", $F98 = "", $G98 = "", $H98 = "", $I98 = "", $J98 = "", $K98 = "", $L98 = "", $M98 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I98">
-    <cfRule type="expression" dxfId="70" priority="65">
-      <formula>AND($A98="end repeat", $B98 = "", $C98 = "", #REF! = "", $D98 = "", $F98 = "", $G98 = "", $H98 = "", $I98 = "", $J98 = "", $K98 = "", $L98 = "", $M98 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J68">
-    <cfRule type="containsText" dxfId="69" priority="57" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J68">
-    <cfRule type="cellIs" dxfId="68" priority="58" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C27:C28">
-    <cfRule type="expression" dxfId="67" priority="1629">
-      <formula>AND($A24="begin group", NOT($B24 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C27:C28">
-    <cfRule type="expression" dxfId="66" priority="1631">
-      <formula>AND($A24="end group", $B24 = "", $C27 = "", $D24 = "", $E24 = "", $F24 = "", $G24 = "", $H24 = "", $I24 = "", $J24 = "", $K24 = "", $L24 = "", $M24 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C27:C28">
-    <cfRule type="expression" dxfId="65" priority="1633">
-      <formula>AND(AND(NOT($A24 = "end group"), NOT($A24 = "end repeat"), NOT($A24 = "")), $C27 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C27:C28">
-    <cfRule type="expression" dxfId="64" priority="1635">
-      <formula>AND($A24="begin repeat", NOT($B24 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C27:C28">
-    <cfRule type="expression" dxfId="63" priority="1637">
-      <formula>AND($A24="end repeat", $B24 = "", $C27 = "", $D24 = "", $E24 = "", $F24 = "", $G24 = "", $H24 = "", $I24 = "", $J24 = "", $K24 = "", $L24 = "", $M24 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C27:C28">
-    <cfRule type="expression" dxfId="62" priority="1639">
-      <formula>AND($C27 = "", $A24 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C27:C28">
-    <cfRule type="expression" dxfId="61" priority="1641">
-      <formula>AND($A24="end repeat", $B24 = "", $C27 = "", $D24 = "", $E24 = "", $F24 = "", $G24 = "", $H24 = "", $C27 = "", $J24 = "", $K24 = "", $L24 = "", $M24 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C27:C28">
-    <cfRule type="expression" dxfId="60" priority="1643">
-      <formula>AND($A24="end group", $B24 = "", $C27 = "", $D24 = "", $E24 = "", $F24 = "", $G24 = "", $H24 = "", $C27 = "", $J24 = "", $K24 = "", $L24 = "", $M24 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A26:N26">
-    <cfRule type="containsText" dxfId="59" priority="38" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A26:B26 D26:N26">
-    <cfRule type="expression" dxfId="58" priority="39">
-      <formula>AND($A26="begin group", NOT($B26 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A26:N26">
-    <cfRule type="cellIs" dxfId="57" priority="40" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I26">
-    <cfRule type="expression" dxfId="56" priority="41">
-      <formula>AND($I26 = "", $A26 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B26">
-    <cfRule type="expression" dxfId="55" priority="42">
-      <formula>AND(AND(NOT($A26 = "end group"), NOT($A26 = "end repeat"), NOT($A26 = "")), $B26 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A26">
-    <cfRule type="cellIs" dxfId="54" priority="43" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H26">
-    <cfRule type="expression" dxfId="53" priority="44">
-      <formula>AND(NOT($G26 = ""), $H26 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A26:B26 D26:N26">
-    <cfRule type="expression" dxfId="52" priority="45">
-      <formula>AND($A26="begin repeat", NOT($B26 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26">
-    <cfRule type="expression" dxfId="51" priority="46">
-      <formula>AND($A24="end group", $B24 = "", $C26 = "", $D24 = "", $E24 = "", $F24 = "", $G24 = "", $H24 = "", $I24 = "", $J24 = "", $K24 = "", $L24 = "", $M24 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26">
-    <cfRule type="expression" dxfId="50" priority="47">
-      <formula>AND(AND(NOT($A24 = "end group"), NOT($A24 = "end repeat"), NOT($A24 = "")), $C26 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26">
-    <cfRule type="expression" dxfId="49" priority="48">
-      <formula>AND($A24="end repeat", $B24 = "", $C26 = "", $D24 = "", $E24 = "", $F24 = "", $G24 = "", $H24 = "", $I24 = "", $J24 = "", $K24 = "", $L24 = "", $M24 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26">
-    <cfRule type="expression" dxfId="48" priority="49">
-      <formula>AND($C26 = "", $A24 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26">
-    <cfRule type="expression" dxfId="47" priority="50">
-      <formula>AND($A24="end repeat", $B24 = "", $C26 = "", $D24 = "", $E24 = "", $F24 = "", $G24 = "", $H24 = "", $C26 = "", $J24 = "", $K24 = "", $L24 = "", $M24 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26">
-    <cfRule type="expression" dxfId="46" priority="51">
-      <formula>AND($A24="end group", $B24 = "", $C26 = "", $D24 = "", $E24 = "", $F24 = "", $G24 = "", $H24 = "", $C26 = "", $J24 = "", $K24 = "", $L24 = "", $M24 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26">
-    <cfRule type="expression" dxfId="45" priority="53">
-      <formula>AND($A26="end group", $B26 = "", $C32 = "", $D26 = "", $E26 = "", $F26 = "", $G26 = "", $H26 = "", $I26 = "", $J26 = "", $K26 = "", $L26 = "", $M26 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26">
-    <cfRule type="expression" dxfId="44" priority="54">
-      <formula>AND($A26="end repeat", $B26 = "", $C32 = "", $D26 = "", $E26 = "", $F26 = "", $G26 = "", $H26 = "", $I26 = "", $J26 = "", $K26 = "", $L26 = "", $M26 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26">
-    <cfRule type="expression" dxfId="43" priority="55">
-      <formula>AND($A24="begin group", NOT($B24 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26">
-    <cfRule type="expression" dxfId="42" priority="56">
-      <formula>AND($A24="begin repeat", NOT($B24 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E90">
-    <cfRule type="expression" dxfId="41" priority="1799">
-      <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E90">
-    <cfRule type="expression" dxfId="40" priority="1801">
-      <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E80:E81">
-    <cfRule type="expression" dxfId="39" priority="1857">
-      <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E80:E81">
-    <cfRule type="expression" dxfId="38" priority="1858">
-      <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
-    <cfRule type="containsText" dxfId="37" priority="25" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="36" priority="26" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
-    <cfRule type="expression" dxfId="35" priority="29">
-      <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
-    <cfRule type="expression" dxfId="34" priority="30">
-      <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E86:E87">
-    <cfRule type="containsText" dxfId="33" priority="19" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E86:E87">
-    <cfRule type="cellIs" dxfId="32" priority="20" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E86:E87">
-    <cfRule type="expression" dxfId="31" priority="21">
-      <formula>AND(#REF!="begin group", NOT($B85 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E86:E87">
-    <cfRule type="expression" dxfId="30" priority="22">
-      <formula>AND(#REF!="begin repeat", NOT($B85 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E86:E87">
-    <cfRule type="expression" dxfId="29" priority="23">
-      <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E86:E87">
-    <cfRule type="expression" dxfId="28" priority="24">
-      <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F85:N85 A85:D85">
-    <cfRule type="expression" dxfId="27" priority="1872">
-      <formula>AND($A85="end repeat", $B85 = "", $C85 = "", $D85 = "", $E86 = "", $F85 = "", $G85 = "", $H85 = "", $I85 = "", $J85 = "", $K85 = "", $L85 = "", $M85 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F86:N86 B86:D86">
-    <cfRule type="expression" dxfId="26" priority="1873">
-      <formula>AND($A86="end repeat", $B86 = "", $C86 = "", $D86 = "", #REF! = "", $F86 = "", $G86 = "", $H86 = "", $I86 = "", $J86 = "", $K86 = "", $L86 = "", $M86 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F85:N85 A85:D85">
-    <cfRule type="expression" dxfId="25" priority="1878">
-      <formula>AND($A85="end group", $B85 = "", $C85 = "", $D85 = "", $E86 = "", $F85 = "", $G85 = "", $H85 = "", $I85 = "", $J85 = "", $K85 = "", $L85 = "", $M85 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F86:N86 B86:D86">
-    <cfRule type="expression" dxfId="24" priority="1879">
-      <formula>AND($A86="end group", $B86 = "", $C86 = "", $D86 = "", #REF! = "", $F86 = "", $G86 = "", $H86 = "", $I86 = "", $J86 = "", $K86 = "", $L86 = "", $M86 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E91">
-    <cfRule type="expression" dxfId="23" priority="1903">
-      <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E91">
-    <cfRule type="expression" dxfId="22" priority="1904">
-      <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I39 B31:B48 B52 B55:B102">
-    <cfRule type="expression" dxfId="21" priority="1918">
-      <formula>COUNTIF($B$2:$B$998,B31)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G87:N87">
-    <cfRule type="expression" dxfId="20" priority="1941">
-      <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I87">
-    <cfRule type="expression" dxfId="19" priority="1946">
-      <formula>AND($I87 = "", #REF! = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G87:N87">
-    <cfRule type="expression" dxfId="18" priority="1956">
-      <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G87:N87">
-    <cfRule type="expression" dxfId="17" priority="1973">
-      <formula>AND(#REF!="end repeat", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", $G87 = "", $H87 = "", $I87 = "", $J87 = "", $K87 = "", $L87 = "", $M87 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G87:N87">
-    <cfRule type="expression" dxfId="16" priority="1976">
-      <formula>AND(#REF!="end group", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", $G87 = "", $H87 = "", $I87 = "", $J87 = "", $K87 = "", $L87 = "", $M87 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B53:B54 B18">
-    <cfRule type="expression" dxfId="15" priority="2072">
-      <formula>COUNTIF($B$2:$B$969,B18)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F87 B87:D87">
-    <cfRule type="expression" dxfId="14" priority="2076">
-      <formula>AND($A87="end repeat", $B87 = "", $C87 = "", $D87 = "", $E87 = "", $F87 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F87 B87:D87">
-    <cfRule type="expression" dxfId="13" priority="2078">
-      <formula>AND($A87="end group", $B87 = "", $C87 = "", $D87 = "", $E87 = "", $F87 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B49:B51">
-    <cfRule type="expression" dxfId="12" priority="2091">
-      <formula>COUNTIF($B$2:$B$964,B49)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="11" priority="2092">
-      <formula>AND(A1 = "type", COUNTIF($A$1:$A$960, "begin group") = COUNTIF($A$1:$A$960, "end group"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="10" priority="2093">
-      <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$951, "begin group") = COUNTIF($A$1:$A$960, "end group")))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B26">
-    <cfRule type="expression" dxfId="9" priority="2094">
-      <formula>COUNTIF($B$2:$B$956,B26)&gt;1</formula>
+  <conditionalFormatting sqref="L10:L13">
+    <cfRule type="expression" dxfId="0" priority="4">
+      <formula>AND($A10="begin repeat", NOT($B10 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="D2:D87 D88:D108" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="D2:D112" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"yes,no"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -27591,45 +27984,45 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:B3">
-    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="27" priority="2" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B3">
-    <cfRule type="expression" dxfId="7" priority="3">
+    <cfRule type="expression" dxfId="26" priority="3">
       <formula>AND($A2="begin group", NOT($B2 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B3">
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="5" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="24" priority="6">
       <formula>AND(AND(NOT($A2 = "end group"), NOT($A2 = "end repeat"), NOT($A2 = "")), $B2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="7" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B3">
-    <cfRule type="expression" dxfId="3" priority="8">
+    <cfRule type="expression" dxfId="22" priority="8">
       <formula>AND($A2="begin repeat", NOT($B2 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B3">
-    <cfRule type="expression" dxfId="2" priority="1630">
+    <cfRule type="expression" dxfId="21" priority="1630">
       <formula>AND($A2="end group", $B2 = "", $C2 = "", $F2 = "", #REF! = "", $G2 = "", #REF! = "", #REF! = "", $H2 = "", $I2 = "", $J2 = "", $K2 = "", $L2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B3">
-    <cfRule type="expression" dxfId="1" priority="1631">
+    <cfRule type="expression" dxfId="20" priority="1631">
       <formula>AND($A2="end repeat", $B2 = "", $C2 = "", $F2 = "", #REF! = "", $G2 = "", #REF! = "", #REF! = "", $H2 = "", $I2 = "", $J2 = "", $K2 = "", $L2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="expression" dxfId="0" priority="2096">
+    <cfRule type="expression" dxfId="19" priority="2096">
       <formula>COUNTIF($B$2:$B$156,B2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27642,7 +28035,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
@@ -27695,7 +28088,7 @@
       </c>
       <c r="C2" s="24">
         <f ca="1">NOW()</f>
-        <v>44998.963851504632</v>
+        <v>45000.47732766204</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>215</v>
